--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602FAE2-EA8D-4BA1-8FAC-26743EE1DD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADFDAAC-8E68-40CB-AF2B-2FB433C9964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1498,8 +1498,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1749,6 +1755,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4274,7 +4295,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4335,6 +4356,9 @@
     <xf numFmtId="0" fontId="120" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="55" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2182">
@@ -7292,10 +7316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:AB84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7432,7 +7456,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:28">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7453,7 +7477,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:18" ht="26">
+    <row r="18" spans="2:28" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7500,7 +7524,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" ht="62.5">
+    <row r="19" spans="2:28" ht="63" thickBot="1">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7535,7 +7559,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" ht="24" customHeight="1">
+    <row r="20" spans="2:28" ht="24" customHeight="1" thickBot="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7552,25 +7576,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>5</v>
+        <v>119.3617021</v>
       </c>
       <c r="H20" s="40">
-        <v>20</v>
+        <v>397.47446810000002</v>
       </c>
       <c r="I20" s="40">
-        <v>30</v>
+        <v>794.94893620000005</v>
       </c>
       <c r="J20" s="40">
-        <v>40</v>
+        <v>1216.914894</v>
       </c>
       <c r="K20" s="40">
-        <v>50</v>
+        <v>1662.1276600000001</v>
       </c>
       <c r="L20" s="40">
-        <v>60</v>
+        <v>2107.3404260000002</v>
       </c>
       <c r="M20" s="40">
-        <v>70</v>
+        <v>2553.1914889999998</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7578,8 +7602,29 @@
       <c r="O20" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V20" s="45">
+        <v>119.3617021</v>
+      </c>
+      <c r="W20" s="45">
+        <v>397.47446810000002</v>
+      </c>
+      <c r="X20" s="45">
+        <v>794.94893620000005</v>
+      </c>
+      <c r="Y20" s="45">
+        <v>1216.914894</v>
+      </c>
+      <c r="Z20" s="45">
+        <v>1662.1276600000001</v>
+      </c>
+      <c r="AA20" s="45">
+        <v>2107.3404260000002</v>
+      </c>
+      <c r="AB20" s="45">
+        <v>2553.1914889999998</v>
+      </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:28" ht="15" thickBot="1">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7596,25 +7641,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>5</v>
+        <v>53.812949639999999</v>
       </c>
       <c r="H21" s="40">
-        <v>20</v>
+        <v>179.19712229999999</v>
       </c>
       <c r="I21" s="40">
-        <v>30</v>
+        <v>358.39424459999998</v>
       </c>
       <c r="J21" s="40">
-        <v>40</v>
+        <v>548.63309349999997</v>
       </c>
       <c r="K21" s="40">
-        <v>50</v>
+        <v>749.35251800000003</v>
       </c>
       <c r="L21" s="40">
-        <v>60</v>
+        <v>950.07194240000001</v>
       </c>
       <c r="M21" s="40">
-        <v>70</v>
+        <v>1151.0791369999999</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7622,8 +7667,29 @@
       <c r="O21" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V21" s="45">
+        <v>53.812949639999999</v>
+      </c>
+      <c r="W21" s="45">
+        <v>179.19712229999999</v>
+      </c>
+      <c r="X21" s="45">
+        <v>358.39424459999998</v>
+      </c>
+      <c r="Y21" s="45">
+        <v>548.63309349999997</v>
+      </c>
+      <c r="Z21" s="45">
+        <v>749.35251800000003</v>
+      </c>
+      <c r="AA21" s="45">
+        <v>950.07194240000001</v>
+      </c>
+      <c r="AB21" s="45">
+        <v>1151.0791369999999</v>
+      </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:28" ht="15" thickBot="1">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7640,25 +7706,25 @@
         <v>1</v>
       </c>
       <c r="G22" s="41">
-        <v>5</v>
+        <v>122.5273011</v>
       </c>
       <c r="H22" s="41">
-        <v>5</v>
+        <v>408.01591259999998</v>
       </c>
       <c r="I22" s="41">
-        <v>5</v>
+        <v>816.03182530000004</v>
       </c>
       <c r="J22" s="41">
-        <v>5</v>
+        <v>1249.188768</v>
       </c>
       <c r="K22" s="41">
-        <v>5</v>
+        <v>1706.2090479999999</v>
       </c>
       <c r="L22" s="41">
-        <v>5</v>
+        <v>2163.2293289999998</v>
       </c>
       <c r="M22" s="41">
-        <v>5</v>
+        <v>2620.9048360000002</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7666,8 +7732,29 @@
       <c r="O22" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V22" s="45">
+        <v>122.5273011</v>
+      </c>
+      <c r="W22" s="45">
+        <v>408.01591259999998</v>
+      </c>
+      <c r="X22" s="45">
+        <v>816.03182530000004</v>
+      </c>
+      <c r="Y22" s="45">
+        <v>1249.188768</v>
+      </c>
+      <c r="Z22" s="45">
+        <v>1706.2090479999999</v>
+      </c>
+      <c r="AA22" s="45">
+        <v>2163.2293289999998</v>
+      </c>
+      <c r="AB22" s="45">
+        <v>2620.9048360000002</v>
+      </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:28" ht="15" thickBot="1">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7684,25 +7771,25 @@
         <v>1</v>
       </c>
       <c r="G23" s="40">
-        <v>5</v>
+        <v>6.3475899519999999</v>
       </c>
       <c r="H23" s="40">
-        <v>20</v>
+        <v>21.137474539999999</v>
       </c>
       <c r="I23" s="40">
-        <v>30</v>
+        <v>42.274949079999999</v>
       </c>
       <c r="J23" s="40">
-        <v>40</v>
+        <v>64.714867620000007</v>
       </c>
       <c r="K23" s="40">
-        <v>50</v>
+        <v>88.391038699999996</v>
       </c>
       <c r="L23" s="40">
-        <v>60</v>
+        <v>112.0672098</v>
       </c>
       <c r="M23" s="42">
-        <v>179.27</v>
+        <v>135.77732520000001</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7710,8 +7797,29 @@
       <c r="O23" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V23" s="45">
+        <v>6.3475899519999999</v>
+      </c>
+      <c r="W23" s="45">
+        <v>21.137474539999999</v>
+      </c>
+      <c r="X23" s="45">
+        <v>42.274949079999999</v>
+      </c>
+      <c r="Y23" s="45">
+        <v>64.714867620000007</v>
+      </c>
+      <c r="Z23" s="45">
+        <v>88.391038699999996</v>
+      </c>
+      <c r="AA23" s="45">
+        <v>112.0672098</v>
+      </c>
+      <c r="AB23" s="45">
+        <v>135.77732520000001</v>
+      </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:28" ht="15" thickBot="1">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7728,25 +7836,25 @@
         <v>1</v>
       </c>
       <c r="G24" s="40">
-        <v>5</v>
+        <v>149.6</v>
       </c>
       <c r="H24" s="40">
-        <v>20</v>
+        <v>498.16800000000001</v>
       </c>
       <c r="I24" s="40">
-        <v>30</v>
+        <v>996.33600000000001</v>
       </c>
       <c r="J24" s="40">
-        <v>40</v>
+        <v>1525.2</v>
       </c>
       <c r="K24" s="40">
-        <v>50</v>
+        <v>2083.1999999999998</v>
       </c>
       <c r="L24" s="40">
-        <v>60</v>
+        <v>2641.2</v>
       </c>
       <c r="M24" s="42">
-        <v>4099.24</v>
+        <v>3200</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -7754,8 +7862,29 @@
       <c r="O24" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V24" s="45">
+        <v>149.6</v>
+      </c>
+      <c r="W24" s="45">
+        <v>498.16800000000001</v>
+      </c>
+      <c r="X24" s="45">
+        <v>996.33600000000001</v>
+      </c>
+      <c r="Y24" s="45">
+        <v>1525.2</v>
+      </c>
+      <c r="Z24" s="45">
+        <v>2083.1999999999998</v>
+      </c>
+      <c r="AA24" s="45">
+        <v>2641.2</v>
+      </c>
+      <c r="AB24" s="45">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:28" ht="15" thickBot="1">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7772,25 +7901,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>5</v>
+        <v>42.25988701</v>
       </c>
       <c r="H25" s="40">
-        <v>20</v>
+        <v>140.72542369999999</v>
       </c>
       <c r="I25" s="40">
-        <v>30</v>
+        <v>281.45084750000001</v>
       </c>
       <c r="J25" s="40">
-        <v>40</v>
+        <v>430.84745759999998</v>
       </c>
       <c r="K25" s="40">
-        <v>50</v>
+        <v>588.47457629999997</v>
       </c>
       <c r="L25" s="40">
-        <v>60</v>
+        <v>746.10169489999998</v>
       </c>
       <c r="M25" s="42">
-        <v>1405.92</v>
+        <v>903.95480229999998</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7798,8 +7927,29 @@
       <c r="O25" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V25" s="45">
+        <v>42.25988701</v>
+      </c>
+      <c r="W25" s="45">
+        <v>140.72542369999999</v>
+      </c>
+      <c r="X25" s="45">
+        <v>281.45084750000001</v>
+      </c>
+      <c r="Y25" s="45">
+        <v>430.84745759999998</v>
+      </c>
+      <c r="Z25" s="45">
+        <v>588.47457629999997</v>
+      </c>
+      <c r="AA25" s="45">
+        <v>746.10169489999998</v>
+      </c>
+      <c r="AB25" s="45">
+        <v>903.95480229999998</v>
+      </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:28" ht="15" thickBot="1">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -7816,25 +7966,25 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>5</v>
+        <v>71.92307692</v>
       </c>
       <c r="H26" s="40">
-        <v>20</v>
+        <v>239.5038462</v>
       </c>
       <c r="I26" s="40">
-        <v>30</v>
+        <v>479.00769229999997</v>
       </c>
       <c r="J26" s="40">
-        <v>40</v>
+        <v>733.26923079999995</v>
       </c>
       <c r="K26" s="40">
-        <v>50</v>
+        <v>1001.538462</v>
       </c>
       <c r="L26" s="40">
-        <v>60</v>
+        <v>1269.8076920000001</v>
       </c>
       <c r="M26" s="40">
-        <v>70</v>
+        <v>1538.461538</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -7842,8 +7992,29 @@
       <c r="O26" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V26" s="45">
+        <v>71.92307692</v>
+      </c>
+      <c r="W26" s="45">
+        <v>239.5038462</v>
+      </c>
+      <c r="X26" s="45">
+        <v>479.00769229999997</v>
+      </c>
+      <c r="Y26" s="45">
+        <v>733.26923079999995</v>
+      </c>
+      <c r="Z26" s="45">
+        <v>1001.538462</v>
+      </c>
+      <c r="AA26" s="45">
+        <v>1269.8076920000001</v>
+      </c>
+      <c r="AB26" s="45">
+        <v>1538.461538</v>
+      </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:28" ht="15" thickBot="1">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -7860,25 +8031,25 @@
         <v>1</v>
       </c>
       <c r="G27" s="40">
-        <v>5</v>
+        <v>10.080862529999999</v>
       </c>
       <c r="H27" s="40">
-        <v>20</v>
+        <v>33.569272239999997</v>
       </c>
       <c r="I27" s="40">
-        <v>30</v>
+        <v>67.138544469999999</v>
       </c>
       <c r="J27" s="40">
-        <v>40</v>
+        <v>102.7762803</v>
       </c>
       <c r="K27" s="40">
-        <v>50</v>
+        <v>140.37735850000001</v>
       </c>
       <c r="L27" s="40">
-        <v>60</v>
+        <v>177.9784367</v>
       </c>
       <c r="M27" s="42">
-        <v>218.49</v>
+        <v>215.63342320000001</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -7886,8 +8057,29 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V27" s="45">
+        <v>10.080862529999999</v>
+      </c>
+      <c r="W27" s="45">
+        <v>33.569272239999997</v>
+      </c>
+      <c r="X27" s="45">
+        <v>67.138544469999999</v>
+      </c>
+      <c r="Y27" s="45">
+        <v>102.7762803</v>
+      </c>
+      <c r="Z27" s="45">
+        <v>140.37735850000001</v>
+      </c>
+      <c r="AA27" s="45">
+        <v>177.9784367</v>
+      </c>
+      <c r="AB27" s="45">
+        <v>215.63342320000001</v>
+      </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:28" ht="15" thickBot="1">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -7904,25 +8096,25 @@
         <v>1</v>
       </c>
       <c r="G28" s="40">
-        <v>5</v>
+        <v>17.261538460000001</v>
       </c>
       <c r="H28" s="40">
-        <v>20</v>
+        <v>57.480923079999997</v>
       </c>
       <c r="I28" s="40">
-        <v>30</v>
+        <v>114.9618462</v>
       </c>
       <c r="J28" s="40">
-        <v>40</v>
+        <v>175.9846154</v>
       </c>
       <c r="K28" s="40">
-        <v>50</v>
+        <v>240.3692308</v>
       </c>
       <c r="L28" s="40">
-        <v>60</v>
+        <v>304.7538462</v>
       </c>
       <c r="M28" s="42">
-        <v>408.18</v>
+        <v>369.2307692</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -7930,8 +8122,29 @@
       <c r="O28" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V28" s="45">
+        <v>17.261538460000001</v>
+      </c>
+      <c r="W28" s="45">
+        <v>57.480923079999997</v>
+      </c>
+      <c r="X28" s="45">
+        <v>114.9618462</v>
+      </c>
+      <c r="Y28" s="45">
+        <v>175.9846154</v>
+      </c>
+      <c r="Z28" s="45">
+        <v>240.3692308</v>
+      </c>
+      <c r="AA28" s="45">
+        <v>304.7538462</v>
+      </c>
+      <c r="AB28" s="45">
+        <v>369.2307692</v>
+      </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:28" ht="15" thickBot="1">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -7948,25 +8161,25 @@
         <v>1</v>
       </c>
       <c r="G29" s="40">
-        <v>5</v>
+        <v>2.8769230769999998</v>
       </c>
       <c r="H29" s="40">
-        <v>20</v>
+        <v>9.580153846</v>
       </c>
       <c r="I29" s="40">
-        <v>30</v>
+        <v>19.16030769</v>
       </c>
       <c r="J29" s="40">
-        <v>40</v>
+        <v>29.330769230000001</v>
       </c>
       <c r="K29" s="40">
-        <v>50</v>
+        <v>40.061538460000001</v>
       </c>
       <c r="L29" s="40">
-        <v>60</v>
+        <v>50.792307690000001</v>
       </c>
       <c r="M29" s="42">
-        <v>250.59</v>
+        <v>61.53846154</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -7974,8 +8187,29 @@
       <c r="O29" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V29" s="45">
+        <v>2.8769230769999998</v>
+      </c>
+      <c r="W29" s="45">
+        <v>9.580153846</v>
+      </c>
+      <c r="X29" s="45">
+        <v>19.16030769</v>
+      </c>
+      <c r="Y29" s="45">
+        <v>29.330769230000001</v>
+      </c>
+      <c r="Z29" s="45">
+        <v>40.061538460000001</v>
+      </c>
+      <c r="AA29" s="45">
+        <v>50.792307690000001</v>
+      </c>
+      <c r="AB29" s="45">
+        <v>61.53846154</v>
+      </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:28" ht="15" thickBot="1">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -7992,25 +8226,25 @@
         <v>1</v>
       </c>
       <c r="G30" s="40">
-        <v>5</v>
+        <v>8.0952380949999991</v>
       </c>
       <c r="H30" s="40">
-        <v>20</v>
+        <v>26.957142860000001</v>
       </c>
       <c r="I30" s="40">
-        <v>30</v>
+        <v>53.914285710000001</v>
       </c>
       <c r="J30" s="40">
-        <v>40</v>
+        <v>82.532467530000005</v>
       </c>
       <c r="K30" s="40">
-        <v>50</v>
+        <v>112.7272727</v>
       </c>
       <c r="L30" s="40">
-        <v>60</v>
+        <v>142.92207790000001</v>
       </c>
       <c r="M30" s="42">
-        <v>285.85000000000002</v>
+        <v>173.1601732</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8018,8 +8252,29 @@
       <c r="O30" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V30" s="45">
+        <v>8.0952380949999991</v>
+      </c>
+      <c r="W30" s="45">
+        <v>26.957142860000001</v>
+      </c>
+      <c r="X30" s="45">
+        <v>53.914285710000001</v>
+      </c>
+      <c r="Y30" s="45">
+        <v>82.532467530000005</v>
+      </c>
+      <c r="Z30" s="45">
+        <v>112.7272727</v>
+      </c>
+      <c r="AA30" s="45">
+        <v>142.92207790000001</v>
+      </c>
+      <c r="AB30" s="45">
+        <v>173.1601732</v>
+      </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:28" ht="15" thickBot="1">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8036,25 +8291,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>5</v>
+        <v>64.261168380000001</v>
       </c>
       <c r="H31" s="40">
-        <v>20</v>
+        <v>213.98969070000001</v>
       </c>
       <c r="I31" s="40">
-        <v>30</v>
+        <v>427.97938140000002</v>
       </c>
       <c r="J31" s="40">
-        <v>40</v>
+        <v>655.15463920000002</v>
       </c>
       <c r="K31" s="40">
-        <v>50</v>
+        <v>894.84536079999998</v>
       </c>
       <c r="L31" s="40">
-        <v>60</v>
+        <v>1134.5360820000001</v>
       </c>
       <c r="M31" s="40">
-        <v>70</v>
+        <v>1374.5704470000001</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8062,8 +8317,29 @@
       <c r="O31" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V31" s="45">
+        <v>64.261168380000001</v>
+      </c>
+      <c r="W31" s="45">
+        <v>213.98969070000001</v>
+      </c>
+      <c r="X31" s="45">
+        <v>427.97938140000002</v>
+      </c>
+      <c r="Y31" s="45">
+        <v>655.15463920000002</v>
+      </c>
+      <c r="Z31" s="45">
+        <v>894.84536079999998</v>
+      </c>
+      <c r="AA31" s="45">
+        <v>1134.5360820000001</v>
+      </c>
+      <c r="AB31" s="45">
+        <v>1374.5704470000001</v>
+      </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:28" ht="15" thickBot="1">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8080,25 +8356,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>5</v>
+        <v>105.64971749999999</v>
       </c>
       <c r="H32" s="40">
-        <v>20</v>
+        <v>351.81355930000001</v>
       </c>
       <c r="I32" s="40">
-        <v>30</v>
+        <v>703.62711860000002</v>
       </c>
       <c r="J32" s="40">
-        <v>40</v>
+        <v>1077.1186439999999</v>
       </c>
       <c r="K32" s="40">
-        <v>50</v>
+        <v>1471.1864410000001</v>
       </c>
       <c r="L32" s="40">
-        <v>60</v>
+        <v>1865.2542370000001</v>
       </c>
       <c r="M32" s="40">
-        <v>70</v>
+        <v>2259.8870059999999</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8106,8 +8382,29 @@
       <c r="O32" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V32" s="45">
+        <v>105.64971749999999</v>
+      </c>
+      <c r="W32" s="45">
+        <v>351.81355930000001</v>
+      </c>
+      <c r="X32" s="45">
+        <v>703.62711860000002</v>
+      </c>
+      <c r="Y32" s="45">
+        <v>1077.1186439999999</v>
+      </c>
+      <c r="Z32" s="45">
+        <v>1471.1864410000001</v>
+      </c>
+      <c r="AA32" s="45">
+        <v>1865.2542370000001</v>
+      </c>
+      <c r="AB32" s="45">
+        <v>2259.8870059999999</v>
+      </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:28" ht="15" thickBot="1">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8124,25 +8421,25 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>5</v>
+        <v>49.866666670000001</v>
       </c>
       <c r="H33" s="40">
-        <v>20</v>
+        <v>166.05600000000001</v>
       </c>
       <c r="I33" s="40">
-        <v>30</v>
+        <v>332.11200000000002</v>
       </c>
       <c r="J33" s="40">
-        <v>40</v>
+        <v>508.4</v>
       </c>
       <c r="K33" s="40">
-        <v>50</v>
+        <v>694.4</v>
       </c>
       <c r="L33" s="40">
-        <v>60</v>
+        <v>880.4</v>
       </c>
       <c r="M33" s="42">
-        <v>1183.31</v>
+        <v>1066.666667</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8150,8 +8447,29 @@
       <c r="O33" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V33" s="45">
+        <v>49.866666670000001</v>
+      </c>
+      <c r="W33" s="45">
+        <v>166.05600000000001</v>
+      </c>
+      <c r="X33" s="45">
+        <v>332.11200000000002</v>
+      </c>
+      <c r="Y33" s="45">
+        <v>508.4</v>
+      </c>
+      <c r="Z33" s="45">
+        <v>694.4</v>
+      </c>
+      <c r="AA33" s="45">
+        <v>880.4</v>
+      </c>
+      <c r="AB33" s="45">
+        <v>1066.666667</v>
+      </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:28" ht="15" thickBot="1">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8168,25 +8486,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>5</v>
+        <v>36.907894740000003</v>
       </c>
       <c r="H34" s="40">
-        <v>20</v>
+        <v>122.9032895</v>
       </c>
       <c r="I34" s="40">
-        <v>30</v>
+        <v>245.80657890000001</v>
       </c>
       <c r="J34" s="40">
-        <v>40</v>
+        <v>376.28289469999999</v>
       </c>
       <c r="K34" s="40">
-        <v>50</v>
+        <v>513.94736839999996</v>
       </c>
       <c r="L34" s="40">
-        <v>60</v>
+        <v>651.61184209999999</v>
       </c>
       <c r="M34" s="42">
-        <v>1015.24</v>
+        <v>789.47368419999998</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8194,8 +8512,29 @@
       <c r="O34" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V34" s="45">
+        <v>36.907894740000003</v>
+      </c>
+      <c r="W34" s="45">
+        <v>122.9032895</v>
+      </c>
+      <c r="X34" s="45">
+        <v>245.80657890000001</v>
+      </c>
+      <c r="Y34" s="45">
+        <v>376.28289469999999</v>
+      </c>
+      <c r="Z34" s="45">
+        <v>513.94736839999996</v>
+      </c>
+      <c r="AA34" s="45">
+        <v>651.61184209999999</v>
+      </c>
+      <c r="AB34" s="45">
+        <v>789.47368419999998</v>
+      </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:28" ht="15" thickBot="1">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8212,25 +8551,25 @@
         <v>1</v>
       </c>
       <c r="G35" s="40">
-        <v>5</v>
+        <v>110.9533333</v>
       </c>
       <c r="H35" s="40">
-        <v>20</v>
+        <v>369.47460000000001</v>
       </c>
       <c r="I35" s="40">
-        <v>30</v>
+        <v>738.94920000000002</v>
       </c>
       <c r="J35" s="40">
-        <v>40</v>
+        <v>1131.19</v>
       </c>
       <c r="K35" s="40">
-        <v>50</v>
+        <v>1545.04</v>
       </c>
       <c r="L35" s="40">
-        <v>60</v>
+        <v>1958.89</v>
       </c>
       <c r="M35" s="40">
-        <v>70</v>
+        <v>2373.333333</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8238,8 +8577,29 @@
       <c r="O35" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V35" s="45">
+        <v>110.9533333</v>
+      </c>
+      <c r="W35" s="45">
+        <v>369.47460000000001</v>
+      </c>
+      <c r="X35" s="45">
+        <v>738.94920000000002</v>
+      </c>
+      <c r="Y35" s="45">
+        <v>1131.19</v>
+      </c>
+      <c r="Z35" s="45">
+        <v>1545.04</v>
+      </c>
+      <c r="AA35" s="45">
+        <v>1958.89</v>
+      </c>
+      <c r="AB35" s="45">
+        <v>2373.333333</v>
+      </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:28" ht="15" thickBot="1">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8256,25 +8616,25 @@
         <v>1</v>
       </c>
       <c r="G36" s="40">
-        <v>5</v>
+        <v>89.047619049999994</v>
       </c>
       <c r="H36" s="40">
-        <v>20</v>
+        <v>296.52857139999998</v>
       </c>
       <c r="I36" s="40">
-        <v>30</v>
+        <v>593.05714290000003</v>
       </c>
       <c r="J36" s="40">
-        <v>40</v>
+        <v>907.85714289999999</v>
       </c>
       <c r="K36" s="40">
-        <v>50</v>
+        <v>1240</v>
       </c>
       <c r="L36" s="40">
-        <v>60</v>
+        <v>1572.142857</v>
       </c>
       <c r="M36" s="40">
-        <v>70</v>
+        <v>1904.7619050000001</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -8282,8 +8642,29 @@
       <c r="O36" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V36" s="45">
+        <v>89.047619049999994</v>
+      </c>
+      <c r="W36" s="45">
+        <v>296.52857139999998</v>
+      </c>
+      <c r="X36" s="45">
+        <v>593.05714290000003</v>
+      </c>
+      <c r="Y36" s="45">
+        <v>907.85714289999999</v>
+      </c>
+      <c r="Z36" s="45">
+        <v>1240</v>
+      </c>
+      <c r="AA36" s="45">
+        <v>1572.142857</v>
+      </c>
+      <c r="AB36" s="45">
+        <v>1904.7619050000001</v>
+      </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:28" ht="15" thickBot="1">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -8300,25 +8681,25 @@
         <v>1</v>
       </c>
       <c r="G37" s="42">
-        <v>28.67</v>
+        <v>1.335714286</v>
       </c>
       <c r="H37" s="42">
-        <v>28.67</v>
+        <v>4.4479285710000003</v>
       </c>
       <c r="I37" s="42">
-        <v>28.67</v>
+        <v>8.8958571430000006</v>
       </c>
       <c r="J37" s="42">
-        <v>28.67</v>
+        <v>13.61785714</v>
       </c>
       <c r="K37" s="42">
-        <v>28.67</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L37" s="42">
-        <v>28.67</v>
+        <v>23.582142860000001</v>
       </c>
       <c r="M37" s="42">
-        <v>28.67</v>
+        <v>28.571428569999998</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -8326,8 +8707,29 @@
       <c r="O37" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V37" s="45">
+        <v>1.335714286</v>
+      </c>
+      <c r="W37" s="45">
+        <v>4.4479285710000003</v>
+      </c>
+      <c r="X37" s="45">
+        <v>8.8958571430000006</v>
+      </c>
+      <c r="Y37" s="45">
+        <v>13.61785714</v>
+      </c>
+      <c r="Z37" s="45">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AA37" s="45">
+        <v>23.582142860000001</v>
+      </c>
+      <c r="AB37" s="45">
+        <v>28.571428569999998</v>
+      </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:28" ht="15" thickBot="1">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -8344,25 +8746,25 @@
         <v>1</v>
       </c>
       <c r="G38" s="40">
-        <v>5</v>
+        <v>43.488372089999999</v>
       </c>
       <c r="H38" s="40">
-        <v>20</v>
+        <v>144.8162791</v>
       </c>
       <c r="I38" s="40">
-        <v>30</v>
+        <v>289.63255809999998</v>
       </c>
       <c r="J38" s="40">
-        <v>40</v>
+        <v>443.37209300000001</v>
       </c>
       <c r="K38" s="40">
-        <v>50</v>
+        <v>605.58139530000005</v>
       </c>
       <c r="L38" s="40">
-        <v>60</v>
+        <v>767.79069770000001</v>
       </c>
       <c r="M38" s="40">
-        <v>70</v>
+        <v>930.23255810000001</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -8370,8 +8772,29 @@
       <c r="O38" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V38" s="45">
+        <v>43.488372089999999</v>
+      </c>
+      <c r="W38" s="45">
+        <v>144.8162791</v>
+      </c>
+      <c r="X38" s="45">
+        <v>289.63255809999998</v>
+      </c>
+      <c r="Y38" s="45">
+        <v>443.37209300000001</v>
+      </c>
+      <c r="Z38" s="45">
+        <v>605.58139530000005</v>
+      </c>
+      <c r="AA38" s="45">
+        <v>767.79069770000001</v>
+      </c>
+      <c r="AB38" s="45">
+        <v>930.23255810000001</v>
+      </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:28" ht="15" thickBot="1">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -8388,25 +8811,25 @@
         <v>1</v>
       </c>
       <c r="G39" s="40">
-        <v>5</v>
+        <v>12.89655172</v>
       </c>
       <c r="H39" s="40">
-        <v>20</v>
+        <v>42.945517240000001</v>
       </c>
       <c r="I39" s="43">
-        <v>394.41</v>
+        <v>85.891034480000002</v>
       </c>
       <c r="J39" s="43">
-        <v>394.41</v>
+        <v>131.48275860000001</v>
       </c>
       <c r="K39" s="43">
-        <v>394.41</v>
+        <v>179.58620690000001</v>
       </c>
       <c r="L39" s="43">
-        <v>394.41</v>
+        <v>227.6896552</v>
       </c>
       <c r="M39" s="43">
-        <v>394.41</v>
+        <v>275.86206900000002</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -8414,8 +8837,29 @@
       <c r="O39" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V39" s="45">
+        <v>12.89655172</v>
+      </c>
+      <c r="W39" s="45">
+        <v>42.945517240000001</v>
+      </c>
+      <c r="X39" s="45">
+        <v>85.891034480000002</v>
+      </c>
+      <c r="Y39" s="45">
+        <v>131.48275860000001</v>
+      </c>
+      <c r="Z39" s="45">
+        <v>179.58620690000001</v>
+      </c>
+      <c r="AA39" s="45">
+        <v>227.6896552</v>
+      </c>
+      <c r="AB39" s="45">
+        <v>275.86206900000002</v>
+      </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:28" ht="15" thickBot="1">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -8432,25 +8876,25 @@
         <v>1</v>
       </c>
       <c r="G40" s="40">
-        <v>5</v>
+        <v>116.875</v>
       </c>
       <c r="H40" s="40">
-        <v>20</v>
+        <v>389.19375000000002</v>
       </c>
       <c r="I40" s="40">
-        <v>30</v>
+        <v>778.38750000000005</v>
       </c>
       <c r="J40" s="40">
-        <v>40</v>
+        <v>1191.5625</v>
       </c>
       <c r="K40" s="40">
-        <v>50</v>
+        <v>1627.5</v>
       </c>
       <c r="L40" s="40">
-        <v>60</v>
+        <v>2063.4375</v>
       </c>
       <c r="M40" s="40">
-        <v>70</v>
+        <v>2500</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -8458,8 +8902,29 @@
       <c r="O40" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V40" s="45">
+        <v>116.875</v>
+      </c>
+      <c r="W40" s="45">
+        <v>389.19375000000002</v>
+      </c>
+      <c r="X40" s="45">
+        <v>778.38750000000005</v>
+      </c>
+      <c r="Y40" s="45">
+        <v>1191.5625</v>
+      </c>
+      <c r="Z40" s="45">
+        <v>1627.5</v>
+      </c>
+      <c r="AA40" s="45">
+        <v>2063.4375</v>
+      </c>
+      <c r="AB40" s="45">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:28" ht="15" thickBot="1">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -8476,25 +8941,25 @@
         <v>1</v>
       </c>
       <c r="G41" s="40">
-        <v>5</v>
+        <v>71.06</v>
       </c>
       <c r="H41" s="40">
-        <v>20</v>
+        <v>236.62979999999999</v>
       </c>
       <c r="I41" s="40">
-        <v>30</v>
+        <v>473.25959999999998</v>
       </c>
       <c r="J41" s="40">
-        <v>40</v>
+        <v>724.47</v>
       </c>
       <c r="K41" s="40">
-        <v>50</v>
+        <v>989.52</v>
       </c>
       <c r="L41" s="40">
-        <v>60</v>
+        <v>1254.57</v>
       </c>
       <c r="M41" s="40">
-        <v>70</v>
+        <v>1520</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -8502,8 +8967,29 @@
       <c r="O41" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V41" s="45">
+        <v>71.06</v>
+      </c>
+      <c r="W41" s="45">
+        <v>236.62979999999999</v>
+      </c>
+      <c r="X41" s="45">
+        <v>473.25959999999998</v>
+      </c>
+      <c r="Y41" s="45">
+        <v>724.47</v>
+      </c>
+      <c r="Z41" s="45">
+        <v>989.52</v>
+      </c>
+      <c r="AA41" s="45">
+        <v>1254.57</v>
+      </c>
+      <c r="AB41" s="45">
+        <v>1520</v>
+      </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:28" ht="15" thickBot="1">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -8520,25 +9006,25 @@
         <v>1</v>
       </c>
       <c r="G42" s="40">
-        <v>5</v>
+        <v>8.6976744190000002</v>
       </c>
       <c r="H42" s="40">
-        <v>20</v>
+        <v>28.96325581</v>
       </c>
       <c r="I42" s="42">
-        <v>346.8</v>
+        <v>57.92651163</v>
       </c>
       <c r="J42" s="42">
-        <v>346.8</v>
+        <v>88.674418599999996</v>
       </c>
       <c r="K42" s="42">
-        <v>346.8</v>
+        <v>121.1162791</v>
       </c>
       <c r="L42" s="42">
-        <v>346.8</v>
+        <v>153.55813950000001</v>
       </c>
       <c r="M42" s="42">
-        <v>346.8</v>
+        <v>186.0465116</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -8546,8 +9032,29 @@
       <c r="O42" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V42" s="45">
+        <v>8.6976744190000002</v>
+      </c>
+      <c r="W42" s="45">
+        <v>28.96325581</v>
+      </c>
+      <c r="X42" s="45">
+        <v>57.92651163</v>
+      </c>
+      <c r="Y42" s="45">
+        <v>88.674418599999996</v>
+      </c>
+      <c r="Z42" s="45">
+        <v>121.1162791</v>
+      </c>
+      <c r="AA42" s="45">
+        <v>153.55813950000001</v>
+      </c>
+      <c r="AB42" s="45">
+        <v>186.0465116</v>
+      </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:28" ht="15" thickBot="1">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -8564,25 +9071,25 @@
         <v>1</v>
       </c>
       <c r="G43" s="40">
-        <v>5</v>
+        <v>3.0505709620000001</v>
       </c>
       <c r="H43" s="40">
-        <v>20</v>
+        <v>10.15840131</v>
       </c>
       <c r="I43" s="40">
-        <v>30</v>
+        <v>20.31680261</v>
       </c>
       <c r="J43" s="42">
-        <v>130.80000000000001</v>
+        <v>31.10114192</v>
       </c>
       <c r="K43" s="42">
-        <v>130.80000000000001</v>
+        <v>42.479608480000003</v>
       </c>
       <c r="L43" s="42">
-        <v>130.80000000000001</v>
+        <v>53.858075040000003</v>
       </c>
       <c r="M43" s="42">
-        <v>130.80000000000001</v>
+        <v>65.252854810000002</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>
@@ -8590,15 +9097,36 @@
       <c r="O43" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V43" s="45">
+        <v>3.0505709620000001</v>
+      </c>
+      <c r="W43" s="45">
+        <v>10.15840131</v>
+      </c>
+      <c r="X43" s="45">
+        <v>20.31680261</v>
+      </c>
+      <c r="Y43" s="45">
+        <v>31.10114192</v>
+      </c>
+      <c r="Z43" s="45">
+        <v>42.479608480000003</v>
+      </c>
+      <c r="AA43" s="45">
+        <v>53.858075040000003</v>
+      </c>
+      <c r="AB43" s="45">
+        <v>65.252854810000002</v>
+      </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:28">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:28">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -8617,7 +9145,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:28">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADFDAAC-8E68-40CB-AF2B-2FB433C9964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2BAE62-0B72-4731-A67C-0250E3060E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,20 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1201,7 +1214,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1492,20 +1505,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1755,21 +1756,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4295,7 +4281,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4352,14 +4338,10 @@
     <xf numFmtId="0" fontId="11" fillId="53" borderId="0" xfId="1131" applyFill="1"/>
     <xf numFmtId="3" fontId="17" fillId="5" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="17" fillId="53" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="17" fillId="54" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="120" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="55" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="120" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2182">
     <cellStyle name="20 % - Akzent1 2" xfId="36" xr:uid="{49DD0F8E-2B7E-4C02-B7DD-2A9C972B592C}"/>
@@ -7316,10 +7298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB84"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="AD45" sqref="V20:AD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7456,7 +7438,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:18">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7477,7 +7459,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:28" ht="26">
+    <row r="18" spans="2:18" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7524,7 +7506,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:28" ht="63" thickBot="1">
+    <row r="19" spans="2:18" ht="62.5">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7540,11 +7522,11 @@
       <c r="F19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
@@ -7559,7 +7541,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:28" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="2:18" ht="24" customHeight="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7576,25 +7558,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>119.3617021</v>
+        <v>99.468085110000004</v>
       </c>
       <c r="H20" s="40">
-        <v>397.47446810000002</v>
+        <v>331.22872339999998</v>
       </c>
       <c r="I20" s="40">
-        <v>794.94893620000005</v>
+        <v>662.45744679999996</v>
       </c>
       <c r="J20" s="40">
-        <v>1216.914894</v>
+        <v>1014.095745</v>
       </c>
       <c r="K20" s="40">
-        <v>1662.1276600000001</v>
+        <v>1385.1063830000001</v>
       </c>
       <c r="L20" s="40">
-        <v>2107.3404260000002</v>
+        <v>1756.117021</v>
       </c>
       <c r="M20" s="40">
-        <v>2553.1914889999998</v>
+        <v>2127.6595739999998</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7602,29 +7584,8 @@
       <c r="O20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="45">
-        <v>119.3617021</v>
-      </c>
-      <c r="W20" s="45">
-        <v>397.47446810000002</v>
-      </c>
-      <c r="X20" s="45">
-        <v>794.94893620000005</v>
-      </c>
-      <c r="Y20" s="45">
-        <v>1216.914894</v>
-      </c>
-      <c r="Z20" s="45">
-        <v>1662.1276600000001</v>
-      </c>
-      <c r="AA20" s="45">
-        <v>2107.3404260000002</v>
-      </c>
-      <c r="AB20" s="45">
-        <v>2553.1914889999998</v>
-      </c>
     </row>
-    <row r="21" spans="2:28" ht="15" thickBot="1">
+    <row r="21" spans="2:18">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7641,25 +7602,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>53.812949639999999</v>
+        <v>44.844124700000002</v>
       </c>
       <c r="H21" s="40">
-        <v>179.19712229999999</v>
+        <v>149.33093529999999</v>
       </c>
       <c r="I21" s="40">
-        <v>358.39424459999998</v>
+        <v>298.66187050000002</v>
       </c>
       <c r="J21" s="40">
-        <v>548.63309349999997</v>
+        <v>457.19424459999999</v>
       </c>
       <c r="K21" s="40">
-        <v>749.35251800000003</v>
+        <v>624.46043169999996</v>
       </c>
       <c r="L21" s="40">
-        <v>950.07194240000001</v>
+        <v>791.72661870000002</v>
       </c>
       <c r="M21" s="40">
-        <v>1151.0791369999999</v>
+        <v>959.23261390000005</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7667,29 +7628,8 @@
       <c r="O21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="45">
-        <v>53.812949639999999</v>
-      </c>
-      <c r="W21" s="45">
-        <v>179.19712229999999</v>
-      </c>
-      <c r="X21" s="45">
-        <v>358.39424459999998</v>
-      </c>
-      <c r="Y21" s="45">
-        <v>548.63309349999997</v>
-      </c>
-      <c r="Z21" s="45">
-        <v>749.35251800000003</v>
-      </c>
-      <c r="AA21" s="45">
-        <v>950.07194240000001</v>
-      </c>
-      <c r="AB21" s="45">
-        <v>1151.0791369999999</v>
-      </c>
     </row>
-    <row r="22" spans="2:28" ht="15" thickBot="1">
+    <row r="22" spans="2:18">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7732,29 +7672,8 @@
       <c r="O22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V22" s="45">
-        <v>122.5273011</v>
-      </c>
-      <c r="W22" s="45">
-        <v>408.01591259999998</v>
-      </c>
-      <c r="X22" s="45">
-        <v>816.03182530000004</v>
-      </c>
-      <c r="Y22" s="45">
-        <v>1249.188768</v>
-      </c>
-      <c r="Z22" s="45">
-        <v>1706.2090479999999</v>
-      </c>
-      <c r="AA22" s="45">
-        <v>2163.2293289999998</v>
-      </c>
-      <c r="AB22" s="45">
-        <v>2620.9048360000002</v>
-      </c>
     </row>
-    <row r="23" spans="2:28" ht="15" thickBot="1">
+    <row r="23" spans="2:18">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7788,7 +7707,7 @@
       <c r="L23" s="40">
         <v>112.0672098</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="40">
         <v>135.77732520000001</v>
       </c>
       <c r="N23" s="32">
@@ -7797,29 +7716,8 @@
       <c r="O23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V23" s="45">
-        <v>6.3475899519999999</v>
-      </c>
-      <c r="W23" s="45">
-        <v>21.137474539999999</v>
-      </c>
-      <c r="X23" s="45">
-        <v>42.274949079999999</v>
-      </c>
-      <c r="Y23" s="45">
-        <v>64.714867620000007</v>
-      </c>
-      <c r="Z23" s="45">
-        <v>88.391038699999996</v>
-      </c>
-      <c r="AA23" s="45">
-        <v>112.0672098</v>
-      </c>
-      <c r="AB23" s="45">
-        <v>135.77732520000001</v>
-      </c>
     </row>
-    <row r="24" spans="2:28" ht="15" thickBot="1">
+    <row r="24" spans="2:18">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7853,7 +7751,7 @@
       <c r="L24" s="40">
         <v>2641.2</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="40">
         <v>3200</v>
       </c>
       <c r="N24" s="32">
@@ -7862,29 +7760,8 @@
       <c r="O24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V24" s="45">
-        <v>149.6</v>
-      </c>
-      <c r="W24" s="45">
-        <v>498.16800000000001</v>
-      </c>
-      <c r="X24" s="45">
-        <v>996.33600000000001</v>
-      </c>
-      <c r="Y24" s="45">
-        <v>1525.2</v>
-      </c>
-      <c r="Z24" s="45">
-        <v>2083.1999999999998</v>
-      </c>
-      <c r="AA24" s="45">
-        <v>2641.2</v>
-      </c>
-      <c r="AB24" s="45">
-        <v>3200</v>
-      </c>
     </row>
-    <row r="25" spans="2:28" ht="15" thickBot="1">
+    <row r="25" spans="2:18">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7901,25 +7778,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>42.25988701</v>
+        <v>31.694915250000001</v>
       </c>
       <c r="H25" s="40">
-        <v>140.72542369999999</v>
+        <v>105.54406779999999</v>
       </c>
       <c r="I25" s="40">
-        <v>281.45084750000001</v>
+        <v>211.08813559999999</v>
       </c>
       <c r="J25" s="40">
-        <v>430.84745759999998</v>
+        <v>323.13559320000002</v>
       </c>
       <c r="K25" s="40">
-        <v>588.47457629999997</v>
+        <v>441.35593219999998</v>
       </c>
       <c r="L25" s="40">
-        <v>746.10169489999998</v>
-      </c>
-      <c r="M25" s="42">
-        <v>903.95480229999998</v>
+        <v>559.57627119999995</v>
+      </c>
+      <c r="M25" s="40">
+        <v>677.96610169999997</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7927,29 +7804,8 @@
       <c r="O25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V25" s="45">
-        <v>42.25988701</v>
-      </c>
-      <c r="W25" s="45">
-        <v>140.72542369999999</v>
-      </c>
-      <c r="X25" s="45">
-        <v>281.45084750000001</v>
-      </c>
-      <c r="Y25" s="45">
-        <v>430.84745759999998</v>
-      </c>
-      <c r="Z25" s="45">
-        <v>588.47457629999997</v>
-      </c>
-      <c r="AA25" s="45">
-        <v>746.10169489999998</v>
-      </c>
-      <c r="AB25" s="45">
-        <v>903.95480229999998</v>
-      </c>
     </row>
-    <row r="26" spans="2:28" ht="15" thickBot="1">
+    <row r="26" spans="2:18">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -7966,25 +7822,25 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>71.92307692</v>
+        <v>59.935897439999998</v>
       </c>
       <c r="H26" s="40">
-        <v>239.5038462</v>
+        <v>199.58653849999999</v>
       </c>
       <c r="I26" s="40">
-        <v>479.00769229999997</v>
+        <v>399.17307690000001</v>
       </c>
       <c r="J26" s="40">
-        <v>733.26923079999995</v>
+        <v>611.05769229999999</v>
       </c>
       <c r="K26" s="40">
-        <v>1001.538462</v>
+        <v>834.61538459999997</v>
       </c>
       <c r="L26" s="40">
-        <v>1269.8076920000001</v>
+        <v>1058.1730769999999</v>
       </c>
       <c r="M26" s="40">
-        <v>1538.461538</v>
+        <v>1282.0512819999999</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -7992,29 +7848,8 @@
       <c r="O26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="45">
-        <v>71.92307692</v>
-      </c>
-      <c r="W26" s="45">
-        <v>239.5038462</v>
-      </c>
-      <c r="X26" s="45">
-        <v>479.00769229999997</v>
-      </c>
-      <c r="Y26" s="45">
-        <v>733.26923079999995</v>
-      </c>
-      <c r="Z26" s="45">
-        <v>1001.538462</v>
-      </c>
-      <c r="AA26" s="45">
-        <v>1269.8076920000001</v>
-      </c>
-      <c r="AB26" s="45">
-        <v>1538.461538</v>
-      </c>
     </row>
-    <row r="27" spans="2:28" ht="15" thickBot="1">
+    <row r="27" spans="2:18">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -8031,25 +7866,25 @@
         <v>1</v>
       </c>
       <c r="G27" s="40">
-        <v>10.080862529999999</v>
+        <v>15.1212938</v>
       </c>
       <c r="H27" s="40">
-        <v>33.569272239999997</v>
+        <v>50.353908359999998</v>
       </c>
       <c r="I27" s="40">
-        <v>67.138544469999999</v>
+        <v>100.7078167</v>
       </c>
       <c r="J27" s="40">
-        <v>102.7762803</v>
+        <v>154.16442050000001</v>
       </c>
       <c r="K27" s="40">
-        <v>140.37735850000001</v>
+        <v>210.56603770000001</v>
       </c>
       <c r="L27" s="40">
-        <v>177.9784367</v>
-      </c>
-      <c r="M27" s="42">
-        <v>215.63342320000001</v>
+        <v>266.96765499999998</v>
+      </c>
+      <c r="M27" s="40">
+        <v>323.4501348</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -8057,29 +7892,8 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V27" s="45">
-        <v>10.080862529999999</v>
-      </c>
-      <c r="W27" s="45">
-        <v>33.569272239999997</v>
-      </c>
-      <c r="X27" s="45">
-        <v>67.138544469999999</v>
-      </c>
-      <c r="Y27" s="45">
-        <v>102.7762803</v>
-      </c>
-      <c r="Z27" s="45">
-        <v>140.37735850000001</v>
-      </c>
-      <c r="AA27" s="45">
-        <v>177.9784367</v>
-      </c>
-      <c r="AB27" s="45">
-        <v>215.63342320000001</v>
-      </c>
     </row>
-    <row r="28" spans="2:28" ht="15" thickBot="1">
+    <row r="28" spans="2:18">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -8113,7 +7927,7 @@
       <c r="L28" s="40">
         <v>304.7538462</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="40">
         <v>369.2307692</v>
       </c>
       <c r="N28" s="32">
@@ -8122,29 +7936,8 @@
       <c r="O28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V28" s="45">
-        <v>17.261538460000001</v>
-      </c>
-      <c r="W28" s="45">
-        <v>57.480923079999997</v>
-      </c>
-      <c r="X28" s="45">
-        <v>114.9618462</v>
-      </c>
-      <c r="Y28" s="45">
-        <v>175.9846154</v>
-      </c>
-      <c r="Z28" s="45">
-        <v>240.3692308</v>
-      </c>
-      <c r="AA28" s="45">
-        <v>304.7538462</v>
-      </c>
-      <c r="AB28" s="45">
-        <v>369.2307692</v>
-      </c>
     </row>
-    <row r="29" spans="2:28" ht="15" thickBot="1">
+    <row r="29" spans="2:18">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -8178,7 +7971,7 @@
       <c r="L29" s="40">
         <v>50.792307690000001</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="40">
         <v>61.53846154</v>
       </c>
       <c r="N29" s="32">
@@ -8187,29 +7980,8 @@
       <c r="O29" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V29" s="45">
-        <v>2.8769230769999998</v>
-      </c>
-      <c r="W29" s="45">
-        <v>9.580153846</v>
-      </c>
-      <c r="X29" s="45">
-        <v>19.16030769</v>
-      </c>
-      <c r="Y29" s="45">
-        <v>29.330769230000001</v>
-      </c>
-      <c r="Z29" s="45">
-        <v>40.061538460000001</v>
-      </c>
-      <c r="AA29" s="45">
-        <v>50.792307690000001</v>
-      </c>
-      <c r="AB29" s="45">
-        <v>61.53846154</v>
-      </c>
     </row>
-    <row r="30" spans="2:28" ht="15" thickBot="1">
+    <row r="30" spans="2:18">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -8226,25 +7998,25 @@
         <v>1</v>
       </c>
       <c r="G30" s="40">
-        <v>8.0952380949999991</v>
+        <v>1.619047619</v>
       </c>
       <c r="H30" s="40">
-        <v>26.957142860000001</v>
+        <v>5.3914285709999996</v>
       </c>
       <c r="I30" s="40">
-        <v>53.914285710000001</v>
+        <v>10.782857140000001</v>
       </c>
       <c r="J30" s="40">
-        <v>82.532467530000005</v>
+        <v>16.506493509999999</v>
       </c>
       <c r="K30" s="40">
-        <v>112.7272727</v>
+        <v>22.545454549999999</v>
       </c>
       <c r="L30" s="40">
-        <v>142.92207790000001</v>
-      </c>
-      <c r="M30" s="42">
-        <v>173.1601732</v>
+        <v>28.584415580000002</v>
+      </c>
+      <c r="M30" s="40">
+        <v>34.63203463</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8252,29 +8024,8 @@
       <c r="O30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V30" s="45">
-        <v>8.0952380949999991</v>
-      </c>
-      <c r="W30" s="45">
-        <v>26.957142860000001</v>
-      </c>
-      <c r="X30" s="45">
-        <v>53.914285710000001</v>
-      </c>
-      <c r="Y30" s="45">
-        <v>82.532467530000005</v>
-      </c>
-      <c r="Z30" s="45">
-        <v>112.7272727</v>
-      </c>
-      <c r="AA30" s="45">
-        <v>142.92207790000001</v>
-      </c>
-      <c r="AB30" s="45">
-        <v>173.1601732</v>
-      </c>
     </row>
-    <row r="31" spans="2:28" ht="15" thickBot="1">
+    <row r="31" spans="2:18">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8291,25 +8042,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>64.261168380000001</v>
+        <v>51.408934709999997</v>
       </c>
       <c r="H31" s="40">
-        <v>213.98969070000001</v>
+        <v>171.1917526</v>
       </c>
       <c r="I31" s="40">
-        <v>427.97938140000002</v>
+        <v>342.3835052</v>
       </c>
       <c r="J31" s="40">
-        <v>655.15463920000002</v>
+        <v>524.12371129999997</v>
       </c>
       <c r="K31" s="40">
-        <v>894.84536079999998</v>
+        <v>715.87628870000003</v>
       </c>
       <c r="L31" s="40">
-        <v>1134.5360820000001</v>
+        <v>907.62886600000002</v>
       </c>
       <c r="M31" s="40">
-        <v>1374.5704470000001</v>
+        <v>1099.6563570000001</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8317,29 +8068,8 @@
       <c r="O31" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V31" s="45">
-        <v>64.261168380000001</v>
-      </c>
-      <c r="W31" s="45">
-        <v>213.98969070000001</v>
-      </c>
-      <c r="X31" s="45">
-        <v>427.97938140000002</v>
-      </c>
-      <c r="Y31" s="45">
-        <v>655.15463920000002</v>
-      </c>
-      <c r="Z31" s="45">
-        <v>894.84536079999998</v>
-      </c>
-      <c r="AA31" s="45">
-        <v>1134.5360820000001</v>
-      </c>
-      <c r="AB31" s="45">
-        <v>1374.5704470000001</v>
-      </c>
     </row>
-    <row r="32" spans="2:28" ht="15" thickBot="1">
+    <row r="32" spans="2:18">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8356,25 +8086,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>105.64971749999999</v>
+        <v>84.519774010000006</v>
       </c>
       <c r="H32" s="40">
-        <v>351.81355930000001</v>
+        <v>281.45084750000001</v>
       </c>
       <c r="I32" s="40">
-        <v>703.62711860000002</v>
+        <v>562.90169490000005</v>
       </c>
       <c r="J32" s="40">
-        <v>1077.1186439999999</v>
+        <v>861.69491530000005</v>
       </c>
       <c r="K32" s="40">
-        <v>1471.1864410000001</v>
+        <v>1176.949153</v>
       </c>
       <c r="L32" s="40">
-        <v>1865.2542370000001</v>
+        <v>1492.2033899999999</v>
       </c>
       <c r="M32" s="40">
-        <v>2259.8870059999999</v>
+        <v>1807.9096050000001</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8382,29 +8112,8 @@
       <c r="O32" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V32" s="45">
-        <v>105.64971749999999</v>
-      </c>
-      <c r="W32" s="45">
-        <v>351.81355930000001</v>
-      </c>
-      <c r="X32" s="45">
-        <v>703.62711860000002</v>
-      </c>
-      <c r="Y32" s="45">
-        <v>1077.1186439999999</v>
-      </c>
-      <c r="Z32" s="45">
-        <v>1471.1864410000001</v>
-      </c>
-      <c r="AA32" s="45">
-        <v>1865.2542370000001</v>
-      </c>
-      <c r="AB32" s="45">
-        <v>2259.8870059999999</v>
-      </c>
     </row>
-    <row r="33" spans="2:28" ht="15" thickBot="1">
+    <row r="33" spans="2:18">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8421,25 +8130,25 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>49.866666670000001</v>
+        <v>33.244444440000002</v>
       </c>
       <c r="H33" s="40">
-        <v>166.05600000000001</v>
+        <v>110.70399999999999</v>
       </c>
       <c r="I33" s="40">
-        <v>332.11200000000002</v>
+        <v>221.40799999999999</v>
       </c>
       <c r="J33" s="40">
-        <v>508.4</v>
+        <v>338.93333330000002</v>
       </c>
       <c r="K33" s="40">
-        <v>694.4</v>
+        <v>462.93333330000002</v>
       </c>
       <c r="L33" s="40">
-        <v>880.4</v>
-      </c>
-      <c r="M33" s="42">
-        <v>1066.666667</v>
+        <v>586.93333329999996</v>
+      </c>
+      <c r="M33" s="40">
+        <v>711.11111110000002</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8447,29 +8156,8 @@
       <c r="O33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V33" s="45">
-        <v>49.866666670000001</v>
-      </c>
-      <c r="W33" s="45">
-        <v>166.05600000000001</v>
-      </c>
-      <c r="X33" s="45">
-        <v>332.11200000000002</v>
-      </c>
-      <c r="Y33" s="45">
-        <v>508.4</v>
-      </c>
-      <c r="Z33" s="45">
-        <v>694.4</v>
-      </c>
-      <c r="AA33" s="45">
-        <v>880.4</v>
-      </c>
-      <c r="AB33" s="45">
-        <v>1066.666667</v>
-      </c>
     </row>
-    <row r="34" spans="2:28" ht="15" thickBot="1">
+    <row r="34" spans="2:18">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8486,25 +8174,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>36.907894740000003</v>
+        <v>24.60526316</v>
       </c>
       <c r="H34" s="40">
-        <v>122.9032895</v>
+        <v>81.935526319999994</v>
       </c>
       <c r="I34" s="40">
-        <v>245.80657890000001</v>
+        <v>163.87105260000001</v>
       </c>
       <c r="J34" s="40">
-        <v>376.28289469999999</v>
+        <v>250.8552632</v>
       </c>
       <c r="K34" s="40">
-        <v>513.94736839999996</v>
+        <v>342.63157890000002</v>
       </c>
       <c r="L34" s="40">
-        <v>651.61184209999999</v>
-      </c>
-      <c r="M34" s="42">
-        <v>789.47368419999998</v>
+        <v>434.40789469999999</v>
+      </c>
+      <c r="M34" s="40">
+        <v>526.31578950000005</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8512,29 +8200,8 @@
       <c r="O34" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V34" s="45">
-        <v>36.907894740000003</v>
-      </c>
-      <c r="W34" s="45">
-        <v>122.9032895</v>
-      </c>
-      <c r="X34" s="45">
-        <v>245.80657890000001</v>
-      </c>
-      <c r="Y34" s="45">
-        <v>376.28289469999999</v>
-      </c>
-      <c r="Z34" s="45">
-        <v>513.94736839999996</v>
-      </c>
-      <c r="AA34" s="45">
-        <v>651.61184209999999</v>
-      </c>
-      <c r="AB34" s="45">
-        <v>789.47368419999998</v>
-      </c>
     </row>
-    <row r="35" spans="2:28" ht="15" thickBot="1">
+    <row r="35" spans="2:18">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8577,29 +8244,8 @@
       <c r="O35" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V35" s="45">
-        <v>110.9533333</v>
-      </c>
-      <c r="W35" s="45">
-        <v>369.47460000000001</v>
-      </c>
-      <c r="X35" s="45">
-        <v>738.94920000000002</v>
-      </c>
-      <c r="Y35" s="45">
-        <v>1131.19</v>
-      </c>
-      <c r="Z35" s="45">
-        <v>1545.04</v>
-      </c>
-      <c r="AA35" s="45">
-        <v>1958.89</v>
-      </c>
-      <c r="AB35" s="45">
-        <v>2373.333333</v>
-      </c>
     </row>
-    <row r="36" spans="2:28" ht="15" thickBot="1">
+    <row r="36" spans="2:18">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8616,25 +8262,25 @@
         <v>1</v>
       </c>
       <c r="G36" s="40">
-        <v>89.047619049999994</v>
+        <v>160.2857143</v>
       </c>
       <c r="H36" s="40">
-        <v>296.52857139999998</v>
+        <v>533.75142860000005</v>
       </c>
       <c r="I36" s="40">
-        <v>593.05714290000003</v>
+        <v>1067.5028569999999</v>
       </c>
       <c r="J36" s="40">
-        <v>907.85714289999999</v>
+        <v>1634.142857</v>
       </c>
       <c r="K36" s="40">
-        <v>1240</v>
+        <v>2232</v>
       </c>
       <c r="L36" s="40">
-        <v>1572.142857</v>
+        <v>2829.8571430000002</v>
       </c>
       <c r="M36" s="40">
-        <v>1904.7619050000001</v>
+        <v>3428.5714290000001</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -8642,29 +8288,8 @@
       <c r="O36" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V36" s="45">
-        <v>89.047619049999994</v>
-      </c>
-      <c r="W36" s="45">
-        <v>296.52857139999998</v>
-      </c>
-      <c r="X36" s="45">
-        <v>593.05714290000003</v>
-      </c>
-      <c r="Y36" s="45">
-        <v>907.85714289999999</v>
-      </c>
-      <c r="Z36" s="45">
-        <v>1240</v>
-      </c>
-      <c r="AA36" s="45">
-        <v>1572.142857</v>
-      </c>
-      <c r="AB36" s="45">
-        <v>1904.7619050000001</v>
-      </c>
     </row>
-    <row r="37" spans="2:28" ht="15" thickBot="1">
+    <row r="37" spans="2:18">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -8680,25 +8305,25 @@
       <c r="F37" s="32">
         <v>1</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="40">
         <v>1.335714286</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="40">
         <v>4.4479285710000003</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="40">
         <v>8.8958571430000006</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="40">
         <v>13.61785714</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="40">
         <v>18.600000000000001</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L37" s="40">
         <v>23.582142860000001</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="40">
         <v>28.571428569999998</v>
       </c>
       <c r="N37" s="32">
@@ -8707,29 +8332,8 @@
       <c r="O37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V37" s="45">
-        <v>1.335714286</v>
-      </c>
-      <c r="W37" s="45">
-        <v>4.4479285710000003</v>
-      </c>
-      <c r="X37" s="45">
-        <v>8.8958571430000006</v>
-      </c>
-      <c r="Y37" s="45">
-        <v>13.61785714</v>
-      </c>
-      <c r="Z37" s="45">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AA37" s="45">
-        <v>23.582142860000001</v>
-      </c>
-      <c r="AB37" s="45">
-        <v>28.571428569999998</v>
-      </c>
     </row>
-    <row r="38" spans="2:28" ht="15" thickBot="1">
+    <row r="38" spans="2:18">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -8746,25 +8350,25 @@
         <v>1</v>
       </c>
       <c r="G38" s="40">
-        <v>43.488372089999999</v>
+        <v>60.883720930000003</v>
       </c>
       <c r="H38" s="40">
-        <v>144.8162791</v>
+        <v>202.7427907</v>
       </c>
       <c r="I38" s="40">
-        <v>289.63255809999998</v>
+        <v>405.4855814</v>
       </c>
       <c r="J38" s="40">
-        <v>443.37209300000001</v>
+        <v>620.7209302</v>
       </c>
       <c r="K38" s="40">
-        <v>605.58139530000005</v>
+        <v>847.81395350000003</v>
       </c>
       <c r="L38" s="40">
-        <v>767.79069770000001</v>
+        <v>1074.9069770000001</v>
       </c>
       <c r="M38" s="40">
-        <v>930.23255810000001</v>
+        <v>1302.3255810000001</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -8772,29 +8376,8 @@
       <c r="O38" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V38" s="45">
-        <v>43.488372089999999</v>
-      </c>
-      <c r="W38" s="45">
-        <v>144.8162791</v>
-      </c>
-      <c r="X38" s="45">
-        <v>289.63255809999998</v>
-      </c>
-      <c r="Y38" s="45">
-        <v>443.37209300000001</v>
-      </c>
-      <c r="Z38" s="45">
-        <v>605.58139530000005</v>
-      </c>
-      <c r="AA38" s="45">
-        <v>767.79069770000001</v>
-      </c>
-      <c r="AB38" s="45">
-        <v>930.23255810000001</v>
-      </c>
     </row>
-    <row r="39" spans="2:28" ht="15" thickBot="1">
+    <row r="39" spans="2:18">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -8837,29 +8420,8 @@
       <c r="O39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V39" s="45">
-        <v>12.89655172</v>
-      </c>
-      <c r="W39" s="45">
-        <v>42.945517240000001</v>
-      </c>
-      <c r="X39" s="45">
-        <v>85.891034480000002</v>
-      </c>
-      <c r="Y39" s="45">
-        <v>131.48275860000001</v>
-      </c>
-      <c r="Z39" s="45">
-        <v>179.58620690000001</v>
-      </c>
-      <c r="AA39" s="45">
-        <v>227.6896552</v>
-      </c>
-      <c r="AB39" s="45">
-        <v>275.86206900000002</v>
-      </c>
     </row>
-    <row r="40" spans="2:28" ht="15" thickBot="1">
+    <row r="40" spans="2:18">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -8876,25 +8438,25 @@
         <v>1</v>
       </c>
       <c r="G40" s="40">
-        <v>116.875</v>
+        <v>149.6</v>
       </c>
       <c r="H40" s="40">
-        <v>389.19375000000002</v>
+        <v>498.16800000000001</v>
       </c>
       <c r="I40" s="40">
-        <v>778.38750000000005</v>
+        <v>996.33600000000001</v>
       </c>
       <c r="J40" s="40">
-        <v>1191.5625</v>
+        <v>1525.2</v>
       </c>
       <c r="K40" s="40">
-        <v>1627.5</v>
+        <v>2083.1999999999998</v>
       </c>
       <c r="L40" s="40">
-        <v>2063.4375</v>
+        <v>2641.2</v>
       </c>
       <c r="M40" s="40">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -8902,29 +8464,8 @@
       <c r="O40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V40" s="45">
-        <v>116.875</v>
-      </c>
-      <c r="W40" s="45">
-        <v>389.19375000000002</v>
-      </c>
-      <c r="X40" s="45">
-        <v>778.38750000000005</v>
-      </c>
-      <c r="Y40" s="45">
-        <v>1191.5625</v>
-      </c>
-      <c r="Z40" s="45">
-        <v>1627.5</v>
-      </c>
-      <c r="AA40" s="45">
-        <v>2063.4375</v>
-      </c>
-      <c r="AB40" s="45">
-        <v>2500</v>
-      </c>
     </row>
-    <row r="41" spans="2:28" ht="15" thickBot="1">
+    <row r="41" spans="2:18">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -8967,29 +8508,8 @@
       <c r="O41" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V41" s="45">
-        <v>71.06</v>
-      </c>
-      <c r="W41" s="45">
-        <v>236.62979999999999</v>
-      </c>
-      <c r="X41" s="45">
-        <v>473.25959999999998</v>
-      </c>
-      <c r="Y41" s="45">
-        <v>724.47</v>
-      </c>
-      <c r="Z41" s="45">
-        <v>989.52</v>
-      </c>
-      <c r="AA41" s="45">
-        <v>1254.57</v>
-      </c>
-      <c r="AB41" s="45">
-        <v>1520</v>
-      </c>
     </row>
-    <row r="42" spans="2:28" ht="15" thickBot="1">
+    <row r="42" spans="2:18">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -9011,19 +8531,19 @@
       <c r="H42" s="40">
         <v>28.96325581</v>
       </c>
-      <c r="I42" s="42">
+      <c r="I42" s="40">
         <v>57.92651163</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="40">
         <v>88.674418599999996</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="40">
         <v>121.1162791</v>
       </c>
-      <c r="L42" s="42">
+      <c r="L42" s="40">
         <v>153.55813950000001</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M42" s="40">
         <v>186.0465116</v>
       </c>
       <c r="N42" s="32">
@@ -9032,29 +8552,8 @@
       <c r="O42" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V42" s="45">
-        <v>8.6976744190000002</v>
-      </c>
-      <c r="W42" s="45">
-        <v>28.96325581</v>
-      </c>
-      <c r="X42" s="45">
-        <v>57.92651163</v>
-      </c>
-      <c r="Y42" s="45">
-        <v>88.674418599999996</v>
-      </c>
-      <c r="Z42" s="45">
-        <v>121.1162791</v>
-      </c>
-      <c r="AA42" s="45">
-        <v>153.55813950000001</v>
-      </c>
-      <c r="AB42" s="45">
-        <v>186.0465116</v>
-      </c>
     </row>
-    <row r="43" spans="2:28" ht="15" thickBot="1">
+    <row r="43" spans="2:18">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -9079,16 +8578,16 @@
       <c r="I43" s="40">
         <v>20.31680261</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J43" s="40">
         <v>31.10114192</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="40">
         <v>42.479608480000003</v>
       </c>
-      <c r="L43" s="42">
+      <c r="L43" s="40">
         <v>53.858075040000003</v>
       </c>
-      <c r="M43" s="42">
+      <c r="M43" s="40">
         <v>65.252854810000002</v>
       </c>
       <c r="N43" s="32">
@@ -9097,36 +8596,15 @@
       <c r="O43" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V43" s="45">
-        <v>3.0505709620000001</v>
-      </c>
-      <c r="W43" s="45">
-        <v>10.15840131</v>
-      </c>
-      <c r="X43" s="45">
-        <v>20.31680261</v>
-      </c>
-      <c r="Y43" s="45">
-        <v>31.10114192</v>
-      </c>
-      <c r="Z43" s="45">
-        <v>42.479608480000003</v>
-      </c>
-      <c r="AA43" s="45">
-        <v>53.858075040000003</v>
-      </c>
-      <c r="AB43" s="45">
-        <v>65.252854810000002</v>
-      </c>
     </row>
-    <row r="44" spans="2:28">
+    <row r="44" spans="2:18">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
     </row>
-    <row r="45" spans="2:28">
+    <row r="45" spans="2:18">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -9145,7 +8623,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:28">
+    <row r="48" spans="2:18">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2BAE62-0B72-4731-A67C-0250E3060E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B135F5-AAF8-4C60-A91C-9FF1F6D45B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1505,8 +1505,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1756,6 +1762,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4281,7 +4302,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4340,6 +4361,9 @@
     <xf numFmtId="3" fontId="17" fillId="53" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="54" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -7298,10 +7322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="AD45" sqref="V20:AD45"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7438,7 +7462,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:27">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7459,7 +7483,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:18" ht="26">
+    <row r="18" spans="2:27" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7506,7 +7530,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" ht="62.5">
+    <row r="19" spans="2:27" ht="62.5">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7541,7 +7565,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" ht="24" customHeight="1">
+    <row r="20" spans="2:27" ht="24" customHeight="1" thickBot="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7558,25 +7582,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>99.468085110000004</v>
+        <v>59.680851060000002</v>
       </c>
       <c r="H20" s="40">
-        <v>331.22872339999998</v>
+        <v>198.737234</v>
       </c>
       <c r="I20" s="40">
-        <v>662.45744679999996</v>
+        <v>397.47446810000002</v>
       </c>
       <c r="J20" s="40">
-        <v>1014.095745</v>
+        <v>608.45744679999996</v>
       </c>
       <c r="K20" s="40">
-        <v>1385.1063830000001</v>
+        <v>831.06382980000001</v>
       </c>
       <c r="L20" s="40">
-        <v>1756.117021</v>
+        <v>1053.6702130000001</v>
       </c>
       <c r="M20" s="40">
-        <v>2127.6595739999998</v>
+        <v>1276.5957450000001</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7585,7 +7609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:27" ht="15" thickBot="1">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7602,25 +7626,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>44.844124700000002</v>
+        <v>26.90647482</v>
       </c>
       <c r="H21" s="40">
-        <v>149.33093529999999</v>
+        <v>89.598561149999995</v>
       </c>
       <c r="I21" s="40">
-        <v>298.66187050000002</v>
+        <v>179.19712229999999</v>
       </c>
       <c r="J21" s="40">
-        <v>457.19424459999999</v>
+        <v>274.31654680000003</v>
       </c>
       <c r="K21" s="40">
-        <v>624.46043169999996</v>
+        <v>374.67625900000002</v>
       </c>
       <c r="L21" s="40">
-        <v>791.72661870000002</v>
+        <v>475.03597120000001</v>
       </c>
       <c r="M21" s="40">
-        <v>959.23261390000005</v>
+        <v>575.53956830000004</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7628,8 +7652,29 @@
       <c r="O21" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U21" s="43">
+        <v>59.680851060000002</v>
+      </c>
+      <c r="V21" s="43">
+        <v>198.737234</v>
+      </c>
+      <c r="W21" s="43">
+        <v>397.47446810000002</v>
+      </c>
+      <c r="X21" s="43">
+        <v>608.45744679999996</v>
+      </c>
+      <c r="Y21" s="43">
+        <v>831.06382980000001</v>
+      </c>
+      <c r="Z21" s="43">
+        <v>1053.6702130000001</v>
+      </c>
+      <c r="AA21" s="43">
+        <v>1276.5957450000001</v>
+      </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:27" ht="15" thickBot="1">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7672,8 +7717,29 @@
       <c r="O22" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U22" s="43">
+        <v>26.90647482</v>
+      </c>
+      <c r="V22" s="43">
+        <v>89.598561149999995</v>
+      </c>
+      <c r="W22" s="43">
+        <v>179.19712229999999</v>
+      </c>
+      <c r="X22" s="43">
+        <v>274.31654680000003</v>
+      </c>
+      <c r="Y22" s="43">
+        <v>374.67625900000002</v>
+      </c>
+      <c r="Z22" s="43">
+        <v>475.03597120000001</v>
+      </c>
+      <c r="AA22" s="43">
+        <v>575.53956830000004</v>
+      </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:27" ht="15" thickBot="1">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7716,8 +7782,29 @@
       <c r="O23" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U23" s="43">
+        <v>122.5273011</v>
+      </c>
+      <c r="V23" s="43">
+        <v>408.01591259999998</v>
+      </c>
+      <c r="W23" s="43">
+        <v>816.03182530000004</v>
+      </c>
+      <c r="X23" s="43">
+        <v>1249.188768</v>
+      </c>
+      <c r="Y23" s="43">
+        <v>1706.2090479999999</v>
+      </c>
+      <c r="Z23" s="43">
+        <v>2163.2293289999998</v>
+      </c>
+      <c r="AA23" s="43">
+        <v>2620.9048360000002</v>
+      </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:27" ht="15" thickBot="1">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7760,8 +7847,29 @@
       <c r="O24" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U24" s="43">
+        <v>6.3475899519999999</v>
+      </c>
+      <c r="V24" s="43">
+        <v>21.137474539999999</v>
+      </c>
+      <c r="W24" s="43">
+        <v>42.274949079999999</v>
+      </c>
+      <c r="X24" s="43">
+        <v>64.714867620000007</v>
+      </c>
+      <c r="Y24" s="43">
+        <v>88.391038699999996</v>
+      </c>
+      <c r="Z24" s="43">
+        <v>112.0672098</v>
+      </c>
+      <c r="AA24" s="43">
+        <v>135.77732520000001</v>
+      </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:27" ht="15" thickBot="1">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7778,25 +7886,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>31.694915250000001</v>
+        <v>21.1299435</v>
       </c>
       <c r="H25" s="40">
-        <v>105.54406779999999</v>
+        <v>70.362711860000005</v>
       </c>
       <c r="I25" s="40">
-        <v>211.08813559999999</v>
+        <v>140.72542369999999</v>
       </c>
       <c r="J25" s="40">
-        <v>323.13559320000002</v>
+        <v>215.42372879999999</v>
       </c>
       <c r="K25" s="40">
-        <v>441.35593219999998</v>
+        <v>294.2372881</v>
       </c>
       <c r="L25" s="40">
-        <v>559.57627119999995</v>
+        <v>373.05084749999997</v>
       </c>
       <c r="M25" s="40">
-        <v>677.96610169999997</v>
+        <v>451.97740110000001</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7804,8 +7912,29 @@
       <c r="O25" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U25" s="43">
+        <v>149.6</v>
+      </c>
+      <c r="V25" s="43">
+        <v>498.16800000000001</v>
+      </c>
+      <c r="W25" s="43">
+        <v>996.33600000000001</v>
+      </c>
+      <c r="X25" s="43">
+        <v>1525.2</v>
+      </c>
+      <c r="Y25" s="43">
+        <v>2083.1999999999998</v>
+      </c>
+      <c r="Z25" s="43">
+        <v>2641.2</v>
+      </c>
+      <c r="AA25" s="43">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:27" ht="15" thickBot="1">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -7822,25 +7951,25 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>59.935897439999998</v>
+        <v>11.987179490000001</v>
       </c>
       <c r="H26" s="40">
-        <v>199.58653849999999</v>
+        <v>39.917307690000001</v>
       </c>
       <c r="I26" s="40">
-        <v>399.17307690000001</v>
+        <v>79.834615380000002</v>
       </c>
       <c r="J26" s="40">
-        <v>611.05769229999999</v>
+        <v>122.2115385</v>
       </c>
       <c r="K26" s="40">
-        <v>834.61538459999997</v>
+        <v>166.92307690000001</v>
       </c>
       <c r="L26" s="40">
-        <v>1058.1730769999999</v>
+        <v>211.6346154</v>
       </c>
       <c r="M26" s="40">
-        <v>1282.0512819999999</v>
+        <v>256.41025639999998</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -7848,8 +7977,29 @@
       <c r="O26" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U26" s="43">
+        <v>21.1299435</v>
+      </c>
+      <c r="V26" s="43">
+        <v>70.362711860000005</v>
+      </c>
+      <c r="W26" s="43">
+        <v>140.72542369999999</v>
+      </c>
+      <c r="X26" s="43">
+        <v>215.42372879999999</v>
+      </c>
+      <c r="Y26" s="43">
+        <v>294.2372881</v>
+      </c>
+      <c r="Z26" s="43">
+        <v>373.05084749999997</v>
+      </c>
+      <c r="AA26" s="43">
+        <v>451.97740110000001</v>
+      </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:27" ht="15" thickBot="1">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -7892,8 +8042,29 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U27" s="43">
+        <v>11.987179490000001</v>
+      </c>
+      <c r="V27" s="43">
+        <v>39.917307690000001</v>
+      </c>
+      <c r="W27" s="43">
+        <v>79.834615380000002</v>
+      </c>
+      <c r="X27" s="43">
+        <v>122.2115385</v>
+      </c>
+      <c r="Y27" s="43">
+        <v>166.92307690000001</v>
+      </c>
+      <c r="Z27" s="43">
+        <v>211.6346154</v>
+      </c>
+      <c r="AA27" s="43">
+        <v>256.41025639999998</v>
+      </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:27" ht="15" thickBot="1">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -7936,8 +8107,29 @@
       <c r="O28" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U28" s="43">
+        <v>15.1212938</v>
+      </c>
+      <c r="V28" s="43">
+        <v>50.353908359999998</v>
+      </c>
+      <c r="W28" s="43">
+        <v>100.7078167</v>
+      </c>
+      <c r="X28" s="43">
+        <v>154.16442050000001</v>
+      </c>
+      <c r="Y28" s="43">
+        <v>210.56603770000001</v>
+      </c>
+      <c r="Z28" s="43">
+        <v>266.96765499999998</v>
+      </c>
+      <c r="AA28" s="43">
+        <v>323.4501348</v>
+      </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:27" ht="15" thickBot="1">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -7980,8 +8172,29 @@
       <c r="O29" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U29" s="43">
+        <v>17.261538460000001</v>
+      </c>
+      <c r="V29" s="43">
+        <v>57.480923079999997</v>
+      </c>
+      <c r="W29" s="43">
+        <v>114.9618462</v>
+      </c>
+      <c r="X29" s="43">
+        <v>175.9846154</v>
+      </c>
+      <c r="Y29" s="43">
+        <v>240.3692308</v>
+      </c>
+      <c r="Z29" s="43">
+        <v>304.7538462</v>
+      </c>
+      <c r="AA29" s="43">
+        <v>369.2307692</v>
+      </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:27" ht="15" thickBot="1">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -8024,8 +8237,29 @@
       <c r="O30" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U30" s="43">
+        <v>2.8769230769999998</v>
+      </c>
+      <c r="V30" s="43">
+        <v>9.580153846</v>
+      </c>
+      <c r="W30" s="43">
+        <v>19.16030769</v>
+      </c>
+      <c r="X30" s="43">
+        <v>29.330769230000001</v>
+      </c>
+      <c r="Y30" s="43">
+        <v>40.061538460000001</v>
+      </c>
+      <c r="Z30" s="43">
+        <v>50.792307690000001</v>
+      </c>
+      <c r="AA30" s="43">
+        <v>61.53846154</v>
+      </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:27" ht="15" thickBot="1">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8042,25 +8276,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>51.408934709999997</v>
+        <v>38.556701029999999</v>
       </c>
       <c r="H31" s="40">
-        <v>171.1917526</v>
+        <v>128.3938144</v>
       </c>
       <c r="I31" s="40">
-        <v>342.3835052</v>
+        <v>256.78762890000002</v>
       </c>
       <c r="J31" s="40">
-        <v>524.12371129999997</v>
+        <v>393.0927835</v>
       </c>
       <c r="K31" s="40">
-        <v>715.87628870000003</v>
+        <v>536.9072165</v>
       </c>
       <c r="L31" s="40">
-        <v>907.62886600000002</v>
+        <v>680.72164950000001</v>
       </c>
       <c r="M31" s="40">
-        <v>1099.6563570000001</v>
+        <v>824.74226799999997</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8068,8 +8302,29 @@
       <c r="O31" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U31" s="43">
+        <v>1.619047619</v>
+      </c>
+      <c r="V31" s="43">
+        <v>5.3914285709999996</v>
+      </c>
+      <c r="W31" s="43">
+        <v>10.782857140000001</v>
+      </c>
+      <c r="X31" s="43">
+        <v>16.506493509999999</v>
+      </c>
+      <c r="Y31" s="43">
+        <v>22.545454549999999</v>
+      </c>
+      <c r="Z31" s="43">
+        <v>28.584415580000002</v>
+      </c>
+      <c r="AA31" s="43">
+        <v>34.63203463</v>
+      </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:27" ht="15" thickBot="1">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8086,25 +8341,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>84.519774010000006</v>
+        <v>63.389830510000003</v>
       </c>
       <c r="H32" s="40">
-        <v>281.45084750000001</v>
+        <v>211.08813559999999</v>
       </c>
       <c r="I32" s="40">
-        <v>562.90169490000005</v>
+        <v>422.17627119999997</v>
       </c>
       <c r="J32" s="40">
-        <v>861.69491530000005</v>
+        <v>646.27118640000003</v>
       </c>
       <c r="K32" s="40">
-        <v>1176.949153</v>
+        <v>882.71186439999997</v>
       </c>
       <c r="L32" s="40">
-        <v>1492.2033899999999</v>
+        <v>1119.152542</v>
       </c>
       <c r="M32" s="40">
-        <v>1807.9096050000001</v>
+        <v>1355.9322030000001</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8112,8 +8367,29 @@
       <c r="O32" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U32" s="43">
+        <v>38.556701029999999</v>
+      </c>
+      <c r="V32" s="43">
+        <v>128.3938144</v>
+      </c>
+      <c r="W32" s="43">
+        <v>256.78762890000002</v>
+      </c>
+      <c r="X32" s="43">
+        <v>393.0927835</v>
+      </c>
+      <c r="Y32" s="43">
+        <v>536.9072165</v>
+      </c>
+      <c r="Z32" s="43">
+        <v>680.72164950000001</v>
+      </c>
+      <c r="AA32" s="43">
+        <v>824.74226799999997</v>
+      </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:27" ht="15" thickBot="1">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8130,25 +8406,25 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>33.244444440000002</v>
+        <v>16.622222220000001</v>
       </c>
       <c r="H33" s="40">
+        <v>55.351999999999997</v>
+      </c>
+      <c r="I33" s="40">
         <v>110.70399999999999</v>
       </c>
-      <c r="I33" s="40">
-        <v>221.40799999999999</v>
-      </c>
       <c r="J33" s="40">
-        <v>338.93333330000002</v>
+        <v>169.46666669999999</v>
       </c>
       <c r="K33" s="40">
-        <v>462.93333330000002</v>
+        <v>231.46666669999999</v>
       </c>
       <c r="L33" s="40">
-        <v>586.93333329999996</v>
+        <v>293.46666670000002</v>
       </c>
       <c r="M33" s="40">
-        <v>711.11111110000002</v>
+        <v>355.55555559999999</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8156,8 +8432,29 @@
       <c r="O33" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U33" s="43">
+        <v>63.389830510000003</v>
+      </c>
+      <c r="V33" s="43">
+        <v>211.08813559999999</v>
+      </c>
+      <c r="W33" s="43">
+        <v>422.17627119999997</v>
+      </c>
+      <c r="X33" s="43">
+        <v>646.27118640000003</v>
+      </c>
+      <c r="Y33" s="43">
+        <v>882.71186439999997</v>
+      </c>
+      <c r="Z33" s="43">
+        <v>1119.152542</v>
+      </c>
+      <c r="AA33" s="43">
+        <v>1355.9322030000001</v>
+      </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:27" ht="15" thickBot="1">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8174,25 +8471,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>24.60526316</v>
+        <v>12.30263158</v>
       </c>
       <c r="H34" s="40">
+        <v>40.967763159999997</v>
+      </c>
+      <c r="I34" s="40">
         <v>81.935526319999994</v>
       </c>
-      <c r="I34" s="40">
-        <v>163.87105260000001</v>
-      </c>
       <c r="J34" s="40">
-        <v>250.8552632</v>
+        <v>125.4276316</v>
       </c>
       <c r="K34" s="40">
-        <v>342.63157890000002</v>
+        <v>171.31578949999999</v>
       </c>
       <c r="L34" s="40">
-        <v>434.40789469999999</v>
+        <v>217.2039474</v>
       </c>
       <c r="M34" s="40">
-        <v>526.31578950000005</v>
+        <v>263.15789469999999</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8200,8 +8497,29 @@
       <c r="O34" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U34" s="43">
+        <v>16.622222220000001</v>
+      </c>
+      <c r="V34" s="43">
+        <v>55.351999999999997</v>
+      </c>
+      <c r="W34" s="43">
+        <v>110.70399999999999</v>
+      </c>
+      <c r="X34" s="43">
+        <v>169.46666669999999</v>
+      </c>
+      <c r="Y34" s="43">
+        <v>231.46666669999999</v>
+      </c>
+      <c r="Z34" s="43">
+        <v>293.46666670000002</v>
+      </c>
+      <c r="AA34" s="43">
+        <v>355.55555559999999</v>
+      </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:27" ht="15" thickBot="1">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8218,25 +8536,25 @@
         <v>1</v>
       </c>
       <c r="G35" s="40">
-        <v>110.9533333</v>
+        <v>185.75333330000001</v>
       </c>
       <c r="H35" s="40">
-        <v>369.47460000000001</v>
+        <v>618.55859999999996</v>
       </c>
       <c r="I35" s="40">
-        <v>738.94920000000002</v>
+        <v>1237.1171999999999</v>
       </c>
       <c r="J35" s="40">
-        <v>1131.19</v>
+        <v>1893.79</v>
       </c>
       <c r="K35" s="40">
-        <v>1545.04</v>
+        <v>2586.64</v>
       </c>
       <c r="L35" s="40">
-        <v>1958.89</v>
+        <v>3279.49</v>
       </c>
       <c r="M35" s="40">
-        <v>2373.333333</v>
+        <v>3973.333333</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8244,8 +8562,29 @@
       <c r="O35" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U35" s="43">
+        <v>12.30263158</v>
+      </c>
+      <c r="V35" s="43">
+        <v>40.967763159999997</v>
+      </c>
+      <c r="W35" s="43">
+        <v>81.935526319999994</v>
+      </c>
+      <c r="X35" s="43">
+        <v>125.4276316</v>
+      </c>
+      <c r="Y35" s="43">
+        <v>171.31578949999999</v>
+      </c>
+      <c r="Z35" s="43">
+        <v>217.2039474</v>
+      </c>
+      <c r="AA35" s="43">
+        <v>263.15789469999999</v>
+      </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:27" ht="15" thickBot="1">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8262,25 +8601,25 @@
         <v>1</v>
       </c>
       <c r="G36" s="40">
-        <v>160.2857143</v>
+        <v>213.7142857</v>
       </c>
       <c r="H36" s="40">
-        <v>533.75142860000005</v>
+        <v>711.66857140000002</v>
       </c>
       <c r="I36" s="40">
-        <v>1067.5028569999999</v>
+        <v>1423.337143</v>
       </c>
       <c r="J36" s="40">
-        <v>1634.142857</v>
+        <v>2178.8571430000002</v>
       </c>
       <c r="K36" s="40">
-        <v>2232</v>
+        <v>2976</v>
       </c>
       <c r="L36" s="40">
-        <v>2829.8571430000002</v>
+        <v>3773.1428569999998</v>
       </c>
       <c r="M36" s="40">
-        <v>3428.5714290000001</v>
+        <v>4571.4285710000004</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -8288,8 +8627,29 @@
       <c r="O36" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U36" s="43">
+        <v>185.75333330000001</v>
+      </c>
+      <c r="V36" s="43">
+        <v>618.55859999999996</v>
+      </c>
+      <c r="W36" s="43">
+        <v>1237.1171999999999</v>
+      </c>
+      <c r="X36" s="43">
+        <v>1893.79</v>
+      </c>
+      <c r="Y36" s="43">
+        <v>2586.64</v>
+      </c>
+      <c r="Z36" s="43">
+        <v>3279.49</v>
+      </c>
+      <c r="AA36" s="43">
+        <v>3973.333333</v>
+      </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:27" ht="15" thickBot="1">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -8332,8 +8692,29 @@
       <c r="O37" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U37" s="43">
+        <v>213.7142857</v>
+      </c>
+      <c r="V37" s="43">
+        <v>711.66857140000002</v>
+      </c>
+      <c r="W37" s="43">
+        <v>1423.337143</v>
+      </c>
+      <c r="X37" s="43">
+        <v>2178.8571430000002</v>
+      </c>
+      <c r="Y37" s="43">
+        <v>2976</v>
+      </c>
+      <c r="Z37" s="43">
+        <v>3773.1428569999998</v>
+      </c>
+      <c r="AA37" s="43">
+        <v>4571.4285710000004</v>
+      </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:27" ht="15" thickBot="1">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -8350,25 +8731,25 @@
         <v>1</v>
       </c>
       <c r="G38" s="40">
-        <v>60.883720930000003</v>
+        <v>86.976744190000005</v>
       </c>
       <c r="H38" s="40">
-        <v>202.7427907</v>
+        <v>289.63255809999998</v>
       </c>
       <c r="I38" s="40">
-        <v>405.4855814</v>
+        <v>579.26511630000005</v>
       </c>
       <c r="J38" s="40">
-        <v>620.7209302</v>
+        <v>886.74418600000001</v>
       </c>
       <c r="K38" s="40">
-        <v>847.81395350000003</v>
+        <v>1211.162791</v>
       </c>
       <c r="L38" s="40">
-        <v>1074.9069770000001</v>
+        <v>1535.5813949999999</v>
       </c>
       <c r="M38" s="40">
-        <v>1302.3255810000001</v>
+        <v>1860.4651160000001</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -8376,8 +8757,29 @@
       <c r="O38" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U38" s="43">
+        <v>1.335714286</v>
+      </c>
+      <c r="V38" s="43">
+        <v>4.4479285710000003</v>
+      </c>
+      <c r="W38" s="43">
+        <v>8.8958571430000006</v>
+      </c>
+      <c r="X38" s="43">
+        <v>13.61785714</v>
+      </c>
+      <c r="Y38" s="43">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Z38" s="43">
+        <v>23.582142860000001</v>
+      </c>
+      <c r="AA38" s="43">
+        <v>28.571428569999998</v>
+      </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:27" ht="15" thickBot="1">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -8399,19 +8801,19 @@
       <c r="H39" s="40">
         <v>42.945517240000001</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="44">
         <v>85.891034480000002</v>
       </c>
-      <c r="J39" s="43">
+      <c r="J39" s="44">
         <v>131.48275860000001</v>
       </c>
-      <c r="K39" s="43">
+      <c r="K39" s="44">
         <v>179.58620690000001</v>
       </c>
-      <c r="L39" s="43">
+      <c r="L39" s="44">
         <v>227.6896552</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="44">
         <v>275.86206900000002</v>
       </c>
       <c r="N39" s="32">
@@ -8420,8 +8822,29 @@
       <c r="O39" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U39" s="43">
+        <v>86.976744190000005</v>
+      </c>
+      <c r="V39" s="43">
+        <v>289.63255809999998</v>
+      </c>
+      <c r="W39" s="43">
+        <v>579.26511630000005</v>
+      </c>
+      <c r="X39" s="43">
+        <v>886.74418600000001</v>
+      </c>
+      <c r="Y39" s="43">
+        <v>1211.162791</v>
+      </c>
+      <c r="Z39" s="43">
+        <v>1535.5813949999999</v>
+      </c>
+      <c r="AA39" s="43">
+        <v>1860.4651160000001</v>
+      </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:27" ht="15" thickBot="1">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -8464,8 +8887,29 @@
       <c r="O40" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U40" s="43">
+        <v>12.89655172</v>
+      </c>
+      <c r="V40" s="43">
+        <v>42.945517240000001</v>
+      </c>
+      <c r="W40" s="43">
+        <v>85.891034480000002</v>
+      </c>
+      <c r="X40" s="43">
+        <v>131.48275860000001</v>
+      </c>
+      <c r="Y40" s="43">
+        <v>179.58620690000001</v>
+      </c>
+      <c r="Z40" s="43">
+        <v>227.6896552</v>
+      </c>
+      <c r="AA40" s="43">
+        <v>275.86206900000002</v>
+      </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:27" ht="15" thickBot="1">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -8482,25 +8926,25 @@
         <v>1</v>
       </c>
       <c r="G41" s="40">
-        <v>71.06</v>
+        <v>74.8</v>
       </c>
       <c r="H41" s="40">
-        <v>236.62979999999999</v>
+        <v>249.084</v>
       </c>
       <c r="I41" s="40">
-        <v>473.25959999999998</v>
+        <v>498.16800000000001</v>
       </c>
       <c r="J41" s="40">
-        <v>724.47</v>
+        <v>762.6</v>
       </c>
       <c r="K41" s="40">
-        <v>989.52</v>
+        <v>1041.5999999999999</v>
       </c>
       <c r="L41" s="40">
-        <v>1254.57</v>
+        <v>1320.6</v>
       </c>
       <c r="M41" s="40">
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -8508,8 +8952,29 @@
       <c r="O41" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U41" s="43">
+        <v>149.6</v>
+      </c>
+      <c r="V41" s="43">
+        <v>498.16800000000001</v>
+      </c>
+      <c r="W41" s="43">
+        <v>996.33600000000001</v>
+      </c>
+      <c r="X41" s="43">
+        <v>1525.2</v>
+      </c>
+      <c r="Y41" s="43">
+        <v>2083.1999999999998</v>
+      </c>
+      <c r="Z41" s="43">
+        <v>2641.2</v>
+      </c>
+      <c r="AA41" s="43">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:27" ht="15" thickBot="1">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -8552,8 +9017,29 @@
       <c r="O42" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U42" s="43">
+        <v>74.8</v>
+      </c>
+      <c r="V42" s="43">
+        <v>249.084</v>
+      </c>
+      <c r="W42" s="43">
+        <v>498.16800000000001</v>
+      </c>
+      <c r="X42" s="43">
+        <v>762.6</v>
+      </c>
+      <c r="Y42" s="43">
+        <v>1041.5999999999999</v>
+      </c>
+      <c r="Z42" s="43">
+        <v>1320.6</v>
+      </c>
+      <c r="AA42" s="43">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:27" ht="15" thickBot="1">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -8596,15 +9082,57 @@
       <c r="O43" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U43" s="43">
+        <v>8.6976744190000002</v>
+      </c>
+      <c r="V43" s="43">
+        <v>28.96325581</v>
+      </c>
+      <c r="W43" s="43">
+        <v>57.92651163</v>
+      </c>
+      <c r="X43" s="43">
+        <v>88.674418599999996</v>
+      </c>
+      <c r="Y43" s="43">
+        <v>121.1162791</v>
+      </c>
+      <c r="Z43" s="43">
+        <v>153.55813950000001</v>
+      </c>
+      <c r="AA43" s="43">
+        <v>186.0465116</v>
+      </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:27" ht="15" thickBot="1">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
+      <c r="U44" s="43">
+        <v>3.0505709620000001</v>
+      </c>
+      <c r="V44" s="43">
+        <v>10.15840131</v>
+      </c>
+      <c r="W44" s="43">
+        <v>20.31680261</v>
+      </c>
+      <c r="X44" s="43">
+        <v>31.10114192</v>
+      </c>
+      <c r="Y44" s="43">
+        <v>42.479608480000003</v>
+      </c>
+      <c r="Z44" s="43">
+        <v>53.858075040000003</v>
+      </c>
+      <c r="AA44" s="43">
+        <v>65.252854810000002</v>
+      </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:27">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -8623,7 +9151,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:27">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B135F5-AAF8-4C60-A91C-9FF1F6D45B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF25D43-E15F-449B-9957-38FE85F33AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7325,7 +7325,7 @@
   <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:M43"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7582,25 +7582,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>59.680851060000002</v>
+        <v>39.787234040000001</v>
       </c>
       <c r="H20" s="40">
-        <v>198.737234</v>
+        <v>132.49148940000001</v>
       </c>
       <c r="I20" s="40">
-        <v>397.47446810000002</v>
+        <v>264.98297869999999</v>
       </c>
       <c r="J20" s="40">
-        <v>608.45744679999996</v>
+        <v>405.6382979</v>
       </c>
       <c r="K20" s="40">
-        <v>831.06382980000001</v>
+        <v>554.04255320000004</v>
       </c>
       <c r="L20" s="40">
-        <v>1053.6702130000001</v>
+        <v>702.44680849999997</v>
       </c>
       <c r="M20" s="40">
-        <v>1276.5957450000001</v>
+        <v>851.06382980000001</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7626,25 +7626,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>26.90647482</v>
+        <v>17.937649879999999</v>
       </c>
       <c r="H21" s="40">
-        <v>89.598561149999995</v>
+        <v>59.732374100000001</v>
       </c>
       <c r="I21" s="40">
-        <v>179.19712229999999</v>
+        <v>119.4647482</v>
       </c>
       <c r="J21" s="40">
-        <v>274.31654680000003</v>
+        <v>182.87769779999999</v>
       </c>
       <c r="K21" s="40">
-        <v>374.67625900000002</v>
+        <v>249.7841727</v>
       </c>
       <c r="L21" s="40">
-        <v>475.03597120000001</v>
+        <v>316.69064750000001</v>
       </c>
       <c r="M21" s="40">
-        <v>575.53956830000004</v>
+        <v>383.6930456</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7653,25 +7653,25 @@
         <v>61</v>
       </c>
       <c r="U21" s="43">
-        <v>59.680851060000002</v>
+        <v>39.787234040000001</v>
       </c>
       <c r="V21" s="43">
-        <v>198.737234</v>
+        <v>132.49148940000001</v>
       </c>
       <c r="W21" s="43">
-        <v>397.47446810000002</v>
+        <v>264.98297869999999</v>
       </c>
       <c r="X21" s="43">
-        <v>608.45744679999996</v>
+        <v>405.6382979</v>
       </c>
       <c r="Y21" s="43">
-        <v>831.06382980000001</v>
+        <v>554.04255320000004</v>
       </c>
       <c r="Z21" s="43">
-        <v>1053.6702130000001</v>
+        <v>702.44680849999997</v>
       </c>
       <c r="AA21" s="43">
-        <v>1276.5957450000001</v>
+        <v>851.06382980000001</v>
       </c>
     </row>
     <row r="22" spans="2:27" ht="15" thickBot="1">
@@ -7718,25 +7718,25 @@
         <v>61</v>
       </c>
       <c r="U22" s="43">
-        <v>26.90647482</v>
+        <v>17.937649879999999</v>
       </c>
       <c r="V22" s="43">
-        <v>89.598561149999995</v>
+        <v>59.732374100000001</v>
       </c>
       <c r="W22" s="43">
-        <v>179.19712229999999</v>
+        <v>119.4647482</v>
       </c>
       <c r="X22" s="43">
-        <v>274.31654680000003</v>
+        <v>182.87769779999999</v>
       </c>
       <c r="Y22" s="43">
-        <v>374.67625900000002</v>
+        <v>249.7841727</v>
       </c>
       <c r="Z22" s="43">
-        <v>475.03597120000001</v>
+        <v>316.69064750000001</v>
       </c>
       <c r="AA22" s="43">
-        <v>575.53956830000004</v>
+        <v>383.6930456</v>
       </c>
     </row>
     <row r="23" spans="2:27" ht="15" thickBot="1">
@@ -7886,25 +7886,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>21.1299435</v>
+        <v>10.56497175</v>
       </c>
       <c r="H25" s="40">
+        <v>35.181355930000002</v>
+      </c>
+      <c r="I25" s="40">
         <v>70.362711860000005</v>
       </c>
-      <c r="I25" s="40">
-        <v>140.72542369999999</v>
-      </c>
       <c r="J25" s="40">
-        <v>215.42372879999999</v>
+        <v>107.7118644</v>
       </c>
       <c r="K25" s="40">
-        <v>294.2372881</v>
+        <v>147.11864410000001</v>
       </c>
       <c r="L25" s="40">
-        <v>373.05084749999997</v>
+        <v>186.5254237</v>
       </c>
       <c r="M25" s="40">
-        <v>451.97740110000001</v>
+        <v>225.98870059999999</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7951,25 +7951,25 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>11.987179490000001</v>
+        <v>5.9935897440000003</v>
       </c>
       <c r="H26" s="40">
+        <v>19.958653850000001</v>
+      </c>
+      <c r="I26" s="40">
         <v>39.917307690000001</v>
       </c>
-      <c r="I26" s="40">
-        <v>79.834615380000002</v>
-      </c>
       <c r="J26" s="40">
-        <v>122.2115385</v>
+        <v>61.10576923</v>
       </c>
       <c r="K26" s="40">
-        <v>166.92307690000001</v>
+        <v>83.46153846</v>
       </c>
       <c r="L26" s="40">
-        <v>211.6346154</v>
+        <v>105.8173077</v>
       </c>
       <c r="M26" s="40">
-        <v>256.41025639999998</v>
+        <v>128.20512819999999</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -7978,25 +7978,25 @@
         <v>61</v>
       </c>
       <c r="U26" s="43">
-        <v>21.1299435</v>
+        <v>10.56497175</v>
       </c>
       <c r="V26" s="43">
+        <v>35.181355930000002</v>
+      </c>
+      <c r="W26" s="43">
         <v>70.362711860000005</v>
       </c>
-      <c r="W26" s="43">
-        <v>140.72542369999999</v>
-      </c>
       <c r="X26" s="43">
-        <v>215.42372879999999</v>
+        <v>107.7118644</v>
       </c>
       <c r="Y26" s="43">
-        <v>294.2372881</v>
+        <v>147.11864410000001</v>
       </c>
       <c r="Z26" s="43">
-        <v>373.05084749999997</v>
+        <v>186.5254237</v>
       </c>
       <c r="AA26" s="43">
-        <v>451.97740110000001</v>
+        <v>225.98870059999999</v>
       </c>
     </row>
     <row r="27" spans="2:27" ht="15" thickBot="1">
@@ -8043,25 +8043,25 @@
         <v>61</v>
       </c>
       <c r="U27" s="43">
-        <v>11.987179490000001</v>
+        <v>5.9935897440000003</v>
       </c>
       <c r="V27" s="43">
+        <v>19.958653850000001</v>
+      </c>
+      <c r="W27" s="43">
         <v>39.917307690000001</v>
       </c>
-      <c r="W27" s="43">
-        <v>79.834615380000002</v>
-      </c>
       <c r="X27" s="43">
-        <v>122.2115385</v>
+        <v>61.10576923</v>
       </c>
       <c r="Y27" s="43">
-        <v>166.92307690000001</v>
+        <v>83.46153846</v>
       </c>
       <c r="Z27" s="43">
-        <v>211.6346154</v>
+        <v>105.8173077</v>
       </c>
       <c r="AA27" s="43">
-        <v>256.41025639999998</v>
+        <v>128.20512819999999</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="15" thickBot="1">
@@ -8276,25 +8276,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>38.556701029999999</v>
+        <v>25.704467350000002</v>
       </c>
       <c r="H31" s="40">
-        <v>128.3938144</v>
+        <v>85.595876290000007</v>
       </c>
       <c r="I31" s="40">
-        <v>256.78762890000002</v>
+        <v>171.1917526</v>
       </c>
       <c r="J31" s="40">
-        <v>393.0927835</v>
+        <v>262.06185570000002</v>
       </c>
       <c r="K31" s="40">
-        <v>536.9072165</v>
+        <v>357.93814429999998</v>
       </c>
       <c r="L31" s="40">
-        <v>680.72164950000001</v>
+        <v>453.81443300000001</v>
       </c>
       <c r="M31" s="40">
-        <v>824.74226799999997</v>
+        <v>549.82817869999997</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8341,25 +8341,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>63.389830510000003</v>
+        <v>42.25988701</v>
       </c>
       <c r="H32" s="40">
-        <v>211.08813559999999</v>
+        <v>140.72542369999999</v>
       </c>
       <c r="I32" s="40">
-        <v>422.17627119999997</v>
+        <v>281.45084750000001</v>
       </c>
       <c r="J32" s="40">
-        <v>646.27118640000003</v>
+        <v>430.84745759999998</v>
       </c>
       <c r="K32" s="40">
-        <v>882.71186439999997</v>
+        <v>588.47457629999997</v>
       </c>
       <c r="L32" s="40">
-        <v>1119.152542</v>
+        <v>746.10169489999998</v>
       </c>
       <c r="M32" s="40">
-        <v>1355.9322030000001</v>
+        <v>903.95480229999998</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8368,25 +8368,25 @@
         <v>61</v>
       </c>
       <c r="U32" s="43">
-        <v>38.556701029999999</v>
+        <v>25.704467350000002</v>
       </c>
       <c r="V32" s="43">
-        <v>128.3938144</v>
+        <v>85.595876290000007</v>
       </c>
       <c r="W32" s="43">
-        <v>256.78762890000002</v>
+        <v>171.1917526</v>
       </c>
       <c r="X32" s="43">
-        <v>393.0927835</v>
+        <v>262.06185570000002</v>
       </c>
       <c r="Y32" s="43">
-        <v>536.9072165</v>
+        <v>357.93814429999998</v>
       </c>
       <c r="Z32" s="43">
-        <v>680.72164950000001</v>
+        <v>453.81443300000001</v>
       </c>
       <c r="AA32" s="43">
-        <v>824.74226799999997</v>
+        <v>549.82817869999997</v>
       </c>
     </row>
     <row r="33" spans="2:27" ht="15" thickBot="1">
@@ -8406,25 +8406,25 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>16.622222220000001</v>
+        <v>8.3111111110000007</v>
       </c>
       <c r="H33" s="40">
+        <v>27.675999999999998</v>
+      </c>
+      <c r="I33" s="40">
         <v>55.351999999999997</v>
       </c>
-      <c r="I33" s="40">
-        <v>110.70399999999999</v>
-      </c>
       <c r="J33" s="40">
-        <v>169.46666669999999</v>
+        <v>84.733333329999994</v>
       </c>
       <c r="K33" s="40">
-        <v>231.46666669999999</v>
+        <v>115.7333333</v>
       </c>
       <c r="L33" s="40">
-        <v>293.46666670000002</v>
+        <v>146.7333333</v>
       </c>
       <c r="M33" s="40">
-        <v>355.55555559999999</v>
+        <v>177.7777778</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8433,25 +8433,25 @@
         <v>61</v>
       </c>
       <c r="U33" s="43">
-        <v>63.389830510000003</v>
+        <v>42.25988701</v>
       </c>
       <c r="V33" s="43">
-        <v>211.08813559999999</v>
+        <v>140.72542369999999</v>
       </c>
       <c r="W33" s="43">
-        <v>422.17627119999997</v>
+        <v>281.45084750000001</v>
       </c>
       <c r="X33" s="43">
-        <v>646.27118640000003</v>
+        <v>430.84745759999998</v>
       </c>
       <c r="Y33" s="43">
-        <v>882.71186439999997</v>
+        <v>588.47457629999997</v>
       </c>
       <c r="Z33" s="43">
-        <v>1119.152542</v>
+        <v>746.10169489999998</v>
       </c>
       <c r="AA33" s="43">
-        <v>1355.9322030000001</v>
+        <v>903.95480229999998</v>
       </c>
     </row>
     <row r="34" spans="2:27" ht="15" thickBot="1">
@@ -8471,25 +8471,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>12.30263158</v>
+        <v>6.1513157889999999</v>
       </c>
       <c r="H34" s="40">
+        <v>20.483881579999998</v>
+      </c>
+      <c r="I34" s="40">
         <v>40.967763159999997</v>
       </c>
-      <c r="I34" s="40">
-        <v>81.935526319999994</v>
-      </c>
       <c r="J34" s="40">
-        <v>125.4276316</v>
+        <v>62.713815789999998</v>
       </c>
       <c r="K34" s="40">
-        <v>171.31578949999999</v>
+        <v>85.657894740000003</v>
       </c>
       <c r="L34" s="40">
-        <v>217.2039474</v>
+        <v>108.6019737</v>
       </c>
       <c r="M34" s="40">
-        <v>263.15789469999999</v>
+        <v>131.5789474</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8498,25 +8498,25 @@
         <v>61</v>
       </c>
       <c r="U34" s="43">
-        <v>16.622222220000001</v>
+        <v>8.3111111110000007</v>
       </c>
       <c r="V34" s="43">
+        <v>27.675999999999998</v>
+      </c>
+      <c r="W34" s="43">
         <v>55.351999999999997</v>
       </c>
-      <c r="W34" s="43">
-        <v>110.70399999999999</v>
-      </c>
       <c r="X34" s="43">
-        <v>169.46666669999999</v>
+        <v>84.733333329999994</v>
       </c>
       <c r="Y34" s="43">
-        <v>231.46666669999999</v>
+        <v>115.7333333</v>
       </c>
       <c r="Z34" s="43">
-        <v>293.46666670000002</v>
+        <v>146.7333333</v>
       </c>
       <c r="AA34" s="43">
-        <v>355.55555559999999</v>
+        <v>177.7777778</v>
       </c>
     </row>
     <row r="35" spans="2:27" ht="15" thickBot="1">
@@ -8563,25 +8563,25 @@
         <v>61</v>
       </c>
       <c r="U35" s="43">
-        <v>12.30263158</v>
+        <v>6.1513157889999999</v>
       </c>
       <c r="V35" s="43">
+        <v>20.483881579999998</v>
+      </c>
+      <c r="W35" s="43">
         <v>40.967763159999997</v>
       </c>
-      <c r="W35" s="43">
-        <v>81.935526319999994</v>
-      </c>
       <c r="X35" s="43">
-        <v>125.4276316</v>
+        <v>62.713815789999998</v>
       </c>
       <c r="Y35" s="43">
-        <v>171.31578949999999</v>
+        <v>85.657894740000003</v>
       </c>
       <c r="Z35" s="43">
-        <v>217.2039474</v>
+        <v>108.6019737</v>
       </c>
       <c r="AA35" s="43">
-        <v>263.15789469999999</v>
+        <v>131.5789474</v>
       </c>
     </row>
     <row r="36" spans="2:27" ht="15" thickBot="1">
@@ -8926,25 +8926,25 @@
         <v>1</v>
       </c>
       <c r="G41" s="40">
-        <v>74.8</v>
+        <v>119.68</v>
       </c>
       <c r="H41" s="40">
-        <v>249.084</v>
+        <v>398.53440000000001</v>
       </c>
       <c r="I41" s="40">
-        <v>498.16800000000001</v>
+        <v>797.06880000000001</v>
       </c>
       <c r="J41" s="40">
-        <v>762.6</v>
+        <v>1220.1600000000001</v>
       </c>
       <c r="K41" s="40">
-        <v>1041.5999999999999</v>
+        <v>1666.56</v>
       </c>
       <c r="L41" s="40">
-        <v>1320.6</v>
+        <v>2112.96</v>
       </c>
       <c r="M41" s="40">
-        <v>1600</v>
+        <v>2560</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -9018,25 +9018,25 @@
         <v>61</v>
       </c>
       <c r="U42" s="43">
-        <v>74.8</v>
+        <v>119.68</v>
       </c>
       <c r="V42" s="43">
-        <v>249.084</v>
+        <v>398.53440000000001</v>
       </c>
       <c r="W42" s="43">
-        <v>498.16800000000001</v>
+        <v>797.06880000000001</v>
       </c>
       <c r="X42" s="43">
-        <v>762.6</v>
+        <v>1220.1600000000001</v>
       </c>
       <c r="Y42" s="43">
-        <v>1041.5999999999999</v>
+        <v>1666.56</v>
       </c>
       <c r="Z42" s="43">
-        <v>1320.6</v>
+        <v>2112.96</v>
       </c>
       <c r="AA42" s="43">
-        <v>1600</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="43" spans="2:27" ht="15" thickBot="1">

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF25D43-E15F-449B-9957-38FE85F33AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17D75A-4D6E-433A-A3DD-63DB1E358C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7324,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7600,7 +7600,7 @@
         <v>702.44680849999997</v>
       </c>
       <c r="M20" s="40">
-        <v>851.06382980000001</v>
+        <v>702.44680849999997</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7644,7 +7644,7 @@
         <v>316.69064750000001</v>
       </c>
       <c r="M21" s="40">
-        <v>383.6930456</v>
+        <v>316.69064750000001</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7904,7 +7904,7 @@
         <v>186.5254237</v>
       </c>
       <c r="M25" s="40">
-        <v>225.98870059999999</v>
+        <v>186.5254237</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7969,7 +7969,7 @@
         <v>105.8173077</v>
       </c>
       <c r="M26" s="40">
-        <v>128.20512819999999</v>
+        <v>105.8173077</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -8229,7 +8229,7 @@
         <v>28.584415580000002</v>
       </c>
       <c r="M30" s="40">
-        <v>34.63203463</v>
+        <v>28.584415580000002</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8294,7 +8294,7 @@
         <v>453.81443300000001</v>
       </c>
       <c r="M31" s="40">
-        <v>549.82817869999997</v>
+        <v>453.81443300000001</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8359,7 +8359,7 @@
         <v>746.10169489999998</v>
       </c>
       <c r="M32" s="40">
-        <v>903.95480229999998</v>
+        <v>746.10169489999998</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8424,7 +8424,7 @@
         <v>146.7333333</v>
       </c>
       <c r="M33" s="40">
-        <v>177.7777778</v>
+        <v>146.7333333</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8489,7 +8489,7 @@
         <v>108.6019737</v>
       </c>
       <c r="M34" s="40">
-        <v>131.5789474</v>
+        <v>108.6019737</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17D75A-4D6E-433A-A3DD-63DB1E358C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5F06B-E86A-47D5-8B5D-913C97A62A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7325,7 +7325,7 @@
   <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="M20" sqref="M20:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7709,7 +7709,7 @@
         <v>2163.2293289999998</v>
       </c>
       <c r="M22" s="41">
-        <v>2620.9048360000002</v>
+        <v>2163.2293289999998</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7774,7 +7774,7 @@
         <v>112.0672098</v>
       </c>
       <c r="M23" s="40">
-        <v>135.77732520000001</v>
+        <v>112.0672098</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7839,7 +7839,7 @@
         <v>2641.2</v>
       </c>
       <c r="M24" s="40">
-        <v>3200</v>
+        <v>2641.2</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -8034,7 +8034,7 @@
         <v>266.96765499999998</v>
       </c>
       <c r="M27" s="40">
-        <v>323.4501348</v>
+        <v>266.96765499999998</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -8099,7 +8099,7 @@
         <v>304.7538462</v>
       </c>
       <c r="M28" s="40">
-        <v>369.2307692</v>
+        <v>304.7538462</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -8164,7 +8164,7 @@
         <v>50.792307690000001</v>
       </c>
       <c r="M29" s="40">
-        <v>61.53846154</v>
+        <v>50.792307690000001</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8554,7 +8554,7 @@
         <v>3279.49</v>
       </c>
       <c r="M35" s="40">
-        <v>3973.333333</v>
+        <v>3279.49</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8619,7 +8619,7 @@
         <v>3773.1428569999998</v>
       </c>
       <c r="M36" s="40">
-        <v>4571.4285710000004</v>
+        <v>3773.1428569999998</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -8684,7 +8684,7 @@
         <v>23.582142860000001</v>
       </c>
       <c r="M37" s="40">
-        <v>28.571428569999998</v>
+        <v>23.582142860000001</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -8749,7 +8749,7 @@
         <v>1535.5813949999999</v>
       </c>
       <c r="M38" s="40">
-        <v>1860.4651160000001</v>
+        <v>1535.5813949999999</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -8814,7 +8814,7 @@
         <v>227.6896552</v>
       </c>
       <c r="M39" s="44">
-        <v>275.86206900000002</v>
+        <v>227.6896552</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -8879,7 +8879,7 @@
         <v>2641.2</v>
       </c>
       <c r="M40" s="40">
-        <v>3200</v>
+        <v>2641.2</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -8944,7 +8944,7 @@
         <v>2112.96</v>
       </c>
       <c r="M41" s="40">
-        <v>2560</v>
+        <v>2112.96</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -9009,7 +9009,7 @@
         <v>153.55813950000001</v>
       </c>
       <c r="M42" s="40">
-        <v>186.0465116</v>
+        <v>153.55813950000001</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -9074,7 +9074,7 @@
         <v>53.858075040000003</v>
       </c>
       <c r="M43" s="40">
-        <v>65.252854810000002</v>
+        <v>53.858075040000003</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5F06B-E86A-47D5-8B5D-913C97A62A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2EE02-0407-4498-9184-3725A0DF6069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7322,10 +7322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA84"/>
+  <dimension ref="A1:AJ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:M43"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7462,7 +7462,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:36">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7483,7 +7483,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:27" ht="26">
+    <row r="18" spans="2:36" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:27" ht="62.5">
+    <row r="19" spans="2:36" ht="62.5">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:27" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="2:36" ht="24" customHeight="1" thickBot="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7582,25 +7582,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>39.787234040000001</v>
+        <v>99.468085110000004</v>
       </c>
       <c r="H20" s="40">
-        <v>132.49148940000001</v>
+        <v>331.22872339999998</v>
       </c>
       <c r="I20" s="40">
-        <v>264.98297869999999</v>
+        <v>662.45744679999996</v>
       </c>
       <c r="J20" s="40">
-        <v>405.6382979</v>
+        <v>1014.095745</v>
       </c>
       <c r="K20" s="40">
-        <v>554.04255320000004</v>
+        <v>1385.1063830000001</v>
       </c>
       <c r="L20" s="40">
-        <v>702.44680849999997</v>
+        <v>1756.117021</v>
       </c>
       <c r="M20" s="40">
-        <v>702.44680849999997</v>
+        <v>2127.6595739999998</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7609,7 +7609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="15" thickBot="1">
+    <row r="21" spans="2:36" ht="15" thickBot="1">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7626,25 +7626,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>17.937649879999999</v>
+        <v>44.844124700000002</v>
       </c>
       <c r="H21" s="40">
-        <v>59.732374100000001</v>
+        <v>149.33093529999999</v>
       </c>
       <c r="I21" s="40">
-        <v>119.4647482</v>
+        <v>298.66187050000002</v>
       </c>
       <c r="J21" s="40">
-        <v>182.87769779999999</v>
+        <v>457.19424459999999</v>
       </c>
       <c r="K21" s="40">
-        <v>249.7841727</v>
+        <v>624.46043169999996</v>
       </c>
       <c r="L21" s="40">
-        <v>316.69064750000001</v>
+        <v>791.72661870000002</v>
       </c>
       <c r="M21" s="40">
-        <v>316.69064750000001</v>
+        <v>959.23261390000005</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7673,8 +7673,29 @@
       <c r="AA21" s="43">
         <v>851.06382980000001</v>
       </c>
+      <c r="AD21" s="43">
+        <v>99.468085110000004</v>
+      </c>
+      <c r="AE21" s="43">
+        <v>331.22872339999998</v>
+      </c>
+      <c r="AF21" s="43">
+        <v>662.45744679999996</v>
+      </c>
+      <c r="AG21" s="43">
+        <v>1014.095745</v>
+      </c>
+      <c r="AH21" s="43">
+        <v>1385.1063830000001</v>
+      </c>
+      <c r="AI21" s="43">
+        <v>1756.117021</v>
+      </c>
+      <c r="AJ21" s="43">
+        <v>2127.6595739999998</v>
+      </c>
     </row>
-    <row r="22" spans="2:27" ht="15" thickBot="1">
+    <row r="22" spans="2:36" ht="15" thickBot="1">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7691,25 +7712,25 @@
         <v>1</v>
       </c>
       <c r="G22" s="41">
-        <v>122.5273011</v>
+        <v>116.6926677</v>
       </c>
       <c r="H22" s="41">
-        <v>408.01591259999998</v>
+        <v>388.58658350000002</v>
       </c>
       <c r="I22" s="41">
-        <v>816.03182530000004</v>
+        <v>777.17316689999996</v>
       </c>
       <c r="J22" s="41">
-        <v>1249.188768</v>
+        <v>1189.7035880000001</v>
       </c>
       <c r="K22" s="41">
-        <v>1706.2090479999999</v>
+        <v>1624.960998</v>
       </c>
       <c r="L22" s="41">
-        <v>2163.2293289999998</v>
+        <v>2060.2184090000001</v>
       </c>
       <c r="M22" s="41">
-        <v>2163.2293289999998</v>
+        <v>2496.0998439999998</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7738,8 +7759,29 @@
       <c r="AA22" s="43">
         <v>383.6930456</v>
       </c>
+      <c r="AD22" s="43">
+        <v>44.844124700000002</v>
+      </c>
+      <c r="AE22" s="43">
+        <v>149.33093529999999</v>
+      </c>
+      <c r="AF22" s="43">
+        <v>298.66187050000002</v>
+      </c>
+      <c r="AG22" s="43">
+        <v>457.19424459999999</v>
+      </c>
+      <c r="AH22" s="43">
+        <v>624.46043169999996</v>
+      </c>
+      <c r="AI22" s="43">
+        <v>791.72661870000002</v>
+      </c>
+      <c r="AJ22" s="43">
+        <v>959.23261390000005</v>
+      </c>
     </row>
-    <row r="23" spans="2:27" ht="15" thickBot="1">
+    <row r="23" spans="2:36" ht="15" thickBot="1">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7756,25 +7798,25 @@
         <v>1</v>
       </c>
       <c r="G23" s="40">
-        <v>6.3475899519999999</v>
+        <v>12.695179899999999</v>
       </c>
       <c r="H23" s="40">
-        <v>21.137474539999999</v>
+        <v>42.274949079999999</v>
       </c>
       <c r="I23" s="40">
-        <v>42.274949079999999</v>
+        <v>84.549898170000006</v>
       </c>
       <c r="J23" s="40">
-        <v>64.714867620000007</v>
+        <v>129.42973520000001</v>
       </c>
       <c r="K23" s="40">
-        <v>88.391038699999996</v>
+        <v>176.78207739999999</v>
       </c>
       <c r="L23" s="40">
-        <v>112.0672098</v>
+        <v>224.1344196</v>
       </c>
       <c r="M23" s="40">
-        <v>112.0672098</v>
+        <v>271.55465040000001</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7803,8 +7845,29 @@
       <c r="AA23" s="43">
         <v>2620.9048360000002</v>
       </c>
+      <c r="AD23" s="43">
+        <v>116.6926677</v>
+      </c>
+      <c r="AE23" s="43">
+        <v>388.58658350000002</v>
+      </c>
+      <c r="AF23" s="43">
+        <v>777.17316689999996</v>
+      </c>
+      <c r="AG23" s="43">
+        <v>1189.7035880000001</v>
+      </c>
+      <c r="AH23" s="43">
+        <v>1624.960998</v>
+      </c>
+      <c r="AI23" s="43">
+        <v>2060.2184090000001</v>
+      </c>
+      <c r="AJ23" s="43">
+        <v>2496.0998439999998</v>
+      </c>
     </row>
-    <row r="24" spans="2:27" ht="15" thickBot="1">
+    <row r="24" spans="2:36" ht="15" thickBot="1">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7821,25 +7884,25 @@
         <v>1</v>
       </c>
       <c r="G24" s="40">
-        <v>149.6</v>
+        <v>374</v>
       </c>
       <c r="H24" s="40">
-        <v>498.16800000000001</v>
+        <v>1245.42</v>
       </c>
       <c r="I24" s="40">
-        <v>996.33600000000001</v>
+        <v>2490.84</v>
       </c>
       <c r="J24" s="40">
-        <v>1525.2</v>
+        <v>3813</v>
       </c>
       <c r="K24" s="40">
-        <v>2083.1999999999998</v>
+        <v>5208</v>
       </c>
       <c r="L24" s="40">
-        <v>2641.2</v>
+        <v>6603</v>
       </c>
       <c r="M24" s="40">
-        <v>2641.2</v>
+        <v>8000</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -7868,8 +7931,29 @@
       <c r="AA24" s="43">
         <v>135.77732520000001</v>
       </c>
+      <c r="AD24" s="43">
+        <v>12.695179899999999</v>
+      </c>
+      <c r="AE24" s="43">
+        <v>42.274949079999999</v>
+      </c>
+      <c r="AF24" s="43">
+        <v>84.549898170000006</v>
+      </c>
+      <c r="AG24" s="43">
+        <v>129.42973520000001</v>
+      </c>
+      <c r="AH24" s="43">
+        <v>176.78207739999999</v>
+      </c>
+      <c r="AI24" s="43">
+        <v>224.1344196</v>
+      </c>
+      <c r="AJ24" s="43">
+        <v>271.55465040000001</v>
+      </c>
     </row>
-    <row r="25" spans="2:27" ht="15" thickBot="1">
+    <row r="25" spans="2:36" ht="15" thickBot="1">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7886,25 +7970,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>10.56497175</v>
+        <v>105.64971749999999</v>
       </c>
       <c r="H25" s="40">
-        <v>35.181355930000002</v>
+        <v>351.81355930000001</v>
       </c>
       <c r="I25" s="40">
-        <v>70.362711860000005</v>
+        <v>703.62711860000002</v>
       </c>
       <c r="J25" s="40">
-        <v>107.7118644</v>
+        <v>1077.1186439999999</v>
       </c>
       <c r="K25" s="40">
-        <v>147.11864410000001</v>
+        <v>1471.1864410000001</v>
       </c>
       <c r="L25" s="40">
-        <v>186.5254237</v>
+        <v>1865.2542370000001</v>
       </c>
       <c r="M25" s="40">
-        <v>186.5254237</v>
+        <v>2259.8870059999999</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7933,8 +8017,29 @@
       <c r="AA25" s="43">
         <v>3200</v>
       </c>
+      <c r="AD25" s="43">
+        <v>374</v>
+      </c>
+      <c r="AE25" s="43">
+        <v>1245.42</v>
+      </c>
+      <c r="AF25" s="43">
+        <v>2490.84</v>
+      </c>
+      <c r="AG25" s="43">
+        <v>3813</v>
+      </c>
+      <c r="AH25" s="43">
+        <v>5208</v>
+      </c>
+      <c r="AI25" s="43">
+        <v>6603</v>
+      </c>
+      <c r="AJ25" s="43">
+        <v>8000</v>
+      </c>
     </row>
-    <row r="26" spans="2:27" ht="15" thickBot="1">
+    <row r="26" spans="2:36" ht="15" thickBot="1">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -7951,25 +8056,25 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>5.9935897440000003</v>
+        <v>59.935897439999998</v>
       </c>
       <c r="H26" s="40">
-        <v>19.958653850000001</v>
+        <v>199.58653849999999</v>
       </c>
       <c r="I26" s="40">
-        <v>39.917307690000001</v>
+        <v>399.17307690000001</v>
       </c>
       <c r="J26" s="40">
-        <v>61.10576923</v>
+        <v>611.05769229999999</v>
       </c>
       <c r="K26" s="40">
-        <v>83.46153846</v>
+        <v>834.61538459999997</v>
       </c>
       <c r="L26" s="40">
-        <v>105.8173077</v>
+        <v>1058.1730769999999</v>
       </c>
       <c r="M26" s="40">
-        <v>105.8173077</v>
+        <v>1282.0512819999999</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -7998,8 +8103,29 @@
       <c r="AA26" s="43">
         <v>225.98870059999999</v>
       </c>
+      <c r="AD26" s="43">
+        <v>105.64971749999999</v>
+      </c>
+      <c r="AE26" s="43">
+        <v>351.81355930000001</v>
+      </c>
+      <c r="AF26" s="43">
+        <v>703.62711860000002</v>
+      </c>
+      <c r="AG26" s="43">
+        <v>1077.1186439999999</v>
+      </c>
+      <c r="AH26" s="43">
+        <v>1471.1864410000001</v>
+      </c>
+      <c r="AI26" s="43">
+        <v>1865.2542370000001</v>
+      </c>
+      <c r="AJ26" s="43">
+        <v>2259.8870059999999</v>
+      </c>
     </row>
-    <row r="27" spans="2:27" ht="15" thickBot="1">
+    <row r="27" spans="2:36" ht="15" thickBot="1">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -8016,25 +8142,25 @@
         <v>1</v>
       </c>
       <c r="G27" s="40">
-        <v>15.1212938</v>
+        <v>40.323450129999998</v>
       </c>
       <c r="H27" s="40">
-        <v>50.353908359999998</v>
+        <v>134.2770889</v>
       </c>
       <c r="I27" s="40">
-        <v>100.7078167</v>
+        <v>268.55417790000001</v>
       </c>
       <c r="J27" s="40">
-        <v>154.16442050000001</v>
+        <v>411.10512130000001</v>
       </c>
       <c r="K27" s="40">
-        <v>210.56603770000001</v>
+        <v>561.50943400000006</v>
       </c>
       <c r="L27" s="40">
-        <v>266.96765499999998</v>
+        <v>711.91374659999997</v>
       </c>
       <c r="M27" s="40">
-        <v>266.96765499999998</v>
+        <v>862.53369269999996</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -8063,8 +8189,29 @@
       <c r="AA27" s="43">
         <v>128.20512819999999</v>
       </c>
+      <c r="AD27" s="43">
+        <v>59.935897439999998</v>
+      </c>
+      <c r="AE27" s="43">
+        <v>199.58653849999999</v>
+      </c>
+      <c r="AF27" s="43">
+        <v>399.17307690000001</v>
+      </c>
+      <c r="AG27" s="43">
+        <v>611.05769229999999</v>
+      </c>
+      <c r="AH27" s="43">
+        <v>834.61538459999997</v>
+      </c>
+      <c r="AI27" s="43">
+        <v>1058.1730769999999</v>
+      </c>
+      <c r="AJ27" s="43">
+        <v>1282.0512819999999</v>
+      </c>
     </row>
-    <row r="28" spans="2:27" ht="15" thickBot="1">
+    <row r="28" spans="2:36" ht="15" thickBot="1">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -8081,25 +8228,25 @@
         <v>1</v>
       </c>
       <c r="G28" s="40">
-        <v>17.261538460000001</v>
+        <v>23.015384619999999</v>
       </c>
       <c r="H28" s="40">
-        <v>57.480923079999997</v>
+        <v>76.641230770000007</v>
       </c>
       <c r="I28" s="40">
-        <v>114.9618462</v>
+        <v>153.28246150000001</v>
       </c>
       <c r="J28" s="40">
-        <v>175.9846154</v>
+        <v>234.64615380000001</v>
       </c>
       <c r="K28" s="40">
-        <v>240.3692308</v>
+        <v>320.49230770000003</v>
       </c>
       <c r="L28" s="40">
-        <v>304.7538462</v>
+        <v>406.33846149999999</v>
       </c>
       <c r="M28" s="40">
-        <v>304.7538462</v>
+        <v>492.30769229999999</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -8128,8 +8275,29 @@
       <c r="AA28" s="43">
         <v>323.4501348</v>
       </c>
+      <c r="AD28" s="43">
+        <v>40.323450129999998</v>
+      </c>
+      <c r="AE28" s="43">
+        <v>134.2770889</v>
+      </c>
+      <c r="AF28" s="43">
+        <v>268.55417790000001</v>
+      </c>
+      <c r="AG28" s="43">
+        <v>411.10512130000001</v>
+      </c>
+      <c r="AH28" s="43">
+        <v>561.50943400000006</v>
+      </c>
+      <c r="AI28" s="43">
+        <v>711.91374659999997</v>
+      </c>
+      <c r="AJ28" s="43">
+        <v>862.53369269999996</v>
+      </c>
     </row>
-    <row r="29" spans="2:27" ht="15" thickBot="1">
+    <row r="29" spans="2:36" ht="15" thickBot="1">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -8146,25 +8314,25 @@
         <v>1</v>
       </c>
       <c r="G29" s="40">
-        <v>2.8769230769999998</v>
+        <v>23.015384619999999</v>
       </c>
       <c r="H29" s="40">
-        <v>9.580153846</v>
+        <v>76.641230770000007</v>
       </c>
       <c r="I29" s="40">
-        <v>19.16030769</v>
+        <v>153.28246150000001</v>
       </c>
       <c r="J29" s="40">
-        <v>29.330769230000001</v>
+        <v>234.64615380000001</v>
       </c>
       <c r="K29" s="40">
-        <v>40.061538460000001</v>
+        <v>320.49230770000003</v>
       </c>
       <c r="L29" s="40">
-        <v>50.792307690000001</v>
+        <v>406.33846149999999</v>
       </c>
       <c r="M29" s="40">
-        <v>50.792307690000001</v>
+        <v>492.30769229999999</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8193,8 +8361,29 @@
       <c r="AA29" s="43">
         <v>369.2307692</v>
       </c>
+      <c r="AD29" s="43">
+        <v>23.015384619999999</v>
+      </c>
+      <c r="AE29" s="43">
+        <v>76.641230770000007</v>
+      </c>
+      <c r="AF29" s="43">
+        <v>153.28246150000001</v>
+      </c>
+      <c r="AG29" s="43">
+        <v>234.64615380000001</v>
+      </c>
+      <c r="AH29" s="43">
+        <v>320.49230770000003</v>
+      </c>
+      <c r="AI29" s="43">
+        <v>406.33846149999999</v>
+      </c>
+      <c r="AJ29" s="43">
+        <v>492.30769229999999</v>
+      </c>
     </row>
-    <row r="30" spans="2:27" ht="15" thickBot="1">
+    <row r="30" spans="2:36" ht="15" thickBot="1">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -8211,25 +8400,25 @@
         <v>1</v>
       </c>
       <c r="G30" s="40">
-        <v>1.619047619</v>
+        <v>64.761904759999993</v>
       </c>
       <c r="H30" s="40">
-        <v>5.3914285709999996</v>
+        <v>215.6571429</v>
       </c>
       <c r="I30" s="40">
-        <v>10.782857140000001</v>
+        <v>431.31428570000003</v>
       </c>
       <c r="J30" s="40">
-        <v>16.506493509999999</v>
+        <v>660.25974029999998</v>
       </c>
       <c r="K30" s="40">
-        <v>22.545454549999999</v>
+        <v>901.81818180000005</v>
       </c>
       <c r="L30" s="40">
-        <v>28.584415580000002</v>
+        <v>1143.3766230000001</v>
       </c>
       <c r="M30" s="40">
-        <v>28.584415580000002</v>
+        <v>1385.281385</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8258,8 +8447,29 @@
       <c r="AA30" s="43">
         <v>61.53846154</v>
       </c>
+      <c r="AD30" s="43">
+        <v>23.015384619999999</v>
+      </c>
+      <c r="AE30" s="43">
+        <v>76.641230770000007</v>
+      </c>
+      <c r="AF30" s="43">
+        <v>153.28246150000001</v>
+      </c>
+      <c r="AG30" s="43">
+        <v>234.64615380000001</v>
+      </c>
+      <c r="AH30" s="43">
+        <v>320.49230770000003</v>
+      </c>
+      <c r="AI30" s="43">
+        <v>406.33846149999999</v>
+      </c>
+      <c r="AJ30" s="43">
+        <v>492.30769229999999</v>
+      </c>
     </row>
-    <row r="31" spans="2:27" ht="15" thickBot="1">
+    <row r="31" spans="2:36" ht="15" thickBot="1">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8276,25 +8486,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>25.704467350000002</v>
+        <v>12.852233679999999</v>
       </c>
       <c r="H31" s="40">
+        <v>42.797938139999999</v>
+      </c>
+      <c r="I31" s="40">
         <v>85.595876290000007</v>
       </c>
-      <c r="I31" s="40">
-        <v>171.1917526</v>
-      </c>
       <c r="J31" s="40">
-        <v>262.06185570000002</v>
+        <v>131.0309278</v>
       </c>
       <c r="K31" s="40">
-        <v>357.93814429999998</v>
+        <v>178.9690722</v>
       </c>
       <c r="L31" s="40">
-        <v>453.81443300000001</v>
+        <v>226.9072165</v>
       </c>
       <c r="M31" s="40">
-        <v>453.81443300000001</v>
+        <v>274.9140893</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8323,8 +8533,29 @@
       <c r="AA31" s="43">
         <v>34.63203463</v>
       </c>
+      <c r="AD31" s="43">
+        <v>64.761904759999993</v>
+      </c>
+      <c r="AE31" s="43">
+        <v>215.6571429</v>
+      </c>
+      <c r="AF31" s="43">
+        <v>431.31428570000003</v>
+      </c>
+      <c r="AG31" s="43">
+        <v>660.25974029999998</v>
+      </c>
+      <c r="AH31" s="43">
+        <v>901.81818180000005</v>
+      </c>
+      <c r="AI31" s="43">
+        <v>1143.3766230000001</v>
+      </c>
+      <c r="AJ31" s="43">
+        <v>1385.281385</v>
+      </c>
     </row>
-    <row r="32" spans="2:27" ht="15" thickBot="1">
+    <row r="32" spans="2:36" ht="15" thickBot="1">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8341,25 +8572,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>42.25988701</v>
+        <v>21.1299435</v>
       </c>
       <c r="H32" s="40">
+        <v>70.362711860000005</v>
+      </c>
+      <c r="I32" s="40">
         <v>140.72542369999999</v>
       </c>
-      <c r="I32" s="40">
-        <v>281.45084750000001</v>
-      </c>
       <c r="J32" s="40">
-        <v>430.84745759999998</v>
+        <v>215.42372879999999</v>
       </c>
       <c r="K32" s="40">
-        <v>588.47457629999997</v>
+        <v>294.2372881</v>
       </c>
       <c r="L32" s="40">
-        <v>746.10169489999998</v>
+        <v>373.05084749999997</v>
       </c>
       <c r="M32" s="40">
-        <v>746.10169489999998</v>
+        <v>451.97740110000001</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8388,8 +8619,29 @@
       <c r="AA32" s="43">
         <v>549.82817869999997</v>
       </c>
+      <c r="AD32" s="43">
+        <v>12.852233679999999</v>
+      </c>
+      <c r="AE32" s="43">
+        <v>42.797938139999999</v>
+      </c>
+      <c r="AF32" s="43">
+        <v>85.595876290000007</v>
+      </c>
+      <c r="AG32" s="43">
+        <v>131.0309278</v>
+      </c>
+      <c r="AH32" s="43">
+        <v>178.9690722</v>
+      </c>
+      <c r="AI32" s="43">
+        <v>226.9072165</v>
+      </c>
+      <c r="AJ32" s="43">
+        <v>274.9140893</v>
+      </c>
     </row>
-    <row r="33" spans="2:27" ht="15" thickBot="1">
+    <row r="33" spans="2:36" ht="15" thickBot="1">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8406,25 +8658,25 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>8.3111111110000007</v>
+        <v>66.488888889999998</v>
       </c>
       <c r="H33" s="40">
-        <v>27.675999999999998</v>
+        <v>221.40799999999999</v>
       </c>
       <c r="I33" s="40">
-        <v>55.351999999999997</v>
+        <v>442.81599999999997</v>
       </c>
       <c r="J33" s="40">
-        <v>84.733333329999994</v>
+        <v>677.8666667</v>
       </c>
       <c r="K33" s="40">
-        <v>115.7333333</v>
+        <v>925.8666667</v>
       </c>
       <c r="L33" s="40">
-        <v>146.7333333</v>
+        <v>1173.866667</v>
       </c>
       <c r="M33" s="40">
-        <v>146.7333333</v>
+        <v>1422.2222220000001</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8453,8 +8705,29 @@
       <c r="AA33" s="43">
         <v>903.95480229999998</v>
       </c>
+      <c r="AD33" s="43">
+        <v>21.1299435</v>
+      </c>
+      <c r="AE33" s="43">
+        <v>70.362711860000005</v>
+      </c>
+      <c r="AF33" s="43">
+        <v>140.72542369999999</v>
+      </c>
+      <c r="AG33" s="43">
+        <v>215.42372879999999</v>
+      </c>
+      <c r="AH33" s="43">
+        <v>294.2372881</v>
+      </c>
+      <c r="AI33" s="43">
+        <v>373.05084749999997</v>
+      </c>
+      <c r="AJ33" s="43">
+        <v>451.97740110000001</v>
+      </c>
     </row>
-    <row r="34" spans="2:27" ht="15" thickBot="1">
+    <row r="34" spans="2:36" ht="15" thickBot="1">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8471,25 +8744,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>6.1513157889999999</v>
+        <v>49.21052632</v>
       </c>
       <c r="H34" s="40">
-        <v>20.483881579999998</v>
+        <v>163.87105260000001</v>
       </c>
       <c r="I34" s="40">
-        <v>40.967763159999997</v>
+        <v>327.74210529999999</v>
       </c>
       <c r="J34" s="40">
-        <v>62.713815789999998</v>
+        <v>501.71052630000003</v>
       </c>
       <c r="K34" s="40">
-        <v>85.657894740000003</v>
+        <v>685.26315790000001</v>
       </c>
       <c r="L34" s="40">
-        <v>108.6019737</v>
+        <v>868.81578950000005</v>
       </c>
       <c r="M34" s="40">
-        <v>108.6019737</v>
+        <v>1052.6315790000001</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8518,8 +8791,29 @@
       <c r="AA34" s="43">
         <v>177.7777778</v>
       </c>
+      <c r="AD34" s="43">
+        <v>66.488888889999998</v>
+      </c>
+      <c r="AE34" s="43">
+        <v>221.40799999999999</v>
+      </c>
+      <c r="AF34" s="43">
+        <v>442.81599999999997</v>
+      </c>
+      <c r="AG34" s="43">
+        <v>677.8666667</v>
+      </c>
+      <c r="AH34" s="43">
+        <v>925.8666667</v>
+      </c>
+      <c r="AI34" s="43">
+        <v>1173.866667</v>
+      </c>
+      <c r="AJ34" s="43">
+        <v>1422.2222220000001</v>
+      </c>
     </row>
-    <row r="35" spans="2:27" ht="15" thickBot="1">
+    <row r="35" spans="2:36" ht="15" thickBot="1">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8536,25 +8830,25 @@
         <v>1</v>
       </c>
       <c r="G35" s="40">
-        <v>185.75333330000001</v>
+        <v>49.866666670000001</v>
       </c>
       <c r="H35" s="40">
-        <v>618.55859999999996</v>
+        <v>166.05600000000001</v>
       </c>
       <c r="I35" s="40">
-        <v>1237.1171999999999</v>
+        <v>332.11200000000002</v>
       </c>
       <c r="J35" s="40">
-        <v>1893.79</v>
+        <v>508.4</v>
       </c>
       <c r="K35" s="40">
-        <v>2586.64</v>
+        <v>694.4</v>
       </c>
       <c r="L35" s="40">
-        <v>3279.49</v>
+        <v>880.4</v>
       </c>
       <c r="M35" s="40">
-        <v>3279.49</v>
+        <v>1066.666667</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8583,8 +8877,29 @@
       <c r="AA35" s="43">
         <v>131.5789474</v>
       </c>
+      <c r="AD35" s="43">
+        <v>49.21052632</v>
+      </c>
+      <c r="AE35" s="43">
+        <v>163.87105260000001</v>
+      </c>
+      <c r="AF35" s="43">
+        <v>327.74210529999999</v>
+      </c>
+      <c r="AG35" s="43">
+        <v>501.71052630000003</v>
+      </c>
+      <c r="AH35" s="43">
+        <v>685.26315790000001</v>
+      </c>
+      <c r="AI35" s="43">
+        <v>868.81578950000005</v>
+      </c>
+      <c r="AJ35" s="43">
+        <v>1052.6315790000001</v>
+      </c>
     </row>
-    <row r="36" spans="2:27" ht="15" thickBot="1">
+    <row r="36" spans="2:36" ht="15" thickBot="1">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8601,25 +8916,25 @@
         <v>1</v>
       </c>
       <c r="G36" s="40">
-        <v>213.7142857</v>
+        <v>53.428571429999998</v>
       </c>
       <c r="H36" s="40">
-        <v>711.66857140000002</v>
+        <v>177.91714289999999</v>
       </c>
       <c r="I36" s="40">
-        <v>1423.337143</v>
+        <v>355.83428570000001</v>
       </c>
       <c r="J36" s="40">
-        <v>2178.8571430000002</v>
+        <v>544.7142857</v>
       </c>
       <c r="K36" s="40">
-        <v>2976</v>
+        <v>744</v>
       </c>
       <c r="L36" s="40">
-        <v>3773.1428569999998</v>
+        <v>943.2857143</v>
       </c>
       <c r="M36" s="40">
-        <v>3773.1428569999998</v>
+        <v>1142.857143</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -8648,8 +8963,29 @@
       <c r="AA36" s="43">
         <v>3973.333333</v>
       </c>
+      <c r="AD36" s="43">
+        <v>49.866666670000001</v>
+      </c>
+      <c r="AE36" s="43">
+        <v>166.05600000000001</v>
+      </c>
+      <c r="AF36" s="43">
+        <v>332.11200000000002</v>
+      </c>
+      <c r="AG36" s="43">
+        <v>508.4</v>
+      </c>
+      <c r="AH36" s="43">
+        <v>694.4</v>
+      </c>
+      <c r="AI36" s="43">
+        <v>880.4</v>
+      </c>
+      <c r="AJ36" s="43">
+        <v>1066.666667</v>
+      </c>
     </row>
-    <row r="37" spans="2:27" ht="15" thickBot="1">
+    <row r="37" spans="2:36" ht="15" thickBot="1">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -8666,25 +9002,25 @@
         <v>1</v>
       </c>
       <c r="G37" s="40">
-        <v>1.335714286</v>
+        <v>26.714285709999999</v>
       </c>
       <c r="H37" s="40">
-        <v>4.4479285710000003</v>
+        <v>88.958571430000006</v>
       </c>
       <c r="I37" s="40">
-        <v>8.8958571430000006</v>
+        <v>177.91714289999999</v>
       </c>
       <c r="J37" s="40">
-        <v>13.61785714</v>
+        <v>272.35714289999999</v>
       </c>
       <c r="K37" s="40">
-        <v>18.600000000000001</v>
+        <v>372</v>
       </c>
       <c r="L37" s="40">
-        <v>23.582142860000001</v>
+        <v>471.64285710000001</v>
       </c>
       <c r="M37" s="40">
-        <v>23.582142860000001</v>
+        <v>571.42857140000001</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -8713,8 +9049,29 @@
       <c r="AA37" s="43">
         <v>4571.4285710000004</v>
       </c>
+      <c r="AD37" s="43">
+        <v>53.428571429999998</v>
+      </c>
+      <c r="AE37" s="43">
+        <v>177.91714289999999</v>
+      </c>
+      <c r="AF37" s="43">
+        <v>355.83428570000001</v>
+      </c>
+      <c r="AG37" s="43">
+        <v>544.7142857</v>
+      </c>
+      <c r="AH37" s="43">
+        <v>744</v>
+      </c>
+      <c r="AI37" s="43">
+        <v>943.2857143</v>
+      </c>
+      <c r="AJ37" s="43">
+        <v>1142.857143</v>
+      </c>
     </row>
-    <row r="38" spans="2:27" ht="15" thickBot="1">
+    <row r="38" spans="2:36" ht="15" thickBot="1">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -8731,25 +9088,25 @@
         <v>1</v>
       </c>
       <c r="G38" s="40">
-        <v>86.976744190000005</v>
+        <v>26.093023259999999</v>
       </c>
       <c r="H38" s="40">
-        <v>289.63255809999998</v>
+        <v>86.88976744</v>
       </c>
       <c r="I38" s="40">
-        <v>579.26511630000005</v>
+        <v>173.77953489999999</v>
       </c>
       <c r="J38" s="40">
-        <v>886.74418600000001</v>
+        <v>266.02325580000002</v>
       </c>
       <c r="K38" s="40">
-        <v>1211.162791</v>
+        <v>363.34883719999999</v>
       </c>
       <c r="L38" s="40">
-        <v>1535.5813949999999</v>
+        <v>460.67441860000002</v>
       </c>
       <c r="M38" s="40">
-        <v>1535.5813949999999</v>
+        <v>558.13953489999994</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -8778,8 +9135,29 @@
       <c r="AA38" s="43">
         <v>28.571428569999998</v>
       </c>
+      <c r="AD38" s="43">
+        <v>26.714285709999999</v>
+      </c>
+      <c r="AE38" s="43">
+        <v>88.958571430000006</v>
+      </c>
+      <c r="AF38" s="43">
+        <v>177.91714289999999</v>
+      </c>
+      <c r="AG38" s="43">
+        <v>272.35714289999999</v>
+      </c>
+      <c r="AH38" s="43">
+        <v>372</v>
+      </c>
+      <c r="AI38" s="43">
+        <v>471.64285710000001</v>
+      </c>
+      <c r="AJ38" s="43">
+        <v>571.42857140000001</v>
+      </c>
     </row>
-    <row r="39" spans="2:27" ht="15" thickBot="1">
+    <row r="39" spans="2:36" ht="15" thickBot="1">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -8796,25 +9174,25 @@
         <v>1</v>
       </c>
       <c r="G39" s="40">
-        <v>12.89655172</v>
+        <v>38.689655170000002</v>
       </c>
       <c r="H39" s="40">
-        <v>42.945517240000001</v>
+        <v>128.8365517</v>
       </c>
       <c r="I39" s="44">
-        <v>85.891034480000002</v>
+        <v>257.6731034</v>
       </c>
       <c r="J39" s="44">
-        <v>131.48275860000001</v>
+        <v>394.4482759</v>
       </c>
       <c r="K39" s="44">
-        <v>179.58620690000001</v>
+        <v>538.75862070000005</v>
       </c>
       <c r="L39" s="44">
-        <v>227.6896552</v>
+        <v>683.06896549999999</v>
       </c>
       <c r="M39" s="44">
-        <v>227.6896552</v>
+        <v>827.58620689999998</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -8843,8 +9221,29 @@
       <c r="AA39" s="43">
         <v>1860.4651160000001</v>
       </c>
+      <c r="AD39" s="43">
+        <v>26.093023259999999</v>
+      </c>
+      <c r="AE39" s="43">
+        <v>86.88976744</v>
+      </c>
+      <c r="AF39" s="43">
+        <v>173.77953489999999</v>
+      </c>
+      <c r="AG39" s="43">
+        <v>266.02325580000002</v>
+      </c>
+      <c r="AH39" s="43">
+        <v>363.34883719999999</v>
+      </c>
+      <c r="AI39" s="43">
+        <v>460.67441860000002</v>
+      </c>
+      <c r="AJ39" s="43">
+        <v>558.13953489999994</v>
+      </c>
     </row>
-    <row r="40" spans="2:27" ht="15" thickBot="1">
+    <row r="40" spans="2:36" ht="15" thickBot="1">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -8861,25 +9260,25 @@
         <v>1</v>
       </c>
       <c r="G40" s="40">
-        <v>149.6</v>
+        <v>70.125</v>
       </c>
       <c r="H40" s="40">
-        <v>498.16800000000001</v>
+        <v>233.51625000000001</v>
       </c>
       <c r="I40" s="40">
-        <v>996.33600000000001</v>
+        <v>467.03250000000003</v>
       </c>
       <c r="J40" s="40">
-        <v>1525.2</v>
+        <v>714.9375</v>
       </c>
       <c r="K40" s="40">
-        <v>2083.1999999999998</v>
+        <v>976.5</v>
       </c>
       <c r="L40" s="40">
-        <v>2641.2</v>
+        <v>1238.0625</v>
       </c>
       <c r="M40" s="40">
-        <v>2641.2</v>
+        <v>1500</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -8908,8 +9307,29 @@
       <c r="AA40" s="43">
         <v>275.86206900000002</v>
       </c>
+      <c r="AD40" s="43">
+        <v>38.689655170000002</v>
+      </c>
+      <c r="AE40" s="43">
+        <v>128.8365517</v>
+      </c>
+      <c r="AF40" s="43">
+        <v>257.6731034</v>
+      </c>
+      <c r="AG40" s="43">
+        <v>394.4482759</v>
+      </c>
+      <c r="AH40" s="43">
+        <v>538.75862070000005</v>
+      </c>
+      <c r="AI40" s="43">
+        <v>683.06896549999999</v>
+      </c>
+      <c r="AJ40" s="43">
+        <v>827.58620689999998</v>
+      </c>
     </row>
-    <row r="41" spans="2:27" ht="15" thickBot="1">
+    <row r="41" spans="2:36" ht="15" thickBot="1">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -8926,25 +9346,25 @@
         <v>1</v>
       </c>
       <c r="G41" s="40">
-        <v>119.68</v>
+        <v>29.92</v>
       </c>
       <c r="H41" s="40">
-        <v>398.53440000000001</v>
+        <v>99.633600000000001</v>
       </c>
       <c r="I41" s="40">
-        <v>797.06880000000001</v>
+        <v>199.2672</v>
       </c>
       <c r="J41" s="40">
-        <v>1220.1600000000001</v>
+        <v>305.04000000000002</v>
       </c>
       <c r="K41" s="40">
-        <v>1666.56</v>
+        <v>416.64</v>
       </c>
       <c r="L41" s="40">
-        <v>2112.96</v>
+        <v>528.24</v>
       </c>
       <c r="M41" s="40">
-        <v>2112.96</v>
+        <v>640</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -8973,8 +9393,29 @@
       <c r="AA41" s="43">
         <v>3200</v>
       </c>
+      <c r="AD41" s="43">
+        <v>70.125</v>
+      </c>
+      <c r="AE41" s="43">
+        <v>233.51625000000001</v>
+      </c>
+      <c r="AF41" s="43">
+        <v>467.03250000000003</v>
+      </c>
+      <c r="AG41" s="43">
+        <v>714.9375</v>
+      </c>
+      <c r="AH41" s="43">
+        <v>976.5</v>
+      </c>
+      <c r="AI41" s="43">
+        <v>1238.0625</v>
+      </c>
+      <c r="AJ41" s="43">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="42" spans="2:27" ht="15" thickBot="1">
+    <row r="42" spans="2:36" ht="15" thickBot="1">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -8991,25 +9432,25 @@
         <v>1</v>
       </c>
       <c r="G42" s="40">
-        <v>8.6976744190000002</v>
+        <v>52.186046509999997</v>
       </c>
       <c r="H42" s="40">
-        <v>28.96325581</v>
+        <v>173.77953489999999</v>
       </c>
       <c r="I42" s="40">
-        <v>57.92651163</v>
+        <v>347.55906979999997</v>
       </c>
       <c r="J42" s="40">
-        <v>88.674418599999996</v>
+        <v>532.04651160000003</v>
       </c>
       <c r="K42" s="40">
-        <v>121.1162791</v>
+        <v>726.69767439999998</v>
       </c>
       <c r="L42" s="40">
-        <v>153.55813950000001</v>
+        <v>921.34883720000005</v>
       </c>
       <c r="M42" s="40">
-        <v>153.55813950000001</v>
+        <v>1116.27907</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -9038,8 +9479,29 @@
       <c r="AA42" s="43">
         <v>2560</v>
       </c>
+      <c r="AD42" s="43">
+        <v>29.92</v>
+      </c>
+      <c r="AE42" s="43">
+        <v>99.633600000000001</v>
+      </c>
+      <c r="AF42" s="43">
+        <v>199.2672</v>
+      </c>
+      <c r="AG42" s="43">
+        <v>305.04000000000002</v>
+      </c>
+      <c r="AH42" s="43">
+        <v>416.64</v>
+      </c>
+      <c r="AI42" s="43">
+        <v>528.24</v>
+      </c>
+      <c r="AJ42" s="43">
+        <v>640</v>
+      </c>
     </row>
-    <row r="43" spans="2:27" ht="15" thickBot="1">
+    <row r="43" spans="2:36" ht="15" thickBot="1">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -9056,25 +9518,25 @@
         <v>1</v>
       </c>
       <c r="G43" s="40">
-        <v>3.0505709620000001</v>
+        <v>18.30342577</v>
       </c>
       <c r="H43" s="40">
-        <v>10.15840131</v>
+        <v>60.950407830000003</v>
       </c>
       <c r="I43" s="40">
-        <v>20.31680261</v>
+        <v>121.9008157</v>
       </c>
       <c r="J43" s="40">
-        <v>31.10114192</v>
+        <v>186.6068515</v>
       </c>
       <c r="K43" s="40">
-        <v>42.479608480000003</v>
+        <v>254.87765089999999</v>
       </c>
       <c r="L43" s="40">
-        <v>53.858075040000003</v>
+        <v>323.14845020000001</v>
       </c>
       <c r="M43" s="40">
-        <v>53.858075040000003</v>
+        <v>391.51712889999999</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>
@@ -9103,8 +9565,29 @@
       <c r="AA43" s="43">
         <v>186.0465116</v>
       </c>
+      <c r="AD43" s="43">
+        <v>52.186046509999997</v>
+      </c>
+      <c r="AE43" s="43">
+        <v>173.77953489999999</v>
+      </c>
+      <c r="AF43" s="43">
+        <v>347.55906979999997</v>
+      </c>
+      <c r="AG43" s="43">
+        <v>532.04651160000003</v>
+      </c>
+      <c r="AH43" s="43">
+        <v>726.69767439999998</v>
+      </c>
+      <c r="AI43" s="43">
+        <v>921.34883720000005</v>
+      </c>
+      <c r="AJ43" s="43">
+        <v>1116.27907</v>
+      </c>
     </row>
-    <row r="44" spans="2:27" ht="15" thickBot="1">
+    <row r="44" spans="2:36" ht="15" thickBot="1">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
@@ -9131,8 +9614,29 @@
       <c r="AA44" s="43">
         <v>65.252854810000002</v>
       </c>
+      <c r="AD44" s="43">
+        <v>18.30342577</v>
+      </c>
+      <c r="AE44" s="43">
+        <v>60.950407830000003</v>
+      </c>
+      <c r="AF44" s="43">
+        <v>121.9008157</v>
+      </c>
+      <c r="AG44" s="43">
+        <v>186.6068515</v>
+      </c>
+      <c r="AH44" s="43">
+        <v>254.87765089999999</v>
+      </c>
+      <c r="AI44" s="43">
+        <v>323.14845020000001</v>
+      </c>
+      <c r="AJ44" s="43">
+        <v>391.51712889999999</v>
+      </c>
     </row>
-    <row r="45" spans="2:27">
+    <row r="45" spans="2:36">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -9151,7 +9655,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:27">
+    <row r="48" spans="2:36">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2EE02-0407-4498-9184-3725A0DF6069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CA6B2D-193A-4FD0-BAD8-E0A86CE27747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7324,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:M43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7600,7 +7600,7 @@
         <v>1756.117021</v>
       </c>
       <c r="M20" s="40">
-        <v>2127.6595739999998</v>
+        <v>1756.117021</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7644,7 +7644,7 @@
         <v>791.72661870000002</v>
       </c>
       <c r="M21" s="40">
-        <v>959.23261390000005</v>
+        <v>791.72661870000002</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7730,7 +7730,7 @@
         <v>2060.2184090000001</v>
       </c>
       <c r="M22" s="41">
-        <v>2496.0998439999998</v>
+        <v>2060.2184090000001</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7816,7 +7816,7 @@
         <v>224.1344196</v>
       </c>
       <c r="M23" s="40">
-        <v>271.55465040000001</v>
+        <v>224.1344196</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7902,7 +7902,7 @@
         <v>6603</v>
       </c>
       <c r="M24" s="40">
-        <v>8000</v>
+        <v>6603</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -7988,7 +7988,7 @@
         <v>1865.2542370000001</v>
       </c>
       <c r="M25" s="40">
-        <v>2259.8870059999999</v>
+        <v>1865.2542370000001</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -8074,7 +8074,7 @@
         <v>1058.1730769999999</v>
       </c>
       <c r="M26" s="40">
-        <v>1282.0512819999999</v>
+        <v>1058.1730769999999</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -8160,7 +8160,7 @@
         <v>711.91374659999997</v>
       </c>
       <c r="M27" s="40">
-        <v>862.53369269999996</v>
+        <v>711.91374659999997</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -8246,7 +8246,7 @@
         <v>406.33846149999999</v>
       </c>
       <c r="M28" s="40">
-        <v>492.30769229999999</v>
+        <v>406.33846149999999</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -8332,7 +8332,7 @@
         <v>406.33846149999999</v>
       </c>
       <c r="M29" s="40">
-        <v>492.30769229999999</v>
+        <v>406.33846149999999</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8418,7 +8418,7 @@
         <v>1143.3766230000001</v>
       </c>
       <c r="M30" s="40">
-        <v>1385.281385</v>
+        <v>1143.3766230000001</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8504,7 +8504,7 @@
         <v>226.9072165</v>
       </c>
       <c r="M31" s="40">
-        <v>274.9140893</v>
+        <v>226.9072165</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8590,7 +8590,7 @@
         <v>373.05084749999997</v>
       </c>
       <c r="M32" s="40">
-        <v>451.97740110000001</v>
+        <v>373.05084749999997</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8676,7 +8676,7 @@
         <v>1173.866667</v>
       </c>
       <c r="M33" s="40">
-        <v>1422.2222220000001</v>
+        <v>1173.866667</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8762,7 +8762,7 @@
         <v>868.81578950000005</v>
       </c>
       <c r="M34" s="40">
-        <v>1052.6315790000001</v>
+        <v>868.81578950000005</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8848,7 +8848,7 @@
         <v>880.4</v>
       </c>
       <c r="M35" s="40">
-        <v>1066.666667</v>
+        <v>880.4</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8934,7 +8934,7 @@
         <v>943.2857143</v>
       </c>
       <c r="M36" s="40">
-        <v>1142.857143</v>
+        <v>943.2857143</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -9020,7 +9020,7 @@
         <v>471.64285710000001</v>
       </c>
       <c r="M37" s="40">
-        <v>571.42857140000001</v>
+        <v>471.64285710000001</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -9106,7 +9106,7 @@
         <v>460.67441860000002</v>
       </c>
       <c r="M38" s="40">
-        <v>558.13953489999994</v>
+        <v>460.67441860000002</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -9192,7 +9192,7 @@
         <v>683.06896549999999</v>
       </c>
       <c r="M39" s="44">
-        <v>827.58620689999998</v>
+        <v>683.06896549999999</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -9278,7 +9278,7 @@
         <v>1238.0625</v>
       </c>
       <c r="M40" s="40">
-        <v>1500</v>
+        <v>1238.0625</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -9364,7 +9364,7 @@
         <v>528.24</v>
       </c>
       <c r="M41" s="40">
-        <v>640</v>
+        <v>528.24</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -9450,7 +9450,7 @@
         <v>921.34883720000005</v>
       </c>
       <c r="M42" s="40">
-        <v>1116.27907</v>
+        <v>921.34883720000005</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -9536,7 +9536,7 @@
         <v>323.14845020000001</v>
       </c>
       <c r="M43" s="40">
-        <v>391.51712889999999</v>
+        <v>323.14845020000001</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CA6B2D-193A-4FD0-BAD8-E0A86CE27747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E24E72-3514-461E-8F32-C0E14A14E96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4359,13 +4359,13 @@
     <xf numFmtId="0" fontId="11" fillId="53" borderId="0" xfId="1131" applyFill="1"/>
     <xf numFmtId="3" fontId="17" fillId="5" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="17" fillId="53" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="120" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="54" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2182">
     <cellStyle name="20 % - Akzent1 2" xfId="36" xr:uid="{49DD0F8E-2B7E-4C02-B7DD-2A9C972B592C}"/>
@@ -7322,9 +7322,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ84"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="M20" sqref="M20:M43"/>
     </sheetView>
   </sheetViews>
@@ -7462,7 +7462,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:22">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7483,7 +7483,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:36" ht="26">
+    <row r="18" spans="2:22" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:36" ht="62.5">
+    <row r="19" spans="2:22" ht="63" thickBot="1">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7546,11 +7546,11 @@
       <c r="F19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
@@ -7565,7 +7565,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:36" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="2:22" ht="24" customHeight="1" thickBot="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>1756.117021</v>
       </c>
       <c r="M20" s="40">
-        <v>1756.117021</v>
+        <v>2127.6595739999998</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7608,8 +7608,11 @@
       <c r="O20" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="V20" s="44">
+        <v>2127.6595739999998</v>
+      </c>
     </row>
-    <row r="21" spans="2:36" ht="15" thickBot="1">
+    <row r="21" spans="2:22" ht="15" thickBot="1">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7644,7 +7647,7 @@
         <v>791.72661870000002</v>
       </c>
       <c r="M21" s="40">
-        <v>791.72661870000002</v>
+        <v>959.23261390000005</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7652,50 +7655,11 @@
       <c r="O21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U21" s="43">
-        <v>39.787234040000001</v>
-      </c>
-      <c r="V21" s="43">
-        <v>132.49148940000001</v>
-      </c>
-      <c r="W21" s="43">
-        <v>264.98297869999999</v>
-      </c>
-      <c r="X21" s="43">
-        <v>405.6382979</v>
-      </c>
-      <c r="Y21" s="43">
-        <v>554.04255320000004</v>
-      </c>
-      <c r="Z21" s="43">
-        <v>702.44680849999997</v>
-      </c>
-      <c r="AA21" s="43">
-        <v>851.06382980000001</v>
-      </c>
-      <c r="AD21" s="43">
-        <v>99.468085110000004</v>
-      </c>
-      <c r="AE21" s="43">
-        <v>331.22872339999998</v>
-      </c>
-      <c r="AF21" s="43">
-        <v>662.45744679999996</v>
-      </c>
-      <c r="AG21" s="43">
-        <v>1014.095745</v>
-      </c>
-      <c r="AH21" s="43">
-        <v>1385.1063830000001</v>
-      </c>
-      <c r="AI21" s="43">
-        <v>1756.117021</v>
-      </c>
-      <c r="AJ21" s="43">
-        <v>2127.6595739999998</v>
+      <c r="V21" s="44">
+        <v>959.23261390000005</v>
       </c>
     </row>
-    <row r="22" spans="2:36" ht="15" thickBot="1">
+    <row r="22" spans="2:22" ht="15" thickBot="1">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7730,7 +7694,7 @@
         <v>2060.2184090000001</v>
       </c>
       <c r="M22" s="41">
-        <v>2060.2184090000001</v>
+        <v>2496.0998439999998</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7738,50 +7702,11 @@
       <c r="O22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U22" s="43">
-        <v>17.937649879999999</v>
-      </c>
-      <c r="V22" s="43">
-        <v>59.732374100000001</v>
-      </c>
-      <c r="W22" s="43">
-        <v>119.4647482</v>
-      </c>
-      <c r="X22" s="43">
-        <v>182.87769779999999</v>
-      </c>
-      <c r="Y22" s="43">
-        <v>249.7841727</v>
-      </c>
-      <c r="Z22" s="43">
-        <v>316.69064750000001</v>
-      </c>
-      <c r="AA22" s="43">
-        <v>383.6930456</v>
-      </c>
-      <c r="AD22" s="43">
-        <v>44.844124700000002</v>
-      </c>
-      <c r="AE22" s="43">
-        <v>149.33093529999999</v>
-      </c>
-      <c r="AF22" s="43">
-        <v>298.66187050000002</v>
-      </c>
-      <c r="AG22" s="43">
-        <v>457.19424459999999</v>
-      </c>
-      <c r="AH22" s="43">
-        <v>624.46043169999996</v>
-      </c>
-      <c r="AI22" s="43">
-        <v>791.72661870000002</v>
-      </c>
-      <c r="AJ22" s="43">
-        <v>959.23261390000005</v>
+      <c r="V22" s="44">
+        <v>2496.0998439999998</v>
       </c>
     </row>
-    <row r="23" spans="2:36" ht="15" thickBot="1">
+    <row r="23" spans="2:22" ht="15" thickBot="1">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7816,7 +7741,7 @@
         <v>224.1344196</v>
       </c>
       <c r="M23" s="40">
-        <v>224.1344196</v>
+        <v>271.55465040000001</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7824,50 +7749,11 @@
       <c r="O23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U23" s="43">
-        <v>122.5273011</v>
-      </c>
-      <c r="V23" s="43">
-        <v>408.01591259999998</v>
-      </c>
-      <c r="W23" s="43">
-        <v>816.03182530000004</v>
-      </c>
-      <c r="X23" s="43">
-        <v>1249.188768</v>
-      </c>
-      <c r="Y23" s="43">
-        <v>1706.2090479999999</v>
-      </c>
-      <c r="Z23" s="43">
-        <v>2163.2293289999998</v>
-      </c>
-      <c r="AA23" s="43">
-        <v>2620.9048360000002</v>
-      </c>
-      <c r="AD23" s="43">
-        <v>116.6926677</v>
-      </c>
-      <c r="AE23" s="43">
-        <v>388.58658350000002</v>
-      </c>
-      <c r="AF23" s="43">
-        <v>777.17316689999996</v>
-      </c>
-      <c r="AG23" s="43">
-        <v>1189.7035880000001</v>
-      </c>
-      <c r="AH23" s="43">
-        <v>1624.960998</v>
-      </c>
-      <c r="AI23" s="43">
-        <v>2060.2184090000001</v>
-      </c>
-      <c r="AJ23" s="43">
-        <v>2496.0998439999998</v>
+      <c r="V23" s="44">
+        <v>271.55465040000001</v>
       </c>
     </row>
-    <row r="24" spans="2:36" ht="15" thickBot="1">
+    <row r="24" spans="2:22" ht="15" thickBot="1">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7902,7 +7788,7 @@
         <v>6603</v>
       </c>
       <c r="M24" s="40">
-        <v>6603</v>
+        <v>8000</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -7910,50 +7796,11 @@
       <c r="O24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U24" s="43">
-        <v>6.3475899519999999</v>
-      </c>
-      <c r="V24" s="43">
-        <v>21.137474539999999</v>
-      </c>
-      <c r="W24" s="43">
-        <v>42.274949079999999</v>
-      </c>
-      <c r="X24" s="43">
-        <v>64.714867620000007</v>
-      </c>
-      <c r="Y24" s="43">
-        <v>88.391038699999996</v>
-      </c>
-      <c r="Z24" s="43">
-        <v>112.0672098</v>
-      </c>
-      <c r="AA24" s="43">
-        <v>135.77732520000001</v>
-      </c>
-      <c r="AD24" s="43">
-        <v>12.695179899999999</v>
-      </c>
-      <c r="AE24" s="43">
-        <v>42.274949079999999</v>
-      </c>
-      <c r="AF24" s="43">
-        <v>84.549898170000006</v>
-      </c>
-      <c r="AG24" s="43">
-        <v>129.42973520000001</v>
-      </c>
-      <c r="AH24" s="43">
-        <v>176.78207739999999</v>
-      </c>
-      <c r="AI24" s="43">
-        <v>224.1344196</v>
-      </c>
-      <c r="AJ24" s="43">
-        <v>271.55465040000001</v>
+      <c r="V24" s="44">
+        <v>8000</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="15" thickBot="1">
+    <row r="25" spans="2:22" ht="15" thickBot="1">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7988,7 +7835,7 @@
         <v>1865.2542370000001</v>
       </c>
       <c r="M25" s="40">
-        <v>1865.2542370000001</v>
+        <v>2259.8870059999999</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7996,50 +7843,11 @@
       <c r="O25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U25" s="43">
-        <v>149.6</v>
-      </c>
-      <c r="V25" s="43">
-        <v>498.16800000000001</v>
-      </c>
-      <c r="W25" s="43">
-        <v>996.33600000000001</v>
-      </c>
-      <c r="X25" s="43">
-        <v>1525.2</v>
-      </c>
-      <c r="Y25" s="43">
-        <v>2083.1999999999998</v>
-      </c>
-      <c r="Z25" s="43">
-        <v>2641.2</v>
-      </c>
-      <c r="AA25" s="43">
-        <v>3200</v>
-      </c>
-      <c r="AD25" s="43">
-        <v>374</v>
-      </c>
-      <c r="AE25" s="43">
-        <v>1245.42</v>
-      </c>
-      <c r="AF25" s="43">
-        <v>2490.84</v>
-      </c>
-      <c r="AG25" s="43">
-        <v>3813</v>
-      </c>
-      <c r="AH25" s="43">
-        <v>5208</v>
-      </c>
-      <c r="AI25" s="43">
-        <v>6603</v>
-      </c>
-      <c r="AJ25" s="43">
-        <v>8000</v>
+      <c r="V25" s="44">
+        <v>2259.8870059999999</v>
       </c>
     </row>
-    <row r="26" spans="2:36" ht="15" thickBot="1">
+    <row r="26" spans="2:22" ht="15" thickBot="1">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -8074,7 +7882,7 @@
         <v>1058.1730769999999</v>
       </c>
       <c r="M26" s="40">
-        <v>1058.1730769999999</v>
+        <v>1282.0512819999999</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -8082,50 +7890,11 @@
       <c r="O26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U26" s="43">
-        <v>10.56497175</v>
-      </c>
-      <c r="V26" s="43">
-        <v>35.181355930000002</v>
-      </c>
-      <c r="W26" s="43">
-        <v>70.362711860000005</v>
-      </c>
-      <c r="X26" s="43">
-        <v>107.7118644</v>
-      </c>
-      <c r="Y26" s="43">
-        <v>147.11864410000001</v>
-      </c>
-      <c r="Z26" s="43">
-        <v>186.5254237</v>
-      </c>
-      <c r="AA26" s="43">
-        <v>225.98870059999999</v>
-      </c>
-      <c r="AD26" s="43">
-        <v>105.64971749999999</v>
-      </c>
-      <c r="AE26" s="43">
-        <v>351.81355930000001</v>
-      </c>
-      <c r="AF26" s="43">
-        <v>703.62711860000002</v>
-      </c>
-      <c r="AG26" s="43">
-        <v>1077.1186439999999</v>
-      </c>
-      <c r="AH26" s="43">
-        <v>1471.1864410000001</v>
-      </c>
-      <c r="AI26" s="43">
-        <v>1865.2542370000001</v>
-      </c>
-      <c r="AJ26" s="43">
-        <v>2259.8870059999999</v>
+      <c r="V26" s="44">
+        <v>1282.0512819999999</v>
       </c>
     </row>
-    <row r="27" spans="2:36" ht="15" thickBot="1">
+    <row r="27" spans="2:22" ht="15" thickBot="1">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -8160,7 +7929,7 @@
         <v>711.91374659999997</v>
       </c>
       <c r="M27" s="40">
-        <v>711.91374659999997</v>
+        <v>862.53369269999996</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -8168,50 +7937,11 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U27" s="43">
-        <v>5.9935897440000003</v>
-      </c>
-      <c r="V27" s="43">
-        <v>19.958653850000001</v>
-      </c>
-      <c r="W27" s="43">
-        <v>39.917307690000001</v>
-      </c>
-      <c r="X27" s="43">
-        <v>61.10576923</v>
-      </c>
-      <c r="Y27" s="43">
-        <v>83.46153846</v>
-      </c>
-      <c r="Z27" s="43">
-        <v>105.8173077</v>
-      </c>
-      <c r="AA27" s="43">
-        <v>128.20512819999999</v>
-      </c>
-      <c r="AD27" s="43">
-        <v>59.935897439999998</v>
-      </c>
-      <c r="AE27" s="43">
-        <v>199.58653849999999</v>
-      </c>
-      <c r="AF27" s="43">
-        <v>399.17307690000001</v>
-      </c>
-      <c r="AG27" s="43">
-        <v>611.05769229999999</v>
-      </c>
-      <c r="AH27" s="43">
-        <v>834.61538459999997</v>
-      </c>
-      <c r="AI27" s="43">
-        <v>1058.1730769999999</v>
-      </c>
-      <c r="AJ27" s="43">
-        <v>1282.0512819999999</v>
+      <c r="V27" s="44">
+        <v>862.53369269999996</v>
       </c>
     </row>
-    <row r="28" spans="2:36" ht="15" thickBot="1">
+    <row r="28" spans="2:22" ht="15" thickBot="1">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -8246,7 +7976,7 @@
         <v>406.33846149999999</v>
       </c>
       <c r="M28" s="40">
-        <v>406.33846149999999</v>
+        <v>492.30769229999999</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -8254,50 +7984,11 @@
       <c r="O28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U28" s="43">
-        <v>15.1212938</v>
-      </c>
-      <c r="V28" s="43">
-        <v>50.353908359999998</v>
-      </c>
-      <c r="W28" s="43">
-        <v>100.7078167</v>
-      </c>
-      <c r="X28" s="43">
-        <v>154.16442050000001</v>
-      </c>
-      <c r="Y28" s="43">
-        <v>210.56603770000001</v>
-      </c>
-      <c r="Z28" s="43">
-        <v>266.96765499999998</v>
-      </c>
-      <c r="AA28" s="43">
-        <v>323.4501348</v>
-      </c>
-      <c r="AD28" s="43">
-        <v>40.323450129999998</v>
-      </c>
-      <c r="AE28" s="43">
-        <v>134.2770889</v>
-      </c>
-      <c r="AF28" s="43">
-        <v>268.55417790000001</v>
-      </c>
-      <c r="AG28" s="43">
-        <v>411.10512130000001</v>
-      </c>
-      <c r="AH28" s="43">
-        <v>561.50943400000006</v>
-      </c>
-      <c r="AI28" s="43">
-        <v>711.91374659999997</v>
-      </c>
-      <c r="AJ28" s="43">
-        <v>862.53369269999996</v>
+      <c r="V28" s="44">
+        <v>492.30769229999999</v>
       </c>
     </row>
-    <row r="29" spans="2:36" ht="15" thickBot="1">
+    <row r="29" spans="2:22" ht="15" thickBot="1">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -8332,7 +8023,7 @@
         <v>406.33846149999999</v>
       </c>
       <c r="M29" s="40">
-        <v>406.33846149999999</v>
+        <v>492.30769229999999</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8340,50 +8031,11 @@
       <c r="O29" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U29" s="43">
-        <v>17.261538460000001</v>
-      </c>
-      <c r="V29" s="43">
-        <v>57.480923079999997</v>
-      </c>
-      <c r="W29" s="43">
-        <v>114.9618462</v>
-      </c>
-      <c r="X29" s="43">
-        <v>175.9846154</v>
-      </c>
-      <c r="Y29" s="43">
-        <v>240.3692308</v>
-      </c>
-      <c r="Z29" s="43">
-        <v>304.7538462</v>
-      </c>
-      <c r="AA29" s="43">
-        <v>369.2307692</v>
-      </c>
-      <c r="AD29" s="43">
-        <v>23.015384619999999</v>
-      </c>
-      <c r="AE29" s="43">
-        <v>76.641230770000007</v>
-      </c>
-      <c r="AF29" s="43">
-        <v>153.28246150000001</v>
-      </c>
-      <c r="AG29" s="43">
-        <v>234.64615380000001</v>
-      </c>
-      <c r="AH29" s="43">
-        <v>320.49230770000003</v>
-      </c>
-      <c r="AI29" s="43">
-        <v>406.33846149999999</v>
-      </c>
-      <c r="AJ29" s="43">
+      <c r="V29" s="44">
         <v>492.30769229999999</v>
       </c>
     </row>
-    <row r="30" spans="2:36" ht="15" thickBot="1">
+    <row r="30" spans="2:22" ht="15" thickBot="1">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -8418,7 +8070,7 @@
         <v>1143.3766230000001</v>
       </c>
       <c r="M30" s="40">
-        <v>1143.3766230000001</v>
+        <v>1385.281385</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8426,50 +8078,11 @@
       <c r="O30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U30" s="43">
-        <v>2.8769230769999998</v>
-      </c>
-      <c r="V30" s="43">
-        <v>9.580153846</v>
-      </c>
-      <c r="W30" s="43">
-        <v>19.16030769</v>
-      </c>
-      <c r="X30" s="43">
-        <v>29.330769230000001</v>
-      </c>
-      <c r="Y30" s="43">
-        <v>40.061538460000001</v>
-      </c>
-      <c r="Z30" s="43">
-        <v>50.792307690000001</v>
-      </c>
-      <c r="AA30" s="43">
-        <v>61.53846154</v>
-      </c>
-      <c r="AD30" s="43">
-        <v>23.015384619999999</v>
-      </c>
-      <c r="AE30" s="43">
-        <v>76.641230770000007</v>
-      </c>
-      <c r="AF30" s="43">
-        <v>153.28246150000001</v>
-      </c>
-      <c r="AG30" s="43">
-        <v>234.64615380000001</v>
-      </c>
-      <c r="AH30" s="43">
-        <v>320.49230770000003</v>
-      </c>
-      <c r="AI30" s="43">
-        <v>406.33846149999999</v>
-      </c>
-      <c r="AJ30" s="43">
-        <v>492.30769229999999</v>
+      <c r="V30" s="44">
+        <v>1385.281385</v>
       </c>
     </row>
-    <row r="31" spans="2:36" ht="15" thickBot="1">
+    <row r="31" spans="2:22" ht="15" thickBot="1">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8504,7 +8117,7 @@
         <v>226.9072165</v>
       </c>
       <c r="M31" s="40">
-        <v>226.9072165</v>
+        <v>274.9140893</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8512,50 +8125,11 @@
       <c r="O31" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U31" s="43">
-        <v>1.619047619</v>
-      </c>
-      <c r="V31" s="43">
-        <v>5.3914285709999996</v>
-      </c>
-      <c r="W31" s="43">
-        <v>10.782857140000001</v>
-      </c>
-      <c r="X31" s="43">
-        <v>16.506493509999999</v>
-      </c>
-      <c r="Y31" s="43">
-        <v>22.545454549999999</v>
-      </c>
-      <c r="Z31" s="43">
-        <v>28.584415580000002</v>
-      </c>
-      <c r="AA31" s="43">
-        <v>34.63203463</v>
-      </c>
-      <c r="AD31" s="43">
-        <v>64.761904759999993</v>
-      </c>
-      <c r="AE31" s="43">
-        <v>215.6571429</v>
-      </c>
-      <c r="AF31" s="43">
-        <v>431.31428570000003</v>
-      </c>
-      <c r="AG31" s="43">
-        <v>660.25974029999998</v>
-      </c>
-      <c r="AH31" s="43">
-        <v>901.81818180000005</v>
-      </c>
-      <c r="AI31" s="43">
-        <v>1143.3766230000001</v>
-      </c>
-      <c r="AJ31" s="43">
-        <v>1385.281385</v>
+      <c r="V31" s="44">
+        <v>274.9140893</v>
       </c>
     </row>
-    <row r="32" spans="2:36" ht="15" thickBot="1">
+    <row r="32" spans="2:22" ht="15" thickBot="1">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8590,7 +8164,7 @@
         <v>373.05084749999997</v>
       </c>
       <c r="M32" s="40">
-        <v>373.05084749999997</v>
+        <v>451.97740110000001</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8598,50 +8172,11 @@
       <c r="O32" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U32" s="43">
-        <v>25.704467350000002</v>
-      </c>
-      <c r="V32" s="43">
-        <v>85.595876290000007</v>
-      </c>
-      <c r="W32" s="43">
-        <v>171.1917526</v>
-      </c>
-      <c r="X32" s="43">
-        <v>262.06185570000002</v>
-      </c>
-      <c r="Y32" s="43">
-        <v>357.93814429999998</v>
-      </c>
-      <c r="Z32" s="43">
-        <v>453.81443300000001</v>
-      </c>
-      <c r="AA32" s="43">
-        <v>549.82817869999997</v>
-      </c>
-      <c r="AD32" s="43">
-        <v>12.852233679999999</v>
-      </c>
-      <c r="AE32" s="43">
-        <v>42.797938139999999</v>
-      </c>
-      <c r="AF32" s="43">
-        <v>85.595876290000007</v>
-      </c>
-      <c r="AG32" s="43">
-        <v>131.0309278</v>
-      </c>
-      <c r="AH32" s="43">
-        <v>178.9690722</v>
-      </c>
-      <c r="AI32" s="43">
-        <v>226.9072165</v>
-      </c>
-      <c r="AJ32" s="43">
-        <v>274.9140893</v>
+      <c r="V32" s="44">
+        <v>451.97740110000001</v>
       </c>
     </row>
-    <row r="33" spans="2:36" ht="15" thickBot="1">
+    <row r="33" spans="2:22" ht="15" thickBot="1">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8676,7 +8211,7 @@
         <v>1173.866667</v>
       </c>
       <c r="M33" s="40">
-        <v>1173.866667</v>
+        <v>1422.2222220000001</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8684,50 +8219,11 @@
       <c r="O33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U33" s="43">
-        <v>42.25988701</v>
-      </c>
-      <c r="V33" s="43">
-        <v>140.72542369999999</v>
-      </c>
-      <c r="W33" s="43">
-        <v>281.45084750000001</v>
-      </c>
-      <c r="X33" s="43">
-        <v>430.84745759999998</v>
-      </c>
-      <c r="Y33" s="43">
-        <v>588.47457629999997</v>
-      </c>
-      <c r="Z33" s="43">
-        <v>746.10169489999998</v>
-      </c>
-      <c r="AA33" s="43">
-        <v>903.95480229999998</v>
-      </c>
-      <c r="AD33" s="43">
-        <v>21.1299435</v>
-      </c>
-      <c r="AE33" s="43">
-        <v>70.362711860000005</v>
-      </c>
-      <c r="AF33" s="43">
-        <v>140.72542369999999</v>
-      </c>
-      <c r="AG33" s="43">
-        <v>215.42372879999999</v>
-      </c>
-      <c r="AH33" s="43">
-        <v>294.2372881</v>
-      </c>
-      <c r="AI33" s="43">
-        <v>373.05084749999997</v>
-      </c>
-      <c r="AJ33" s="43">
-        <v>451.97740110000001</v>
+      <c r="V33" s="44">
+        <v>1422.2222220000001</v>
       </c>
     </row>
-    <row r="34" spans="2:36" ht="15" thickBot="1">
+    <row r="34" spans="2:22" ht="15" thickBot="1">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8762,7 +8258,7 @@
         <v>868.81578950000005</v>
       </c>
       <c r="M34" s="40">
-        <v>868.81578950000005</v>
+        <v>1052.6315790000001</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8770,50 +8266,11 @@
       <c r="O34" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U34" s="43">
-        <v>8.3111111110000007</v>
-      </c>
-      <c r="V34" s="43">
-        <v>27.675999999999998</v>
-      </c>
-      <c r="W34" s="43">
-        <v>55.351999999999997</v>
-      </c>
-      <c r="X34" s="43">
-        <v>84.733333329999994</v>
-      </c>
-      <c r="Y34" s="43">
-        <v>115.7333333</v>
-      </c>
-      <c r="Z34" s="43">
-        <v>146.7333333</v>
-      </c>
-      <c r="AA34" s="43">
-        <v>177.7777778</v>
-      </c>
-      <c r="AD34" s="43">
-        <v>66.488888889999998</v>
-      </c>
-      <c r="AE34" s="43">
-        <v>221.40799999999999</v>
-      </c>
-      <c r="AF34" s="43">
-        <v>442.81599999999997</v>
-      </c>
-      <c r="AG34" s="43">
-        <v>677.8666667</v>
-      </c>
-      <c r="AH34" s="43">
-        <v>925.8666667</v>
-      </c>
-      <c r="AI34" s="43">
-        <v>1173.866667</v>
-      </c>
-      <c r="AJ34" s="43">
-        <v>1422.2222220000001</v>
+      <c r="V34" s="44">
+        <v>1052.6315790000001</v>
       </c>
     </row>
-    <row r="35" spans="2:36" ht="15" thickBot="1">
+    <row r="35" spans="2:22" ht="15" thickBot="1">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8848,7 +8305,7 @@
         <v>880.4</v>
       </c>
       <c r="M35" s="40">
-        <v>880.4</v>
+        <v>1066.666667</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8856,50 +8313,11 @@
       <c r="O35" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U35" s="43">
-        <v>6.1513157889999999</v>
-      </c>
-      <c r="V35" s="43">
-        <v>20.483881579999998</v>
-      </c>
-      <c r="W35" s="43">
-        <v>40.967763159999997</v>
-      </c>
-      <c r="X35" s="43">
-        <v>62.713815789999998</v>
-      </c>
-      <c r="Y35" s="43">
-        <v>85.657894740000003</v>
-      </c>
-      <c r="Z35" s="43">
-        <v>108.6019737</v>
-      </c>
-      <c r="AA35" s="43">
-        <v>131.5789474</v>
-      </c>
-      <c r="AD35" s="43">
-        <v>49.21052632</v>
-      </c>
-      <c r="AE35" s="43">
-        <v>163.87105260000001</v>
-      </c>
-      <c r="AF35" s="43">
-        <v>327.74210529999999</v>
-      </c>
-      <c r="AG35" s="43">
-        <v>501.71052630000003</v>
-      </c>
-      <c r="AH35" s="43">
-        <v>685.26315790000001</v>
-      </c>
-      <c r="AI35" s="43">
-        <v>868.81578950000005</v>
-      </c>
-      <c r="AJ35" s="43">
-        <v>1052.6315790000001</v>
+      <c r="V35" s="44">
+        <v>1066.666667</v>
       </c>
     </row>
-    <row r="36" spans="2:36" ht="15" thickBot="1">
+    <row r="36" spans="2:22" ht="15" thickBot="1">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8934,7 +8352,7 @@
         <v>943.2857143</v>
       </c>
       <c r="M36" s="40">
-        <v>943.2857143</v>
+        <v>1142.857143</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -8942,50 +8360,11 @@
       <c r="O36" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U36" s="43">
-        <v>185.75333330000001</v>
-      </c>
-      <c r="V36" s="43">
-        <v>618.55859999999996</v>
-      </c>
-      <c r="W36" s="43">
-        <v>1237.1171999999999</v>
-      </c>
-      <c r="X36" s="43">
-        <v>1893.79</v>
-      </c>
-      <c r="Y36" s="43">
-        <v>2586.64</v>
-      </c>
-      <c r="Z36" s="43">
-        <v>3279.49</v>
-      </c>
-      <c r="AA36" s="43">
-        <v>3973.333333</v>
-      </c>
-      <c r="AD36" s="43">
-        <v>49.866666670000001</v>
-      </c>
-      <c r="AE36" s="43">
-        <v>166.05600000000001</v>
-      </c>
-      <c r="AF36" s="43">
-        <v>332.11200000000002</v>
-      </c>
-      <c r="AG36" s="43">
-        <v>508.4</v>
-      </c>
-      <c r="AH36" s="43">
-        <v>694.4</v>
-      </c>
-      <c r="AI36" s="43">
-        <v>880.4</v>
-      </c>
-      <c r="AJ36" s="43">
-        <v>1066.666667</v>
+      <c r="V36" s="44">
+        <v>1142.857143</v>
       </c>
     </row>
-    <row r="37" spans="2:36" ht="15" thickBot="1">
+    <row r="37" spans="2:22" ht="15" thickBot="1">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -9020,7 +8399,7 @@
         <v>471.64285710000001</v>
       </c>
       <c r="M37" s="40">
-        <v>471.64285710000001</v>
+        <v>571.42857140000001</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -9028,50 +8407,11 @@
       <c r="O37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U37" s="43">
-        <v>213.7142857</v>
-      </c>
-      <c r="V37" s="43">
-        <v>711.66857140000002</v>
-      </c>
-      <c r="W37" s="43">
-        <v>1423.337143</v>
-      </c>
-      <c r="X37" s="43">
-        <v>2178.8571430000002</v>
-      </c>
-      <c r="Y37" s="43">
-        <v>2976</v>
-      </c>
-      <c r="Z37" s="43">
-        <v>3773.1428569999998</v>
-      </c>
-      <c r="AA37" s="43">
-        <v>4571.4285710000004</v>
-      </c>
-      <c r="AD37" s="43">
-        <v>53.428571429999998</v>
-      </c>
-      <c r="AE37" s="43">
-        <v>177.91714289999999</v>
-      </c>
-      <c r="AF37" s="43">
-        <v>355.83428570000001</v>
-      </c>
-      <c r="AG37" s="43">
-        <v>544.7142857</v>
-      </c>
-      <c r="AH37" s="43">
-        <v>744</v>
-      </c>
-      <c r="AI37" s="43">
-        <v>943.2857143</v>
-      </c>
-      <c r="AJ37" s="43">
-        <v>1142.857143</v>
+      <c r="V37" s="44">
+        <v>571.42857140000001</v>
       </c>
     </row>
-    <row r="38" spans="2:36" ht="15" thickBot="1">
+    <row r="38" spans="2:22" ht="15" thickBot="1">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -9106,7 +8446,7 @@
         <v>460.67441860000002</v>
       </c>
       <c r="M38" s="40">
-        <v>460.67441860000002</v>
+        <v>558.13953489999994</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -9114,50 +8454,11 @@
       <c r="O38" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U38" s="43">
-        <v>1.335714286</v>
-      </c>
-      <c r="V38" s="43">
-        <v>4.4479285710000003</v>
-      </c>
-      <c r="W38" s="43">
-        <v>8.8958571430000006</v>
-      </c>
-      <c r="X38" s="43">
-        <v>13.61785714</v>
-      </c>
-      <c r="Y38" s="43">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Z38" s="43">
-        <v>23.582142860000001</v>
-      </c>
-      <c r="AA38" s="43">
-        <v>28.571428569999998</v>
-      </c>
-      <c r="AD38" s="43">
-        <v>26.714285709999999</v>
-      </c>
-      <c r="AE38" s="43">
-        <v>88.958571430000006</v>
-      </c>
-      <c r="AF38" s="43">
-        <v>177.91714289999999</v>
-      </c>
-      <c r="AG38" s="43">
-        <v>272.35714289999999</v>
-      </c>
-      <c r="AH38" s="43">
-        <v>372</v>
-      </c>
-      <c r="AI38" s="43">
-        <v>471.64285710000001</v>
-      </c>
-      <c r="AJ38" s="43">
-        <v>571.42857140000001</v>
+      <c r="V38" s="44">
+        <v>558.13953489999994</v>
       </c>
     </row>
-    <row r="39" spans="2:36" ht="15" thickBot="1">
+    <row r="39" spans="2:22" ht="15" thickBot="1">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -9179,20 +8480,20 @@
       <c r="H39" s="40">
         <v>128.8365517</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="42">
         <v>257.6731034</v>
       </c>
-      <c r="J39" s="44">
+      <c r="J39" s="42">
         <v>394.4482759</v>
       </c>
-      <c r="K39" s="44">
+      <c r="K39" s="42">
         <v>538.75862070000005</v>
       </c>
-      <c r="L39" s="44">
+      <c r="L39" s="42">
         <v>683.06896549999999</v>
       </c>
-      <c r="M39" s="44">
-        <v>683.06896549999999</v>
+      <c r="M39" s="42">
+        <v>827.58620689999998</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -9200,50 +8501,11 @@
       <c r="O39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U39" s="43">
-        <v>86.976744190000005</v>
-      </c>
-      <c r="V39" s="43">
-        <v>289.63255809999998</v>
-      </c>
-      <c r="W39" s="43">
-        <v>579.26511630000005</v>
-      </c>
-      <c r="X39" s="43">
-        <v>886.74418600000001</v>
-      </c>
-      <c r="Y39" s="43">
-        <v>1211.162791</v>
-      </c>
-      <c r="Z39" s="43">
-        <v>1535.5813949999999</v>
-      </c>
-      <c r="AA39" s="43">
-        <v>1860.4651160000001</v>
-      </c>
-      <c r="AD39" s="43">
-        <v>26.093023259999999</v>
-      </c>
-      <c r="AE39" s="43">
-        <v>86.88976744</v>
-      </c>
-      <c r="AF39" s="43">
-        <v>173.77953489999999</v>
-      </c>
-      <c r="AG39" s="43">
-        <v>266.02325580000002</v>
-      </c>
-      <c r="AH39" s="43">
-        <v>363.34883719999999</v>
-      </c>
-      <c r="AI39" s="43">
-        <v>460.67441860000002</v>
-      </c>
-      <c r="AJ39" s="43">
-        <v>558.13953489999994</v>
+      <c r="V39" s="44">
+        <v>827.58620689999998</v>
       </c>
     </row>
-    <row r="40" spans="2:36" ht="15" thickBot="1">
+    <row r="40" spans="2:22" ht="15" thickBot="1">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -9278,7 +8540,7 @@
         <v>1238.0625</v>
       </c>
       <c r="M40" s="40">
-        <v>1238.0625</v>
+        <v>1500</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -9286,50 +8548,11 @@
       <c r="O40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U40" s="43">
-        <v>12.89655172</v>
-      </c>
-      <c r="V40" s="43">
-        <v>42.945517240000001</v>
-      </c>
-      <c r="W40" s="43">
-        <v>85.891034480000002</v>
-      </c>
-      <c r="X40" s="43">
-        <v>131.48275860000001</v>
-      </c>
-      <c r="Y40" s="43">
-        <v>179.58620690000001</v>
-      </c>
-      <c r="Z40" s="43">
-        <v>227.6896552</v>
-      </c>
-      <c r="AA40" s="43">
-        <v>275.86206900000002</v>
-      </c>
-      <c r="AD40" s="43">
-        <v>38.689655170000002</v>
-      </c>
-      <c r="AE40" s="43">
-        <v>128.8365517</v>
-      </c>
-      <c r="AF40" s="43">
-        <v>257.6731034</v>
-      </c>
-      <c r="AG40" s="43">
-        <v>394.4482759</v>
-      </c>
-      <c r="AH40" s="43">
-        <v>538.75862070000005</v>
-      </c>
-      <c r="AI40" s="43">
-        <v>683.06896549999999</v>
-      </c>
-      <c r="AJ40" s="43">
-        <v>827.58620689999998</v>
+      <c r="V40" s="44">
+        <v>1500</v>
       </c>
     </row>
-    <row r="41" spans="2:36" ht="15" thickBot="1">
+    <row r="41" spans="2:22" ht="15" thickBot="1">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -9364,7 +8587,7 @@
         <v>528.24</v>
       </c>
       <c r="M41" s="40">
-        <v>528.24</v>
+        <v>640</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -9372,50 +8595,11 @@
       <c r="O41" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U41" s="43">
-        <v>149.6</v>
-      </c>
-      <c r="V41" s="43">
-        <v>498.16800000000001</v>
-      </c>
-      <c r="W41" s="43">
-        <v>996.33600000000001</v>
-      </c>
-      <c r="X41" s="43">
-        <v>1525.2</v>
-      </c>
-      <c r="Y41" s="43">
-        <v>2083.1999999999998</v>
-      </c>
-      <c r="Z41" s="43">
-        <v>2641.2</v>
-      </c>
-      <c r="AA41" s="43">
-        <v>3200</v>
-      </c>
-      <c r="AD41" s="43">
-        <v>70.125</v>
-      </c>
-      <c r="AE41" s="43">
-        <v>233.51625000000001</v>
-      </c>
-      <c r="AF41" s="43">
-        <v>467.03250000000003</v>
-      </c>
-      <c r="AG41" s="43">
-        <v>714.9375</v>
-      </c>
-      <c r="AH41" s="43">
-        <v>976.5</v>
-      </c>
-      <c r="AI41" s="43">
-        <v>1238.0625</v>
-      </c>
-      <c r="AJ41" s="43">
-        <v>1500</v>
+      <c r="V41" s="44">
+        <v>640</v>
       </c>
     </row>
-    <row r="42" spans="2:36" ht="15" thickBot="1">
+    <row r="42" spans="2:22" ht="15" thickBot="1">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -9450,7 +8634,7 @@
         <v>921.34883720000005</v>
       </c>
       <c r="M42" s="40">
-        <v>921.34883720000005</v>
+        <v>1116.27907</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -9458,50 +8642,11 @@
       <c r="O42" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U42" s="43">
-        <v>119.68</v>
-      </c>
-      <c r="V42" s="43">
-        <v>398.53440000000001</v>
-      </c>
-      <c r="W42" s="43">
-        <v>797.06880000000001</v>
-      </c>
-      <c r="X42" s="43">
-        <v>1220.1600000000001</v>
-      </c>
-      <c r="Y42" s="43">
-        <v>1666.56</v>
-      </c>
-      <c r="Z42" s="43">
-        <v>2112.96</v>
-      </c>
-      <c r="AA42" s="43">
-        <v>2560</v>
-      </c>
-      <c r="AD42" s="43">
-        <v>29.92</v>
-      </c>
-      <c r="AE42" s="43">
-        <v>99.633600000000001</v>
-      </c>
-      <c r="AF42" s="43">
-        <v>199.2672</v>
-      </c>
-      <c r="AG42" s="43">
-        <v>305.04000000000002</v>
-      </c>
-      <c r="AH42" s="43">
-        <v>416.64</v>
-      </c>
-      <c r="AI42" s="43">
-        <v>528.24</v>
-      </c>
-      <c r="AJ42" s="43">
-        <v>640</v>
+      <c r="V42" s="44">
+        <v>1116.27907</v>
       </c>
     </row>
-    <row r="43" spans="2:36" ht="15" thickBot="1">
+    <row r="43" spans="2:22" ht="15" thickBot="1">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -9536,7 +8681,7 @@
         <v>323.14845020000001</v>
       </c>
       <c r="M43" s="40">
-        <v>323.14845020000001</v>
+        <v>391.51712889999999</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>
@@ -9544,99 +8689,18 @@
       <c r="O43" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U43" s="43">
-        <v>8.6976744190000002</v>
-      </c>
-      <c r="V43" s="43">
-        <v>28.96325581</v>
-      </c>
-      <c r="W43" s="43">
-        <v>57.92651163</v>
-      </c>
-      <c r="X43" s="43">
-        <v>88.674418599999996</v>
-      </c>
-      <c r="Y43" s="43">
-        <v>121.1162791</v>
-      </c>
-      <c r="Z43" s="43">
-        <v>153.55813950000001</v>
-      </c>
-      <c r="AA43" s="43">
-        <v>186.0465116</v>
-      </c>
-      <c r="AD43" s="43">
-        <v>52.186046509999997</v>
-      </c>
-      <c r="AE43" s="43">
-        <v>173.77953489999999</v>
-      </c>
-      <c r="AF43" s="43">
-        <v>347.55906979999997</v>
-      </c>
-      <c r="AG43" s="43">
-        <v>532.04651160000003</v>
-      </c>
-      <c r="AH43" s="43">
-        <v>726.69767439999998</v>
-      </c>
-      <c r="AI43" s="43">
-        <v>921.34883720000005</v>
-      </c>
-      <c r="AJ43" s="43">
-        <v>1116.27907</v>
+      <c r="V43" s="44">
+        <v>391.51712889999999</v>
       </c>
     </row>
-    <row r="44" spans="2:36" ht="15" thickBot="1">
+    <row r="44" spans="2:22">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
-      <c r="U44" s="43">
-        <v>3.0505709620000001</v>
-      </c>
-      <c r="V44" s="43">
-        <v>10.15840131</v>
-      </c>
-      <c r="W44" s="43">
-        <v>20.31680261</v>
-      </c>
-      <c r="X44" s="43">
-        <v>31.10114192</v>
-      </c>
-      <c r="Y44" s="43">
-        <v>42.479608480000003</v>
-      </c>
-      <c r="Z44" s="43">
-        <v>53.858075040000003</v>
-      </c>
-      <c r="AA44" s="43">
-        <v>65.252854810000002</v>
-      </c>
-      <c r="AD44" s="43">
-        <v>18.30342577</v>
-      </c>
-      <c r="AE44" s="43">
-        <v>60.950407830000003</v>
-      </c>
-      <c r="AF44" s="43">
-        <v>121.9008157</v>
-      </c>
-      <c r="AG44" s="43">
-        <v>186.6068515</v>
-      </c>
-      <c r="AH44" s="43">
-        <v>254.87765089999999</v>
-      </c>
-      <c r="AI44" s="43">
-        <v>323.14845020000001</v>
-      </c>
-      <c r="AJ44" s="43">
-        <v>391.51712889999999</v>
-      </c>
     </row>
-    <row r="45" spans="2:36">
+    <row r="45" spans="2:22">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -9655,7 +8719,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:36">
+    <row r="48" spans="2:22">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E24E72-3514-461E-8F32-C0E14A14E96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2863116E-058F-48C1-964B-83FD025ED67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4357,15 +4357,15 @@
     <xf numFmtId="0" fontId="11" fillId="52" borderId="0" xfId="2181" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="1131" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="53" borderId="0" xfId="1131" applyFill="1"/>
-    <xf numFmtId="3" fontId="17" fillId="5" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="17" fillId="53" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="120" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="120" fillId="54" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="54" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="17" fillId="5" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="53" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="120" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2182">
     <cellStyle name="20 % - Akzent1 2" xfId="36" xr:uid="{49DD0F8E-2B7E-4C02-B7DD-2A9C972B592C}"/>
@@ -7322,10 +7322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:M43"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7462,7 +7462,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:31">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7483,7 +7483,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:22" ht="26">
+    <row r="18" spans="2:31" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:22" ht="63" thickBot="1">
+    <row r="19" spans="2:31" ht="63" thickBot="1">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7546,11 +7546,11 @@
       <c r="F19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
@@ -7565,7 +7565,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:22" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="2:31" ht="24" customHeight="1" thickBot="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7581,26 +7581,26 @@
       <c r="F20" s="32">
         <v>1</v>
       </c>
-      <c r="G20" s="40">
-        <v>99.468085110000004</v>
-      </c>
-      <c r="H20" s="40">
-        <v>331.22872339999998</v>
-      </c>
-      <c r="I20" s="40">
-        <v>662.45744679999996</v>
-      </c>
-      <c r="J20" s="40">
-        <v>1014.095745</v>
-      </c>
-      <c r="K20" s="40">
-        <v>1385.1063830000001</v>
-      </c>
-      <c r="L20" s="40">
-        <v>1756.117021</v>
-      </c>
-      <c r="M20" s="40">
-        <v>2127.6595739999998</v>
+      <c r="G20" s="42">
+        <v>81.563829787234027</v>
+      </c>
+      <c r="H20" s="42">
+        <v>271.60755319148933</v>
+      </c>
+      <c r="I20" s="42">
+        <v>543.21510638297866</v>
+      </c>
+      <c r="J20" s="42">
+        <v>831.55851063829766</v>
+      </c>
+      <c r="K20" s="42">
+        <v>1135.7872340425529</v>
+      </c>
+      <c r="L20" s="42">
+        <v>1440.0159574468082</v>
+      </c>
+      <c r="M20" s="42">
+        <v>1744.6808510638296</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7608,11 +7608,32 @@
       <c r="O20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="44">
+      <c r="V20" s="40">
         <v>2127.6595739999998</v>
       </c>
+      <c r="Y20">
+        <v>81.563829787234027</v>
+      </c>
+      <c r="Z20">
+        <v>271.60755319148933</v>
+      </c>
+      <c r="AA20">
+        <v>543.21510638297866</v>
+      </c>
+      <c r="AB20">
+        <v>831.55851063829766</v>
+      </c>
+      <c r="AC20">
+        <v>1135.7872340425529</v>
+      </c>
+      <c r="AD20">
+        <v>1440.0159574468082</v>
+      </c>
+      <c r="AE20">
+        <v>1744.6808510638296</v>
+      </c>
     </row>
-    <row r="21" spans="2:22" ht="15" thickBot="1">
+    <row r="21" spans="2:31" ht="15" thickBot="1">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7628,26 +7649,26 @@
       <c r="F21" s="32">
         <v>1</v>
       </c>
-      <c r="G21" s="40">
-        <v>44.844124700000002</v>
-      </c>
-      <c r="H21" s="40">
-        <v>149.33093529999999</v>
-      </c>
-      <c r="I21" s="40">
-        <v>298.66187050000002</v>
-      </c>
-      <c r="J21" s="40">
-        <v>457.19424459999999</v>
-      </c>
-      <c r="K21" s="40">
-        <v>624.46043169999996</v>
-      </c>
-      <c r="L21" s="40">
-        <v>791.72661870000002</v>
-      </c>
-      <c r="M21" s="40">
-        <v>959.23261390000005</v>
+      <c r="G21" s="42">
+        <v>18.834532374100721</v>
+      </c>
+      <c r="H21" s="42">
+        <v>62.718992805755406</v>
+      </c>
+      <c r="I21" s="42">
+        <v>125.43798561151081</v>
+      </c>
+      <c r="J21" s="42">
+        <v>192.02158273381298</v>
+      </c>
+      <c r="K21" s="42">
+        <v>262.27338129496405</v>
+      </c>
+      <c r="L21" s="42">
+        <v>332.52517985611513</v>
+      </c>
+      <c r="M21" s="42">
+        <v>402.87769784172662</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7655,11 +7676,32 @@
       <c r="O21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="44">
+      <c r="V21" s="40">
         <v>959.23261390000005</v>
       </c>
+      <c r="Y21">
+        <v>18.834532374100721</v>
+      </c>
+      <c r="Z21">
+        <v>62.718992805755406</v>
+      </c>
+      <c r="AA21">
+        <v>125.43798561151081</v>
+      </c>
+      <c r="AB21">
+        <v>192.02158273381298</v>
+      </c>
+      <c r="AC21">
+        <v>262.27338129496405</v>
+      </c>
+      <c r="AD21">
+        <v>332.52517985611513</v>
+      </c>
+      <c r="AE21">
+        <v>402.87769784172662</v>
+      </c>
     </row>
-    <row r="22" spans="2:22" ht="15" thickBot="1">
+    <row r="22" spans="2:31" ht="15" thickBot="1">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7675,26 +7717,26 @@
       <c r="F22" s="32">
         <v>1</v>
       </c>
-      <c r="G22" s="41">
-        <v>116.6926677</v>
-      </c>
-      <c r="H22" s="41">
-        <v>388.58658350000002</v>
-      </c>
-      <c r="I22" s="41">
-        <v>777.17316689999996</v>
-      </c>
-      <c r="J22" s="41">
-        <v>1189.7035880000001</v>
-      </c>
-      <c r="K22" s="41">
-        <v>1624.960998</v>
-      </c>
-      <c r="L22" s="41">
-        <v>2060.2184090000001</v>
-      </c>
-      <c r="M22" s="41">
-        <v>2496.0998439999998</v>
+      <c r="G22" s="43">
+        <v>192.54290171606863</v>
+      </c>
+      <c r="H22" s="43">
+        <v>641.1678627145086</v>
+      </c>
+      <c r="I22" s="43">
+        <v>1282.3357254290172</v>
+      </c>
+      <c r="J22" s="43">
+        <v>1963.0109204368173</v>
+      </c>
+      <c r="K22" s="43">
+        <v>2681.1856474258971</v>
+      </c>
+      <c r="L22" s="43">
+        <v>3399.3603744149768</v>
+      </c>
+      <c r="M22" s="43">
+        <v>4118.5647425897032</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7702,11 +7744,32 @@
       <c r="O22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V22" s="44">
+      <c r="V22" s="40">
         <v>2496.0998439999998</v>
       </c>
+      <c r="Y22">
+        <v>192.54290171606863</v>
+      </c>
+      <c r="Z22">
+        <v>641.1678627145086</v>
+      </c>
+      <c r="AA22">
+        <v>1282.3357254290172</v>
+      </c>
+      <c r="AB22">
+        <v>1963.0109204368173</v>
+      </c>
+      <c r="AC22">
+        <v>2681.1856474258971</v>
+      </c>
+      <c r="AD22">
+        <v>3399.3603744149768</v>
+      </c>
+      <c r="AE22">
+        <v>4118.5647425897032</v>
+      </c>
     </row>
-    <row r="23" spans="2:22" ht="15" thickBot="1">
+    <row r="23" spans="2:31" ht="15" thickBot="1">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7722,26 +7785,26 @@
       <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="40">
-        <v>12.695179899999999</v>
-      </c>
-      <c r="H23" s="40">
-        <v>42.274949079999999</v>
-      </c>
-      <c r="I23" s="40">
-        <v>84.549898170000006</v>
-      </c>
-      <c r="J23" s="40">
-        <v>129.42973520000001</v>
-      </c>
-      <c r="K23" s="40">
-        <v>176.78207739999999</v>
-      </c>
-      <c r="L23" s="40">
-        <v>224.1344196</v>
-      </c>
-      <c r="M23" s="40">
-        <v>271.55465040000001</v>
+      <c r="G23" s="42">
+        <v>1.2695179904955873</v>
+      </c>
+      <c r="H23" s="42">
+        <v>4.2274949083503062</v>
+      </c>
+      <c r="I23" s="42">
+        <v>8.4549898167006123</v>
+      </c>
+      <c r="J23" s="42">
+        <v>12.942973523421591</v>
+      </c>
+      <c r="K23" s="42">
+        <v>17.678207739307538</v>
+      </c>
+      <c r="L23" s="42">
+        <v>22.413441955193484</v>
+      </c>
+      <c r="M23" s="42">
+        <v>27.155465037338768</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7749,11 +7812,32 @@
       <c r="O23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V23" s="44">
+      <c r="V23" s="40">
         <v>271.55465040000001</v>
       </c>
+      <c r="Y23">
+        <v>1.2695179904955873</v>
+      </c>
+      <c r="Z23">
+        <v>4.2274949083503062</v>
+      </c>
+      <c r="AA23">
+        <v>8.4549898167006123</v>
+      </c>
+      <c r="AB23">
+        <v>12.942973523421591</v>
+      </c>
+      <c r="AC23">
+        <v>17.678207739307538</v>
+      </c>
+      <c r="AD23">
+        <v>22.413441955193484</v>
+      </c>
+      <c r="AE23">
+        <v>27.155465037338768</v>
+      </c>
     </row>
-    <row r="24" spans="2:22" ht="15" thickBot="1">
+    <row r="24" spans="2:31" ht="15" thickBot="1">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7769,26 +7853,26 @@
       <c r="F24" s="32">
         <v>1</v>
       </c>
-      <c r="G24" s="40">
-        <v>374</v>
-      </c>
-      <c r="H24" s="40">
-        <v>1245.42</v>
-      </c>
-      <c r="I24" s="40">
-        <v>2490.84</v>
-      </c>
-      <c r="J24" s="40">
-        <v>3813</v>
-      </c>
-      <c r="K24" s="40">
-        <v>5208</v>
-      </c>
-      <c r="L24" s="40">
-        <v>6603</v>
-      </c>
-      <c r="M24" s="40">
-        <v>8000</v>
+      <c r="G24" s="42">
+        <v>7.4799999999999995</v>
+      </c>
+      <c r="H24" s="42">
+        <v>24.908400000000004</v>
+      </c>
+      <c r="I24" s="42">
+        <v>49.816800000000008</v>
+      </c>
+      <c r="J24" s="42">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="K24" s="42">
+        <v>104.16</v>
+      </c>
+      <c r="L24" s="42">
+        <v>132.05999999999997</v>
+      </c>
+      <c r="M24" s="42">
+        <v>160</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -7796,11 +7880,32 @@
       <c r="O24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V24" s="44">
+      <c r="V24" s="40">
         <v>8000</v>
       </c>
+      <c r="Y24">
+        <v>7.4799999999999995</v>
+      </c>
+      <c r="Z24">
+        <v>24.908400000000004</v>
+      </c>
+      <c r="AA24">
+        <v>49.816800000000008</v>
+      </c>
+      <c r="AB24">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="AC24">
+        <v>104.16</v>
+      </c>
+      <c r="AD24">
+        <v>132.05999999999997</v>
+      </c>
+      <c r="AE24">
+        <v>160</v>
+      </c>
     </row>
-    <row r="25" spans="2:22" ht="15" thickBot="1">
+    <row r="25" spans="2:31" ht="15" thickBot="1">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7816,26 +7921,26 @@
       <c r="F25" s="32">
         <v>1</v>
       </c>
-      <c r="G25" s="40">
-        <v>105.64971749999999</v>
-      </c>
-      <c r="H25" s="40">
-        <v>351.81355930000001</v>
-      </c>
-      <c r="I25" s="40">
-        <v>703.62711860000002</v>
-      </c>
-      <c r="J25" s="40">
-        <v>1077.1186439999999</v>
-      </c>
-      <c r="K25" s="40">
-        <v>1471.1864410000001</v>
-      </c>
-      <c r="L25" s="40">
-        <v>1865.2542370000001</v>
-      </c>
-      <c r="M25" s="40">
-        <v>2259.8870059999999</v>
+      <c r="G25" s="42">
+        <v>10.564971751412431</v>
+      </c>
+      <c r="H25" s="42">
+        <v>35.181355932203395</v>
+      </c>
+      <c r="I25" s="42">
+        <v>70.362711864406791</v>
+      </c>
+      <c r="J25" s="42">
+        <v>107.71186440677967</v>
+      </c>
+      <c r="K25" s="42">
+        <v>147.11864406779662</v>
+      </c>
+      <c r="L25" s="42">
+        <v>186.52542372881356</v>
+      </c>
+      <c r="M25" s="42">
+        <v>225.98870056497177</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7843,11 +7948,32 @@
       <c r="O25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V25" s="44">
+      <c r="V25" s="40">
         <v>2259.8870059999999</v>
       </c>
+      <c r="Y25">
+        <v>10.564971751412431</v>
+      </c>
+      <c r="Z25">
+        <v>35.181355932203395</v>
+      </c>
+      <c r="AA25">
+        <v>70.362711864406791</v>
+      </c>
+      <c r="AB25">
+        <v>107.71186440677967</v>
+      </c>
+      <c r="AC25">
+        <v>147.11864406779662</v>
+      </c>
+      <c r="AD25">
+        <v>186.52542372881356</v>
+      </c>
+      <c r="AE25">
+        <v>225.98870056497177</v>
+      </c>
     </row>
-    <row r="26" spans="2:22" ht="15" thickBot="1">
+    <row r="26" spans="2:31" ht="15" thickBot="1">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -7863,26 +7989,26 @@
       <c r="F26" s="32">
         <v>1</v>
       </c>
-      <c r="G26" s="40">
-        <v>59.935897439999998</v>
-      </c>
-      <c r="H26" s="40">
-        <v>199.58653849999999</v>
-      </c>
-      <c r="I26" s="40">
-        <v>399.17307690000001</v>
-      </c>
-      <c r="J26" s="40">
-        <v>611.05769229999999</v>
-      </c>
-      <c r="K26" s="40">
-        <v>834.61538459999997</v>
-      </c>
-      <c r="L26" s="40">
-        <v>1058.1730769999999</v>
-      </c>
-      <c r="M26" s="40">
-        <v>1282.0512819999999</v>
+      <c r="G26" s="42">
+        <v>59.935897435897431</v>
+      </c>
+      <c r="H26" s="42">
+        <v>199.58653846153848</v>
+      </c>
+      <c r="I26" s="42">
+        <v>399.17307692307696</v>
+      </c>
+      <c r="J26" s="42">
+        <v>611.05769230769238</v>
+      </c>
+      <c r="K26" s="42">
+        <v>834.61538461538476</v>
+      </c>
+      <c r="L26" s="42">
+        <v>1058.1730769230771</v>
+      </c>
+      <c r="M26" s="42">
+        <v>717.9487179487179</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -7890,11 +8016,32 @@
       <c r="O26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="44">
+      <c r="V26" s="40">
         <v>1282.0512819999999</v>
       </c>
+      <c r="Y26">
+        <v>59.935897435897431</v>
+      </c>
+      <c r="Z26">
+        <v>199.58653846153848</v>
+      </c>
+      <c r="AA26">
+        <v>399.17307692307696</v>
+      </c>
+      <c r="AB26">
+        <v>611.05769230769238</v>
+      </c>
+      <c r="AC26">
+        <v>834.61538461538476</v>
+      </c>
+      <c r="AD26">
+        <v>1058.1730769230771</v>
+      </c>
+      <c r="AE26">
+        <v>717.9487179487179</v>
+      </c>
     </row>
-    <row r="27" spans="2:22" ht="15" thickBot="1">
+    <row r="27" spans="2:31" ht="15" thickBot="1">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -7910,26 +8057,26 @@
       <c r="F27" s="32">
         <v>1</v>
       </c>
-      <c r="G27" s="40">
-        <v>40.323450129999998</v>
-      </c>
-      <c r="H27" s="40">
-        <v>134.2770889</v>
-      </c>
-      <c r="I27" s="40">
-        <v>268.55417790000001</v>
-      </c>
-      <c r="J27" s="40">
-        <v>411.10512130000001</v>
-      </c>
-      <c r="K27" s="40">
-        <v>561.50943400000006</v>
-      </c>
-      <c r="L27" s="40">
-        <v>711.91374659999997</v>
-      </c>
-      <c r="M27" s="40">
-        <v>862.53369269999996</v>
+      <c r="G27" s="42">
+        <v>3.0242587601078172</v>
+      </c>
+      <c r="H27" s="42">
+        <v>10.070781671159031</v>
+      </c>
+      <c r="I27" s="42">
+        <v>20.141563342318062</v>
+      </c>
+      <c r="J27" s="42">
+        <v>30.832884097035041</v>
+      </c>
+      <c r="K27" s="42">
+        <v>42.113207547169814</v>
+      </c>
+      <c r="L27" s="42">
+        <v>53.393530997304588</v>
+      </c>
+      <c r="M27" s="42">
+        <v>64.690026954177895</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -7937,11 +8084,32 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V27" s="44">
+      <c r="V27" s="40">
         <v>862.53369269999996</v>
       </c>
+      <c r="Y27">
+        <v>3.0242587601078172</v>
+      </c>
+      <c r="Z27">
+        <v>10.070781671159031</v>
+      </c>
+      <c r="AA27">
+        <v>20.141563342318062</v>
+      </c>
+      <c r="AB27">
+        <v>30.832884097035041</v>
+      </c>
+      <c r="AC27">
+        <v>42.113207547169814</v>
+      </c>
+      <c r="AD27">
+        <v>53.393530997304588</v>
+      </c>
+      <c r="AE27">
+        <v>64.690026954177895</v>
+      </c>
     </row>
-    <row r="28" spans="2:22" ht="15" thickBot="1">
+    <row r="28" spans="2:31" ht="15" thickBot="1">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -7957,26 +8125,26 @@
       <c r="F28" s="32">
         <v>1</v>
       </c>
-      <c r="G28" s="40">
-        <v>23.015384619999999</v>
-      </c>
-      <c r="H28" s="40">
-        <v>76.641230770000007</v>
-      </c>
-      <c r="I28" s="40">
-        <v>153.28246150000001</v>
-      </c>
-      <c r="J28" s="40">
-        <v>234.64615380000001</v>
-      </c>
-      <c r="K28" s="40">
-        <v>320.49230770000003</v>
-      </c>
-      <c r="L28" s="40">
-        <v>406.33846149999999</v>
-      </c>
-      <c r="M28" s="40">
-        <v>492.30769229999999</v>
+      <c r="G28" s="42">
+        <v>11.507692307692308</v>
+      </c>
+      <c r="H28" s="42">
+        <v>38.320615384615387</v>
+      </c>
+      <c r="I28" s="42">
+        <v>76.641230769230773</v>
+      </c>
+      <c r="J28" s="42">
+        <v>117.32307692307693</v>
+      </c>
+      <c r="K28" s="42">
+        <v>160.24615384615385</v>
+      </c>
+      <c r="L28" s="42">
+        <v>203.16923076923078</v>
+      </c>
+      <c r="M28" s="42">
+        <v>246.15384615384613</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -7984,11 +8152,32 @@
       <c r="O28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V28" s="44">
+      <c r="V28" s="40">
         <v>492.30769229999999</v>
       </c>
+      <c r="Y28">
+        <v>11.507692307692308</v>
+      </c>
+      <c r="Z28">
+        <v>38.320615384615387</v>
+      </c>
+      <c r="AA28">
+        <v>76.641230769230773</v>
+      </c>
+      <c r="AB28">
+        <v>117.32307692307693</v>
+      </c>
+      <c r="AC28">
+        <v>160.24615384615385</v>
+      </c>
+      <c r="AD28">
+        <v>203.16923076923078</v>
+      </c>
+      <c r="AE28">
+        <v>246.15384615384613</v>
+      </c>
     </row>
-    <row r="29" spans="2:22" ht="15" thickBot="1">
+    <row r="29" spans="2:31" ht="15" thickBot="1">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -8004,26 +8193,26 @@
       <c r="F29" s="32">
         <v>1</v>
       </c>
-      <c r="G29" s="40">
-        <v>23.015384619999999</v>
-      </c>
-      <c r="H29" s="40">
-        <v>76.641230770000007</v>
-      </c>
-      <c r="I29" s="40">
-        <v>153.28246150000001</v>
-      </c>
-      <c r="J29" s="40">
-        <v>234.64615380000001</v>
-      </c>
-      <c r="K29" s="40">
-        <v>320.49230770000003</v>
-      </c>
-      <c r="L29" s="40">
-        <v>406.33846149999999</v>
-      </c>
-      <c r="M29" s="40">
-        <v>492.30769229999999</v>
+      <c r="G29" s="42">
+        <v>7.4799999999999995</v>
+      </c>
+      <c r="H29" s="42">
+        <v>24.9084</v>
+      </c>
+      <c r="I29" s="42">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="J29" s="42">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="K29" s="42">
+        <v>104.16000000000001</v>
+      </c>
+      <c r="L29" s="42">
+        <v>132.06</v>
+      </c>
+      <c r="M29" s="42">
+        <v>160.00000000000003</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8031,11 +8220,32 @@
       <c r="O29" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V29" s="44">
+      <c r="V29" s="40">
         <v>492.30769229999999</v>
       </c>
+      <c r="Y29">
+        <v>7.4799999999999995</v>
+      </c>
+      <c r="Z29">
+        <v>24.9084</v>
+      </c>
+      <c r="AA29">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="AB29">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="AC29">
+        <v>104.16000000000001</v>
+      </c>
+      <c r="AD29">
+        <v>132.06</v>
+      </c>
+      <c r="AE29">
+        <v>160.00000000000003</v>
+      </c>
     </row>
-    <row r="30" spans="2:22" ht="15" thickBot="1">
+    <row r="30" spans="2:31" ht="15" thickBot="1">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -8051,26 +8261,26 @@
       <c r="F30" s="32">
         <v>1</v>
       </c>
-      <c r="G30" s="40">
-        <v>64.761904759999993</v>
-      </c>
-      <c r="H30" s="40">
-        <v>215.6571429</v>
-      </c>
-      <c r="I30" s="40">
-        <v>431.31428570000003</v>
-      </c>
-      <c r="J30" s="40">
-        <v>660.25974029999998</v>
-      </c>
-      <c r="K30" s="40">
-        <v>901.81818180000005</v>
-      </c>
-      <c r="L30" s="40">
-        <v>1143.3766230000001</v>
-      </c>
-      <c r="M30" s="40">
-        <v>1385.281385</v>
+      <c r="G30" s="42">
+        <v>1.6190476190476191</v>
+      </c>
+      <c r="H30" s="42">
+        <v>5.3914285714285723</v>
+      </c>
+      <c r="I30" s="42">
+        <v>10.782857142857145</v>
+      </c>
+      <c r="J30" s="42">
+        <v>16.506493506493506</v>
+      </c>
+      <c r="K30" s="42">
+        <v>22.545454545454547</v>
+      </c>
+      <c r="L30" s="42">
+        <v>28.584415584415581</v>
+      </c>
+      <c r="M30" s="42">
+        <v>34.632034632034632</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8078,11 +8288,32 @@
       <c r="O30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V30" s="44">
+      <c r="V30" s="40">
         <v>1385.281385</v>
       </c>
+      <c r="Y30">
+        <v>1.6190476190476191</v>
+      </c>
+      <c r="Z30">
+        <v>5.3914285714285723</v>
+      </c>
+      <c r="AA30">
+        <v>10.782857142857145</v>
+      </c>
+      <c r="AB30">
+        <v>16.506493506493506</v>
+      </c>
+      <c r="AC30">
+        <v>22.545454545454547</v>
+      </c>
+      <c r="AD30">
+        <v>28.584415584415581</v>
+      </c>
+      <c r="AE30">
+        <v>34.632034632034632</v>
+      </c>
     </row>
-    <row r="31" spans="2:22" ht="15" thickBot="1">
+    <row r="31" spans="2:31" ht="15" thickBot="1">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8098,26 +8329,26 @@
       <c r="F31" s="32">
         <v>1</v>
       </c>
-      <c r="G31" s="40">
-        <v>12.852233679999999</v>
-      </c>
-      <c r="H31" s="40">
-        <v>42.797938139999999</v>
-      </c>
-      <c r="I31" s="40">
-        <v>85.595876290000007</v>
-      </c>
-      <c r="J31" s="40">
-        <v>131.0309278</v>
-      </c>
-      <c r="K31" s="40">
-        <v>178.9690722</v>
-      </c>
-      <c r="L31" s="40">
-        <v>226.9072165</v>
-      </c>
-      <c r="M31" s="40">
-        <v>274.9140893</v>
+      <c r="G31" s="42">
+        <v>24.419243986254298</v>
+      </c>
+      <c r="H31" s="42">
+        <v>81.316082474226818</v>
+      </c>
+      <c r="I31" s="42">
+        <v>162.63216494845364</v>
+      </c>
+      <c r="J31" s="42">
+        <v>248.95876288659795</v>
+      </c>
+      <c r="K31" s="42">
+        <v>340.04123711340208</v>
+      </c>
+      <c r="L31" s="42">
+        <v>431.12371134020617</v>
+      </c>
+      <c r="M31" s="42">
+        <v>522.33676975945025</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8125,11 +8356,32 @@
       <c r="O31" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V31" s="44">
+      <c r="V31" s="40">
         <v>274.9140893</v>
       </c>
+      <c r="Y31">
+        <v>24.419243986254298</v>
+      </c>
+      <c r="Z31">
+        <v>81.316082474226818</v>
+      </c>
+      <c r="AA31">
+        <v>162.63216494845364</v>
+      </c>
+      <c r="AB31">
+        <v>248.95876288659795</v>
+      </c>
+      <c r="AC31">
+        <v>340.04123711340208</v>
+      </c>
+      <c r="AD31">
+        <v>431.12371134020617</v>
+      </c>
+      <c r="AE31">
+        <v>522.33676975945025</v>
+      </c>
     </row>
-    <row r="32" spans="2:22" ht="15" thickBot="1">
+    <row r="32" spans="2:31" ht="15" thickBot="1">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8145,26 +8397,26 @@
       <c r="F32" s="32">
         <v>1</v>
       </c>
-      <c r="G32" s="40">
-        <v>21.1299435</v>
-      </c>
-      <c r="H32" s="40">
-        <v>70.362711860000005</v>
-      </c>
-      <c r="I32" s="40">
-        <v>140.72542369999999</v>
-      </c>
-      <c r="J32" s="40">
-        <v>215.42372879999999</v>
-      </c>
-      <c r="K32" s="40">
-        <v>294.2372881</v>
-      </c>
-      <c r="L32" s="40">
-        <v>373.05084749999997</v>
-      </c>
-      <c r="M32" s="40">
-        <v>451.97740110000001</v>
+      <c r="G32" s="42">
+        <v>25.355932203389834</v>
+      </c>
+      <c r="H32" s="42">
+        <v>84.435254237288149</v>
+      </c>
+      <c r="I32" s="42">
+        <v>168.8705084745763</v>
+      </c>
+      <c r="J32" s="42">
+        <v>258.50847457627123</v>
+      </c>
+      <c r="K32" s="42">
+        <v>353.08474576271192</v>
+      </c>
+      <c r="L32" s="42">
+        <v>447.66101694915261</v>
+      </c>
+      <c r="M32" s="42">
+        <v>542.37288135593224</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8172,11 +8424,32 @@
       <c r="O32" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V32" s="44">
+      <c r="V32" s="40">
         <v>451.97740110000001</v>
       </c>
+      <c r="Y32">
+        <v>25.355932203389834</v>
+      </c>
+      <c r="Z32">
+        <v>84.435254237288149</v>
+      </c>
+      <c r="AA32">
+        <v>168.8705084745763</v>
+      </c>
+      <c r="AB32">
+        <v>258.50847457627123</v>
+      </c>
+      <c r="AC32">
+        <v>353.08474576271192</v>
+      </c>
+      <c r="AD32">
+        <v>447.66101694915261</v>
+      </c>
+      <c r="AE32">
+        <v>542.37288135593224</v>
+      </c>
     </row>
-    <row r="33" spans="2:22" ht="15" thickBot="1">
+    <row r="33" spans="2:31" ht="15" thickBot="1">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8192,26 +8465,26 @@
       <c r="F33" s="32">
         <v>1</v>
       </c>
-      <c r="G33" s="40">
-        <v>66.488888889999998</v>
-      </c>
-      <c r="H33" s="40">
-        <v>221.40799999999999</v>
-      </c>
-      <c r="I33" s="40">
-        <v>442.81599999999997</v>
-      </c>
-      <c r="J33" s="40">
-        <v>677.8666667</v>
-      </c>
-      <c r="K33" s="40">
-        <v>925.8666667</v>
-      </c>
-      <c r="L33" s="40">
-        <v>1173.866667</v>
-      </c>
-      <c r="M33" s="40">
-        <v>1422.2222220000001</v>
+      <c r="G33" s="42">
+        <v>11.635555555555555</v>
+      </c>
+      <c r="H33" s="42">
+        <v>38.746400000000001</v>
+      </c>
+      <c r="I33" s="42">
+        <v>77.492800000000003</v>
+      </c>
+      <c r="J33" s="42">
+        <v>118.62666666666667</v>
+      </c>
+      <c r="K33" s="42">
+        <v>162.02666666666664</v>
+      </c>
+      <c r="L33" s="42">
+        <v>205.42666666666665</v>
+      </c>
+      <c r="M33" s="42">
+        <v>248.88888888888886</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8219,11 +8492,32 @@
       <c r="O33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V33" s="44">
+      <c r="V33" s="40">
         <v>1422.2222220000001</v>
       </c>
+      <c r="Y33">
+        <v>11.635555555555555</v>
+      </c>
+      <c r="Z33">
+        <v>38.746400000000001</v>
+      </c>
+      <c r="AA33">
+        <v>77.492800000000003</v>
+      </c>
+      <c r="AB33">
+        <v>118.62666666666667</v>
+      </c>
+      <c r="AC33">
+        <v>162.02666666666664</v>
+      </c>
+      <c r="AD33">
+        <v>205.42666666666665</v>
+      </c>
+      <c r="AE33">
+        <v>248.88888888888886</v>
+      </c>
     </row>
-    <row r="34" spans="2:22" ht="15" thickBot="1">
+    <row r="34" spans="2:31" ht="15" thickBot="1">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8239,26 +8533,26 @@
       <c r="F34" s="32">
         <v>1</v>
       </c>
-      <c r="G34" s="40">
-        <v>49.21052632</v>
-      </c>
-      <c r="H34" s="40">
-        <v>163.87105260000001</v>
-      </c>
-      <c r="I34" s="40">
-        <v>327.74210529999999</v>
-      </c>
-      <c r="J34" s="40">
-        <v>501.71052630000003</v>
-      </c>
-      <c r="K34" s="40">
-        <v>685.26315790000001</v>
-      </c>
-      <c r="L34" s="40">
-        <v>868.81578950000005</v>
-      </c>
-      <c r="M34" s="40">
-        <v>1052.6315790000001</v>
+      <c r="G34" s="42">
+        <v>13.532894736842108</v>
+      </c>
+      <c r="H34" s="42">
+        <v>45.064539473684221</v>
+      </c>
+      <c r="I34" s="42">
+        <v>90.129078947368441</v>
+      </c>
+      <c r="J34" s="42">
+        <v>137.97039473684214</v>
+      </c>
+      <c r="K34" s="42">
+        <v>188.44736842105266</v>
+      </c>
+      <c r="L34" s="42">
+        <v>238.92434210526321</v>
+      </c>
+      <c r="M34" s="42">
+        <v>289.47368421052636</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8266,11 +8560,32 @@
       <c r="O34" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V34" s="44">
+      <c r="V34" s="40">
         <v>1052.6315790000001</v>
       </c>
+      <c r="Y34">
+        <v>13.532894736842108</v>
+      </c>
+      <c r="Z34">
+        <v>45.064539473684221</v>
+      </c>
+      <c r="AA34">
+        <v>90.129078947368441</v>
+      </c>
+      <c r="AB34">
+        <v>137.97039473684214</v>
+      </c>
+      <c r="AC34">
+        <v>188.44736842105266</v>
+      </c>
+      <c r="AD34">
+        <v>238.92434210526321</v>
+      </c>
+      <c r="AE34">
+        <v>289.47368421052636</v>
+      </c>
     </row>
-    <row r="35" spans="2:22" ht="15" thickBot="1">
+    <row r="35" spans="2:31" ht="15" thickBot="1">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8286,26 +8601,26 @@
       <c r="F35" s="32">
         <v>1</v>
       </c>
-      <c r="G35" s="40">
-        <v>49.866666670000001</v>
-      </c>
-      <c r="H35" s="40">
-        <v>166.05600000000001</v>
-      </c>
-      <c r="I35" s="40">
-        <v>332.11200000000002</v>
-      </c>
-      <c r="J35" s="40">
-        <v>508.4</v>
-      </c>
-      <c r="K35" s="40">
-        <v>694.4</v>
-      </c>
-      <c r="L35" s="40">
-        <v>880.4</v>
-      </c>
-      <c r="M35" s="40">
-        <v>1066.666667</v>
+      <c r="G35" s="42">
+        <v>72.306666666666672</v>
+      </c>
+      <c r="H35" s="42">
+        <v>240.78119999999998</v>
+      </c>
+      <c r="I35" s="42">
+        <v>481.56239999999997</v>
+      </c>
+      <c r="J35" s="42">
+        <v>737.18000000000006</v>
+      </c>
+      <c r="K35" s="42">
+        <v>1006.8799999999999</v>
+      </c>
+      <c r="L35" s="42">
+        <v>1276.58</v>
+      </c>
+      <c r="M35" s="42">
+        <v>1546.6666666666665</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8313,11 +8628,32 @@
       <c r="O35" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V35" s="44">
+      <c r="V35" s="40">
         <v>1066.666667</v>
       </c>
+      <c r="Y35">
+        <v>72.306666666666672</v>
+      </c>
+      <c r="Z35">
+        <v>240.78119999999998</v>
+      </c>
+      <c r="AA35">
+        <v>481.56239999999997</v>
+      </c>
+      <c r="AB35">
+        <v>737.18000000000006</v>
+      </c>
+      <c r="AC35">
+        <v>1006.8799999999999</v>
+      </c>
+      <c r="AD35">
+        <v>1276.58</v>
+      </c>
+      <c r="AE35">
+        <v>1546.6666666666665</v>
+      </c>
     </row>
-    <row r="36" spans="2:22" ht="15" thickBot="1">
+    <row r="36" spans="2:31" ht="15" thickBot="1">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8333,26 +8669,26 @@
       <c r="F36" s="32">
         <v>1</v>
       </c>
-      <c r="G36" s="40">
-        <v>53.428571429999998</v>
-      </c>
-      <c r="H36" s="40">
-        <v>177.91714289999999</v>
-      </c>
-      <c r="I36" s="40">
-        <v>355.83428570000001</v>
-      </c>
-      <c r="J36" s="40">
-        <v>544.7142857</v>
-      </c>
-      <c r="K36" s="40">
-        <v>744</v>
-      </c>
-      <c r="L36" s="40">
-        <v>943.2857143</v>
-      </c>
-      <c r="M36" s="40">
-        <v>1142.857143</v>
+      <c r="G36" s="42">
+        <v>44.523809523809526</v>
+      </c>
+      <c r="H36" s="42">
+        <v>148.26428571428573</v>
+      </c>
+      <c r="I36" s="42">
+        <v>296.52857142857147</v>
+      </c>
+      <c r="J36" s="42">
+        <v>453.92857142857144</v>
+      </c>
+      <c r="K36" s="42">
+        <v>620.00000000000011</v>
+      </c>
+      <c r="L36" s="42">
+        <v>786.07142857142867</v>
+      </c>
+      <c r="M36" s="42">
+        <v>952.38095238095241</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -8360,11 +8696,32 @@
       <c r="O36" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V36" s="44">
+      <c r="V36" s="40">
         <v>1142.857143</v>
       </c>
+      <c r="Y36">
+        <v>44.523809523809526</v>
+      </c>
+      <c r="Z36">
+        <v>148.26428571428573</v>
+      </c>
+      <c r="AA36">
+        <v>296.52857142857147</v>
+      </c>
+      <c r="AB36">
+        <v>453.92857142857144</v>
+      </c>
+      <c r="AC36">
+        <v>620.00000000000011</v>
+      </c>
+      <c r="AD36">
+        <v>786.07142857142867</v>
+      </c>
+      <c r="AE36">
+        <v>952.38095238095241</v>
+      </c>
     </row>
-    <row r="37" spans="2:22" ht="15" thickBot="1">
+    <row r="37" spans="2:31" ht="15" thickBot="1">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -8380,26 +8737,26 @@
       <c r="F37" s="32">
         <v>1</v>
       </c>
-      <c r="G37" s="40">
-        <v>26.714285709999999</v>
-      </c>
-      <c r="H37" s="40">
-        <v>88.958571430000006</v>
-      </c>
-      <c r="I37" s="40">
-        <v>177.91714289999999</v>
-      </c>
-      <c r="J37" s="40">
-        <v>272.35714289999999</v>
-      </c>
-      <c r="K37" s="40">
-        <v>372</v>
-      </c>
-      <c r="L37" s="40">
-        <v>471.64285710000001</v>
-      </c>
-      <c r="M37" s="40">
-        <v>571.42857140000001</v>
+      <c r="G37" s="42">
+        <v>0.26714285714285713</v>
+      </c>
+      <c r="H37" s="42">
+        <v>0.88958571428571431</v>
+      </c>
+      <c r="I37" s="42">
+        <v>1.7791714285714286</v>
+      </c>
+      <c r="J37" s="42">
+        <v>2.7235714285714283</v>
+      </c>
+      <c r="K37" s="42">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="L37" s="42">
+        <v>4.7164285714285707</v>
+      </c>
+      <c r="M37" s="42">
+        <v>5.7142857142857144</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -8407,11 +8764,32 @@
       <c r="O37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V37" s="44">
+      <c r="V37" s="40">
         <v>571.42857140000001</v>
       </c>
+      <c r="Y37">
+        <v>0.26714285714285713</v>
+      </c>
+      <c r="Z37">
+        <v>0.88958571428571431</v>
+      </c>
+      <c r="AA37">
+        <v>1.7791714285714286</v>
+      </c>
+      <c r="AB37">
+        <v>2.7235714285714283</v>
+      </c>
+      <c r="AC37">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="AD37">
+        <v>4.7164285714285707</v>
+      </c>
+      <c r="AE37">
+        <v>5.7142857142857144</v>
+      </c>
     </row>
-    <row r="38" spans="2:22" ht="15" thickBot="1">
+    <row r="38" spans="2:31" ht="15" thickBot="1">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -8427,26 +8805,26 @@
       <c r="F38" s="32">
         <v>1</v>
       </c>
-      <c r="G38" s="40">
-        <v>26.093023259999999</v>
-      </c>
-      <c r="H38" s="40">
-        <v>86.88976744</v>
-      </c>
-      <c r="I38" s="40">
-        <v>173.77953489999999</v>
-      </c>
-      <c r="J38" s="40">
-        <v>266.02325580000002</v>
-      </c>
-      <c r="K38" s="40">
-        <v>363.34883719999999</v>
-      </c>
-      <c r="L38" s="40">
-        <v>460.67441860000002</v>
-      </c>
-      <c r="M38" s="40">
-        <v>558.13953489999994</v>
+      <c r="G38" s="42">
+        <v>44.358139534883719</v>
+      </c>
+      <c r="H38" s="42">
+        <v>147.71260465116279</v>
+      </c>
+      <c r="I38" s="42">
+        <v>295.42520930232558</v>
+      </c>
+      <c r="J38" s="42">
+        <v>452.23953488372092</v>
+      </c>
+      <c r="K38" s="42">
+        <v>617.69302325581396</v>
+      </c>
+      <c r="L38" s="42">
+        <v>783.14651162790699</v>
+      </c>
+      <c r="M38" s="42">
+        <v>948.83720930232562</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -8454,11 +8832,32 @@
       <c r="O38" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V38" s="44">
+      <c r="V38" s="40">
         <v>558.13953489999994</v>
       </c>
+      <c r="Y38">
+        <v>44.358139534883719</v>
+      </c>
+      <c r="Z38">
+        <v>147.71260465116279</v>
+      </c>
+      <c r="AA38">
+        <v>295.42520930232558</v>
+      </c>
+      <c r="AB38">
+        <v>452.23953488372092</v>
+      </c>
+      <c r="AC38">
+        <v>617.69302325581396</v>
+      </c>
+      <c r="AD38">
+        <v>783.14651162790699</v>
+      </c>
+      <c r="AE38">
+        <v>948.83720930232562</v>
+      </c>
     </row>
-    <row r="39" spans="2:22" ht="15" thickBot="1">
+    <row r="39" spans="2:31" ht="15" thickBot="1">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -8474,26 +8873,26 @@
       <c r="F39" s="32">
         <v>1</v>
       </c>
-      <c r="G39" s="40">
-        <v>38.689655170000002</v>
-      </c>
-      <c r="H39" s="40">
-        <v>128.8365517</v>
-      </c>
-      <c r="I39" s="42">
-        <v>257.6731034</v>
-      </c>
-      <c r="J39" s="42">
-        <v>394.4482759</v>
-      </c>
-      <c r="K39" s="42">
-        <v>538.75862070000005</v>
-      </c>
-      <c r="L39" s="42">
-        <v>683.06896549999999</v>
-      </c>
-      <c r="M39" s="42">
-        <v>827.58620689999998</v>
+      <c r="G39" s="42">
+        <v>5.158620689655173</v>
+      </c>
+      <c r="H39" s="42">
+        <v>17.178206896551728</v>
+      </c>
+      <c r="I39" s="44">
+        <v>34.356413793103457</v>
+      </c>
+      <c r="J39" s="44">
+        <v>52.593103448275869</v>
+      </c>
+      <c r="K39" s="44">
+        <v>71.834482758620695</v>
+      </c>
+      <c r="L39" s="44">
+        <v>91.07586206896552</v>
+      </c>
+      <c r="M39" s="44">
+        <v>110.3448275862069</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -8501,11 +8900,32 @@
       <c r="O39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V39" s="44">
+      <c r="V39" s="40">
         <v>827.58620689999998</v>
       </c>
+      <c r="Y39">
+        <v>5.158620689655173</v>
+      </c>
+      <c r="Z39">
+        <v>17.178206896551728</v>
+      </c>
+      <c r="AA39">
+        <v>34.356413793103457</v>
+      </c>
+      <c r="AB39">
+        <v>52.593103448275869</v>
+      </c>
+      <c r="AC39">
+        <v>71.834482758620695</v>
+      </c>
+      <c r="AD39">
+        <v>91.07586206896552</v>
+      </c>
+      <c r="AE39">
+        <v>110.3448275862069</v>
+      </c>
     </row>
-    <row r="40" spans="2:22" ht="15" thickBot="1">
+    <row r="40" spans="2:31" ht="15" thickBot="1">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -8521,26 +8941,26 @@
       <c r="F40" s="32">
         <v>1</v>
       </c>
-      <c r="G40" s="40">
-        <v>70.125</v>
-      </c>
-      <c r="H40" s="40">
-        <v>233.51625000000001</v>
-      </c>
-      <c r="I40" s="40">
-        <v>467.03250000000003</v>
-      </c>
-      <c r="J40" s="40">
-        <v>714.9375</v>
-      </c>
-      <c r="K40" s="40">
-        <v>976.5</v>
-      </c>
-      <c r="L40" s="40">
-        <v>1238.0625</v>
-      </c>
-      <c r="M40" s="40">
-        <v>1500</v>
+      <c r="G40" s="42">
+        <v>14.025</v>
+      </c>
+      <c r="H40" s="42">
+        <v>46.703250000000004</v>
+      </c>
+      <c r="I40" s="42">
+        <v>93.406500000000008</v>
+      </c>
+      <c r="J40" s="42">
+        <v>142.98750000000001</v>
+      </c>
+      <c r="K40" s="42">
+        <v>195.3</v>
+      </c>
+      <c r="L40" s="42">
+        <v>247.61250000000001</v>
+      </c>
+      <c r="M40" s="42">
+        <v>300</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -8548,11 +8968,32 @@
       <c r="O40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V40" s="44">
+      <c r="V40" s="40">
         <v>1500</v>
       </c>
+      <c r="Y40">
+        <v>14.025</v>
+      </c>
+      <c r="Z40">
+        <v>46.703250000000004</v>
+      </c>
+      <c r="AA40">
+        <v>93.406500000000008</v>
+      </c>
+      <c r="AB40">
+        <v>142.98750000000001</v>
+      </c>
+      <c r="AC40">
+        <v>195.3</v>
+      </c>
+      <c r="AD40">
+        <v>247.61250000000001</v>
+      </c>
+      <c r="AE40">
+        <v>300</v>
+      </c>
     </row>
-    <row r="41" spans="2:22" ht="15" thickBot="1">
+    <row r="41" spans="2:31" ht="15" thickBot="1">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -8568,26 +9009,26 @@
       <c r="F41" s="32">
         <v>1</v>
       </c>
-      <c r="G41" s="40">
-        <v>29.92</v>
-      </c>
-      <c r="H41" s="40">
-        <v>99.633600000000001</v>
-      </c>
-      <c r="I41" s="40">
-        <v>199.2672</v>
-      </c>
-      <c r="J41" s="40">
-        <v>305.04000000000002</v>
-      </c>
-      <c r="K41" s="40">
-        <v>416.64</v>
-      </c>
-      <c r="L41" s="40">
-        <v>528.24</v>
-      </c>
-      <c r="M41" s="40">
-        <v>640</v>
+      <c r="G41" s="42">
+        <v>250.43039999999999</v>
+      </c>
+      <c r="H41" s="42">
+        <v>833.93323199999998</v>
+      </c>
+      <c r="I41" s="42">
+        <v>1667.866464</v>
+      </c>
+      <c r="J41" s="42">
+        <v>2553.1848</v>
+      </c>
+      <c r="K41" s="42">
+        <v>3487.2767999999996</v>
+      </c>
+      <c r="L41" s="42">
+        <v>4421.3688000000002</v>
+      </c>
+      <c r="M41" s="42">
+        <v>5356.8</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -8595,11 +9036,32 @@
       <c r="O41" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V41" s="44">
+      <c r="V41" s="40">
         <v>640</v>
       </c>
+      <c r="Y41">
+        <v>250.43039999999999</v>
+      </c>
+      <c r="Z41">
+        <v>833.93323199999998</v>
+      </c>
+      <c r="AA41">
+        <v>1667.866464</v>
+      </c>
+      <c r="AB41">
+        <v>2553.1848</v>
+      </c>
+      <c r="AC41">
+        <v>3487.2767999999996</v>
+      </c>
+      <c r="AD41">
+        <v>4421.3688000000002</v>
+      </c>
+      <c r="AE41">
+        <v>5356.8</v>
+      </c>
     </row>
-    <row r="42" spans="2:22" ht="15" thickBot="1">
+    <row r="42" spans="2:31" ht="15" thickBot="1">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -8615,26 +9077,26 @@
       <c r="F42" s="32">
         <v>1</v>
       </c>
-      <c r="G42" s="40">
-        <v>52.186046509999997</v>
-      </c>
-      <c r="H42" s="40">
-        <v>173.77953489999999</v>
-      </c>
-      <c r="I42" s="40">
-        <v>347.55906979999997</v>
-      </c>
-      <c r="J42" s="40">
-        <v>532.04651160000003</v>
-      </c>
-      <c r="K42" s="40">
-        <v>726.69767439999998</v>
-      </c>
-      <c r="L42" s="40">
-        <v>921.34883720000005</v>
-      </c>
-      <c r="M42" s="40">
-        <v>1116.27907</v>
+      <c r="G42" s="42">
+        <v>3.4790697674418607</v>
+      </c>
+      <c r="H42" s="42">
+        <v>11.585302325581397</v>
+      </c>
+      <c r="I42" s="42">
+        <v>23.170604651162794</v>
+      </c>
+      <c r="J42" s="42">
+        <v>35.469767441860469</v>
+      </c>
+      <c r="K42" s="42">
+        <v>48.446511627906979</v>
+      </c>
+      <c r="L42" s="42">
+        <v>61.423255813953489</v>
+      </c>
+      <c r="M42" s="42">
+        <v>74.418604651162795</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -8642,11 +9104,32 @@
       <c r="O42" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V42" s="44">
+      <c r="V42" s="40">
         <v>1116.27907</v>
       </c>
+      <c r="Y42">
+        <v>3.4790697674418607</v>
+      </c>
+      <c r="Z42">
+        <v>11.585302325581397</v>
+      </c>
+      <c r="AA42">
+        <v>23.170604651162794</v>
+      </c>
+      <c r="AB42">
+        <v>35.469767441860469</v>
+      </c>
+      <c r="AC42">
+        <v>48.446511627906979</v>
+      </c>
+      <c r="AD42">
+        <v>61.423255813953489</v>
+      </c>
+      <c r="AE42">
+        <v>74.418604651162795</v>
+      </c>
     </row>
-    <row r="43" spans="2:22" ht="15" thickBot="1">
+    <row r="43" spans="2:31" ht="15" thickBot="1">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -8662,26 +9145,26 @@
       <c r="F43" s="32">
         <v>1</v>
       </c>
-      <c r="G43" s="40">
-        <v>18.30342577</v>
-      </c>
-      <c r="H43" s="40">
-        <v>60.950407830000003</v>
-      </c>
-      <c r="I43" s="40">
-        <v>121.9008157</v>
-      </c>
-      <c r="J43" s="40">
-        <v>186.6068515</v>
-      </c>
-      <c r="K43" s="40">
-        <v>254.87765089999999</v>
-      </c>
-      <c r="L43" s="40">
-        <v>323.14845020000001</v>
-      </c>
-      <c r="M43" s="40">
-        <v>391.51712889999999</v>
+      <c r="G43" s="42">
+        <v>3.6606851549755306</v>
+      </c>
+      <c r="H43" s="42">
+        <v>12.190081566068516</v>
+      </c>
+      <c r="I43" s="42">
+        <v>24.380163132137032</v>
+      </c>
+      <c r="J43" s="42">
+        <v>37.321370309951064</v>
+      </c>
+      <c r="K43" s="42">
+        <v>50.97553017944535</v>
+      </c>
+      <c r="L43" s="42">
+        <v>64.629690048939651</v>
+      </c>
+      <c r="M43" s="42">
+        <v>78.303425774877653</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>
@@ -8689,18 +9172,39 @@
       <c r="O43" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V43" s="44">
+      <c r="V43" s="40">
         <v>391.51712889999999</v>
       </c>
+      <c r="Y43">
+        <v>3.6606851549755306</v>
+      </c>
+      <c r="Z43">
+        <v>12.190081566068516</v>
+      </c>
+      <c r="AA43">
+        <v>24.380163132137032</v>
+      </c>
+      <c r="AB43">
+        <v>37.321370309951064</v>
+      </c>
+      <c r="AC43">
+        <v>50.97553017944535</v>
+      </c>
+      <c r="AD43">
+        <v>64.629690048939651</v>
+      </c>
+      <c r="AE43">
+        <v>78.303425774877653</v>
+      </c>
     </row>
-    <row r="44" spans="2:22">
+    <row r="44" spans="2:31">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
     </row>
-    <row r="45" spans="2:22">
+    <row r="45" spans="2:31">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -8719,7 +9223,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:22">
+    <row r="48" spans="2:31">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2863116E-058F-48C1-964B-83FD025ED67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A555C-6FAE-4834-B051-3EBD2B6B3685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7322,10 +7322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE84"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19:AE47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7462,7 +7462,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="2:22">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7483,7 +7483,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:31" ht="26">
+    <row r="18" spans="2:22" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:31" ht="63" thickBot="1">
+    <row r="19" spans="2:22" ht="63" thickBot="1">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:31" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="2:22" ht="24" customHeight="1" thickBot="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7582,25 +7582,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="42">
-        <v>81.563829787234027</v>
+        <v>69.627659574468098</v>
       </c>
       <c r="H20" s="42">
-        <v>271.60755319148933</v>
+        <v>231.86010638297876</v>
       </c>
       <c r="I20" s="42">
-        <v>543.21510638297866</v>
+        <v>463.72021276595751</v>
       </c>
       <c r="J20" s="42">
-        <v>831.55851063829766</v>
+        <v>709.86702127659578</v>
       </c>
       <c r="K20" s="42">
-        <v>1135.7872340425529</v>
+        <v>969.57446808510656</v>
       </c>
       <c r="L20" s="42">
-        <v>1440.0159574468082</v>
+        <v>1229.2819148936171</v>
       </c>
       <c r="M20" s="42">
-        <v>1744.6808510638296</v>
+        <v>1489.3617021276596</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7608,32 +7608,9 @@
       <c r="O20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="40">
-        <v>2127.6595739999998</v>
-      </c>
-      <c r="Y20">
-        <v>81.563829787234027</v>
-      </c>
-      <c r="Z20">
-        <v>271.60755319148933</v>
-      </c>
-      <c r="AA20">
-        <v>543.21510638297866</v>
-      </c>
-      <c r="AB20">
-        <v>831.55851063829766</v>
-      </c>
-      <c r="AC20">
-        <v>1135.7872340425529</v>
-      </c>
-      <c r="AD20">
-        <v>1440.0159574468082</v>
-      </c>
-      <c r="AE20">
-        <v>1744.6808510638296</v>
-      </c>
+      <c r="V20" s="40"/>
     </row>
-    <row r="21" spans="2:31" ht="15" thickBot="1">
+    <row r="21" spans="2:22" ht="15" thickBot="1">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7650,25 +7627,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="42">
-        <v>18.834532374100721</v>
+        <v>8.9688249400479627</v>
       </c>
       <c r="H21" s="42">
-        <v>62.718992805755406</v>
+        <v>29.866187050359713</v>
       </c>
       <c r="I21" s="42">
-        <v>125.43798561151081</v>
+        <v>59.732374100719426</v>
       </c>
       <c r="J21" s="42">
-        <v>192.02158273381298</v>
+        <v>91.438848920863322</v>
       </c>
       <c r="K21" s="42">
-        <v>262.27338129496405</v>
+        <v>124.89208633093526</v>
       </c>
       <c r="L21" s="42">
-        <v>332.52517985611513</v>
+        <v>158.34532374100721</v>
       </c>
       <c r="M21" s="42">
-        <v>402.87769784172662</v>
+        <v>191.84652278177458</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7676,32 +7653,9 @@
       <c r="O21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="40">
-        <v>959.23261390000005</v>
-      </c>
-      <c r="Y21">
-        <v>18.834532374100721</v>
-      </c>
-      <c r="Z21">
-        <v>62.718992805755406</v>
-      </c>
-      <c r="AA21">
-        <v>125.43798561151081</v>
-      </c>
-      <c r="AB21">
-        <v>192.02158273381298</v>
-      </c>
-      <c r="AC21">
-        <v>262.27338129496405</v>
-      </c>
-      <c r="AD21">
-        <v>332.52517985611513</v>
-      </c>
-      <c r="AE21">
-        <v>402.87769784172662</v>
-      </c>
+      <c r="V21" s="40"/>
     </row>
-    <row r="22" spans="2:31" ht="15" thickBot="1">
+    <row r="22" spans="2:22" ht="15" thickBot="1">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7744,32 +7698,9 @@
       <c r="O22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V22" s="40">
-        <v>2496.0998439999998</v>
-      </c>
-      <c r="Y22">
-        <v>192.54290171606863</v>
-      </c>
-      <c r="Z22">
-        <v>641.1678627145086</v>
-      </c>
-      <c r="AA22">
-        <v>1282.3357254290172</v>
-      </c>
-      <c r="AB22">
-        <v>1963.0109204368173</v>
-      </c>
-      <c r="AC22">
-        <v>2681.1856474258971</v>
-      </c>
-      <c r="AD22">
-        <v>3399.3603744149768</v>
-      </c>
-      <c r="AE22">
-        <v>4118.5647425897032</v>
-      </c>
+      <c r="V22" s="40"/>
     </row>
-    <row r="23" spans="2:31" ht="15" thickBot="1">
+    <row r="23" spans="2:22" ht="15" thickBot="1">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7812,32 +7743,9 @@
       <c r="O23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V23" s="40">
-        <v>271.55465040000001</v>
-      </c>
-      <c r="Y23">
-        <v>1.2695179904955873</v>
-      </c>
-      <c r="Z23">
-        <v>4.2274949083503062</v>
-      </c>
-      <c r="AA23">
-        <v>8.4549898167006123</v>
-      </c>
-      <c r="AB23">
-        <v>12.942973523421591</v>
-      </c>
-      <c r="AC23">
-        <v>17.678207739307538</v>
-      </c>
-      <c r="AD23">
-        <v>22.413441955193484</v>
-      </c>
-      <c r="AE23">
-        <v>27.155465037338768</v>
-      </c>
+      <c r="V23" s="40"/>
     </row>
-    <row r="24" spans="2:31" ht="15" thickBot="1">
+    <row r="24" spans="2:22" ht="15" thickBot="1">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7880,32 +7788,9 @@
       <c r="O24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V24" s="40">
-        <v>8000</v>
-      </c>
-      <c r="Y24">
-        <v>7.4799999999999995</v>
-      </c>
-      <c r="Z24">
-        <v>24.908400000000004</v>
-      </c>
-      <c r="AA24">
-        <v>49.816800000000008</v>
-      </c>
-      <c r="AB24">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="AC24">
-        <v>104.16</v>
-      </c>
-      <c r="AD24">
-        <v>132.05999999999997</v>
-      </c>
-      <c r="AE24">
-        <v>160</v>
-      </c>
+      <c r="V24" s="40"/>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1">
+    <row r="25" spans="2:22" ht="15" thickBot="1">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7922,25 +7807,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="42">
-        <v>10.564971751412431</v>
+        <v>8.4519774011299447</v>
       </c>
       <c r="H25" s="42">
-        <v>35.181355932203395</v>
+        <v>28.145084745762716</v>
       </c>
       <c r="I25" s="42">
-        <v>70.362711864406791</v>
+        <v>56.290169491525432</v>
       </c>
       <c r="J25" s="42">
-        <v>107.71186440677967</v>
+        <v>86.169491525423737</v>
       </c>
       <c r="K25" s="42">
-        <v>147.11864406779662</v>
+        <v>117.6949152542373</v>
       </c>
       <c r="L25" s="42">
-        <v>186.52542372881356</v>
+        <v>149.22033898305085</v>
       </c>
       <c r="M25" s="42">
-        <v>225.98870056497177</v>
+        <v>180.79096045197741</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7948,32 +7833,9 @@
       <c r="O25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V25" s="40">
-        <v>2259.8870059999999</v>
-      </c>
-      <c r="Y25">
-        <v>10.564971751412431</v>
-      </c>
-      <c r="Z25">
-        <v>35.181355932203395</v>
-      </c>
-      <c r="AA25">
-        <v>70.362711864406791</v>
-      </c>
-      <c r="AB25">
-        <v>107.71186440677967</v>
-      </c>
-      <c r="AC25">
-        <v>147.11864406779662</v>
-      </c>
-      <c r="AD25">
-        <v>186.52542372881356</v>
-      </c>
-      <c r="AE25">
-        <v>225.98870056497177</v>
-      </c>
+      <c r="V25" s="40"/>
     </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1">
+    <row r="26" spans="2:22" ht="15" thickBot="1">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -8008,7 +7870,7 @@
         <v>1058.1730769230771</v>
       </c>
       <c r="M26" s="42">
-        <v>717.9487179487179</v>
+        <v>666.66666666666674</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -8016,32 +7878,9 @@
       <c r="O26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="40">
-        <v>1282.0512819999999</v>
-      </c>
-      <c r="Y26">
-        <v>59.935897435897431</v>
-      </c>
-      <c r="Z26">
-        <v>199.58653846153848</v>
-      </c>
-      <c r="AA26">
-        <v>399.17307692307696</v>
-      </c>
-      <c r="AB26">
-        <v>611.05769230769238</v>
-      </c>
-      <c r="AC26">
-        <v>834.61538461538476</v>
-      </c>
-      <c r="AD26">
-        <v>1058.1730769230771</v>
-      </c>
-      <c r="AE26">
-        <v>717.9487179487179</v>
-      </c>
+      <c r="V26" s="40"/>
     </row>
-    <row r="27" spans="2:31" ht="15" thickBot="1">
+    <row r="27" spans="2:22" ht="15" thickBot="1">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -8058,25 +7897,25 @@
         <v>1</v>
       </c>
       <c r="G27" s="42">
-        <v>3.0242587601078172</v>
+        <v>1.0080862533692723</v>
       </c>
       <c r="H27" s="42">
-        <v>10.070781671159031</v>
+        <v>3.3569272237196772</v>
       </c>
       <c r="I27" s="42">
-        <v>20.141563342318062</v>
+        <v>6.7138544474393544</v>
       </c>
       <c r="J27" s="42">
-        <v>30.832884097035041</v>
+        <v>10.277628032345014</v>
       </c>
       <c r="K27" s="42">
-        <v>42.113207547169814</v>
+        <v>14.037735849056604</v>
       </c>
       <c r="L27" s="42">
-        <v>53.393530997304588</v>
+        <v>17.797843665768195</v>
       </c>
       <c r="M27" s="42">
-        <v>64.690026954177895</v>
+        <v>21.563342318059298</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -8084,32 +7923,9 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V27" s="40">
-        <v>862.53369269999996</v>
-      </c>
-      <c r="Y27">
-        <v>3.0242587601078172</v>
-      </c>
-      <c r="Z27">
-        <v>10.070781671159031</v>
-      </c>
-      <c r="AA27">
-        <v>20.141563342318062</v>
-      </c>
-      <c r="AB27">
-        <v>30.832884097035041</v>
-      </c>
-      <c r="AC27">
-        <v>42.113207547169814</v>
-      </c>
-      <c r="AD27">
-        <v>53.393530997304588</v>
-      </c>
-      <c r="AE27">
-        <v>64.690026954177895</v>
-      </c>
+      <c r="V27" s="40"/>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1">
+    <row r="28" spans="2:22" ht="15" thickBot="1">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -8126,25 +7942,25 @@
         <v>1</v>
       </c>
       <c r="G28" s="42">
-        <v>11.507692307692308</v>
+        <v>8.6307692307692303</v>
       </c>
       <c r="H28" s="42">
-        <v>38.320615384615387</v>
+        <v>28.740461538461538</v>
       </c>
       <c r="I28" s="42">
-        <v>76.641230769230773</v>
+        <v>57.480923076923077</v>
       </c>
       <c r="J28" s="42">
-        <v>117.32307692307693</v>
+        <v>87.992307692307691</v>
       </c>
       <c r="K28" s="42">
-        <v>160.24615384615385</v>
+        <v>120.18461538461537</v>
       </c>
       <c r="L28" s="42">
-        <v>203.16923076923078</v>
+        <v>152.37692307692308</v>
       </c>
       <c r="M28" s="42">
-        <v>246.15384615384613</v>
+        <v>184.61538461538461</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -8152,32 +7968,9 @@
       <c r="O28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V28" s="40">
-        <v>492.30769229999999</v>
-      </c>
-      <c r="Y28">
-        <v>11.507692307692308</v>
-      </c>
-      <c r="Z28">
-        <v>38.320615384615387</v>
-      </c>
-      <c r="AA28">
-        <v>76.641230769230773</v>
-      </c>
-      <c r="AB28">
-        <v>117.32307692307693</v>
-      </c>
-      <c r="AC28">
-        <v>160.24615384615385</v>
-      </c>
-      <c r="AD28">
-        <v>203.16923076923078</v>
-      </c>
-      <c r="AE28">
-        <v>246.15384615384613</v>
-      </c>
+      <c r="V28" s="40"/>
     </row>
-    <row r="29" spans="2:31" ht="15" thickBot="1">
+    <row r="29" spans="2:22" ht="15" thickBot="1">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -8194,25 +7987,25 @@
         <v>1</v>
       </c>
       <c r="G29" s="42">
-        <v>7.4799999999999995</v>
+        <v>6.9046153846153855</v>
       </c>
       <c r="H29" s="42">
-        <v>24.9084</v>
+        <v>22.992369230769231</v>
       </c>
       <c r="I29" s="42">
-        <v>49.816800000000001</v>
+        <v>45.984738461538463</v>
       </c>
       <c r="J29" s="42">
-        <v>76.260000000000005</v>
+        <v>70.393846153846155</v>
       </c>
       <c r="K29" s="42">
-        <v>104.16000000000001</v>
+        <v>96.14769230769231</v>
       </c>
       <c r="L29" s="42">
-        <v>132.06</v>
+        <v>121.90153846153846</v>
       </c>
       <c r="M29" s="42">
-        <v>160.00000000000003</v>
+        <v>147.69230769230768</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8220,32 +8013,9 @@
       <c r="O29" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V29" s="40">
-        <v>492.30769229999999</v>
-      </c>
-      <c r="Y29">
-        <v>7.4799999999999995</v>
-      </c>
-      <c r="Z29">
-        <v>24.9084</v>
-      </c>
-      <c r="AA29">
-        <v>49.816800000000001</v>
-      </c>
-      <c r="AB29">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="AC29">
-        <v>104.16000000000001</v>
-      </c>
-      <c r="AD29">
-        <v>132.06</v>
-      </c>
-      <c r="AE29">
-        <v>160.00000000000003</v>
-      </c>
+      <c r="V29" s="40"/>
     </row>
-    <row r="30" spans="2:31" ht="15" thickBot="1">
+    <row r="30" spans="2:22" ht="15" thickBot="1">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -8288,32 +8058,9 @@
       <c r="O30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V30" s="40">
-        <v>1385.281385</v>
-      </c>
-      <c r="Y30">
-        <v>1.6190476190476191</v>
-      </c>
-      <c r="Z30">
-        <v>5.3914285714285723</v>
-      </c>
-      <c r="AA30">
-        <v>10.782857142857145</v>
-      </c>
-      <c r="AB30">
-        <v>16.506493506493506</v>
-      </c>
-      <c r="AC30">
-        <v>22.545454545454547</v>
-      </c>
-      <c r="AD30">
-        <v>28.584415584415581</v>
-      </c>
-      <c r="AE30">
-        <v>34.632034632034632</v>
-      </c>
+      <c r="V30" s="40"/>
     </row>
-    <row r="31" spans="2:31" ht="15" thickBot="1">
+    <row r="31" spans="2:22" ht="15" thickBot="1">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8330,25 +8077,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="42">
-        <v>24.419243986254298</v>
+        <v>21.848797250859111</v>
       </c>
       <c r="H31" s="42">
-        <v>81.316082474226818</v>
+        <v>72.756494845360834</v>
       </c>
       <c r="I31" s="42">
-        <v>162.63216494845364</v>
+        <v>145.51298969072167</v>
       </c>
       <c r="J31" s="42">
-        <v>248.95876288659795</v>
+        <v>222.75257731958763</v>
       </c>
       <c r="K31" s="42">
-        <v>340.04123711340208</v>
+        <v>304.2474226804124</v>
       </c>
       <c r="L31" s="42">
-        <v>431.12371134020617</v>
+        <v>385.74226804123714</v>
       </c>
       <c r="M31" s="42">
-        <v>522.33676975945025</v>
+        <v>467.35395189003441</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8356,32 +8103,9 @@
       <c r="O31" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V31" s="40">
-        <v>274.9140893</v>
-      </c>
-      <c r="Y31">
-        <v>24.419243986254298</v>
-      </c>
-      <c r="Z31">
-        <v>81.316082474226818</v>
-      </c>
-      <c r="AA31">
-        <v>162.63216494845364</v>
-      </c>
-      <c r="AB31">
-        <v>248.95876288659795</v>
-      </c>
-      <c r="AC31">
-        <v>340.04123711340208</v>
-      </c>
-      <c r="AD31">
-        <v>431.12371134020617</v>
-      </c>
-      <c r="AE31">
-        <v>522.33676975945025</v>
-      </c>
+      <c r="V31" s="40"/>
     </row>
-    <row r="32" spans="2:31" ht="15" thickBot="1">
+    <row r="32" spans="2:22" ht="15" thickBot="1">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8398,25 +8122,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="42">
-        <v>25.355932203389834</v>
+        <v>23.24293785310735</v>
       </c>
       <c r="H32" s="42">
-        <v>84.435254237288149</v>
+        <v>77.398983050847477</v>
       </c>
       <c r="I32" s="42">
-        <v>168.8705084745763</v>
+        <v>154.79796610169495</v>
       </c>
       <c r="J32" s="42">
-        <v>258.50847457627123</v>
+        <v>236.9661016949153</v>
       </c>
       <c r="K32" s="42">
-        <v>353.08474576271192</v>
+        <v>323.66101694915255</v>
       </c>
       <c r="L32" s="42">
-        <v>447.66101694915261</v>
+        <v>410.3559322033899</v>
       </c>
       <c r="M32" s="42">
-        <v>542.37288135593224</v>
+        <v>497.17514124293797</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8424,32 +8148,9 @@
       <c r="O32" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V32" s="40">
-        <v>451.97740110000001</v>
-      </c>
-      <c r="Y32">
-        <v>25.355932203389834</v>
-      </c>
-      <c r="Z32">
-        <v>84.435254237288149</v>
-      </c>
-      <c r="AA32">
-        <v>168.8705084745763</v>
-      </c>
-      <c r="AB32">
-        <v>258.50847457627123</v>
-      </c>
-      <c r="AC32">
-        <v>353.08474576271192</v>
-      </c>
-      <c r="AD32">
-        <v>447.66101694915261</v>
-      </c>
-      <c r="AE32">
-        <v>542.37288135593224</v>
-      </c>
+      <c r="V32" s="40"/>
     </row>
-    <row r="33" spans="2:31" ht="15" thickBot="1">
+    <row r="33" spans="2:22" ht="15" thickBot="1">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8492,32 +8193,9 @@
       <c r="O33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V33" s="40">
-        <v>1422.2222220000001</v>
-      </c>
-      <c r="Y33">
-        <v>11.635555555555555</v>
-      </c>
-      <c r="Z33">
-        <v>38.746400000000001</v>
-      </c>
-      <c r="AA33">
-        <v>77.492800000000003</v>
-      </c>
-      <c r="AB33">
-        <v>118.62666666666667</v>
-      </c>
-      <c r="AC33">
-        <v>162.02666666666664</v>
-      </c>
-      <c r="AD33">
-        <v>205.42666666666665</v>
-      </c>
-      <c r="AE33">
-        <v>248.88888888888886</v>
-      </c>
+      <c r="V33" s="40"/>
     </row>
-    <row r="34" spans="2:31" ht="15" thickBot="1">
+    <row r="34" spans="2:22" ht="15" thickBot="1">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8534,25 +8212,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="42">
-        <v>13.532894736842108</v>
+        <v>8.6118421052631575</v>
       </c>
       <c r="H34" s="42">
-        <v>45.064539473684221</v>
+        <v>28.677434210526318</v>
       </c>
       <c r="I34" s="42">
-        <v>90.129078947368441</v>
+        <v>57.354868421052636</v>
       </c>
       <c r="J34" s="42">
-        <v>137.97039473684214</v>
+        <v>87.79934210526315</v>
       </c>
       <c r="K34" s="42">
-        <v>188.44736842105266</v>
+        <v>119.92105263157893</v>
       </c>
       <c r="L34" s="42">
-        <v>238.92434210526321</v>
+        <v>152.04276315789474</v>
       </c>
       <c r="M34" s="42">
-        <v>289.47368421052636</v>
+        <v>184.21052631578945</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8560,32 +8238,9 @@
       <c r="O34" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V34" s="40">
-        <v>1052.6315790000001</v>
-      </c>
-      <c r="Y34">
-        <v>13.532894736842108</v>
-      </c>
-      <c r="Z34">
-        <v>45.064539473684221</v>
-      </c>
-      <c r="AA34">
-        <v>90.129078947368441</v>
-      </c>
-      <c r="AB34">
-        <v>137.97039473684214</v>
-      </c>
-      <c r="AC34">
-        <v>188.44736842105266</v>
-      </c>
-      <c r="AD34">
-        <v>238.92434210526321</v>
-      </c>
-      <c r="AE34">
-        <v>289.47368421052636</v>
-      </c>
+      <c r="V34" s="40"/>
     </row>
-    <row r="35" spans="2:31" ht="15" thickBot="1">
+    <row r="35" spans="2:22" ht="15" thickBot="1">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8628,32 +8283,9 @@
       <c r="O35" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V35" s="40">
-        <v>1066.666667</v>
-      </c>
-      <c r="Y35">
-        <v>72.306666666666672</v>
-      </c>
-      <c r="Z35">
-        <v>240.78119999999998</v>
-      </c>
-      <c r="AA35">
-        <v>481.56239999999997</v>
-      </c>
-      <c r="AB35">
-        <v>737.18000000000006</v>
-      </c>
-      <c r="AC35">
-        <v>1006.8799999999999</v>
-      </c>
-      <c r="AD35">
-        <v>1276.58</v>
-      </c>
-      <c r="AE35">
-        <v>1546.6666666666665</v>
-      </c>
+      <c r="V35" s="40"/>
     </row>
-    <row r="36" spans="2:31" ht="15" thickBot="1">
+    <row r="36" spans="2:22" ht="15" thickBot="1">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8696,32 +8328,9 @@
       <c r="O36" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V36" s="40">
-        <v>1142.857143</v>
-      </c>
-      <c r="Y36">
-        <v>44.523809523809526</v>
-      </c>
-      <c r="Z36">
-        <v>148.26428571428573</v>
-      </c>
-      <c r="AA36">
-        <v>296.52857142857147</v>
-      </c>
-      <c r="AB36">
-        <v>453.92857142857144</v>
-      </c>
-      <c r="AC36">
-        <v>620.00000000000011</v>
-      </c>
-      <c r="AD36">
-        <v>786.07142857142867</v>
-      </c>
-      <c r="AE36">
-        <v>952.38095238095241</v>
-      </c>
+      <c r="V36" s="40"/>
     </row>
-    <row r="37" spans="2:31" ht="15" thickBot="1">
+    <row r="37" spans="2:22" ht="15" thickBot="1">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -8764,32 +8373,9 @@
       <c r="O37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V37" s="40">
-        <v>571.42857140000001</v>
-      </c>
-      <c r="Y37">
-        <v>0.26714285714285713</v>
-      </c>
-      <c r="Z37">
-        <v>0.88958571428571431</v>
-      </c>
-      <c r="AA37">
-        <v>1.7791714285714286</v>
-      </c>
-      <c r="AB37">
-        <v>2.7235714285714283</v>
-      </c>
-      <c r="AC37">
-        <v>3.7199999999999998</v>
-      </c>
-      <c r="AD37">
-        <v>4.7164285714285707</v>
-      </c>
-      <c r="AE37">
-        <v>5.7142857142857144</v>
-      </c>
+      <c r="V37" s="40"/>
     </row>
-    <row r="38" spans="2:31" ht="15" thickBot="1">
+    <row r="38" spans="2:22" ht="15" thickBot="1">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -8832,32 +8418,9 @@
       <c r="O38" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V38" s="40">
-        <v>558.13953489999994</v>
-      </c>
-      <c r="Y38">
-        <v>44.358139534883719</v>
-      </c>
-      <c r="Z38">
-        <v>147.71260465116279</v>
-      </c>
-      <c r="AA38">
-        <v>295.42520930232558</v>
-      </c>
-      <c r="AB38">
-        <v>452.23953488372092</v>
-      </c>
-      <c r="AC38">
-        <v>617.69302325581396</v>
-      </c>
-      <c r="AD38">
-        <v>783.14651162790699</v>
-      </c>
-      <c r="AE38">
-        <v>948.83720930232562</v>
-      </c>
+      <c r="V38" s="40"/>
     </row>
-    <row r="39" spans="2:31" ht="15" thickBot="1">
+    <row r="39" spans="2:22" ht="15" thickBot="1">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -8900,32 +8463,9 @@
       <c r="O39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V39" s="40">
-        <v>827.58620689999998</v>
-      </c>
-      <c r="Y39">
-        <v>5.158620689655173</v>
-      </c>
-      <c r="Z39">
-        <v>17.178206896551728</v>
-      </c>
-      <c r="AA39">
-        <v>34.356413793103457</v>
-      </c>
-      <c r="AB39">
-        <v>52.593103448275869</v>
-      </c>
-      <c r="AC39">
-        <v>71.834482758620695</v>
-      </c>
-      <c r="AD39">
-        <v>91.07586206896552</v>
-      </c>
-      <c r="AE39">
-        <v>110.3448275862069</v>
-      </c>
+      <c r="V39" s="40"/>
     </row>
-    <row r="40" spans="2:31" ht="15" thickBot="1">
+    <row r="40" spans="2:22" ht="15" thickBot="1">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -8968,32 +8508,9 @@
       <c r="O40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V40" s="40">
-        <v>1500</v>
-      </c>
-      <c r="Y40">
-        <v>14.025</v>
-      </c>
-      <c r="Z40">
-        <v>46.703250000000004</v>
-      </c>
-      <c r="AA40">
-        <v>93.406500000000008</v>
-      </c>
-      <c r="AB40">
-        <v>142.98750000000001</v>
-      </c>
-      <c r="AC40">
-        <v>195.3</v>
-      </c>
-      <c r="AD40">
-        <v>247.61250000000001</v>
-      </c>
-      <c r="AE40">
-        <v>300</v>
-      </c>
+      <c r="V40" s="40"/>
     </row>
-    <row r="41" spans="2:31" ht="15" thickBot="1">
+    <row r="41" spans="2:22" ht="15" thickBot="1">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -9010,25 +8527,25 @@
         <v>1</v>
       </c>
       <c r="G41" s="42">
-        <v>250.43039999999999</v>
+        <v>276.61039999999997</v>
       </c>
       <c r="H41" s="42">
-        <v>833.93323199999998</v>
+        <v>921.11263199999996</v>
       </c>
       <c r="I41" s="42">
-        <v>1667.866464</v>
+        <v>1842.2252639999999</v>
       </c>
       <c r="J41" s="42">
-        <v>2553.1848</v>
+        <v>2820.0947999999999</v>
       </c>
       <c r="K41" s="42">
-        <v>3487.2767999999996</v>
+        <v>3851.8367999999996</v>
       </c>
       <c r="L41" s="42">
-        <v>4421.3688000000002</v>
+        <v>4883.5787999999993</v>
       </c>
       <c r="M41" s="42">
-        <v>5356.8</v>
+        <v>5916.7999999999993</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -9036,32 +8553,9 @@
       <c r="O41" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V41" s="40">
-        <v>640</v>
-      </c>
-      <c r="Y41">
-        <v>250.43039999999999</v>
-      </c>
-      <c r="Z41">
-        <v>833.93323199999998</v>
-      </c>
-      <c r="AA41">
-        <v>1667.866464</v>
-      </c>
-      <c r="AB41">
-        <v>2553.1848</v>
-      </c>
-      <c r="AC41">
-        <v>3487.2767999999996</v>
-      </c>
-      <c r="AD41">
-        <v>4421.3688000000002</v>
-      </c>
-      <c r="AE41">
-        <v>5356.8</v>
-      </c>
+      <c r="V41" s="40"/>
     </row>
-    <row r="42" spans="2:31" ht="15" thickBot="1">
+    <row r="42" spans="2:22" ht="15" thickBot="1">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -9104,32 +8598,9 @@
       <c r="O42" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V42" s="40">
-        <v>1116.27907</v>
-      </c>
-      <c r="Y42">
-        <v>3.4790697674418607</v>
-      </c>
-      <c r="Z42">
-        <v>11.585302325581397</v>
-      </c>
-      <c r="AA42">
-        <v>23.170604651162794</v>
-      </c>
-      <c r="AB42">
-        <v>35.469767441860469</v>
-      </c>
-      <c r="AC42">
-        <v>48.446511627906979</v>
-      </c>
-      <c r="AD42">
-        <v>61.423255813953489</v>
-      </c>
-      <c r="AE42">
-        <v>74.418604651162795</v>
-      </c>
+      <c r="V42" s="40"/>
     </row>
-    <row r="43" spans="2:31" ht="15" thickBot="1">
+    <row r="43" spans="2:22" ht="15" thickBot="1">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -9172,39 +8643,16 @@
       <c r="O43" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V43" s="40">
-        <v>391.51712889999999</v>
-      </c>
-      <c r="Y43">
-        <v>3.6606851549755306</v>
-      </c>
-      <c r="Z43">
-        <v>12.190081566068516</v>
-      </c>
-      <c r="AA43">
-        <v>24.380163132137032</v>
-      </c>
-      <c r="AB43">
-        <v>37.321370309951064</v>
-      </c>
-      <c r="AC43">
-        <v>50.97553017944535</v>
-      </c>
-      <c r="AD43">
-        <v>64.629690048939651</v>
-      </c>
-      <c r="AE43">
-        <v>78.303425774877653</v>
-      </c>
+      <c r="V43" s="40"/>
     </row>
-    <row r="44" spans="2:31">
+    <row r="44" spans="2:22">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
     </row>
-    <row r="45" spans="2:31">
+    <row r="45" spans="2:22">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -9223,7 +8671,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:31">
+    <row r="48" spans="2:22">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A555C-6FAE-4834-B051-3EBD2B6B3685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1004C2-183E-448D-BBF7-AAA35C1E46CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7324,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19:AE47"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8521,7 +8521,7 @@
         <v>56</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="F41" s="32">
         <v>1</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1004C2-183E-448D-BBF7-AAA35C1E46CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F150F-5F0A-48C5-AA39-30611303C650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1505,14 +1505,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1762,21 +1756,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4302,7 +4281,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4357,9 +4336,6 @@
     <xf numFmtId="0" fontId="11" fillId="52" borderId="0" xfId="2181" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="1131" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="53" borderId="0" xfId="1131" applyFill="1"/>
-    <xf numFmtId="0" fontId="120" fillId="54" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7322,10 +7298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19:AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7462,7 +7438,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:18">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7483,7 +7459,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:22" ht="26">
+    <row r="18" spans="2:18" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7530,7 +7506,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:22" ht="63" thickBot="1">
+    <row r="19" spans="2:18" ht="62.5">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7546,11 +7522,11 @@
       <c r="F19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
@@ -7565,7 +7541,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:22" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="2:18" ht="24" customHeight="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7581,26 +7557,26 @@
       <c r="F20" s="32">
         <v>1</v>
       </c>
-      <c r="G20" s="42">
-        <v>69.627659574468098</v>
-      </c>
-      <c r="H20" s="42">
-        <v>231.86010638297876</v>
-      </c>
-      <c r="I20" s="42">
-        <v>463.72021276595751</v>
-      </c>
-      <c r="J20" s="42">
-        <v>709.86702127659578</v>
-      </c>
-      <c r="K20" s="42">
-        <v>969.57446808510656</v>
-      </c>
-      <c r="L20" s="42">
-        <v>1229.2819148936171</v>
-      </c>
-      <c r="M20" s="42">
-        <v>1489.3617021276596</v>
+      <c r="G20" s="41">
+        <v>39.787234042553195</v>
+      </c>
+      <c r="H20" s="41">
+        <v>132.49148936170212</v>
+      </c>
+      <c r="I20" s="41">
+        <v>264.98297872340424</v>
+      </c>
+      <c r="J20" s="41">
+        <v>405.63829787234044</v>
+      </c>
+      <c r="K20" s="41">
+        <v>554.04255319148933</v>
+      </c>
+      <c r="L20" s="41">
+        <v>702.44680851063833</v>
+      </c>
+      <c r="M20" s="41">
+        <v>851.063829787234</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7608,9 +7584,8 @@
       <c r="O20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="40"/>
     </row>
-    <row r="21" spans="2:22" ht="15" thickBot="1">
+    <row r="21" spans="2:18">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7626,26 +7601,26 @@
       <c r="F21" s="32">
         <v>1</v>
       </c>
-      <c r="G21" s="42">
-        <v>8.9688249400479627</v>
-      </c>
-      <c r="H21" s="42">
-        <v>29.866187050359713</v>
-      </c>
-      <c r="I21" s="42">
+      <c r="G21" s="41">
+        <v>17.937649880095925</v>
+      </c>
+      <c r="H21" s="41">
         <v>59.732374100719426</v>
       </c>
-      <c r="J21" s="42">
-        <v>91.438848920863322</v>
-      </c>
-      <c r="K21" s="42">
-        <v>124.89208633093526</v>
-      </c>
-      <c r="L21" s="42">
-        <v>158.34532374100721</v>
-      </c>
-      <c r="M21" s="42">
-        <v>191.84652278177458</v>
+      <c r="I21" s="41">
+        <v>119.46474820143885</v>
+      </c>
+      <c r="J21" s="41">
+        <v>182.87769784172664</v>
+      </c>
+      <c r="K21" s="41">
+        <v>249.78417266187051</v>
+      </c>
+      <c r="L21" s="41">
+        <v>316.69064748201441</v>
+      </c>
+      <c r="M21" s="41">
+        <v>383.69304556354916</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7653,9 +7628,8 @@
       <c r="O21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="40"/>
     </row>
-    <row r="22" spans="2:22" ht="15" thickBot="1">
+    <row r="22" spans="2:18">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7671,26 +7645,26 @@
       <c r="F22" s="32">
         <v>1</v>
       </c>
-      <c r="G22" s="43">
-        <v>192.54290171606863</v>
-      </c>
-      <c r="H22" s="43">
-        <v>641.1678627145086</v>
-      </c>
-      <c r="I22" s="43">
-        <v>1282.3357254290172</v>
-      </c>
-      <c r="J22" s="43">
-        <v>1963.0109204368173</v>
-      </c>
-      <c r="K22" s="43">
-        <v>2681.1856474258971</v>
-      </c>
-      <c r="L22" s="43">
-        <v>3399.3603744149768</v>
-      </c>
-      <c r="M22" s="43">
-        <v>4118.5647425897032</v>
+      <c r="G22" s="42">
+        <v>172.58845553822152</v>
+      </c>
+      <c r="H22" s="42">
+        <v>574.71955694227768</v>
+      </c>
+      <c r="I22" s="42">
+        <v>1149.4391138845554</v>
+      </c>
+      <c r="J22" s="42">
+        <v>1759.5716068642748</v>
+      </c>
+      <c r="K22" s="42">
+        <v>2403.3173166926676</v>
+      </c>
+      <c r="L22" s="42">
+        <v>3047.0630265210607</v>
+      </c>
+      <c r="M22" s="42">
+        <v>3691.731669266771</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7698,9 +7672,8 @@
       <c r="O22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V22" s="40"/>
     </row>
-    <row r="23" spans="2:22" ht="15" thickBot="1">
+    <row r="23" spans="2:18">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7716,25 +7689,25 @@
       <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="41">
         <v>1.2695179904955873</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <v>4.2274949083503062</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="41">
         <v>8.4549898167006123</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="41">
         <v>12.942973523421591</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <v>17.678207739307538</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="41">
         <v>22.413441955193484</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="41">
         <v>27.155465037338768</v>
       </c>
       <c r="N23" s="32">
@@ -7743,9 +7716,8 @@
       <c r="O23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V23" s="40"/>
     </row>
-    <row r="24" spans="2:22" ht="15" thickBot="1">
+    <row r="24" spans="2:18">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7761,25 +7733,25 @@
       <c r="F24" s="32">
         <v>1</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="41">
         <v>7.4799999999999995</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>24.908400000000004</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="41">
         <v>49.816800000000008</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>76.260000000000005</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="41">
         <v>104.16</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="41">
         <v>132.05999999999997</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="41">
         <v>160</v>
       </c>
       <c r="N24" s="32">
@@ -7788,9 +7760,8 @@
       <c r="O24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V24" s="40"/>
     </row>
-    <row r="25" spans="2:22" ht="15" thickBot="1">
+    <row r="25" spans="2:18">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7806,26 +7777,26 @@
       <c r="F25" s="32">
         <v>1</v>
       </c>
-      <c r="G25" s="42">
-        <v>8.4519774011299447</v>
-      </c>
-      <c r="H25" s="42">
-        <v>28.145084745762716</v>
-      </c>
-      <c r="I25" s="42">
-        <v>56.290169491525432</v>
-      </c>
-      <c r="J25" s="42">
-        <v>86.169491525423737</v>
-      </c>
-      <c r="K25" s="42">
-        <v>117.6949152542373</v>
-      </c>
-      <c r="L25" s="42">
-        <v>149.22033898305085</v>
-      </c>
-      <c r="M25" s="42">
-        <v>180.79096045197741</v>
+      <c r="G25" s="41">
+        <v>2.1129943502824862</v>
+      </c>
+      <c r="H25" s="41">
+        <v>7.0362711864406791</v>
+      </c>
+      <c r="I25" s="41">
+        <v>14.072542372881358</v>
+      </c>
+      <c r="J25" s="41">
+        <v>21.542372881355934</v>
+      </c>
+      <c r="K25" s="41">
+        <v>29.423728813559325</v>
+      </c>
+      <c r="L25" s="41">
+        <v>37.305084745762713</v>
+      </c>
+      <c r="M25" s="41">
+        <v>45.197740112994353</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7833,9 +7804,8 @@
       <c r="O25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V25" s="40"/>
     </row>
-    <row r="26" spans="2:22" ht="15" thickBot="1">
+    <row r="26" spans="2:18">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -7851,26 +7821,26 @@
       <c r="F26" s="32">
         <v>1</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="41">
         <v>59.935897435897431</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>199.58653846153848</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="41">
         <v>399.17307692307696</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="41">
         <v>611.05769230769238</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="41">
         <v>834.61538461538476</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="41">
         <v>1058.1730769230771</v>
       </c>
-      <c r="M26" s="42">
-        <v>666.66666666666674</v>
+      <c r="M26" s="41">
+        <v>25.641025641025642</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -7878,9 +7848,8 @@
       <c r="O26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="40"/>
     </row>
-    <row r="27" spans="2:22" ht="15" thickBot="1">
+    <row r="27" spans="2:18">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -7896,25 +7865,25 @@
       <c r="F27" s="32">
         <v>1</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="41">
         <v>1.0080862533692723</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="41">
         <v>3.3569272237196772</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="41">
         <v>6.7138544474393544</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="41">
         <v>10.277628032345014</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <v>14.037735849056604</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="41">
         <v>17.797843665768195</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="41">
         <v>21.563342318059298</v>
       </c>
       <c r="N27" s="32">
@@ -7923,9 +7892,8 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V27" s="40"/>
     </row>
-    <row r="28" spans="2:22" ht="15" thickBot="1">
+    <row r="28" spans="2:18">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -7941,26 +7909,26 @@
       <c r="F28" s="32">
         <v>1</v>
       </c>
-      <c r="G28" s="42">
-        <v>8.6307692307692303</v>
-      </c>
-      <c r="H28" s="42">
-        <v>28.740461538461538</v>
-      </c>
-      <c r="I28" s="42">
-        <v>57.480923076923077</v>
-      </c>
-      <c r="J28" s="42">
-        <v>87.992307692307691</v>
-      </c>
-      <c r="K28" s="42">
-        <v>120.18461538461537</v>
-      </c>
-      <c r="L28" s="42">
-        <v>152.37692307692308</v>
-      </c>
-      <c r="M28" s="42">
-        <v>184.61538461538461</v>
+      <c r="G28" s="41">
+        <v>0.57538461538461538</v>
+      </c>
+      <c r="H28" s="41">
+        <v>1.9160307692307694</v>
+      </c>
+      <c r="I28" s="41">
+        <v>3.8320615384615389</v>
+      </c>
+      <c r="J28" s="41">
+        <v>5.8661538461538463</v>
+      </c>
+      <c r="K28" s="41">
+        <v>8.0123076923076919</v>
+      </c>
+      <c r="L28" s="41">
+        <v>10.158461538461538</v>
+      </c>
+      <c r="M28" s="41">
+        <v>12.307692307692307</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -7968,9 +7936,8 @@
       <c r="O28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V28" s="40"/>
     </row>
-    <row r="29" spans="2:22" ht="15" thickBot="1">
+    <row r="29" spans="2:18">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -7986,26 +7953,26 @@
       <c r="F29" s="32">
         <v>1</v>
       </c>
-      <c r="G29" s="42">
-        <v>6.9046153846153855</v>
-      </c>
-      <c r="H29" s="42">
-        <v>22.992369230769231</v>
-      </c>
-      <c r="I29" s="42">
-        <v>45.984738461538463</v>
-      </c>
-      <c r="J29" s="42">
-        <v>70.393846153846155</v>
-      </c>
-      <c r="K29" s="42">
-        <v>96.14769230769231</v>
-      </c>
-      <c r="L29" s="42">
-        <v>121.90153846153846</v>
-      </c>
-      <c r="M29" s="42">
-        <v>147.69230769230768</v>
+      <c r="G29" s="41">
+        <v>0.57538461538461538</v>
+      </c>
+      <c r="H29" s="41">
+        <v>1.9160307692307694</v>
+      </c>
+      <c r="I29" s="41">
+        <v>3.8320615384615389</v>
+      </c>
+      <c r="J29" s="41">
+        <v>5.8661538461538463</v>
+      </c>
+      <c r="K29" s="41">
+        <v>8.0123076923076919</v>
+      </c>
+      <c r="L29" s="41">
+        <v>10.158461538461538</v>
+      </c>
+      <c r="M29" s="41">
+        <v>12.307692307692307</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8013,9 +7980,8 @@
       <c r="O29" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V29" s="40"/>
     </row>
-    <row r="30" spans="2:22" ht="15" thickBot="1">
+    <row r="30" spans="2:18">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -8031,25 +7997,25 @@
       <c r="F30" s="32">
         <v>1</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <v>1.6190476190476191</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <v>5.3914285714285723</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <v>10.782857142857145</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <v>16.506493506493506</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <v>22.545454545454547</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <v>28.584415584415581</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <v>34.632034632034632</v>
       </c>
       <c r="N30" s="32">
@@ -8058,9 +8024,8 @@
       <c r="O30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V30" s="40"/>
     </row>
-    <row r="31" spans="2:22" ht="15" thickBot="1">
+    <row r="31" spans="2:18">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8076,26 +8041,26 @@
       <c r="F31" s="32">
         <v>1</v>
       </c>
-      <c r="G31" s="42">
-        <v>21.848797250859111</v>
-      </c>
-      <c r="H31" s="42">
-        <v>72.756494845360834</v>
-      </c>
-      <c r="I31" s="42">
-        <v>145.51298969072167</v>
-      </c>
-      <c r="J31" s="42">
-        <v>222.75257731958763</v>
-      </c>
-      <c r="K31" s="42">
-        <v>304.2474226804124</v>
-      </c>
-      <c r="L31" s="42">
-        <v>385.74226804123714</v>
-      </c>
-      <c r="M31" s="42">
-        <v>467.35395189003441</v>
+      <c r="G31" s="41">
+        <v>1.2852233676975946</v>
+      </c>
+      <c r="H31" s="41">
+        <v>4.279793814432991</v>
+      </c>
+      <c r="I31" s="41">
+        <v>8.559587628865982</v>
+      </c>
+      <c r="J31" s="41">
+        <v>13.103092783505156</v>
+      </c>
+      <c r="K31" s="41">
+        <v>17.896907216494846</v>
+      </c>
+      <c r="L31" s="41">
+        <v>22.690721649484537</v>
+      </c>
+      <c r="M31" s="41">
+        <v>27.491408934707906</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8103,9 +8068,8 @@
       <c r="O31" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V31" s="40"/>
     </row>
-    <row r="32" spans="2:22" ht="15" thickBot="1">
+    <row r="32" spans="2:18">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8121,26 +8085,26 @@
       <c r="F32" s="32">
         <v>1</v>
       </c>
-      <c r="G32" s="42">
-        <v>23.24293785310735</v>
-      </c>
-      <c r="H32" s="42">
-        <v>77.398983050847477</v>
-      </c>
-      <c r="I32" s="42">
-        <v>154.79796610169495</v>
-      </c>
-      <c r="J32" s="42">
-        <v>236.9661016949153</v>
-      </c>
-      <c r="K32" s="42">
-        <v>323.66101694915255</v>
-      </c>
-      <c r="L32" s="42">
-        <v>410.3559322033899</v>
-      </c>
-      <c r="M32" s="42">
-        <v>497.17514124293797</v>
+      <c r="G32" s="41">
+        <v>2.1129943502824862</v>
+      </c>
+      <c r="H32" s="41">
+        <v>7.0362711864406791</v>
+      </c>
+      <c r="I32" s="41">
+        <v>14.072542372881358</v>
+      </c>
+      <c r="J32" s="41">
+        <v>21.542372881355934</v>
+      </c>
+      <c r="K32" s="41">
+        <v>29.423728813559325</v>
+      </c>
+      <c r="L32" s="41">
+        <v>37.305084745762713</v>
+      </c>
+      <c r="M32" s="41">
+        <v>45.197740112994353</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8148,9 +8112,8 @@
       <c r="O32" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V32" s="40"/>
     </row>
-    <row r="33" spans="2:22" ht="15" thickBot="1">
+    <row r="33" spans="2:18">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8166,26 +8129,26 @@
       <c r="F33" s="32">
         <v>1</v>
       </c>
-      <c r="G33" s="42">
-        <v>11.635555555555555</v>
-      </c>
-      <c r="H33" s="42">
-        <v>38.746400000000001</v>
-      </c>
-      <c r="I33" s="42">
-        <v>77.492800000000003</v>
-      </c>
-      <c r="J33" s="42">
-        <v>118.62666666666667</v>
-      </c>
-      <c r="K33" s="42">
-        <v>162.02666666666664</v>
-      </c>
-      <c r="L33" s="42">
-        <v>205.42666666666665</v>
-      </c>
-      <c r="M33" s="42">
-        <v>248.88888888888886</v>
+      <c r="G33" s="41">
+        <v>1.6622222222222223</v>
+      </c>
+      <c r="H33" s="41">
+        <v>5.5352000000000006</v>
+      </c>
+      <c r="I33" s="41">
+        <v>11.070400000000001</v>
+      </c>
+      <c r="J33" s="41">
+        <v>16.946666666666665</v>
+      </c>
+      <c r="K33" s="41">
+        <v>23.146666666666668</v>
+      </c>
+      <c r="L33" s="41">
+        <v>29.346666666666664</v>
+      </c>
+      <c r="M33" s="41">
+        <v>35.555555555555557</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8193,9 +8156,8 @@
       <c r="O33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V33" s="40"/>
     </row>
-    <row r="34" spans="2:22" ht="15" thickBot="1">
+    <row r="34" spans="2:18">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8211,26 +8173,26 @@
       <c r="F34" s="32">
         <v>1</v>
       </c>
-      <c r="G34" s="42">
-        <v>8.6118421052631575</v>
-      </c>
-      <c r="H34" s="42">
-        <v>28.677434210526318</v>
-      </c>
-      <c r="I34" s="42">
-        <v>57.354868421052636</v>
-      </c>
-      <c r="J34" s="42">
-        <v>87.79934210526315</v>
-      </c>
-      <c r="K34" s="42">
-        <v>119.92105263157893</v>
-      </c>
-      <c r="L34" s="42">
-        <v>152.04276315789474</v>
-      </c>
-      <c r="M34" s="42">
-        <v>184.21052631578945</v>
+      <c r="G34" s="41">
+        <v>1.2302631578947369</v>
+      </c>
+      <c r="H34" s="41">
+        <v>4.0967763157894748</v>
+      </c>
+      <c r="I34" s="41">
+        <v>8.1935526315789495</v>
+      </c>
+      <c r="J34" s="41">
+        <v>12.542763157894738</v>
+      </c>
+      <c r="K34" s="41">
+        <v>17.131578947368421</v>
+      </c>
+      <c r="L34" s="41">
+        <v>21.720394736842106</v>
+      </c>
+      <c r="M34" s="41">
+        <v>26.315789473684212</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8238,9 +8200,8 @@
       <c r="O34" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V34" s="40"/>
     </row>
-    <row r="35" spans="2:22" ht="15" thickBot="1">
+    <row r="35" spans="2:18">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8256,25 +8217,25 @@
       <c r="F35" s="32">
         <v>1</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="41">
         <v>72.306666666666672</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="41">
         <v>240.78119999999998</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="41">
         <v>481.56239999999997</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="41">
         <v>737.18000000000006</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="41">
         <v>1006.8799999999999</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35" s="41">
         <v>1276.58</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="41">
         <v>1546.6666666666665</v>
       </c>
       <c r="N35" s="32">
@@ -8283,9 +8244,8 @@
       <c r="O35" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V35" s="40"/>
     </row>
-    <row r="36" spans="2:22" ht="15" thickBot="1">
+    <row r="36" spans="2:18">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8301,25 +8261,25 @@
       <c r="F36" s="32">
         <v>1</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="41">
         <v>44.523809523809526</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="41">
         <v>148.26428571428573</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="41">
         <v>296.52857142857147</v>
       </c>
-      <c r="J36" s="42">
+      <c r="J36" s="41">
         <v>453.92857142857144</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="41">
         <v>620.00000000000011</v>
       </c>
-      <c r="L36" s="42">
+      <c r="L36" s="41">
         <v>786.07142857142867</v>
       </c>
-      <c r="M36" s="42">
+      <c r="M36" s="41">
         <v>952.38095238095241</v>
       </c>
       <c r="N36" s="32">
@@ -8328,9 +8288,8 @@
       <c r="O36" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V36" s="40"/>
     </row>
-    <row r="37" spans="2:22" ht="15" thickBot="1">
+    <row r="37" spans="2:18">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -8346,25 +8305,25 @@
       <c r="F37" s="32">
         <v>1</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="41">
         <v>0.26714285714285713</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="41">
         <v>0.88958571428571431</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="41">
         <v>1.7791714285714286</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="41">
         <v>2.7235714285714283</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="41">
         <v>3.7199999999999998</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L37" s="41">
         <v>4.7164285714285707</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="41">
         <v>5.7142857142857144</v>
       </c>
       <c r="N37" s="32">
@@ -8373,9 +8332,8 @@
       <c r="O37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V37" s="40"/>
     </row>
-    <row r="38" spans="2:22" ht="15" thickBot="1">
+    <row r="38" spans="2:18">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -8391,25 +8349,25 @@
       <c r="F38" s="32">
         <v>1</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="41">
         <v>44.358139534883719</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <v>147.71260465116279</v>
       </c>
-      <c r="I38" s="42">
+      <c r="I38" s="41">
         <v>295.42520930232558</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="41">
         <v>452.23953488372092</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="41">
         <v>617.69302325581396</v>
       </c>
-      <c r="L38" s="42">
+      <c r="L38" s="41">
         <v>783.14651162790699</v>
       </c>
-      <c r="M38" s="42">
+      <c r="M38" s="41">
         <v>948.83720930232562</v>
       </c>
       <c r="N38" s="32">
@@ -8418,9 +8376,8 @@
       <c r="O38" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V38" s="40"/>
     </row>
-    <row r="39" spans="2:22" ht="15" thickBot="1">
+    <row r="39" spans="2:18">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -8436,25 +8393,25 @@
       <c r="F39" s="32">
         <v>1</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="41">
         <v>5.158620689655173</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="41">
         <v>17.178206896551728</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="43">
         <v>34.356413793103457</v>
       </c>
-      <c r="J39" s="44">
+      <c r="J39" s="43">
         <v>52.593103448275869</v>
       </c>
-      <c r="K39" s="44">
+      <c r="K39" s="43">
         <v>71.834482758620695</v>
       </c>
-      <c r="L39" s="44">
+      <c r="L39" s="43">
         <v>91.07586206896552</v>
       </c>
-      <c r="M39" s="44">
+      <c r="M39" s="43">
         <v>110.3448275862069</v>
       </c>
       <c r="N39" s="32">
@@ -8463,9 +8420,8 @@
       <c r="O39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V39" s="40"/>
     </row>
-    <row r="40" spans="2:22" ht="15" thickBot="1">
+    <row r="40" spans="2:18">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -8481,25 +8437,25 @@
       <c r="F40" s="32">
         <v>1</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="41">
         <v>14.025</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="41">
         <v>46.703250000000004</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="41">
         <v>93.406500000000008</v>
       </c>
-      <c r="J40" s="42">
+      <c r="J40" s="41">
         <v>142.98750000000001</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="41">
         <v>195.3</v>
       </c>
-      <c r="L40" s="42">
+      <c r="L40" s="41">
         <v>247.61250000000001</v>
       </c>
-      <c r="M40" s="42">
+      <c r="M40" s="41">
         <v>300</v>
       </c>
       <c r="N40" s="32">
@@ -8508,9 +8464,8 @@
       <c r="O40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V40" s="40"/>
     </row>
-    <row r="41" spans="2:22" ht="15" thickBot="1">
+    <row r="41" spans="2:18">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -8526,26 +8481,26 @@
       <c r="F41" s="32">
         <v>1</v>
       </c>
-      <c r="G41" s="42">
-        <v>276.61039999999997</v>
-      </c>
-      <c r="H41" s="42">
-        <v>921.11263199999996</v>
-      </c>
-      <c r="I41" s="42">
-        <v>1842.2252639999999</v>
-      </c>
-      <c r="J41" s="42">
-        <v>2820.0947999999999</v>
-      </c>
-      <c r="K41" s="42">
-        <v>3851.8367999999996</v>
-      </c>
-      <c r="L41" s="42">
-        <v>4883.5787999999993</v>
-      </c>
-      <c r="M41" s="42">
-        <v>5916.7999999999993</v>
+      <c r="G41" s="41">
+        <v>374</v>
+      </c>
+      <c r="H41" s="41">
+        <v>1245.42</v>
+      </c>
+      <c r="I41" s="41">
+        <v>2490.84</v>
+      </c>
+      <c r="J41" s="41">
+        <v>3813</v>
+      </c>
+      <c r="K41" s="41">
+        <v>5208</v>
+      </c>
+      <c r="L41" s="41">
+        <v>6603</v>
+      </c>
+      <c r="M41" s="41">
+        <v>8000</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -8553,9 +8508,8 @@
       <c r="O41" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V41" s="40"/>
     </row>
-    <row r="42" spans="2:22" ht="15" thickBot="1">
+    <row r="42" spans="2:18">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -8571,25 +8525,25 @@
       <c r="F42" s="32">
         <v>1</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="41">
         <v>3.4790697674418607</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="41">
         <v>11.585302325581397</v>
       </c>
-      <c r="I42" s="42">
+      <c r="I42" s="41">
         <v>23.170604651162794</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="41">
         <v>35.469767441860469</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="41">
         <v>48.446511627906979</v>
       </c>
-      <c r="L42" s="42">
+      <c r="L42" s="41">
         <v>61.423255813953489</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M42" s="41">
         <v>74.418604651162795</v>
       </c>
       <c r="N42" s="32">
@@ -8598,9 +8552,8 @@
       <c r="O42" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V42" s="40"/>
     </row>
-    <row r="43" spans="2:22" ht="15" thickBot="1">
+    <row r="43" spans="2:18">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -8616,25 +8569,25 @@
       <c r="F43" s="32">
         <v>1</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="41">
         <v>3.6606851549755306</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="41">
         <v>12.190081566068516</v>
       </c>
-      <c r="I43" s="42">
+      <c r="I43" s="41">
         <v>24.380163132137032</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J43" s="41">
         <v>37.321370309951064</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="41">
         <v>50.97553017944535</v>
       </c>
-      <c r="L43" s="42">
+      <c r="L43" s="41">
         <v>64.629690048939651</v>
       </c>
-      <c r="M43" s="42">
+      <c r="M43" s="41">
         <v>78.303425774877653</v>
       </c>
       <c r="N43" s="32">
@@ -8643,16 +8596,15 @@
       <c r="O43" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V43" s="40"/>
     </row>
-    <row r="44" spans="2:22">
+    <row r="44" spans="2:18">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
     </row>
-    <row r="45" spans="2:22">
+    <row r="45" spans="2:18">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -8671,7 +8623,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:22">
+    <row r="48" spans="2:18">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F150F-5F0A-48C5-AA39-30611303C650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87C02D-EA6B-445E-B3B5-5C2709046FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4336,12 +4336,12 @@
     <xf numFmtId="0" fontId="11" fillId="52" borderId="0" xfId="2181" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="1131" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="53" borderId="0" xfId="1131" applyFill="1"/>
-    <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="17" fillId="5" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="17" fillId="53" borderId="0" xfId="1133" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="120" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2182">
     <cellStyle name="20 % - Akzent1 2" xfId="36" xr:uid="{49DD0F8E-2B7E-4C02-B7DD-2A9C972B592C}"/>
@@ -7298,10 +7298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19:AD43"/>
+      <selection activeCell="G20" sqref="G20:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7438,7 +7438,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:27">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7459,7 +7459,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:18" ht="26">
+    <row r="18" spans="2:27" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" ht="62.5">
+    <row r="19" spans="2:27" ht="62.5">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7522,11 +7522,11 @@
       <c r="F19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
@@ -7541,7 +7541,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" ht="24" customHeight="1">
+    <row r="20" spans="2:27" ht="24" customHeight="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7557,26 +7557,26 @@
       <c r="F20" s="32">
         <v>1</v>
       </c>
-      <c r="G20" s="41">
-        <v>39.787234042553195</v>
-      </c>
-      <c r="H20" s="41">
-        <v>132.49148936170212</v>
-      </c>
-      <c r="I20" s="41">
-        <v>264.98297872340424</v>
-      </c>
-      <c r="J20" s="41">
-        <v>405.63829787234044</v>
-      </c>
-      <c r="K20" s="41">
-        <v>554.04255319148933</v>
-      </c>
-      <c r="L20" s="41">
-        <v>702.44680851063833</v>
-      </c>
-      <c r="M20" s="41">
-        <v>851.063829787234</v>
+      <c r="G20" s="40">
+        <v>7.48</v>
+      </c>
+      <c r="H20" s="40">
+        <v>24.9084</v>
+      </c>
+      <c r="I20" s="40">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="J20" s="40">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="K20" s="40">
+        <v>104.16</v>
+      </c>
+      <c r="L20" s="40">
+        <v>132.06</v>
+      </c>
+      <c r="M20" s="40">
+        <v>160</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7584,8 +7584,29 @@
       <c r="O20" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U20">
+        <v>7.48</v>
+      </c>
+      <c r="V20">
+        <v>24.9084</v>
+      </c>
+      <c r="W20">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="X20">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="Y20">
+        <v>104.16</v>
+      </c>
+      <c r="Z20">
+        <v>132.06</v>
+      </c>
+      <c r="AA20">
+        <v>160</v>
+      </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:27">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7601,26 +7622,26 @@
       <c r="F21" s="32">
         <v>1</v>
       </c>
-      <c r="G21" s="41">
-        <v>17.937649880095925</v>
-      </c>
-      <c r="H21" s="41">
-        <v>59.732374100719426</v>
-      </c>
-      <c r="I21" s="41">
-        <v>119.46474820143885</v>
-      </c>
-      <c r="J21" s="41">
-        <v>182.87769784172664</v>
-      </c>
-      <c r="K21" s="41">
-        <v>249.78417266187051</v>
-      </c>
-      <c r="L21" s="41">
-        <v>316.69064748201441</v>
-      </c>
-      <c r="M21" s="41">
-        <v>383.69304556354916</v>
+      <c r="G21" s="40">
+        <v>7.48</v>
+      </c>
+      <c r="H21" s="40">
+        <v>24.9084</v>
+      </c>
+      <c r="I21" s="40">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="J21" s="40">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="K21" s="40">
+        <v>104.16</v>
+      </c>
+      <c r="L21" s="40">
+        <v>132.06</v>
+      </c>
+      <c r="M21" s="40">
+        <v>160</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7628,8 +7649,29 @@
       <c r="O21" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U21">
+        <v>7.48</v>
+      </c>
+      <c r="V21">
+        <v>24.9084</v>
+      </c>
+      <c r="W21">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="X21">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="Y21">
+        <v>104.16</v>
+      </c>
+      <c r="Z21">
+        <v>132.06</v>
+      </c>
+      <c r="AA21">
+        <v>160</v>
+      </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:27">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7645,26 +7687,26 @@
       <c r="F22" s="32">
         <v>1</v>
       </c>
-      <c r="G22" s="42">
-        <v>172.58845553822152</v>
-      </c>
-      <c r="H22" s="42">
-        <v>574.71955694227768</v>
-      </c>
-      <c r="I22" s="42">
-        <v>1149.4391138845554</v>
-      </c>
-      <c r="J22" s="42">
-        <v>1759.5716068642748</v>
-      </c>
-      <c r="K22" s="42">
-        <v>2403.3173166926676</v>
-      </c>
-      <c r="L22" s="42">
-        <v>3047.0630265210607</v>
-      </c>
-      <c r="M22" s="42">
-        <v>3691.731669266771</v>
+      <c r="G22" s="41">
+        <v>110.6292</v>
+      </c>
+      <c r="H22" s="41">
+        <v>368.39523600000001</v>
+      </c>
+      <c r="I22" s="41">
+        <v>736.79047200000002</v>
+      </c>
+      <c r="J22" s="41">
+        <v>1127.8854000000001</v>
+      </c>
+      <c r="K22" s="41">
+        <v>1540.5264</v>
+      </c>
+      <c r="L22" s="41">
+        <v>1953.1674</v>
+      </c>
+      <c r="M22" s="41">
+        <v>2366.4</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7672,8 +7714,29 @@
       <c r="O22" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U22">
+        <v>110.6292</v>
+      </c>
+      <c r="V22">
+        <v>368.39523600000001</v>
+      </c>
+      <c r="W22">
+        <v>736.79047200000002</v>
+      </c>
+      <c r="X22">
+        <v>1127.8854000000001</v>
+      </c>
+      <c r="Y22">
+        <v>1540.5264</v>
+      </c>
+      <c r="Z22">
+        <v>1953.1674</v>
+      </c>
+      <c r="AA22">
+        <v>2366.4</v>
+      </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:27">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7689,26 +7752,26 @@
       <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="41">
-        <v>1.2695179904955873</v>
-      </c>
-      <c r="H23" s="41">
-        <v>4.2274949083503062</v>
-      </c>
-      <c r="I23" s="41">
-        <v>8.4549898167006123</v>
-      </c>
-      <c r="J23" s="41">
-        <v>12.942973523421591</v>
-      </c>
-      <c r="K23" s="41">
-        <v>17.678207739307538</v>
-      </c>
-      <c r="L23" s="41">
-        <v>22.413441955193484</v>
-      </c>
-      <c r="M23" s="41">
-        <v>27.155465037338768</v>
+      <c r="G23" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H23" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I23" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J23" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K23" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L23" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M23" s="40">
+        <v>8</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7716,8 +7779,29 @@
       <c r="O23" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U23">
+        <v>0.374</v>
+      </c>
+      <c r="V23">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W23">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X23">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y23">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z23">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA23">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:27">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7733,26 +7817,26 @@
       <c r="F24" s="32">
         <v>1</v>
       </c>
-      <c r="G24" s="41">
-        <v>7.4799999999999995</v>
-      </c>
-      <c r="H24" s="41">
-        <v>24.908400000000004</v>
-      </c>
-      <c r="I24" s="41">
-        <v>49.816800000000008</v>
-      </c>
-      <c r="J24" s="41">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="K24" s="41">
-        <v>104.16</v>
-      </c>
-      <c r="L24" s="41">
-        <v>132.05999999999997</v>
-      </c>
-      <c r="M24" s="41">
-        <v>160</v>
+      <c r="G24" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H24" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I24" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J24" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K24" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L24" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M24" s="40">
+        <v>8</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -7760,8 +7844,29 @@
       <c r="O24" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U24">
+        <v>0.374</v>
+      </c>
+      <c r="V24">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W24">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X24">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y24">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z24">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA24">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:27">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7777,26 +7882,26 @@
       <c r="F25" s="32">
         <v>1</v>
       </c>
-      <c r="G25" s="41">
-        <v>2.1129943502824862</v>
-      </c>
-      <c r="H25" s="41">
-        <v>7.0362711864406791</v>
-      </c>
-      <c r="I25" s="41">
-        <v>14.072542372881358</v>
-      </c>
-      <c r="J25" s="41">
-        <v>21.542372881355934</v>
-      </c>
-      <c r="K25" s="41">
-        <v>29.423728813559325</v>
-      </c>
-      <c r="L25" s="41">
-        <v>37.305084745762713</v>
-      </c>
-      <c r="M25" s="41">
-        <v>45.197740112994353</v>
+      <c r="G25" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H25" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I25" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J25" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K25" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L25" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M25" s="40">
+        <v>8</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7804,8 +7909,29 @@
       <c r="O25" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U25">
+        <v>0.374</v>
+      </c>
+      <c r="V25">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W25">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X25">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y25">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z25">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:27">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -7821,26 +7947,26 @@
       <c r="F26" s="32">
         <v>1</v>
       </c>
-      <c r="G26" s="41">
-        <v>59.935897435897431</v>
-      </c>
-      <c r="H26" s="41">
-        <v>199.58653846153848</v>
-      </c>
-      <c r="I26" s="41">
-        <v>399.17307692307696</v>
-      </c>
-      <c r="J26" s="41">
-        <v>611.05769230769238</v>
-      </c>
-      <c r="K26" s="41">
-        <v>834.61538461538476</v>
-      </c>
-      <c r="L26" s="41">
-        <v>1058.1730769230771</v>
-      </c>
-      <c r="M26" s="41">
-        <v>25.641025641025642</v>
+      <c r="G26" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H26" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I26" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J26" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K26" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L26" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M26" s="40">
+        <v>8</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -7848,8 +7974,29 @@
       <c r="O26" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U26">
+        <v>0.374</v>
+      </c>
+      <c r="V26">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W26">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X26">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y26">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z26">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:27">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -7865,26 +8012,26 @@
       <c r="F27" s="32">
         <v>1</v>
       </c>
-      <c r="G27" s="41">
-        <v>1.0080862533692723</v>
-      </c>
-      <c r="H27" s="41">
-        <v>3.3569272237196772</v>
-      </c>
-      <c r="I27" s="41">
-        <v>6.7138544474393544</v>
-      </c>
-      <c r="J27" s="41">
-        <v>10.277628032345014</v>
-      </c>
-      <c r="K27" s="41">
-        <v>14.037735849056604</v>
-      </c>
-      <c r="L27" s="41">
-        <v>17.797843665768195</v>
-      </c>
-      <c r="M27" s="41">
-        <v>21.563342318059298</v>
+      <c r="G27" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H27" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I27" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J27" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K27" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L27" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M27" s="40">
+        <v>8</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -7892,8 +8039,29 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U27">
+        <v>0.374</v>
+      </c>
+      <c r="V27">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W27">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X27">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y27">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z27">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA27">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:27">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -7909,26 +8077,26 @@
       <c r="F28" s="32">
         <v>1</v>
       </c>
-      <c r="G28" s="41">
-        <v>0.57538461538461538</v>
-      </c>
-      <c r="H28" s="41">
-        <v>1.9160307692307694</v>
-      </c>
-      <c r="I28" s="41">
-        <v>3.8320615384615389</v>
-      </c>
-      <c r="J28" s="41">
-        <v>5.8661538461538463</v>
-      </c>
-      <c r="K28" s="41">
-        <v>8.0123076923076919</v>
-      </c>
-      <c r="L28" s="41">
-        <v>10.158461538461538</v>
-      </c>
-      <c r="M28" s="41">
-        <v>12.307692307692307</v>
+      <c r="G28" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H28" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I28" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J28" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K28" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L28" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M28" s="40">
+        <v>8</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -7936,8 +8104,29 @@
       <c r="O28" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U28">
+        <v>0.374</v>
+      </c>
+      <c r="V28">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W28">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X28">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y28">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z28">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA28">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:27">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -7953,26 +8142,26 @@
       <c r="F29" s="32">
         <v>1</v>
       </c>
-      <c r="G29" s="41">
-        <v>0.57538461538461538</v>
-      </c>
-      <c r="H29" s="41">
-        <v>1.9160307692307694</v>
-      </c>
-      <c r="I29" s="41">
-        <v>3.8320615384615389</v>
-      </c>
-      <c r="J29" s="41">
-        <v>5.8661538461538463</v>
-      </c>
-      <c r="K29" s="41">
-        <v>8.0123076923076919</v>
-      </c>
-      <c r="L29" s="41">
-        <v>10.158461538461538</v>
-      </c>
-      <c r="M29" s="41">
-        <v>12.307692307692307</v>
+      <c r="G29" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H29" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I29" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J29" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K29" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L29" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M29" s="40">
+        <v>8</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -7980,8 +8169,29 @@
       <c r="O29" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U29">
+        <v>0.374</v>
+      </c>
+      <c r="V29">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W29">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X29">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y29">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z29">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA29">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:27">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -7997,26 +8207,26 @@
       <c r="F30" s="32">
         <v>1</v>
       </c>
-      <c r="G30" s="41">
-        <v>1.6190476190476191</v>
-      </c>
-      <c r="H30" s="41">
-        <v>5.3914285714285723</v>
-      </c>
-      <c r="I30" s="41">
-        <v>10.782857142857145</v>
-      </c>
-      <c r="J30" s="41">
-        <v>16.506493506493506</v>
-      </c>
-      <c r="K30" s="41">
-        <v>22.545454545454547</v>
-      </c>
-      <c r="L30" s="41">
-        <v>28.584415584415581</v>
-      </c>
-      <c r="M30" s="41">
-        <v>34.632034632034632</v>
+      <c r="G30" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H30" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I30" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J30" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K30" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L30" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M30" s="40">
+        <v>8</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8024,8 +8234,29 @@
       <c r="O30" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U30">
+        <v>0.374</v>
+      </c>
+      <c r="V30">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W30">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X30">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y30">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z30">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA30">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:27">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8041,26 +8272,26 @@
       <c r="F31" s="32">
         <v>1</v>
       </c>
-      <c r="G31" s="41">
-        <v>1.2852233676975946</v>
-      </c>
-      <c r="H31" s="41">
-        <v>4.279793814432991</v>
-      </c>
-      <c r="I31" s="41">
-        <v>8.559587628865982</v>
-      </c>
-      <c r="J31" s="41">
-        <v>13.103092783505156</v>
-      </c>
-      <c r="K31" s="41">
-        <v>17.896907216494846</v>
-      </c>
-      <c r="L31" s="41">
-        <v>22.690721649484537</v>
-      </c>
-      <c r="M31" s="41">
-        <v>27.491408934707906</v>
+      <c r="G31" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H31" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I31" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J31" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K31" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L31" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M31" s="40">
+        <v>8</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8068,8 +8299,29 @@
       <c r="O31" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U31">
+        <v>0.374</v>
+      </c>
+      <c r="V31">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W31">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X31">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y31">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z31">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:27">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8085,26 +8337,26 @@
       <c r="F32" s="32">
         <v>1</v>
       </c>
-      <c r="G32" s="41">
-        <v>2.1129943502824862</v>
-      </c>
-      <c r="H32" s="41">
-        <v>7.0362711864406791</v>
-      </c>
-      <c r="I32" s="41">
-        <v>14.072542372881358</v>
-      </c>
-      <c r="J32" s="41">
-        <v>21.542372881355934</v>
-      </c>
-      <c r="K32" s="41">
-        <v>29.423728813559325</v>
-      </c>
-      <c r="L32" s="41">
-        <v>37.305084745762713</v>
-      </c>
-      <c r="M32" s="41">
-        <v>45.197740112994353</v>
+      <c r="G32" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H32" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I32" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J32" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K32" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L32" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M32" s="40">
+        <v>8</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8112,8 +8364,29 @@
       <c r="O32" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U32">
+        <v>0.374</v>
+      </c>
+      <c r="V32">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W32">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X32">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y32">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z32">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA32">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:27">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8129,26 +8402,26 @@
       <c r="F33" s="32">
         <v>1</v>
       </c>
-      <c r="G33" s="41">
-        <v>1.6622222222222223</v>
-      </c>
-      <c r="H33" s="41">
-        <v>5.5352000000000006</v>
-      </c>
-      <c r="I33" s="41">
-        <v>11.070400000000001</v>
-      </c>
-      <c r="J33" s="41">
-        <v>16.946666666666665</v>
-      </c>
-      <c r="K33" s="41">
-        <v>23.146666666666668</v>
-      </c>
-      <c r="L33" s="41">
-        <v>29.346666666666664</v>
-      </c>
-      <c r="M33" s="41">
-        <v>35.555555555555557</v>
+      <c r="G33" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H33" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I33" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J33" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K33" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L33" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M33" s="40">
+        <v>8</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8156,8 +8429,29 @@
       <c r="O33" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U33">
+        <v>0.374</v>
+      </c>
+      <c r="V33">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W33">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X33">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y33">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z33">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA33">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:27">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8173,26 +8467,26 @@
       <c r="F34" s="32">
         <v>1</v>
       </c>
-      <c r="G34" s="41">
-        <v>1.2302631578947369</v>
-      </c>
-      <c r="H34" s="41">
-        <v>4.0967763157894748</v>
-      </c>
-      <c r="I34" s="41">
-        <v>8.1935526315789495</v>
-      </c>
-      <c r="J34" s="41">
-        <v>12.542763157894738</v>
-      </c>
-      <c r="K34" s="41">
-        <v>17.131578947368421</v>
-      </c>
-      <c r="L34" s="41">
-        <v>21.720394736842106</v>
-      </c>
-      <c r="M34" s="41">
-        <v>26.315789473684212</v>
+      <c r="G34" s="40">
+        <v>0.374</v>
+      </c>
+      <c r="H34" s="40">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="I34" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="J34" s="40">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="K34" s="40">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="L34" s="40">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M34" s="40">
+        <v>8</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8200,8 +8494,29 @@
       <c r="O34" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U34">
+        <v>0.374</v>
+      </c>
+      <c r="V34">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="W34">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="X34">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="Y34">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z34">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AA34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:27">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8217,26 +8532,26 @@
       <c r="F35" s="32">
         <v>1</v>
       </c>
-      <c r="G35" s="41">
-        <v>72.306666666666672</v>
-      </c>
-      <c r="H35" s="41">
-        <v>240.78119999999998</v>
-      </c>
-      <c r="I35" s="41">
-        <v>481.56239999999997</v>
-      </c>
-      <c r="J35" s="41">
-        <v>737.18000000000006</v>
-      </c>
-      <c r="K35" s="41">
-        <v>1006.8799999999999</v>
-      </c>
-      <c r="L35" s="41">
-        <v>1276.58</v>
-      </c>
-      <c r="M35" s="41">
-        <v>1546.6666666666665</v>
+      <c r="G35" s="40">
+        <v>21.692</v>
+      </c>
+      <c r="H35" s="40">
+        <v>72.234359999999995</v>
+      </c>
+      <c r="I35" s="40">
+        <v>144.46871999999999</v>
+      </c>
+      <c r="J35" s="40">
+        <v>221.154</v>
+      </c>
+      <c r="K35" s="40">
+        <v>302.06399999999996</v>
+      </c>
+      <c r="L35" s="40">
+        <v>382.97399999999999</v>
+      </c>
+      <c r="M35" s="40">
+        <v>463.99999999999994</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8244,8 +8559,29 @@
       <c r="O35" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U35">
+        <v>21.692</v>
+      </c>
+      <c r="V35">
+        <v>72.234359999999995</v>
+      </c>
+      <c r="W35">
+        <v>144.46871999999999</v>
+      </c>
+      <c r="X35">
+        <v>221.154</v>
+      </c>
+      <c r="Y35">
+        <v>302.06399999999996</v>
+      </c>
+      <c r="Z35">
+        <v>382.97399999999999</v>
+      </c>
+      <c r="AA35">
+        <v>463.99999999999994</v>
+      </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:27">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8261,26 +8597,26 @@
       <c r="F36" s="32">
         <v>1</v>
       </c>
-      <c r="G36" s="41">
-        <v>44.523809523809526</v>
-      </c>
-      <c r="H36" s="41">
-        <v>148.26428571428573</v>
-      </c>
-      <c r="I36" s="41">
-        <v>296.52857142857147</v>
-      </c>
-      <c r="J36" s="41">
-        <v>453.92857142857144</v>
-      </c>
-      <c r="K36" s="41">
-        <v>620.00000000000011</v>
-      </c>
-      <c r="L36" s="41">
-        <v>786.07142857142867</v>
-      </c>
-      <c r="M36" s="41">
-        <v>952.38095238095241</v>
+      <c r="G36" s="40">
+        <v>9.35</v>
+      </c>
+      <c r="H36" s="40">
+        <v>31.135500000000004</v>
+      </c>
+      <c r="I36" s="40">
+        <v>62.271000000000008</v>
+      </c>
+      <c r="J36" s="40">
+        <v>95.325000000000003</v>
+      </c>
+      <c r="K36" s="40">
+        <v>130.20000000000002</v>
+      </c>
+      <c r="L36" s="40">
+        <v>165.07500000000002</v>
+      </c>
+      <c r="M36" s="40">
+        <v>200</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -8288,8 +8624,29 @@
       <c r="O36" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U36">
+        <v>9.35</v>
+      </c>
+      <c r="V36">
+        <v>31.135500000000004</v>
+      </c>
+      <c r="W36">
+        <v>62.271000000000008</v>
+      </c>
+      <c r="X36">
+        <v>95.325000000000003</v>
+      </c>
+      <c r="Y36">
+        <v>130.20000000000002</v>
+      </c>
+      <c r="Z36">
+        <v>165.07500000000002</v>
+      </c>
+      <c r="AA36">
+        <v>200</v>
+      </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:27">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -8305,26 +8662,26 @@
       <c r="F37" s="32">
         <v>1</v>
       </c>
-      <c r="G37" s="41">
-        <v>0.26714285714285713</v>
-      </c>
-      <c r="H37" s="41">
-        <v>0.88958571428571431</v>
-      </c>
-      <c r="I37" s="41">
-        <v>1.7791714285714286</v>
-      </c>
-      <c r="J37" s="41">
-        <v>2.7235714285714283</v>
-      </c>
-      <c r="K37" s="41">
-        <v>3.7199999999999998</v>
-      </c>
-      <c r="L37" s="41">
-        <v>4.7164285714285707</v>
-      </c>
-      <c r="M37" s="41">
-        <v>5.7142857142857144</v>
+      <c r="G37" s="40">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="H37" s="40">
+        <v>0.24908400000000003</v>
+      </c>
+      <c r="I37" s="40">
+        <v>0.49816800000000006</v>
+      </c>
+      <c r="J37" s="40">
+        <v>0.76260000000000006</v>
+      </c>
+      <c r="K37" s="40">
+        <v>1.0416000000000001</v>
+      </c>
+      <c r="L37" s="40">
+        <v>1.3206</v>
+      </c>
+      <c r="M37" s="40">
+        <v>1.6</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -8332,8 +8689,29 @@
       <c r="O37" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U37">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="V37">
+        <v>0.24908400000000003</v>
+      </c>
+      <c r="W37">
+        <v>0.49816800000000006</v>
+      </c>
+      <c r="X37">
+        <v>0.76260000000000006</v>
+      </c>
+      <c r="Y37">
+        <v>1.0416000000000001</v>
+      </c>
+      <c r="Z37">
+        <v>1.3206</v>
+      </c>
+      <c r="AA37">
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:27">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -8349,26 +8727,26 @@
       <c r="F38" s="32">
         <v>1</v>
       </c>
-      <c r="G38" s="41">
-        <v>44.358139534883719</v>
-      </c>
-      <c r="H38" s="41">
-        <v>147.71260465116279</v>
-      </c>
-      <c r="I38" s="41">
-        <v>295.42520930232558</v>
-      </c>
-      <c r="J38" s="41">
-        <v>452.23953488372092</v>
-      </c>
-      <c r="K38" s="41">
-        <v>617.69302325581396</v>
-      </c>
-      <c r="L38" s="41">
-        <v>783.14651162790699</v>
-      </c>
-      <c r="M38" s="41">
-        <v>948.83720930232562</v>
+      <c r="G38" s="40">
+        <v>19.073999999999998</v>
+      </c>
+      <c r="H38" s="40">
+        <v>63.516419999999997</v>
+      </c>
+      <c r="I38" s="40">
+        <v>127.03283999999999</v>
+      </c>
+      <c r="J38" s="40">
+        <v>194.46299999999999</v>
+      </c>
+      <c r="K38" s="40">
+        <v>265.608</v>
+      </c>
+      <c r="L38" s="40">
+        <v>336.75299999999999</v>
+      </c>
+      <c r="M38" s="40">
+        <v>408</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -8376,8 +8754,29 @@
       <c r="O38" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U38">
+        <v>19.073999999999998</v>
+      </c>
+      <c r="V38">
+        <v>63.516419999999997</v>
+      </c>
+      <c r="W38">
+        <v>127.03283999999999</v>
+      </c>
+      <c r="X38">
+        <v>194.46299999999999</v>
+      </c>
+      <c r="Y38">
+        <v>265.608</v>
+      </c>
+      <c r="Z38">
+        <v>336.75299999999999</v>
+      </c>
+      <c r="AA38">
+        <v>408</v>
+      </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:27">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -8393,26 +8792,26 @@
       <c r="F39" s="32">
         <v>1</v>
       </c>
-      <c r="G39" s="41">
-        <v>5.158620689655173</v>
-      </c>
-      <c r="H39" s="41">
-        <v>17.178206896551728</v>
-      </c>
-      <c r="I39" s="43">
-        <v>34.356413793103457</v>
-      </c>
-      <c r="J39" s="43">
-        <v>52.593103448275869</v>
-      </c>
-      <c r="K39" s="43">
-        <v>71.834482758620695</v>
-      </c>
-      <c r="L39" s="43">
-        <v>91.07586206896552</v>
-      </c>
-      <c r="M39" s="43">
-        <v>110.3448275862069</v>
+      <c r="G39" s="40">
+        <v>1.496</v>
+      </c>
+      <c r="H39" s="40">
+        <v>4.9816800000000008</v>
+      </c>
+      <c r="I39" s="42">
+        <v>9.9633600000000015</v>
+      </c>
+      <c r="J39" s="42">
+        <v>15.252000000000001</v>
+      </c>
+      <c r="K39" s="42">
+        <v>20.832000000000001</v>
+      </c>
+      <c r="L39" s="42">
+        <v>26.411999999999999</v>
+      </c>
+      <c r="M39" s="42">
+        <v>32</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -8420,8 +8819,29 @@
       <c r="O39" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U39">
+        <v>1.496</v>
+      </c>
+      <c r="V39">
+        <v>4.9816800000000008</v>
+      </c>
+      <c r="W39">
+        <v>9.9633600000000015</v>
+      </c>
+      <c r="X39">
+        <v>15.252000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>20.832000000000001</v>
+      </c>
+      <c r="Z39">
+        <v>26.411999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>32</v>
+      </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:27">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -8437,26 +8857,26 @@
       <c r="F40" s="32">
         <v>1</v>
       </c>
-      <c r="G40" s="41">
-        <v>14.025</v>
-      </c>
-      <c r="H40" s="41">
-        <v>46.703250000000004</v>
-      </c>
-      <c r="I40" s="41">
-        <v>93.406500000000008</v>
-      </c>
-      <c r="J40" s="41">
-        <v>142.98750000000001</v>
-      </c>
-      <c r="K40" s="41">
-        <v>195.3</v>
-      </c>
-      <c r="L40" s="41">
-        <v>247.61250000000001</v>
-      </c>
-      <c r="M40" s="41">
-        <v>300</v>
+      <c r="G40" s="40">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="H40" s="40">
+        <v>7.4725200000000003</v>
+      </c>
+      <c r="I40" s="40">
+        <v>14.945040000000001</v>
+      </c>
+      <c r="J40" s="40">
+        <v>22.878</v>
+      </c>
+      <c r="K40" s="40">
+        <v>31.248000000000001</v>
+      </c>
+      <c r="L40" s="40">
+        <v>39.618000000000002</v>
+      </c>
+      <c r="M40" s="40">
+        <v>48</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -8464,8 +8884,29 @@
       <c r="O40" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U40">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="V40">
+        <v>7.4725200000000003</v>
+      </c>
+      <c r="W40">
+        <v>14.945040000000001</v>
+      </c>
+      <c r="X40">
+        <v>22.878</v>
+      </c>
+      <c r="Y40">
+        <v>31.248000000000001</v>
+      </c>
+      <c r="Z40">
+        <v>39.618000000000002</v>
+      </c>
+      <c r="AA40">
+        <v>48</v>
+      </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:27">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -8481,26 +8922,26 @@
       <c r="F41" s="32">
         <v>1</v>
       </c>
-      <c r="G41" s="41">
-        <v>374</v>
-      </c>
-      <c r="H41" s="41">
+      <c r="G41" s="40">
+        <v>187</v>
+      </c>
+      <c r="H41" s="40">
+        <v>622.71</v>
+      </c>
+      <c r="I41" s="40">
         <v>1245.42</v>
       </c>
-      <c r="I41" s="41">
-        <v>2490.84</v>
-      </c>
-      <c r="J41" s="41">
-        <v>3813</v>
-      </c>
-      <c r="K41" s="41">
-        <v>5208</v>
-      </c>
-      <c r="L41" s="41">
-        <v>6603</v>
-      </c>
-      <c r="M41" s="41">
-        <v>8000</v>
+      <c r="J41" s="40">
+        <v>1906.5</v>
+      </c>
+      <c r="K41" s="40">
+        <v>2604</v>
+      </c>
+      <c r="L41" s="40">
+        <v>3301.5</v>
+      </c>
+      <c r="M41" s="40">
+        <v>4000</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -8508,8 +8949,29 @@
       <c r="O41" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U41">
+        <v>187</v>
+      </c>
+      <c r="V41">
+        <v>622.71</v>
+      </c>
+      <c r="W41">
+        <v>1245.42</v>
+      </c>
+      <c r="X41">
+        <v>1906.5</v>
+      </c>
+      <c r="Y41">
+        <v>2604</v>
+      </c>
+      <c r="Z41">
+        <v>3301.5</v>
+      </c>
+      <c r="AA41">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:27">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -8525,26 +8987,26 @@
       <c r="F42" s="32">
         <v>1</v>
       </c>
-      <c r="G42" s="41">
-        <v>3.4790697674418607</v>
-      </c>
-      <c r="H42" s="41">
-        <v>11.585302325581397</v>
-      </c>
-      <c r="I42" s="41">
-        <v>23.170604651162794</v>
-      </c>
-      <c r="J42" s="41">
-        <v>35.469767441860469</v>
-      </c>
-      <c r="K42" s="41">
-        <v>48.446511627906979</v>
-      </c>
-      <c r="L42" s="41">
-        <v>61.423255813953489</v>
-      </c>
-      <c r="M42" s="41">
-        <v>74.418604651162795</v>
+      <c r="G42" s="40">
+        <v>0.748</v>
+      </c>
+      <c r="H42" s="40">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="I42" s="40">
+        <v>4.9816800000000008</v>
+      </c>
+      <c r="J42" s="40">
+        <v>7.6260000000000003</v>
+      </c>
+      <c r="K42" s="40">
+        <v>10.416</v>
+      </c>
+      <c r="L42" s="40">
+        <v>13.206</v>
+      </c>
+      <c r="M42" s="40">
+        <v>16</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -8552,8 +9014,29 @@
       <c r="O42" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U42">
+        <v>0.748</v>
+      </c>
+      <c r="V42">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="W42">
+        <v>4.9816800000000008</v>
+      </c>
+      <c r="X42">
+        <v>7.6260000000000003</v>
+      </c>
+      <c r="Y42">
+        <v>10.416</v>
+      </c>
+      <c r="Z42">
+        <v>13.206</v>
+      </c>
+      <c r="AA42">
+        <v>16</v>
+      </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:27">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -8569,26 +9052,26 @@
       <c r="F43" s="32">
         <v>1</v>
       </c>
-      <c r="G43" s="41">
-        <v>3.6606851549755306</v>
-      </c>
-      <c r="H43" s="41">
-        <v>12.190081566068516</v>
-      </c>
-      <c r="I43" s="41">
-        <v>24.380163132137032</v>
-      </c>
-      <c r="J43" s="41">
-        <v>37.321370309951064</v>
-      </c>
-      <c r="K43" s="41">
-        <v>50.97553017944535</v>
-      </c>
-      <c r="L43" s="41">
-        <v>64.629690048939651</v>
-      </c>
-      <c r="M43" s="41">
-        <v>78.303425774877653</v>
+      <c r="G43" s="40">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="H43" s="40">
+        <v>7.4725200000000003</v>
+      </c>
+      <c r="I43" s="40">
+        <v>14.945040000000001</v>
+      </c>
+      <c r="J43" s="40">
+        <v>22.878</v>
+      </c>
+      <c r="K43" s="40">
+        <v>31.248000000000001</v>
+      </c>
+      <c r="L43" s="40">
+        <v>39.618000000000002</v>
+      </c>
+      <c r="M43" s="40">
+        <v>48</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>
@@ -8596,15 +9079,36 @@
       <c r="O43" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="U43">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="V43">
+        <v>7.4725200000000003</v>
+      </c>
+      <c r="W43">
+        <v>14.945040000000001</v>
+      </c>
+      <c r="X43">
+        <v>22.878</v>
+      </c>
+      <c r="Y43">
+        <v>31.248000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>39.618000000000002</v>
+      </c>
+      <c r="AA43">
+        <v>48</v>
+      </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:27">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:27">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -8623,7 +9127,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:27">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87C02D-EA6B-445E-B3B5-5C2709046FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D81F0-8A7D-43F2-B929-5DD3B722FE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7298,7 +7298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA84"/>
+  <dimension ref="A1:AL84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="G20" sqref="G20:M43"/>
@@ -7438,7 +7438,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:38">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7459,7 +7459,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:27" ht="26">
+    <row r="18" spans="2:38" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:27" ht="62.5">
+    <row r="19" spans="2:38" ht="62.5">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:27" ht="24" customHeight="1">
+    <row r="20" spans="2:38" ht="24" customHeight="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7558,25 +7558,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>7.48</v>
+        <v>99.468085106382972</v>
       </c>
       <c r="H20" s="40">
-        <v>24.9084</v>
+        <v>331.22872340425533</v>
       </c>
       <c r="I20" s="40">
-        <v>49.816800000000001</v>
+        <v>662.45744680851067</v>
       </c>
       <c r="J20" s="40">
-        <v>76.260000000000005</v>
+        <v>1014.0957446808511</v>
       </c>
       <c r="K20" s="40">
-        <v>104.16</v>
+        <v>1385.1063829787236</v>
       </c>
       <c r="L20" s="40">
-        <v>132.06</v>
+        <v>1756.117021276596</v>
       </c>
       <c r="M20" s="40">
-        <v>160</v>
+        <v>2127.6595744680849</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7584,29 +7584,50 @@
       <c r="O20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U20">
-        <v>7.48</v>
-      </c>
       <c r="V20">
-        <v>24.9084</v>
+        <v>18.7</v>
       </c>
       <c r="W20">
-        <v>49.816800000000001</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="X20">
-        <v>76.260000000000005</v>
+        <v>124.54200000000002</v>
       </c>
       <c r="Y20">
-        <v>104.16</v>
+        <v>190.65</v>
       </c>
       <c r="Z20">
-        <v>132.06</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="AA20">
-        <v>160</v>
+        <v>330.15000000000003</v>
+      </c>
+      <c r="AB20">
+        <v>400</v>
+      </c>
+      <c r="AF20">
+        <v>99.468085106382972</v>
+      </c>
+      <c r="AG20">
+        <v>331.22872340425533</v>
+      </c>
+      <c r="AH20">
+        <v>662.45744680851067</v>
+      </c>
+      <c r="AI20">
+        <v>1014.0957446808511</v>
+      </c>
+      <c r="AJ20">
+        <v>1385.1063829787236</v>
+      </c>
+      <c r="AK20">
+        <v>1756.117021276596</v>
+      </c>
+      <c r="AL20">
+        <v>2127.6595744680849</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:38">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7623,25 +7644,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>7.48</v>
+        <v>44.84412470023981</v>
       </c>
       <c r="H21" s="40">
-        <v>24.9084</v>
+        <v>149.33093525179859</v>
       </c>
       <c r="I21" s="40">
-        <v>49.816800000000001</v>
+        <v>298.66187050359719</v>
       </c>
       <c r="J21" s="40">
-        <v>76.260000000000005</v>
+        <v>457.19424460431657</v>
       </c>
       <c r="K21" s="40">
-        <v>104.16</v>
+        <v>624.46043165467631</v>
       </c>
       <c r="L21" s="40">
-        <v>132.06</v>
+        <v>791.72661870503612</v>
       </c>
       <c r="M21" s="40">
-        <v>160</v>
+        <v>959.23261390887296</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7649,29 +7670,50 @@
       <c r="O21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U21">
-        <v>7.48</v>
-      </c>
       <c r="V21">
-        <v>24.9084</v>
+        <v>18.7</v>
       </c>
       <c r="W21">
-        <v>49.816800000000001</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="X21">
-        <v>76.260000000000005</v>
+        <v>124.54200000000002</v>
       </c>
       <c r="Y21">
-        <v>104.16</v>
+        <v>190.65</v>
       </c>
       <c r="Z21">
-        <v>132.06</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="AA21">
-        <v>160</v>
+        <v>330.15000000000003</v>
+      </c>
+      <c r="AB21">
+        <v>400</v>
+      </c>
+      <c r="AF21">
+        <v>44.84412470023981</v>
+      </c>
+      <c r="AG21">
+        <v>149.33093525179859</v>
+      </c>
+      <c r="AH21">
+        <v>298.66187050359719</v>
+      </c>
+      <c r="AI21">
+        <v>457.19424460431657</v>
+      </c>
+      <c r="AJ21">
+        <v>624.46043165467631</v>
+      </c>
+      <c r="AK21">
+        <v>791.72661870503612</v>
+      </c>
+      <c r="AL21">
+        <v>959.23261390887296</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:38">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7688,25 +7730,25 @@
         <v>1</v>
       </c>
       <c r="G22" s="41">
-        <v>110.6292</v>
+        <v>116.69266770670826</v>
       </c>
       <c r="H22" s="41">
-        <v>368.39523600000001</v>
+        <v>388.58658346333857</v>
       </c>
       <c r="I22" s="41">
-        <v>736.79047200000002</v>
+        <v>777.17316692667714</v>
       </c>
       <c r="J22" s="41">
-        <v>1127.8854000000001</v>
+        <v>1189.7035881435258</v>
       </c>
       <c r="K22" s="41">
-        <v>1540.5264</v>
+        <v>1624.9609984399378</v>
       </c>
       <c r="L22" s="41">
-        <v>1953.1674</v>
+        <v>2060.2184087363498</v>
       </c>
       <c r="M22" s="41">
-        <v>2366.4</v>
+        <v>2496.0998439937598</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7714,29 +7756,50 @@
       <c r="O22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U22">
-        <v>110.6292</v>
-      </c>
       <c r="V22">
-        <v>368.39523600000001</v>
+        <v>74.8</v>
       </c>
       <c r="W22">
-        <v>736.79047200000002</v>
+        <v>249.08400000000003</v>
       </c>
       <c r="X22">
-        <v>1127.8854000000001</v>
+        <v>498.16800000000006</v>
       </c>
       <c r="Y22">
-        <v>1540.5264</v>
+        <v>762.6</v>
       </c>
       <c r="Z22">
-        <v>1953.1674</v>
+        <v>1041.6000000000001</v>
       </c>
       <c r="AA22">
-        <v>2366.4</v>
+        <v>1320.6000000000001</v>
+      </c>
+      <c r="AB22">
+        <v>1600</v>
+      </c>
+      <c r="AF22">
+        <v>116.69266770670826</v>
+      </c>
+      <c r="AG22">
+        <v>388.58658346333857</v>
+      </c>
+      <c r="AH22">
+        <v>777.17316692667714</v>
+      </c>
+      <c r="AI22">
+        <v>1189.7035881435258</v>
+      </c>
+      <c r="AJ22">
+        <v>1624.9609984399378</v>
+      </c>
+      <c r="AK22">
+        <v>2060.2184087363498</v>
+      </c>
+      <c r="AL22">
+        <v>2496.0998439937598</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:38">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7753,25 +7816,25 @@
         <v>1</v>
       </c>
       <c r="G23" s="40">
-        <v>0.374</v>
+        <v>1.2695179904955873</v>
       </c>
       <c r="H23" s="40">
-        <v>1.2454200000000002</v>
+        <v>4.2274949083503062</v>
       </c>
       <c r="I23" s="40">
-        <v>2.4908400000000004</v>
+        <v>8.4549898167006123</v>
       </c>
       <c r="J23" s="40">
-        <v>3.8130000000000002</v>
+        <v>12.942973523421591</v>
       </c>
       <c r="K23" s="40">
-        <v>5.2080000000000002</v>
+        <v>17.678207739307538</v>
       </c>
       <c r="L23" s="40">
-        <v>6.6029999999999998</v>
+        <v>22.413441955193484</v>
       </c>
       <c r="M23" s="40">
-        <v>8</v>
+        <v>27.155465037338768</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7779,29 +7842,50 @@
       <c r="O23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.374</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1.2454200000000002</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2.4908400000000004</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>3.8130000000000002</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>5.2080000000000002</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>6.6029999999999998</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>8</v>
       </c>
+      <c r="AF23">
+        <v>1.2695179904955873</v>
+      </c>
+      <c r="AG23">
+        <v>4.2274949083503062</v>
+      </c>
+      <c r="AH23">
+        <v>8.4549898167006123</v>
+      </c>
+      <c r="AI23">
+        <v>12.942973523421591</v>
+      </c>
+      <c r="AJ23">
+        <v>17.678207739307538</v>
+      </c>
+      <c r="AK23">
+        <v>22.413441955193484</v>
+      </c>
+      <c r="AL23">
+        <v>27.155465037338768</v>
+      </c>
     </row>
-    <row r="24" spans="2:27">
+    <row r="24" spans="2:38">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7818,25 +7902,25 @@
         <v>1</v>
       </c>
       <c r="G24" s="40">
-        <v>0.374</v>
+        <v>149.6</v>
       </c>
       <c r="H24" s="40">
-        <v>1.2454200000000002</v>
+        <v>498.16800000000001</v>
       </c>
       <c r="I24" s="40">
-        <v>2.4908400000000004</v>
+        <v>996.33600000000001</v>
       </c>
       <c r="J24" s="40">
-        <v>3.8130000000000002</v>
+        <v>1525.2</v>
       </c>
       <c r="K24" s="40">
-        <v>5.2080000000000002</v>
+        <v>2083.1999999999998</v>
       </c>
       <c r="L24" s="40">
-        <v>6.6029999999999998</v>
+        <v>2641.2</v>
       </c>
       <c r="M24" s="40">
-        <v>8</v>
+        <v>3200</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -7844,29 +7928,50 @@
       <c r="O24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U24">
-        <v>0.374</v>
-      </c>
       <c r="V24">
-        <v>1.2454200000000002</v>
+        <v>7.48</v>
       </c>
       <c r="W24">
-        <v>2.4908400000000004</v>
+        <v>24.9084</v>
       </c>
       <c r="X24">
-        <v>3.8130000000000002</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="Y24">
-        <v>5.2080000000000002</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="Z24">
-        <v>6.6029999999999998</v>
+        <v>104.16</v>
       </c>
       <c r="AA24">
-        <v>8</v>
+        <v>132.06</v>
+      </c>
+      <c r="AB24">
+        <v>160</v>
+      </c>
+      <c r="AF24">
+        <v>149.6</v>
+      </c>
+      <c r="AG24">
+        <v>498.16800000000001</v>
+      </c>
+      <c r="AH24">
+        <v>996.33600000000001</v>
+      </c>
+      <c r="AI24">
+        <v>1525.2</v>
+      </c>
+      <c r="AJ24">
+        <v>2083.1999999999998</v>
+      </c>
+      <c r="AK24">
+        <v>2641.2</v>
+      </c>
+      <c r="AL24">
+        <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="2:27">
+    <row r="25" spans="2:38">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7883,25 +7988,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>0.374</v>
+        <v>42.259887005649723</v>
       </c>
       <c r="H25" s="40">
-        <v>1.2454200000000002</v>
+        <v>140.72542372881358</v>
       </c>
       <c r="I25" s="40">
-        <v>2.4908400000000004</v>
+        <v>281.45084745762716</v>
       </c>
       <c r="J25" s="40">
-        <v>3.8130000000000002</v>
+        <v>430.84745762711867</v>
       </c>
       <c r="K25" s="40">
-        <v>5.2080000000000002</v>
+        <v>588.47457627118649</v>
       </c>
       <c r="L25" s="40">
-        <v>6.6029999999999998</v>
+        <v>746.10169491525426</v>
       </c>
       <c r="M25" s="40">
-        <v>8</v>
+        <v>903.95480225988706</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -7909,29 +8014,50 @@
       <c r="O25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U25">
-        <v>0.374</v>
-      </c>
       <c r="V25">
-        <v>1.2454200000000002</v>
+        <v>7.48</v>
       </c>
       <c r="W25">
-        <v>2.4908400000000004</v>
+        <v>24.9084</v>
       </c>
       <c r="X25">
-        <v>3.8130000000000002</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="Y25">
-        <v>5.2080000000000002</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="Z25">
-        <v>6.6029999999999998</v>
+        <v>104.16</v>
       </c>
       <c r="AA25">
-        <v>8</v>
+        <v>132.06</v>
+      </c>
+      <c r="AB25">
+        <v>160</v>
+      </c>
+      <c r="AF25">
+        <v>42.259887005649723</v>
+      </c>
+      <c r="AG25">
+        <v>140.72542372881358</v>
+      </c>
+      <c r="AH25">
+        <v>281.45084745762716</v>
+      </c>
+      <c r="AI25">
+        <v>430.84745762711867</v>
+      </c>
+      <c r="AJ25">
+        <v>588.47457627118649</v>
+      </c>
+      <c r="AK25">
+        <v>746.10169491525426</v>
+      </c>
+      <c r="AL25">
+        <v>903.95480225988706</v>
       </c>
     </row>
-    <row r="26" spans="2:27">
+    <row r="26" spans="2:38">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -7948,25 +8074,25 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>0.374</v>
+        <v>59.935897435897431</v>
       </c>
       <c r="H26" s="40">
-        <v>1.2454200000000002</v>
+        <v>199.58653846153848</v>
       </c>
       <c r="I26" s="40">
-        <v>2.4908400000000004</v>
+        <v>399.17307692307696</v>
       </c>
       <c r="J26" s="40">
-        <v>3.8130000000000002</v>
+        <v>611.05769230769238</v>
       </c>
       <c r="K26" s="40">
-        <v>5.2080000000000002</v>
+        <v>834.61538461538476</v>
       </c>
       <c r="L26" s="40">
-        <v>6.6029999999999998</v>
+        <v>1058.1730769230771</v>
       </c>
       <c r="M26" s="40">
-        <v>8</v>
+        <v>1282.051282051282</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -7974,29 +8100,50 @@
       <c r="O26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U26">
-        <v>0.374</v>
-      </c>
       <c r="V26">
-        <v>1.2454200000000002</v>
+        <v>18.7</v>
       </c>
       <c r="W26">
-        <v>2.4908400000000004</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="X26">
-        <v>3.8130000000000002</v>
+        <v>124.54200000000002</v>
       </c>
       <c r="Y26">
-        <v>5.2080000000000002</v>
+        <v>190.65</v>
       </c>
       <c r="Z26">
-        <v>6.6029999999999998</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="AA26">
-        <v>8</v>
+        <v>330.15000000000003</v>
+      </c>
+      <c r="AB26">
+        <v>400</v>
+      </c>
+      <c r="AF26">
+        <v>59.935897435897431</v>
+      </c>
+      <c r="AG26">
+        <v>199.58653846153848</v>
+      </c>
+      <c r="AH26">
+        <v>399.17307692307696</v>
+      </c>
+      <c r="AI26">
+        <v>611.05769230769238</v>
+      </c>
+      <c r="AJ26">
+        <v>834.61538461538476</v>
+      </c>
+      <c r="AK26">
+        <v>1058.1730769230771</v>
+      </c>
+      <c r="AL26">
+        <v>1282.051282051282</v>
       </c>
     </row>
-    <row r="27" spans="2:27">
+    <row r="27" spans="2:38">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -8013,25 +8160,25 @@
         <v>1</v>
       </c>
       <c r="G27" s="40">
-        <v>0.374</v>
+        <v>10.080862533692724</v>
       </c>
       <c r="H27" s="40">
-        <v>1.2454200000000002</v>
+        <v>33.569272237196763</v>
       </c>
       <c r="I27" s="40">
-        <v>2.4908400000000004</v>
+        <v>67.138544474393527</v>
       </c>
       <c r="J27" s="40">
-        <v>3.8130000000000002</v>
+        <v>102.77628032345014</v>
       </c>
       <c r="K27" s="40">
-        <v>5.2080000000000002</v>
+        <v>140.37735849056602</v>
       </c>
       <c r="L27" s="40">
-        <v>6.6029999999999998</v>
+        <v>177.97843665768195</v>
       </c>
       <c r="M27" s="40">
-        <v>8</v>
+        <v>215.63342318059298</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -8039,29 +8186,50 @@
       <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U27">
-        <v>0.374</v>
-      </c>
       <c r="V27">
-        <v>1.2454200000000002</v>
+        <v>3.74</v>
       </c>
       <c r="W27">
-        <v>2.4908400000000004</v>
+        <v>12.4542</v>
       </c>
       <c r="X27">
-        <v>3.8130000000000002</v>
+        <v>24.9084</v>
       </c>
       <c r="Y27">
-        <v>5.2080000000000002</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="Z27">
-        <v>6.6029999999999998</v>
+        <v>52.08</v>
       </c>
       <c r="AA27">
-        <v>8</v>
+        <v>66.03</v>
+      </c>
+      <c r="AB27">
+        <v>80</v>
+      </c>
+      <c r="AF27">
+        <v>10.080862533692724</v>
+      </c>
+      <c r="AG27">
+        <v>33.569272237196763</v>
+      </c>
+      <c r="AH27">
+        <v>67.138544474393527</v>
+      </c>
+      <c r="AI27">
+        <v>102.77628032345014</v>
+      </c>
+      <c r="AJ27">
+        <v>140.37735849056602</v>
+      </c>
+      <c r="AK27">
+        <v>177.97843665768195</v>
+      </c>
+      <c r="AL27">
+        <v>215.63342318059298</v>
       </c>
     </row>
-    <row r="28" spans="2:27">
+    <row r="28" spans="2:38">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -8078,25 +8246,25 @@
         <v>1</v>
       </c>
       <c r="G28" s="40">
-        <v>0.374</v>
+        <v>14.844923076923077</v>
       </c>
       <c r="H28" s="40">
-        <v>1.2454200000000002</v>
+        <v>49.433593846153848</v>
       </c>
       <c r="I28" s="40">
-        <v>2.4908400000000004</v>
+        <v>98.867187692307695</v>
       </c>
       <c r="J28" s="40">
-        <v>3.8130000000000002</v>
+        <v>151.34676923076921</v>
       </c>
       <c r="K28" s="40">
-        <v>5.2080000000000002</v>
+        <v>206.71753846153845</v>
       </c>
       <c r="L28" s="40">
-        <v>6.6029999999999998</v>
+        <v>262.08830769230769</v>
       </c>
       <c r="M28" s="40">
-        <v>8</v>
+        <v>317.53846153846155</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -8104,29 +8272,50 @@
       <c r="O28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U28">
-        <v>0.374</v>
-      </c>
       <c r="V28">
-        <v>1.2454200000000002</v>
+        <v>9.6492000000000004</v>
       </c>
       <c r="W28">
-        <v>2.4908400000000004</v>
+        <v>32.131836</v>
       </c>
       <c r="X28">
-        <v>3.8130000000000002</v>
+        <v>64.263672</v>
       </c>
       <c r="Y28">
-        <v>5.2080000000000002</v>
+        <v>98.375399999999999</v>
       </c>
       <c r="Z28">
-        <v>6.6029999999999998</v>
+        <v>134.3664</v>
       </c>
       <c r="AA28">
-        <v>8</v>
+        <v>170.35740000000001</v>
+      </c>
+      <c r="AB28">
+        <v>206.4</v>
+      </c>
+      <c r="AF28">
+        <v>14.844923076923077</v>
+      </c>
+      <c r="AG28">
+        <v>49.433593846153848</v>
+      </c>
+      <c r="AH28">
+        <v>98.867187692307695</v>
+      </c>
+      <c r="AI28">
+        <v>151.34676923076921</v>
+      </c>
+      <c r="AJ28">
+        <v>206.71753846153845</v>
+      </c>
+      <c r="AK28">
+        <v>262.08830769230769</v>
+      </c>
+      <c r="AL28">
+        <v>317.53846153846155</v>
       </c>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:38">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -8143,25 +8332,25 @@
         <v>1</v>
       </c>
       <c r="G29" s="40">
-        <v>0.374</v>
+        <v>11.507692307692308</v>
       </c>
       <c r="H29" s="40">
-        <v>1.2454200000000002</v>
+        <v>38.320615384615387</v>
       </c>
       <c r="I29" s="40">
-        <v>2.4908400000000004</v>
+        <v>76.641230769230773</v>
       </c>
       <c r="J29" s="40">
-        <v>3.8130000000000002</v>
+        <v>117.32307692307693</v>
       </c>
       <c r="K29" s="40">
-        <v>5.2080000000000002</v>
+        <v>160.24615384615385</v>
       </c>
       <c r="L29" s="40">
-        <v>6.6029999999999998</v>
+        <v>203.16923076923078</v>
       </c>
       <c r="M29" s="40">
-        <v>8</v>
+        <v>246.15384615384613</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8169,29 +8358,50 @@
       <c r="O29" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U29">
-        <v>0.374</v>
-      </c>
       <c r="V29">
-        <v>1.2454200000000002</v>
+        <v>7.48</v>
       </c>
       <c r="W29">
-        <v>2.4908400000000004</v>
+        <v>24.9084</v>
       </c>
       <c r="X29">
-        <v>3.8130000000000002</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="Y29">
-        <v>5.2080000000000002</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="Z29">
-        <v>6.6029999999999998</v>
+        <v>104.16</v>
       </c>
       <c r="AA29">
-        <v>8</v>
+        <v>132.06</v>
+      </c>
+      <c r="AB29">
+        <v>160</v>
+      </c>
+      <c r="AF29">
+        <v>11.507692307692308</v>
+      </c>
+      <c r="AG29">
+        <v>38.320615384615387</v>
+      </c>
+      <c r="AH29">
+        <v>76.641230769230773</v>
+      </c>
+      <c r="AI29">
+        <v>117.32307692307693</v>
+      </c>
+      <c r="AJ29">
+        <v>160.24615384615385</v>
+      </c>
+      <c r="AK29">
+        <v>203.16923076923078</v>
+      </c>
+      <c r="AL29">
+        <v>246.15384615384613</v>
       </c>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:38">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -8208,25 +8418,25 @@
         <v>1</v>
       </c>
       <c r="G30" s="40">
-        <v>0.374</v>
+        <v>1.6190476190476191</v>
       </c>
       <c r="H30" s="40">
-        <v>1.2454200000000002</v>
+        <v>5.3914285714285723</v>
       </c>
       <c r="I30" s="40">
-        <v>2.4908400000000004</v>
+        <v>10.782857142857145</v>
       </c>
       <c r="J30" s="40">
-        <v>3.8130000000000002</v>
+        <v>16.506493506493506</v>
       </c>
       <c r="K30" s="40">
-        <v>5.2080000000000002</v>
+        <v>22.545454545454547</v>
       </c>
       <c r="L30" s="40">
-        <v>6.6029999999999998</v>
+        <v>28.584415584415581</v>
       </c>
       <c r="M30" s="40">
-        <v>8</v>
+        <v>34.632034632034632</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8234,29 +8444,50 @@
       <c r="O30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.374</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.2454200000000002</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2.4908400000000004</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>3.8130000000000002</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>5.2080000000000002</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>6.6029999999999998</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>8</v>
       </c>
+      <c r="AF30">
+        <v>1.6190476190476191</v>
+      </c>
+      <c r="AG30">
+        <v>5.3914285714285723</v>
+      </c>
+      <c r="AH30">
+        <v>10.782857142857145</v>
+      </c>
+      <c r="AI30">
+        <v>16.506493506493506</v>
+      </c>
+      <c r="AJ30">
+        <v>22.545454545454547</v>
+      </c>
+      <c r="AK30">
+        <v>28.584415584415581</v>
+      </c>
+      <c r="AL30">
+        <v>34.632034632034632</v>
+      </c>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:38">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8273,25 +8504,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>0.374</v>
+        <v>25.704467353951895</v>
       </c>
       <c r="H31" s="40">
-        <v>1.2454200000000002</v>
+        <v>85.595876288659795</v>
       </c>
       <c r="I31" s="40">
-        <v>2.4908400000000004</v>
+        <v>171.19175257731959</v>
       </c>
       <c r="J31" s="40">
-        <v>3.8130000000000002</v>
+        <v>262.06185567010311</v>
       </c>
       <c r="K31" s="40">
-        <v>5.2080000000000002</v>
+        <v>357.93814432989694</v>
       </c>
       <c r="L31" s="40">
-        <v>6.6029999999999998</v>
+        <v>453.81443298969077</v>
       </c>
       <c r="M31" s="40">
-        <v>8</v>
+        <v>549.82817869415805</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8299,29 +8530,50 @@
       <c r="O31" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U31">
-        <v>0.374</v>
-      </c>
       <c r="V31">
-        <v>1.2454200000000002</v>
+        <v>7.48</v>
       </c>
       <c r="W31">
-        <v>2.4908400000000004</v>
+        <v>24.9084</v>
       </c>
       <c r="X31">
-        <v>3.8130000000000002</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="Y31">
-        <v>5.2080000000000002</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="Z31">
-        <v>6.6029999999999998</v>
+        <v>104.16</v>
       </c>
       <c r="AA31">
-        <v>8</v>
+        <v>132.06</v>
+      </c>
+      <c r="AB31">
+        <v>160</v>
+      </c>
+      <c r="AF31">
+        <v>25.704467353951895</v>
+      </c>
+      <c r="AG31">
+        <v>85.595876288659795</v>
+      </c>
+      <c r="AH31">
+        <v>171.19175257731959</v>
+      </c>
+      <c r="AI31">
+        <v>262.06185567010311</v>
+      </c>
+      <c r="AJ31">
+        <v>357.93814432989694</v>
+      </c>
+      <c r="AK31">
+        <v>453.81443298969077</v>
+      </c>
+      <c r="AL31">
+        <v>549.82817869415805</v>
       </c>
     </row>
-    <row r="32" spans="2:27">
+    <row r="32" spans="2:38">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8338,25 +8590,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>0.374</v>
+        <v>42.259887005649723</v>
       </c>
       <c r="H32" s="40">
-        <v>1.2454200000000002</v>
+        <v>140.72542372881358</v>
       </c>
       <c r="I32" s="40">
-        <v>2.4908400000000004</v>
+        <v>281.45084745762716</v>
       </c>
       <c r="J32" s="40">
-        <v>3.8130000000000002</v>
+        <v>430.84745762711867</v>
       </c>
       <c r="K32" s="40">
-        <v>5.2080000000000002</v>
+        <v>588.47457627118649</v>
       </c>
       <c r="L32" s="40">
-        <v>6.6029999999999998</v>
+        <v>746.10169491525426</v>
       </c>
       <c r="M32" s="40">
-        <v>8</v>
+        <v>903.95480225988706</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8364,29 +8616,50 @@
       <c r="O32" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U32">
-        <v>0.374</v>
-      </c>
       <c r="V32">
-        <v>1.2454200000000002</v>
+        <v>7.48</v>
       </c>
       <c r="W32">
-        <v>2.4908400000000004</v>
+        <v>24.9084</v>
       </c>
       <c r="X32">
-        <v>3.8130000000000002</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="Y32">
-        <v>5.2080000000000002</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="Z32">
-        <v>6.6029999999999998</v>
+        <v>104.16</v>
       </c>
       <c r="AA32">
-        <v>8</v>
+        <v>132.06</v>
+      </c>
+      <c r="AB32">
+        <v>160</v>
+      </c>
+      <c r="AF32">
+        <v>42.259887005649723</v>
+      </c>
+      <c r="AG32">
+        <v>140.72542372881358</v>
+      </c>
+      <c r="AH32">
+        <v>281.45084745762716</v>
+      </c>
+      <c r="AI32">
+        <v>430.84745762711867</v>
+      </c>
+      <c r="AJ32">
+        <v>588.47457627118649</v>
+      </c>
+      <c r="AK32">
+        <v>746.10169491525426</v>
+      </c>
+      <c r="AL32">
+        <v>903.95480225988706</v>
       </c>
     </row>
-    <row r="33" spans="2:27">
+    <row r="33" spans="2:38">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8403,25 +8676,25 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>0.374</v>
+        <v>49.86666666666666</v>
       </c>
       <c r="H33" s="40">
-        <v>1.2454200000000002</v>
+        <v>166.05600000000001</v>
       </c>
       <c r="I33" s="40">
-        <v>2.4908400000000004</v>
+        <v>332.11200000000002</v>
       </c>
       <c r="J33" s="40">
-        <v>3.8130000000000002</v>
+        <v>508.4</v>
       </c>
       <c r="K33" s="40">
-        <v>5.2080000000000002</v>
+        <v>694.39999999999986</v>
       </c>
       <c r="L33" s="40">
-        <v>6.6029999999999998</v>
+        <v>880.4</v>
       </c>
       <c r="M33" s="40">
-        <v>8</v>
+        <v>1066.6666666666667</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8429,29 +8702,50 @@
       <c r="O33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U33">
-        <v>0.374</v>
-      </c>
       <c r="V33">
-        <v>1.2454200000000002</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="W33">
-        <v>2.4908400000000004</v>
+        <v>37.3626</v>
       </c>
       <c r="X33">
-        <v>3.8130000000000002</v>
+        <v>74.725200000000001</v>
       </c>
       <c r="Y33">
-        <v>5.2080000000000002</v>
+        <v>114.39</v>
       </c>
       <c r="Z33">
-        <v>6.6029999999999998</v>
+        <v>156.23999999999998</v>
       </c>
       <c r="AA33">
-        <v>8</v>
+        <v>198.09</v>
+      </c>
+      <c r="AB33">
+        <v>240</v>
+      </c>
+      <c r="AF33">
+        <v>49.86666666666666</v>
+      </c>
+      <c r="AG33">
+        <v>166.05600000000001</v>
+      </c>
+      <c r="AH33">
+        <v>332.11200000000002</v>
+      </c>
+      <c r="AI33">
+        <v>508.4</v>
+      </c>
+      <c r="AJ33">
+        <v>694.39999999999986</v>
+      </c>
+      <c r="AK33">
+        <v>880.4</v>
+      </c>
+      <c r="AL33">
+        <v>1066.6666666666667</v>
       </c>
     </row>
-    <row r="34" spans="2:27">
+    <row r="34" spans="2:38">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8468,25 +8762,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>0.374</v>
+        <v>36.907894736842103</v>
       </c>
       <c r="H34" s="40">
-        <v>1.2454200000000002</v>
+        <v>122.90328947368421</v>
       </c>
       <c r="I34" s="40">
-        <v>2.4908400000000004</v>
+        <v>245.80657894736842</v>
       </c>
       <c r="J34" s="40">
-        <v>3.8130000000000002</v>
+        <v>376.28289473684214</v>
       </c>
       <c r="K34" s="40">
-        <v>5.2080000000000002</v>
+        <v>513.9473684210526</v>
       </c>
       <c r="L34" s="40">
-        <v>6.6029999999999998</v>
+        <v>651.61184210526324</v>
       </c>
       <c r="M34" s="40">
-        <v>8</v>
+        <v>789.47368421052636</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8494,29 +8788,50 @@
       <c r="O34" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U34">
-        <v>0.374</v>
-      </c>
       <c r="V34">
-        <v>1.2454200000000002</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="W34">
-        <v>2.4908400000000004</v>
+        <v>37.3626</v>
       </c>
       <c r="X34">
-        <v>3.8130000000000002</v>
+        <v>74.725200000000001</v>
       </c>
       <c r="Y34">
-        <v>5.2080000000000002</v>
+        <v>114.39</v>
       </c>
       <c r="Z34">
-        <v>6.6029999999999998</v>
+        <v>156.23999999999998</v>
       </c>
       <c r="AA34">
-        <v>8</v>
+        <v>198.09</v>
+      </c>
+      <c r="AB34">
+        <v>240</v>
+      </c>
+      <c r="AF34">
+        <v>36.907894736842103</v>
+      </c>
+      <c r="AG34">
+        <v>122.90328947368421</v>
+      </c>
+      <c r="AH34">
+        <v>245.80657894736842</v>
+      </c>
+      <c r="AI34">
+        <v>376.28289473684214</v>
+      </c>
+      <c r="AJ34">
+        <v>513.9473684210526</v>
+      </c>
+      <c r="AK34">
+        <v>651.61184210526324</v>
+      </c>
+      <c r="AL34">
+        <v>789.47368421052636</v>
       </c>
     </row>
-    <row r="35" spans="2:27">
+    <row r="35" spans="2:38">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8533,25 +8848,25 @@
         <v>1</v>
       </c>
       <c r="G35" s="40">
-        <v>21.692</v>
+        <v>72.306666666666672</v>
       </c>
       <c r="H35" s="40">
-        <v>72.234359999999995</v>
+        <v>240.78119999999998</v>
       </c>
       <c r="I35" s="40">
-        <v>144.46871999999999</v>
+        <v>481.56239999999997</v>
       </c>
       <c r="J35" s="40">
-        <v>221.154</v>
+        <v>737.18000000000006</v>
       </c>
       <c r="K35" s="40">
-        <v>302.06399999999996</v>
+        <v>1006.8799999999999</v>
       </c>
       <c r="L35" s="40">
-        <v>382.97399999999999</v>
+        <v>1276.58</v>
       </c>
       <c r="M35" s="40">
-        <v>463.99999999999994</v>
+        <v>1546.6666666666665</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8559,29 +8874,50 @@
       <c r="O35" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>21.692</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>72.234359999999995</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>144.46871999999999</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>221.154</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>302.06399999999996</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>382.97399999999999</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>463.99999999999994</v>
       </c>
+      <c r="AF35">
+        <v>72.306666666666672</v>
+      </c>
+      <c r="AG35">
+        <v>240.78119999999998</v>
+      </c>
+      <c r="AH35">
+        <v>481.56239999999997</v>
+      </c>
+      <c r="AI35">
+        <v>737.18000000000006</v>
+      </c>
+      <c r="AJ35">
+        <v>1006.8799999999999</v>
+      </c>
+      <c r="AK35">
+        <v>1276.58</v>
+      </c>
+      <c r="AL35">
+        <v>1546.6666666666665</v>
+      </c>
     </row>
-    <row r="36" spans="2:27">
+    <row r="36" spans="2:38">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8598,25 +8934,25 @@
         <v>1</v>
       </c>
       <c r="G36" s="40">
-        <v>9.35</v>
+        <v>44.523809523809526</v>
       </c>
       <c r="H36" s="40">
-        <v>31.135500000000004</v>
+        <v>148.26428571428573</v>
       </c>
       <c r="I36" s="40">
-        <v>62.271000000000008</v>
+        <v>296.52857142857147</v>
       </c>
       <c r="J36" s="40">
-        <v>95.325000000000003</v>
+        <v>453.92857142857144</v>
       </c>
       <c r="K36" s="40">
-        <v>130.20000000000002</v>
+        <v>620.00000000000011</v>
       </c>
       <c r="L36" s="40">
-        <v>165.07500000000002</v>
+        <v>786.07142857142867</v>
       </c>
       <c r="M36" s="40">
-        <v>200</v>
+        <v>952.38095238095241</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -8624,29 +8960,50 @@
       <c r="O36" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>9.35</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>31.135500000000004</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>62.271000000000008</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>95.325000000000003</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>130.20000000000002</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>165.07500000000002</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>200</v>
       </c>
+      <c r="AF36">
+        <v>44.523809523809526</v>
+      </c>
+      <c r="AG36">
+        <v>148.26428571428573</v>
+      </c>
+      <c r="AH36">
+        <v>296.52857142857147</v>
+      </c>
+      <c r="AI36">
+        <v>453.92857142857144</v>
+      </c>
+      <c r="AJ36">
+        <v>620.00000000000011</v>
+      </c>
+      <c r="AK36">
+        <v>786.07142857142867</v>
+      </c>
+      <c r="AL36">
+        <v>952.38095238095241</v>
+      </c>
     </row>
-    <row r="37" spans="2:27">
+    <row r="37" spans="2:38">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -8663,25 +9020,25 @@
         <v>1</v>
       </c>
       <c r="G37" s="40">
-        <v>7.4800000000000005E-2</v>
+        <v>0.26714285714285713</v>
       </c>
       <c r="H37" s="40">
-        <v>0.24908400000000003</v>
+        <v>0.88958571428571431</v>
       </c>
       <c r="I37" s="40">
-        <v>0.49816800000000006</v>
+        <v>1.7791714285714286</v>
       </c>
       <c r="J37" s="40">
-        <v>0.76260000000000006</v>
+        <v>2.7235714285714283</v>
       </c>
       <c r="K37" s="40">
-        <v>1.0416000000000001</v>
+        <v>3.7199999999999998</v>
       </c>
       <c r="L37" s="40">
-        <v>1.3206</v>
+        <v>4.7164285714285707</v>
       </c>
       <c r="M37" s="40">
-        <v>1.6</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -8689,29 +9046,50 @@
       <c r="O37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.24908400000000003</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.49816800000000006</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.76260000000000006</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>1.0416000000000001</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>1.3206</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>1.6</v>
       </c>
+      <c r="AF37">
+        <v>0.26714285714285713</v>
+      </c>
+      <c r="AG37">
+        <v>0.88958571428571431</v>
+      </c>
+      <c r="AH37">
+        <v>1.7791714285714286</v>
+      </c>
+      <c r="AI37">
+        <v>2.7235714285714283</v>
+      </c>
+      <c r="AJ37">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="AK37">
+        <v>4.7164285714285707</v>
+      </c>
+      <c r="AL37">
+        <v>5.7142857142857144</v>
+      </c>
     </row>
-    <row r="38" spans="2:27">
+    <row r="38" spans="2:38">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -8728,25 +9106,25 @@
         <v>1</v>
       </c>
       <c r="G38" s="40">
-        <v>19.073999999999998</v>
+        <v>44.358139534883719</v>
       </c>
       <c r="H38" s="40">
-        <v>63.516419999999997</v>
+        <v>147.71260465116279</v>
       </c>
       <c r="I38" s="40">
-        <v>127.03283999999999</v>
+        <v>295.42520930232558</v>
       </c>
       <c r="J38" s="40">
-        <v>194.46299999999999</v>
+        <v>452.23953488372092</v>
       </c>
       <c r="K38" s="40">
-        <v>265.608</v>
+        <v>617.69302325581396</v>
       </c>
       <c r="L38" s="40">
-        <v>336.75299999999999</v>
+        <v>783.14651162790699</v>
       </c>
       <c r="M38" s="40">
-        <v>408</v>
+        <v>948.83720930232562</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -8754,29 +9132,50 @@
       <c r="O38" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>19.073999999999998</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>63.516419999999997</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>127.03283999999999</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>194.46299999999999</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>265.608</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>336.75299999999999</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>408</v>
       </c>
+      <c r="AF38">
+        <v>44.358139534883719</v>
+      </c>
+      <c r="AG38">
+        <v>147.71260465116279</v>
+      </c>
+      <c r="AH38">
+        <v>295.42520930232558</v>
+      </c>
+      <c r="AI38">
+        <v>452.23953488372092</v>
+      </c>
+      <c r="AJ38">
+        <v>617.69302325581396</v>
+      </c>
+      <c r="AK38">
+        <v>783.14651162790699</v>
+      </c>
+      <c r="AL38">
+        <v>948.83720930232562</v>
+      </c>
     </row>
-    <row r="39" spans="2:27">
+    <row r="39" spans="2:38">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -8793,25 +9192,25 @@
         <v>1</v>
       </c>
       <c r="G39" s="40">
-        <v>1.496</v>
+        <v>5.158620689655173</v>
       </c>
       <c r="H39" s="40">
-        <v>4.9816800000000008</v>
+        <v>17.178206896551728</v>
       </c>
       <c r="I39" s="42">
-        <v>9.9633600000000015</v>
+        <v>34.356413793103457</v>
       </c>
       <c r="J39" s="42">
-        <v>15.252000000000001</v>
+        <v>52.593103448275869</v>
       </c>
       <c r="K39" s="42">
-        <v>20.832000000000001</v>
+        <v>71.834482758620695</v>
       </c>
       <c r="L39" s="42">
-        <v>26.411999999999999</v>
+        <v>91.07586206896552</v>
       </c>
       <c r="M39" s="42">
-        <v>32</v>
+        <v>110.3448275862069</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -8819,29 +9218,50 @@
       <c r="O39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>1.496</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>4.9816800000000008</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>9.9633600000000015</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>15.252000000000001</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>20.832000000000001</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>26.411999999999999</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>32</v>
       </c>
+      <c r="AF39">
+        <v>5.158620689655173</v>
+      </c>
+      <c r="AG39">
+        <v>17.178206896551728</v>
+      </c>
+      <c r="AH39">
+        <v>34.356413793103457</v>
+      </c>
+      <c r="AI39">
+        <v>52.593103448275869</v>
+      </c>
+      <c r="AJ39">
+        <v>71.834482758620695</v>
+      </c>
+      <c r="AK39">
+        <v>91.07586206896552</v>
+      </c>
+      <c r="AL39">
+        <v>110.3448275862069</v>
+      </c>
     </row>
-    <row r="40" spans="2:27">
+    <row r="40" spans="2:38">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -8858,25 +9278,25 @@
         <v>1</v>
       </c>
       <c r="G40" s="40">
-        <v>2.2440000000000002</v>
+        <v>14.025</v>
       </c>
       <c r="H40" s="40">
-        <v>7.4725200000000003</v>
+        <v>46.703250000000004</v>
       </c>
       <c r="I40" s="40">
-        <v>14.945040000000001</v>
+        <v>93.406500000000008</v>
       </c>
       <c r="J40" s="40">
-        <v>22.878</v>
+        <v>142.98750000000001</v>
       </c>
       <c r="K40" s="40">
-        <v>31.248000000000001</v>
+        <v>195.3</v>
       </c>
       <c r="L40" s="40">
-        <v>39.618000000000002</v>
+        <v>247.61250000000001</v>
       </c>
       <c r="M40" s="40">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -8884,29 +9304,50 @@
       <c r="O40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>2.2440000000000002</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>7.4725200000000003</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>14.945040000000001</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>22.878</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>31.248000000000001</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>39.618000000000002</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>48</v>
       </c>
+      <c r="AF40">
+        <v>14.025</v>
+      </c>
+      <c r="AG40">
+        <v>46.703250000000004</v>
+      </c>
+      <c r="AH40">
+        <v>93.406500000000008</v>
+      </c>
+      <c r="AI40">
+        <v>142.98750000000001</v>
+      </c>
+      <c r="AJ40">
+        <v>195.3</v>
+      </c>
+      <c r="AK40">
+        <v>247.61250000000001</v>
+      </c>
+      <c r="AL40">
+        <v>300</v>
+      </c>
     </row>
-    <row r="41" spans="2:27">
+    <row r="41" spans="2:38">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -8923,25 +9364,25 @@
         <v>1</v>
       </c>
       <c r="G41" s="40">
-        <v>187</v>
+        <v>224.4</v>
       </c>
       <c r="H41" s="40">
-        <v>622.71</v>
+        <v>747.25200000000007</v>
       </c>
       <c r="I41" s="40">
-        <v>1245.42</v>
+        <v>1494.5040000000001</v>
       </c>
       <c r="J41" s="40">
-        <v>1906.5</v>
+        <v>2287.7999999999997</v>
       </c>
       <c r="K41" s="40">
-        <v>2604</v>
+        <v>3124.7999999999997</v>
       </c>
       <c r="L41" s="40">
-        <v>3301.5</v>
+        <v>3961.7999999999997</v>
       </c>
       <c r="M41" s="40">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -8949,29 +9390,50 @@
       <c r="O41" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U41">
-        <v>187</v>
-      </c>
       <c r="V41">
-        <v>622.71</v>
+        <v>112.2</v>
       </c>
       <c r="W41">
-        <v>1245.42</v>
+        <v>373.62600000000003</v>
       </c>
       <c r="X41">
-        <v>1906.5</v>
+        <v>747.25200000000007</v>
       </c>
       <c r="Y41">
-        <v>2604</v>
+        <v>1143.8999999999999</v>
       </c>
       <c r="Z41">
-        <v>3301.5</v>
+        <v>1562.3999999999999</v>
       </c>
       <c r="AA41">
-        <v>4000</v>
+        <v>1980.8999999999999</v>
+      </c>
+      <c r="AB41">
+        <v>2400</v>
+      </c>
+      <c r="AF41">
+        <v>224.4</v>
+      </c>
+      <c r="AG41">
+        <v>747.25200000000007</v>
+      </c>
+      <c r="AH41">
+        <v>1494.5040000000001</v>
+      </c>
+      <c r="AI41">
+        <v>2287.7999999999997</v>
+      </c>
+      <c r="AJ41">
+        <v>3124.7999999999997</v>
+      </c>
+      <c r="AK41">
+        <v>3961.7999999999997</v>
+      </c>
+      <c r="AL41">
+        <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:27">
+    <row r="42" spans="2:38">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -8988,25 +9450,25 @@
         <v>1</v>
       </c>
       <c r="G42" s="40">
-        <v>0.748</v>
+        <v>3.4790697674418607</v>
       </c>
       <c r="H42" s="40">
-        <v>2.4908400000000004</v>
+        <v>11.585302325581397</v>
       </c>
       <c r="I42" s="40">
-        <v>4.9816800000000008</v>
+        <v>23.170604651162794</v>
       </c>
       <c r="J42" s="40">
-        <v>7.6260000000000003</v>
+        <v>35.469767441860469</v>
       </c>
       <c r="K42" s="40">
-        <v>10.416</v>
+        <v>48.446511627906979</v>
       </c>
       <c r="L42" s="40">
-        <v>13.206</v>
+        <v>61.423255813953489</v>
       </c>
       <c r="M42" s="40">
-        <v>16</v>
+        <v>74.418604651162795</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -9014,29 +9476,50 @@
       <c r="O42" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.748</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>2.4908400000000004</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>4.9816800000000008</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>7.6260000000000003</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>10.416</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>13.206</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>16</v>
       </c>
+      <c r="AF42">
+        <v>3.4790697674418607</v>
+      </c>
+      <c r="AG42">
+        <v>11.585302325581397</v>
+      </c>
+      <c r="AH42">
+        <v>23.170604651162794</v>
+      </c>
+      <c r="AI42">
+        <v>35.469767441860469</v>
+      </c>
+      <c r="AJ42">
+        <v>48.446511627906979</v>
+      </c>
+      <c r="AK42">
+        <v>61.423255813953489</v>
+      </c>
+      <c r="AL42">
+        <v>74.418604651162795</v>
+      </c>
     </row>
-    <row r="43" spans="2:27">
+    <row r="43" spans="2:38">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -9053,25 +9536,25 @@
         <v>1</v>
       </c>
       <c r="G43" s="40">
-        <v>2.2440000000000002</v>
+        <v>3.6606851549755306</v>
       </c>
       <c r="H43" s="40">
-        <v>7.4725200000000003</v>
+        <v>12.190081566068516</v>
       </c>
       <c r="I43" s="40">
-        <v>14.945040000000001</v>
+        <v>24.380163132137032</v>
       </c>
       <c r="J43" s="40">
-        <v>22.878</v>
+        <v>37.321370309951064</v>
       </c>
       <c r="K43" s="40">
-        <v>31.248000000000001</v>
+        <v>50.97553017944535</v>
       </c>
       <c r="L43" s="40">
-        <v>39.618000000000002</v>
+        <v>64.629690048939651</v>
       </c>
       <c r="M43" s="40">
-        <v>48</v>
+        <v>78.303425774877653</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>
@@ -9079,36 +9562,57 @@
       <c r="O43" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>2.2440000000000002</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>7.4725200000000003</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>14.945040000000001</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>22.878</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>31.248000000000001</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>39.618000000000002</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>48</v>
       </c>
+      <c r="AF43">
+        <v>3.6606851549755306</v>
+      </c>
+      <c r="AG43">
+        <v>12.190081566068516</v>
+      </c>
+      <c r="AH43">
+        <v>24.380163132137032</v>
+      </c>
+      <c r="AI43">
+        <v>37.321370309951064</v>
+      </c>
+      <c r="AJ43">
+        <v>50.97553017944535</v>
+      </c>
+      <c r="AK43">
+        <v>64.629690048939651</v>
+      </c>
+      <c r="AL43">
+        <v>78.303425774877653</v>
+      </c>
     </row>
-    <row r="44" spans="2:27">
+    <row r="44" spans="2:38">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
     </row>
-    <row r="45" spans="2:27">
+    <row r="45" spans="2:38">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -9127,7 +9631,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:27">
+    <row r="48" spans="2:38">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D81F0-8A7D-43F2-B929-5DD3B722FE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93547D49-74E2-4C3F-8CCD-DA3F8C5709CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7298,10 +7298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL84"/>
+  <dimension ref="A1:AU84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:M43"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7438,7 +7438,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="2:38">
+    <row r="17" spans="2:47">
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7459,7 +7459,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:38" ht="26">
+    <row r="18" spans="2:47" ht="26">
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:38" ht="62.5">
+    <row r="19" spans="2:47" ht="62.5">
       <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:38" ht="24" customHeight="1">
+    <row r="20" spans="2:47" ht="24" customHeight="1">
       <c r="B20" s="31" t="s">
         <v>60</v>
       </c>
@@ -7558,25 +7558,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>99.468085106382972</v>
+        <v>18.7</v>
       </c>
       <c r="H20" s="40">
-        <v>331.22872340425533</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="I20" s="40">
-        <v>662.45744680851067</v>
+        <v>124.54200000000002</v>
       </c>
       <c r="J20" s="40">
-        <v>1014.0957446808511</v>
+        <v>190.65</v>
       </c>
       <c r="K20" s="40">
-        <v>1385.1063829787236</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="L20" s="40">
-        <v>1756.117021276596</v>
+        <v>330.15000000000003</v>
       </c>
       <c r="M20" s="40">
-        <v>2127.6595744680849</v>
+        <v>400</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7626,8 +7626,29 @@
       <c r="AL20">
         <v>2127.6595744680849</v>
       </c>
+      <c r="AO20">
+        <v>18.7</v>
+      </c>
+      <c r="AP20">
+        <v>62.271000000000008</v>
+      </c>
+      <c r="AQ20">
+        <v>124.54200000000002</v>
+      </c>
+      <c r="AR20">
+        <v>190.65</v>
+      </c>
+      <c r="AS20">
+        <v>260.40000000000003</v>
+      </c>
+      <c r="AT20">
+        <v>330.15000000000003</v>
+      </c>
+      <c r="AU20">
+        <v>400</v>
+      </c>
     </row>
-    <row r="21" spans="2:38">
+    <row r="21" spans="2:47">
       <c r="B21" s="31" t="s">
         <v>62</v>
       </c>
@@ -7644,25 +7665,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>44.84412470023981</v>
+        <v>18.7</v>
       </c>
       <c r="H21" s="40">
-        <v>149.33093525179859</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="I21" s="40">
-        <v>298.66187050359719</v>
+        <v>124.54200000000002</v>
       </c>
       <c r="J21" s="40">
-        <v>457.19424460431657</v>
+        <v>190.65</v>
       </c>
       <c r="K21" s="40">
-        <v>624.46043165467631</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="L21" s="40">
-        <v>791.72661870503612</v>
+        <v>330.15000000000003</v>
       </c>
       <c r="M21" s="40">
-        <v>959.23261390887296</v>
+        <v>400</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7712,8 +7733,29 @@
       <c r="AL21">
         <v>959.23261390887296</v>
       </c>
+      <c r="AO21">
+        <v>18.7</v>
+      </c>
+      <c r="AP21">
+        <v>62.271000000000008</v>
+      </c>
+      <c r="AQ21">
+        <v>124.54200000000002</v>
+      </c>
+      <c r="AR21">
+        <v>190.65</v>
+      </c>
+      <c r="AS21">
+        <v>260.40000000000003</v>
+      </c>
+      <c r="AT21">
+        <v>330.15000000000003</v>
+      </c>
+      <c r="AU21">
+        <v>400</v>
+      </c>
     </row>
-    <row r="22" spans="2:38">
+    <row r="22" spans="2:47">
       <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
@@ -7730,25 +7772,25 @@
         <v>1</v>
       </c>
       <c r="G22" s="41">
-        <v>116.69266770670826</v>
+        <v>74.8</v>
       </c>
       <c r="H22" s="41">
-        <v>388.58658346333857</v>
+        <v>249.08400000000003</v>
       </c>
       <c r="I22" s="41">
-        <v>777.17316692667714</v>
+        <v>498.16800000000006</v>
       </c>
       <c r="J22" s="41">
-        <v>1189.7035881435258</v>
+        <v>762.6</v>
       </c>
       <c r="K22" s="41">
-        <v>1624.9609984399378</v>
+        <v>1041.6000000000001</v>
       </c>
       <c r="L22" s="41">
-        <v>2060.2184087363498</v>
+        <v>1320.6000000000001</v>
       </c>
       <c r="M22" s="41">
-        <v>2496.0998439937598</v>
+        <v>1600</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7798,8 +7840,29 @@
       <c r="AL22">
         <v>2496.0998439937598</v>
       </c>
+      <c r="AO22">
+        <v>74.8</v>
+      </c>
+      <c r="AP22">
+        <v>249.08400000000003</v>
+      </c>
+      <c r="AQ22">
+        <v>498.16800000000006</v>
+      </c>
+      <c r="AR22">
+        <v>762.6</v>
+      </c>
+      <c r="AS22">
+        <v>1041.6000000000001</v>
+      </c>
+      <c r="AT22">
+        <v>1320.6000000000001</v>
+      </c>
+      <c r="AU22">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="23" spans="2:38">
+    <row r="23" spans="2:47">
       <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
@@ -7816,25 +7879,25 @@
         <v>1</v>
       </c>
       <c r="G23" s="40">
-        <v>1.2695179904955873</v>
+        <v>0.374</v>
       </c>
       <c r="H23" s="40">
-        <v>4.2274949083503062</v>
+        <v>1.2454200000000002</v>
       </c>
       <c r="I23" s="40">
-        <v>8.4549898167006123</v>
+        <v>2.4908400000000004</v>
       </c>
       <c r="J23" s="40">
-        <v>12.942973523421591</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="K23" s="40">
-        <v>17.678207739307538</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="L23" s="40">
-        <v>22.413441955193484</v>
+        <v>6.6029999999999998</v>
       </c>
       <c r="M23" s="40">
-        <v>27.155465037338768</v>
+        <v>8</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7884,8 +7947,29 @@
       <c r="AL23">
         <v>27.155465037338768</v>
       </c>
+      <c r="AO23">
+        <v>0.374</v>
+      </c>
+      <c r="AP23">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="AQ23">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="AR23">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="AS23">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="AT23">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AU23">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="2:38">
+    <row r="24" spans="2:47">
       <c r="B24" s="31" t="s">
         <v>79</v>
       </c>
@@ -7902,25 +7986,25 @@
         <v>1</v>
       </c>
       <c r="G24" s="40">
-        <v>149.6</v>
+        <v>7.48</v>
       </c>
       <c r="H24" s="40">
-        <v>498.16800000000001</v>
+        <v>24.9084</v>
       </c>
       <c r="I24" s="40">
-        <v>996.33600000000001</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="J24" s="40">
-        <v>1525.2</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="K24" s="40">
-        <v>2083.1999999999998</v>
+        <v>104.16</v>
       </c>
       <c r="L24" s="40">
-        <v>2641.2</v>
+        <v>132.06</v>
       </c>
       <c r="M24" s="40">
-        <v>3200</v>
+        <v>160</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -7970,8 +8054,29 @@
       <c r="AL24">
         <v>3200</v>
       </c>
+      <c r="AO24">
+        <v>7.48</v>
+      </c>
+      <c r="AP24">
+        <v>24.9084</v>
+      </c>
+      <c r="AQ24">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="AR24">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="AS24">
+        <v>104.16</v>
+      </c>
+      <c r="AT24">
+        <v>132.06</v>
+      </c>
+      <c r="AU24">
+        <v>160</v>
+      </c>
     </row>
-    <row r="25" spans="2:38">
+    <row r="25" spans="2:47">
       <c r="B25" s="31" t="s">
         <v>80</v>
       </c>
@@ -7988,25 +8093,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>42.259887005649723</v>
+        <v>7.48</v>
       </c>
       <c r="H25" s="40">
-        <v>140.72542372881358</v>
+        <v>24.9084</v>
       </c>
       <c r="I25" s="40">
-        <v>281.45084745762716</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="J25" s="40">
-        <v>430.84745762711867</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="K25" s="40">
-        <v>588.47457627118649</v>
+        <v>104.16</v>
       </c>
       <c r="L25" s="40">
-        <v>746.10169491525426</v>
+        <v>132.06</v>
       </c>
       <c r="M25" s="40">
-        <v>903.95480225988706</v>
+        <v>160</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -8056,8 +8161,29 @@
       <c r="AL25">
         <v>903.95480225988706</v>
       </c>
+      <c r="AO25">
+        <v>7.48</v>
+      </c>
+      <c r="AP25">
+        <v>24.9084</v>
+      </c>
+      <c r="AQ25">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="AR25">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="AS25">
+        <v>104.16</v>
+      </c>
+      <c r="AT25">
+        <v>132.06</v>
+      </c>
+      <c r="AU25">
+        <v>160</v>
+      </c>
     </row>
-    <row r="26" spans="2:38">
+    <row r="26" spans="2:47">
       <c r="B26" s="31" t="s">
         <v>81</v>
       </c>
@@ -8074,25 +8200,25 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>59.935897435897431</v>
+        <v>18.7</v>
       </c>
       <c r="H26" s="40">
-        <v>199.58653846153848</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="I26" s="40">
-        <v>399.17307692307696</v>
+        <v>124.54200000000002</v>
       </c>
       <c r="J26" s="40">
-        <v>611.05769230769238</v>
+        <v>190.65</v>
       </c>
       <c r="K26" s="40">
-        <v>834.61538461538476</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="L26" s="40">
-        <v>1058.1730769230771</v>
+        <v>330.15000000000003</v>
       </c>
       <c r="M26" s="40">
-        <v>1282.051282051282</v>
+        <v>400</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -8142,8 +8268,29 @@
       <c r="AL26">
         <v>1282.051282051282</v>
       </c>
+      <c r="AO26">
+        <v>18.7</v>
+      </c>
+      <c r="AP26">
+        <v>62.271000000000008</v>
+      </c>
+      <c r="AQ26">
+        <v>124.54200000000002</v>
+      </c>
+      <c r="AR26">
+        <v>190.65</v>
+      </c>
+      <c r="AS26">
+        <v>260.40000000000003</v>
+      </c>
+      <c r="AT26">
+        <v>330.15000000000003</v>
+      </c>
+      <c r="AU26">
+        <v>400</v>
+      </c>
     </row>
-    <row r="27" spans="2:38">
+    <row r="27" spans="2:47">
       <c r="B27" s="31" t="s">
         <v>82</v>
       </c>
@@ -8160,25 +8307,25 @@
         <v>1</v>
       </c>
       <c r="G27" s="40">
-        <v>10.080862533692724</v>
+        <v>3.74</v>
       </c>
       <c r="H27" s="40">
-        <v>33.569272237196763</v>
+        <v>12.4542</v>
       </c>
       <c r="I27" s="40">
-        <v>67.138544474393527</v>
+        <v>24.9084</v>
       </c>
       <c r="J27" s="40">
-        <v>102.77628032345014</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="K27" s="40">
-        <v>140.37735849056602</v>
+        <v>52.08</v>
       </c>
       <c r="L27" s="40">
-        <v>177.97843665768195</v>
+        <v>66.03</v>
       </c>
       <c r="M27" s="40">
-        <v>215.63342318059298</v>
+        <v>80</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -8228,8 +8375,29 @@
       <c r="AL27">
         <v>215.63342318059298</v>
       </c>
+      <c r="AO27">
+        <v>3.74</v>
+      </c>
+      <c r="AP27">
+        <v>12.4542</v>
+      </c>
+      <c r="AQ27">
+        <v>24.9084</v>
+      </c>
+      <c r="AR27">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="AS27">
+        <v>52.08</v>
+      </c>
+      <c r="AT27">
+        <v>66.03</v>
+      </c>
+      <c r="AU27">
+        <v>80</v>
+      </c>
     </row>
-    <row r="28" spans="2:38">
+    <row r="28" spans="2:47">
       <c r="B28" s="31" t="s">
         <v>83</v>
       </c>
@@ -8246,25 +8414,25 @@
         <v>1</v>
       </c>
       <c r="G28" s="40">
-        <v>14.844923076923077</v>
+        <v>9.6492000000000004</v>
       </c>
       <c r="H28" s="40">
-        <v>49.433593846153848</v>
+        <v>32.131836</v>
       </c>
       <c r="I28" s="40">
-        <v>98.867187692307695</v>
+        <v>64.263672</v>
       </c>
       <c r="J28" s="40">
-        <v>151.34676923076921</v>
+        <v>98.375399999999999</v>
       </c>
       <c r="K28" s="40">
-        <v>206.71753846153845</v>
+        <v>134.3664</v>
       </c>
       <c r="L28" s="40">
-        <v>262.08830769230769</v>
+        <v>170.35740000000001</v>
       </c>
       <c r="M28" s="40">
-        <v>317.53846153846155</v>
+        <v>206.4</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -8314,8 +8482,29 @@
       <c r="AL28">
         <v>317.53846153846155</v>
       </c>
+      <c r="AO28">
+        <v>9.6492000000000004</v>
+      </c>
+      <c r="AP28">
+        <v>32.131836</v>
+      </c>
+      <c r="AQ28">
+        <v>64.263672</v>
+      </c>
+      <c r="AR28">
+        <v>98.375399999999999</v>
+      </c>
+      <c r="AS28">
+        <v>134.3664</v>
+      </c>
+      <c r="AT28">
+        <v>170.35740000000001</v>
+      </c>
+      <c r="AU28">
+        <v>206.4</v>
+      </c>
     </row>
-    <row r="29" spans="2:38">
+    <row r="29" spans="2:47">
       <c r="B29" s="31" t="s">
         <v>84</v>
       </c>
@@ -8332,25 +8521,25 @@
         <v>1</v>
       </c>
       <c r="G29" s="40">
-        <v>11.507692307692308</v>
+        <v>7.48</v>
       </c>
       <c r="H29" s="40">
-        <v>38.320615384615387</v>
+        <v>24.9084</v>
       </c>
       <c r="I29" s="40">
-        <v>76.641230769230773</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="J29" s="40">
-        <v>117.32307692307693</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="K29" s="40">
-        <v>160.24615384615385</v>
+        <v>104.16</v>
       </c>
       <c r="L29" s="40">
-        <v>203.16923076923078</v>
+        <v>132.06</v>
       </c>
       <c r="M29" s="40">
-        <v>246.15384615384613</v>
+        <v>160</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8400,8 +8589,29 @@
       <c r="AL29">
         <v>246.15384615384613</v>
       </c>
+      <c r="AO29">
+        <v>7.48</v>
+      </c>
+      <c r="AP29">
+        <v>24.9084</v>
+      </c>
+      <c r="AQ29">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="AR29">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="AS29">
+        <v>104.16</v>
+      </c>
+      <c r="AT29">
+        <v>132.06</v>
+      </c>
+      <c r="AU29">
+        <v>160</v>
+      </c>
     </row>
-    <row r="30" spans="2:38">
+    <row r="30" spans="2:47">
       <c r="B30" s="31" t="s">
         <v>85</v>
       </c>
@@ -8418,25 +8628,25 @@
         <v>1</v>
       </c>
       <c r="G30" s="40">
-        <v>1.6190476190476191</v>
+        <v>0.374</v>
       </c>
       <c r="H30" s="40">
-        <v>5.3914285714285723</v>
+        <v>1.2454200000000002</v>
       </c>
       <c r="I30" s="40">
-        <v>10.782857142857145</v>
+        <v>2.4908400000000004</v>
       </c>
       <c r="J30" s="40">
-        <v>16.506493506493506</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="K30" s="40">
-        <v>22.545454545454547</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="L30" s="40">
-        <v>28.584415584415581</v>
+        <v>6.6029999999999998</v>
       </c>
       <c r="M30" s="40">
-        <v>34.632034632034632</v>
+        <v>8</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8486,8 +8696,29 @@
       <c r="AL30">
         <v>34.632034632034632</v>
       </c>
+      <c r="AO30">
+        <v>0.374</v>
+      </c>
+      <c r="AP30">
+        <v>1.2454200000000002</v>
+      </c>
+      <c r="AQ30">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="AR30">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="AS30">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="AT30">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AU30">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="2:38">
+    <row r="31" spans="2:47">
       <c r="B31" s="31" t="s">
         <v>86</v>
       </c>
@@ -8504,25 +8735,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>25.704467353951895</v>
+        <v>7.48</v>
       </c>
       <c r="H31" s="40">
-        <v>85.595876288659795</v>
+        <v>24.9084</v>
       </c>
       <c r="I31" s="40">
-        <v>171.19175257731959</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="J31" s="40">
-        <v>262.06185567010311</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="K31" s="40">
-        <v>357.93814432989694</v>
+        <v>104.16</v>
       </c>
       <c r="L31" s="40">
-        <v>453.81443298969077</v>
+        <v>132.06</v>
       </c>
       <c r="M31" s="40">
-        <v>549.82817869415805</v>
+        <v>160</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8572,8 +8803,29 @@
       <c r="AL31">
         <v>549.82817869415805</v>
       </c>
+      <c r="AO31">
+        <v>7.48</v>
+      </c>
+      <c r="AP31">
+        <v>24.9084</v>
+      </c>
+      <c r="AQ31">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="AR31">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="AS31">
+        <v>104.16</v>
+      </c>
+      <c r="AT31">
+        <v>132.06</v>
+      </c>
+      <c r="AU31">
+        <v>160</v>
+      </c>
     </row>
-    <row r="32" spans="2:38">
+    <row r="32" spans="2:47">
       <c r="B32" s="31" t="s">
         <v>87</v>
       </c>
@@ -8590,25 +8842,25 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>42.259887005649723</v>
+        <v>7.48</v>
       </c>
       <c r="H32" s="40">
-        <v>140.72542372881358</v>
+        <v>24.9084</v>
       </c>
       <c r="I32" s="40">
-        <v>281.45084745762716</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="J32" s="40">
-        <v>430.84745762711867</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="K32" s="40">
-        <v>588.47457627118649</v>
+        <v>104.16</v>
       </c>
       <c r="L32" s="40">
-        <v>746.10169491525426</v>
+        <v>132.06</v>
       </c>
       <c r="M32" s="40">
-        <v>903.95480225988706</v>
+        <v>160</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8658,8 +8910,29 @@
       <c r="AL32">
         <v>903.95480225988706</v>
       </c>
+      <c r="AO32">
+        <v>7.48</v>
+      </c>
+      <c r="AP32">
+        <v>24.9084</v>
+      </c>
+      <c r="AQ32">
+        <v>49.816800000000001</v>
+      </c>
+      <c r="AR32">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="AS32">
+        <v>104.16</v>
+      </c>
+      <c r="AT32">
+        <v>132.06</v>
+      </c>
+      <c r="AU32">
+        <v>160</v>
+      </c>
     </row>
-    <row r="33" spans="2:38">
+    <row r="33" spans="2:47">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -8676,25 +8949,25 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>49.86666666666666</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="H33" s="40">
-        <v>166.05600000000001</v>
+        <v>37.3626</v>
       </c>
       <c r="I33" s="40">
-        <v>332.11200000000002</v>
+        <v>74.725200000000001</v>
       </c>
       <c r="J33" s="40">
-        <v>508.4</v>
+        <v>114.39</v>
       </c>
       <c r="K33" s="40">
-        <v>694.39999999999986</v>
+        <v>156.23999999999998</v>
       </c>
       <c r="L33" s="40">
-        <v>880.4</v>
+        <v>198.09</v>
       </c>
       <c r="M33" s="40">
-        <v>1066.6666666666667</v>
+        <v>240</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8744,8 +9017,29 @@
       <c r="AL33">
         <v>1066.6666666666667</v>
       </c>
+      <c r="AO33">
+        <v>11.219999999999999</v>
+      </c>
+      <c r="AP33">
+        <v>37.3626</v>
+      </c>
+      <c r="AQ33">
+        <v>74.725200000000001</v>
+      </c>
+      <c r="AR33">
+        <v>114.39</v>
+      </c>
+      <c r="AS33">
+        <v>156.23999999999998</v>
+      </c>
+      <c r="AT33">
+        <v>198.09</v>
+      </c>
+      <c r="AU33">
+        <v>240</v>
+      </c>
     </row>
-    <row r="34" spans="2:38">
+    <row r="34" spans="2:47">
       <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
@@ -8762,25 +9056,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>36.907894736842103</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="H34" s="40">
-        <v>122.90328947368421</v>
+        <v>37.3626</v>
       </c>
       <c r="I34" s="40">
-        <v>245.80657894736842</v>
+        <v>74.725200000000001</v>
       </c>
       <c r="J34" s="40">
-        <v>376.28289473684214</v>
+        <v>114.39</v>
       </c>
       <c r="K34" s="40">
-        <v>513.9473684210526</v>
+        <v>156.23999999999998</v>
       </c>
       <c r="L34" s="40">
-        <v>651.61184210526324</v>
+        <v>198.09</v>
       </c>
       <c r="M34" s="40">
-        <v>789.47368421052636</v>
+        <v>240</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -8830,8 +9124,29 @@
       <c r="AL34">
         <v>789.47368421052636</v>
       </c>
+      <c r="AO34">
+        <v>11.219999999999999</v>
+      </c>
+      <c r="AP34">
+        <v>37.3626</v>
+      </c>
+      <c r="AQ34">
+        <v>74.725200000000001</v>
+      </c>
+      <c r="AR34">
+        <v>114.39</v>
+      </c>
+      <c r="AS34">
+        <v>156.23999999999998</v>
+      </c>
+      <c r="AT34">
+        <v>198.09</v>
+      </c>
+      <c r="AU34">
+        <v>240</v>
+      </c>
     </row>
-    <row r="35" spans="2:38">
+    <row r="35" spans="2:47">
       <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
@@ -8848,25 +9163,25 @@
         <v>1</v>
       </c>
       <c r="G35" s="40">
-        <v>72.306666666666672</v>
+        <v>21.692</v>
       </c>
       <c r="H35" s="40">
-        <v>240.78119999999998</v>
+        <v>72.234359999999995</v>
       </c>
       <c r="I35" s="40">
-        <v>481.56239999999997</v>
+        <v>144.46871999999999</v>
       </c>
       <c r="J35" s="40">
-        <v>737.18000000000006</v>
+        <v>221.154</v>
       </c>
       <c r="K35" s="40">
-        <v>1006.8799999999999</v>
+        <v>302.06399999999996</v>
       </c>
       <c r="L35" s="40">
-        <v>1276.58</v>
+        <v>382.97399999999999</v>
       </c>
       <c r="M35" s="40">
-        <v>1546.6666666666665</v>
+        <v>463.99999999999994</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8916,8 +9231,29 @@
       <c r="AL35">
         <v>1546.6666666666665</v>
       </c>
+      <c r="AO35">
+        <v>21.692</v>
+      </c>
+      <c r="AP35">
+        <v>72.234359999999995</v>
+      </c>
+      <c r="AQ35">
+        <v>144.46871999999999</v>
+      </c>
+      <c r="AR35">
+        <v>221.154</v>
+      </c>
+      <c r="AS35">
+        <v>302.06399999999996</v>
+      </c>
+      <c r="AT35">
+        <v>382.97399999999999</v>
+      </c>
+      <c r="AU35">
+        <v>463.99999999999994</v>
+      </c>
     </row>
-    <row r="36" spans="2:38">
+    <row r="36" spans="2:47">
       <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
@@ -8934,25 +9270,25 @@
         <v>1</v>
       </c>
       <c r="G36" s="40">
-        <v>44.523809523809526</v>
+        <v>9.35</v>
       </c>
       <c r="H36" s="40">
-        <v>148.26428571428573</v>
+        <v>31.135500000000004</v>
       </c>
       <c r="I36" s="40">
-        <v>296.52857142857147</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="J36" s="40">
-        <v>453.92857142857144</v>
+        <v>95.325000000000003</v>
       </c>
       <c r="K36" s="40">
-        <v>620.00000000000011</v>
+        <v>130.20000000000002</v>
       </c>
       <c r="L36" s="40">
-        <v>786.07142857142867</v>
+        <v>165.07500000000002</v>
       </c>
       <c r="M36" s="40">
-        <v>952.38095238095241</v>
+        <v>200</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -9002,8 +9338,29 @@
       <c r="AL36">
         <v>952.38095238095241</v>
       </c>
+      <c r="AO36">
+        <v>9.35</v>
+      </c>
+      <c r="AP36">
+        <v>31.135500000000004</v>
+      </c>
+      <c r="AQ36">
+        <v>62.271000000000008</v>
+      </c>
+      <c r="AR36">
+        <v>95.325000000000003</v>
+      </c>
+      <c r="AS36">
+        <v>130.20000000000002</v>
+      </c>
+      <c r="AT36">
+        <v>165.07500000000002</v>
+      </c>
+      <c r="AU36">
+        <v>200</v>
+      </c>
     </row>
-    <row r="37" spans="2:38">
+    <row r="37" spans="2:47">
       <c r="B37" s="31" t="s">
         <v>92</v>
       </c>
@@ -9020,25 +9377,25 @@
         <v>1</v>
       </c>
       <c r="G37" s="40">
-        <v>0.26714285714285713</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="H37" s="40">
-        <v>0.88958571428571431</v>
+        <v>0.24908400000000003</v>
       </c>
       <c r="I37" s="40">
-        <v>1.7791714285714286</v>
+        <v>0.49816800000000006</v>
       </c>
       <c r="J37" s="40">
-        <v>2.7235714285714283</v>
+        <v>0.76260000000000006</v>
       </c>
       <c r="K37" s="40">
-        <v>3.7199999999999998</v>
+        <v>1.0416000000000001</v>
       </c>
       <c r="L37" s="40">
-        <v>4.7164285714285707</v>
+        <v>1.3206</v>
       </c>
       <c r="M37" s="40">
-        <v>5.7142857142857144</v>
+        <v>1.6</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -9088,8 +9445,29 @@
       <c r="AL37">
         <v>5.7142857142857144</v>
       </c>
+      <c r="AO37">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="AP37">
+        <v>0.24908400000000003</v>
+      </c>
+      <c r="AQ37">
+        <v>0.49816800000000006</v>
+      </c>
+      <c r="AR37">
+        <v>0.76260000000000006</v>
+      </c>
+      <c r="AS37">
+        <v>1.0416000000000001</v>
+      </c>
+      <c r="AT37">
+        <v>1.3206</v>
+      </c>
+      <c r="AU37">
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="38" spans="2:38">
+    <row r="38" spans="2:47">
       <c r="B38" s="31" t="s">
         <v>93</v>
       </c>
@@ -9106,25 +9484,25 @@
         <v>1</v>
       </c>
       <c r="G38" s="40">
-        <v>44.358139534883719</v>
+        <v>19.073999999999998</v>
       </c>
       <c r="H38" s="40">
-        <v>147.71260465116279</v>
+        <v>63.516419999999997</v>
       </c>
       <c r="I38" s="40">
-        <v>295.42520930232558</v>
+        <v>127.03283999999999</v>
       </c>
       <c r="J38" s="40">
-        <v>452.23953488372092</v>
+        <v>194.46299999999999</v>
       </c>
       <c r="K38" s="40">
-        <v>617.69302325581396</v>
+        <v>265.608</v>
       </c>
       <c r="L38" s="40">
-        <v>783.14651162790699</v>
+        <v>336.75299999999999</v>
       </c>
       <c r="M38" s="40">
-        <v>948.83720930232562</v>
+        <v>408</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -9174,8 +9552,29 @@
       <c r="AL38">
         <v>948.83720930232562</v>
       </c>
+      <c r="AO38">
+        <v>19.073999999999998</v>
+      </c>
+      <c r="AP38">
+        <v>63.516419999999997</v>
+      </c>
+      <c r="AQ38">
+        <v>127.03283999999999</v>
+      </c>
+      <c r="AR38">
+        <v>194.46299999999999</v>
+      </c>
+      <c r="AS38">
+        <v>265.608</v>
+      </c>
+      <c r="AT38">
+        <v>336.75299999999999</v>
+      </c>
+      <c r="AU38">
+        <v>408</v>
+      </c>
     </row>
-    <row r="39" spans="2:38">
+    <row r="39" spans="2:47">
       <c r="B39" s="31" t="s">
         <v>94</v>
       </c>
@@ -9192,25 +9591,25 @@
         <v>1</v>
       </c>
       <c r="G39" s="40">
-        <v>5.158620689655173</v>
+        <v>1.496</v>
       </c>
       <c r="H39" s="40">
-        <v>17.178206896551728</v>
+        <v>4.9816800000000008</v>
       </c>
       <c r="I39" s="42">
-        <v>34.356413793103457</v>
+        <v>9.9633600000000015</v>
       </c>
       <c r="J39" s="42">
-        <v>52.593103448275869</v>
+        <v>15.252000000000001</v>
       </c>
       <c r="K39" s="42">
-        <v>71.834482758620695</v>
+        <v>20.832000000000001</v>
       </c>
       <c r="L39" s="42">
-        <v>91.07586206896552</v>
+        <v>26.411999999999999</v>
       </c>
       <c r="M39" s="42">
-        <v>110.3448275862069</v>
+        <v>32</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -9260,8 +9659,29 @@
       <c r="AL39">
         <v>110.3448275862069</v>
       </c>
+      <c r="AO39">
+        <v>1.496</v>
+      </c>
+      <c r="AP39">
+        <v>4.9816800000000008</v>
+      </c>
+      <c r="AQ39">
+        <v>9.9633600000000015</v>
+      </c>
+      <c r="AR39">
+        <v>15.252000000000001</v>
+      </c>
+      <c r="AS39">
+        <v>20.832000000000001</v>
+      </c>
+      <c r="AT39">
+        <v>26.411999999999999</v>
+      </c>
+      <c r="AU39">
+        <v>32</v>
+      </c>
     </row>
-    <row r="40" spans="2:38">
+    <row r="40" spans="2:47">
       <c r="B40" s="31" t="s">
         <v>95</v>
       </c>
@@ -9278,25 +9698,25 @@
         <v>1</v>
       </c>
       <c r="G40" s="40">
-        <v>14.025</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="H40" s="40">
-        <v>46.703250000000004</v>
+        <v>7.4725200000000003</v>
       </c>
       <c r="I40" s="40">
-        <v>93.406500000000008</v>
+        <v>14.945040000000001</v>
       </c>
       <c r="J40" s="40">
-        <v>142.98750000000001</v>
+        <v>22.878</v>
       </c>
       <c r="K40" s="40">
-        <v>195.3</v>
+        <v>31.248000000000001</v>
       </c>
       <c r="L40" s="40">
-        <v>247.61250000000001</v>
+        <v>39.618000000000002</v>
       </c>
       <c r="M40" s="40">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -9346,8 +9766,29 @@
       <c r="AL40">
         <v>300</v>
       </c>
+      <c r="AO40">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="AP40">
+        <v>7.4725200000000003</v>
+      </c>
+      <c r="AQ40">
+        <v>14.945040000000001</v>
+      </c>
+      <c r="AR40">
+        <v>22.878</v>
+      </c>
+      <c r="AS40">
+        <v>31.248000000000001</v>
+      </c>
+      <c r="AT40">
+        <v>39.618000000000002</v>
+      </c>
+      <c r="AU40">
+        <v>48</v>
+      </c>
     </row>
-    <row r="41" spans="2:38">
+    <row r="41" spans="2:47">
       <c r="B41" s="31" t="s">
         <v>96</v>
       </c>
@@ -9364,25 +9805,25 @@
         <v>1</v>
       </c>
       <c r="G41" s="40">
-        <v>224.4</v>
+        <v>112.2</v>
       </c>
       <c r="H41" s="40">
+        <v>373.62600000000003</v>
+      </c>
+      <c r="I41" s="40">
         <v>747.25200000000007</v>
       </c>
-      <c r="I41" s="40">
-        <v>1494.5040000000001</v>
-      </c>
       <c r="J41" s="40">
-        <v>2287.7999999999997</v>
+        <v>1143.8999999999999</v>
       </c>
       <c r="K41" s="40">
-        <v>3124.7999999999997</v>
+        <v>1562.3999999999999</v>
       </c>
       <c r="L41" s="40">
-        <v>3961.7999999999997</v>
+        <v>1980.8999999999999</v>
       </c>
       <c r="M41" s="40">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -9432,8 +9873,29 @@
       <c r="AL41">
         <v>4800</v>
       </c>
+      <c r="AO41">
+        <v>112.2</v>
+      </c>
+      <c r="AP41">
+        <v>373.62600000000003</v>
+      </c>
+      <c r="AQ41">
+        <v>747.25200000000007</v>
+      </c>
+      <c r="AR41">
+        <v>1143.8999999999999</v>
+      </c>
+      <c r="AS41">
+        <v>1562.3999999999999</v>
+      </c>
+      <c r="AT41">
+        <v>1980.8999999999999</v>
+      </c>
+      <c r="AU41">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="42" spans="2:38">
+    <row r="42" spans="2:47">
       <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
@@ -9450,25 +9912,25 @@
         <v>1</v>
       </c>
       <c r="G42" s="40">
-        <v>3.4790697674418607</v>
+        <v>0.748</v>
       </c>
       <c r="H42" s="40">
-        <v>11.585302325581397</v>
+        <v>2.4908400000000004</v>
       </c>
       <c r="I42" s="40">
-        <v>23.170604651162794</v>
+        <v>4.9816800000000008</v>
       </c>
       <c r="J42" s="40">
-        <v>35.469767441860469</v>
+        <v>7.6260000000000003</v>
       </c>
       <c r="K42" s="40">
-        <v>48.446511627906979</v>
+        <v>10.416</v>
       </c>
       <c r="L42" s="40">
-        <v>61.423255813953489</v>
+        <v>13.206</v>
       </c>
       <c r="M42" s="40">
-        <v>74.418604651162795</v>
+        <v>16</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -9518,8 +9980,29 @@
       <c r="AL42">
         <v>74.418604651162795</v>
       </c>
+      <c r="AO42">
+        <v>0.748</v>
+      </c>
+      <c r="AP42">
+        <v>2.4908400000000004</v>
+      </c>
+      <c r="AQ42">
+        <v>4.9816800000000008</v>
+      </c>
+      <c r="AR42">
+        <v>7.6260000000000003</v>
+      </c>
+      <c r="AS42">
+        <v>10.416</v>
+      </c>
+      <c r="AT42">
+        <v>13.206</v>
+      </c>
+      <c r="AU42">
+        <v>16</v>
+      </c>
     </row>
-    <row r="43" spans="2:38">
+    <row r="43" spans="2:47">
       <c r="B43" s="31" t="s">
         <v>98</v>
       </c>
@@ -9536,25 +10019,25 @@
         <v>1</v>
       </c>
       <c r="G43" s="40">
-        <v>3.6606851549755306</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="H43" s="40">
-        <v>12.190081566068516</v>
+        <v>7.4725200000000003</v>
       </c>
       <c r="I43" s="40">
-        <v>24.380163132137032</v>
+        <v>14.945040000000001</v>
       </c>
       <c r="J43" s="40">
-        <v>37.321370309951064</v>
+        <v>22.878</v>
       </c>
       <c r="K43" s="40">
-        <v>50.97553017944535</v>
+        <v>31.248000000000001</v>
       </c>
       <c r="L43" s="40">
-        <v>64.629690048939651</v>
+        <v>39.618000000000002</v>
       </c>
       <c r="M43" s="40">
-        <v>78.303425774877653</v>
+        <v>48</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>
@@ -9604,15 +10087,36 @@
       <c r="AL43">
         <v>78.303425774877653</v>
       </c>
+      <c r="AO43">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="AP43">
+        <v>7.4725200000000003</v>
+      </c>
+      <c r="AQ43">
+        <v>14.945040000000001</v>
+      </c>
+      <c r="AR43">
+        <v>22.878</v>
+      </c>
+      <c r="AS43">
+        <v>31.248000000000001</v>
+      </c>
+      <c r="AT43">
+        <v>39.618000000000002</v>
+      </c>
+      <c r="AU43">
+        <v>48</v>
+      </c>
     </row>
-    <row r="44" spans="2:38">
+    <row r="44" spans="2:47">
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
     </row>
-    <row r="45" spans="2:38">
+    <row r="45" spans="2:47">
       <c r="B45" s="22"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -9631,7 +10135,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="48" spans="2:38">
+    <row r="48" spans="2:47">
       <c r="B48" s="31"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93547D49-74E2-4C3F-8CCD-DA3F8C5709CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF43042F-5297-4666-9ABA-BBFB806FDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7300,8 +7300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7558,25 +7558,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>18.7</v>
+        <v>22.439999999999998</v>
       </c>
       <c r="H20" s="40">
-        <v>62.271000000000008</v>
+        <v>74.725200000000001</v>
       </c>
       <c r="I20" s="40">
-        <v>124.54200000000002</v>
+        <v>149.4504</v>
       </c>
       <c r="J20" s="40">
-        <v>190.65</v>
+        <v>228.78</v>
       </c>
       <c r="K20" s="40">
-        <v>260.40000000000003</v>
+        <v>312.47999999999996</v>
       </c>
       <c r="L20" s="40">
-        <v>330.15000000000003</v>
+        <v>396.18</v>
       </c>
       <c r="M20" s="40">
-        <v>400</v>
+        <v>799.98</v>
       </c>
       <c r="N20" s="32">
         <v>5</v>
@@ -7606,25 +7606,25 @@
         <v>400</v>
       </c>
       <c r="AF20">
-        <v>99.468085106382972</v>
+        <v>22.439999999999998</v>
       </c>
       <c r="AG20">
-        <v>331.22872340425533</v>
+        <v>74.725200000000001</v>
       </c>
       <c r="AH20">
-        <v>662.45744680851067</v>
+        <v>149.4504</v>
       </c>
       <c r="AI20">
-        <v>1014.0957446808511</v>
+        <v>228.78</v>
       </c>
       <c r="AJ20">
-        <v>1385.1063829787236</v>
+        <v>312.47999999999996</v>
       </c>
       <c r="AK20">
-        <v>1756.117021276596</v>
+        <v>396.18</v>
       </c>
       <c r="AL20">
-        <v>2127.6595744680849</v>
+        <v>799.98</v>
       </c>
       <c r="AO20">
         <v>18.7</v>
@@ -7683,7 +7683,7 @@
         <v>330.15000000000003</v>
       </c>
       <c r="M21" s="40">
-        <v>400</v>
+        <v>666.65000000000009</v>
       </c>
       <c r="N21" s="32">
         <v>5</v>
@@ -7713,25 +7713,25 @@
         <v>400</v>
       </c>
       <c r="AF21">
-        <v>44.84412470023981</v>
+        <v>18.7</v>
       </c>
       <c r="AG21">
-        <v>149.33093525179859</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="AH21">
-        <v>298.66187050359719</v>
+        <v>124.54200000000002</v>
       </c>
       <c r="AI21">
-        <v>457.19424460431657</v>
+        <v>190.65</v>
       </c>
       <c r="AJ21">
-        <v>624.46043165467631</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="AK21">
-        <v>791.72661870503612</v>
+        <v>330.15000000000003</v>
       </c>
       <c r="AL21">
-        <v>959.23261390887296</v>
+        <v>666.65000000000009</v>
       </c>
       <c r="AO21">
         <v>18.7</v>
@@ -7790,7 +7790,7 @@
         <v>1320.6000000000001</v>
       </c>
       <c r="M22" s="41">
-        <v>1600</v>
+        <v>2666.6000000000004</v>
       </c>
       <c r="N22" s="32">
         <v>5</v>
@@ -7820,25 +7820,25 @@
         <v>1600</v>
       </c>
       <c r="AF22">
-        <v>116.69266770670826</v>
+        <v>74.8</v>
       </c>
       <c r="AG22">
-        <v>388.58658346333857</v>
+        <v>249.08400000000003</v>
       </c>
       <c r="AH22">
-        <v>777.17316692667714</v>
+        <v>498.16800000000006</v>
       </c>
       <c r="AI22">
-        <v>1189.7035881435258</v>
+        <v>762.6</v>
       </c>
       <c r="AJ22">
-        <v>1624.9609984399378</v>
+        <v>1041.6000000000001</v>
       </c>
       <c r="AK22">
-        <v>2060.2184087363498</v>
+        <v>1320.6000000000001</v>
       </c>
       <c r="AL22">
-        <v>2496.0998439937598</v>
+        <v>2666.6000000000004</v>
       </c>
       <c r="AO22">
         <v>74.8</v>
@@ -7897,7 +7897,7 @@
         <v>6.6029999999999998</v>
       </c>
       <c r="M23" s="40">
-        <v>8</v>
+        <v>13.333</v>
       </c>
       <c r="N23" s="32">
         <v>5</v>
@@ -7927,25 +7927,25 @@
         <v>8</v>
       </c>
       <c r="AF23">
-        <v>1.2695179904955873</v>
+        <v>0.374</v>
       </c>
       <c r="AG23">
-        <v>4.2274949083503062</v>
+        <v>1.2454200000000002</v>
       </c>
       <c r="AH23">
-        <v>8.4549898167006123</v>
+        <v>2.4908400000000004</v>
       </c>
       <c r="AI23">
-        <v>12.942973523421591</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="AJ23">
-        <v>17.678207739307538</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="AK23">
-        <v>22.413441955193484</v>
+        <v>6.6029999999999998</v>
       </c>
       <c r="AL23">
-        <v>27.155465037338768</v>
+        <v>13.333</v>
       </c>
       <c r="AO23">
         <v>0.374</v>
@@ -8004,7 +8004,7 @@
         <v>132.06</v>
       </c>
       <c r="M24" s="40">
-        <v>160</v>
+        <v>266.66000000000003</v>
       </c>
       <c r="N24" s="32">
         <v>5</v>
@@ -8034,25 +8034,25 @@
         <v>160</v>
       </c>
       <c r="AF24">
-        <v>149.6</v>
+        <v>7.48</v>
       </c>
       <c r="AG24">
-        <v>498.16800000000001</v>
+        <v>24.9084</v>
       </c>
       <c r="AH24">
-        <v>996.33600000000001</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="AI24">
-        <v>1525.2</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="AJ24">
-        <v>2083.1999999999998</v>
+        <v>104.16</v>
       </c>
       <c r="AK24">
-        <v>2641.2</v>
+        <v>132.06</v>
       </c>
       <c r="AL24">
-        <v>3200</v>
+        <v>266.66000000000003</v>
       </c>
       <c r="AO24">
         <v>7.48</v>
@@ -8111,7 +8111,7 @@
         <v>132.06</v>
       </c>
       <c r="M25" s="40">
-        <v>160</v>
+        <v>266.66000000000003</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
@@ -8141,25 +8141,25 @@
         <v>160</v>
       </c>
       <c r="AF25">
-        <v>42.259887005649723</v>
+        <v>7.48</v>
       </c>
       <c r="AG25">
-        <v>140.72542372881358</v>
+        <v>24.9084</v>
       </c>
       <c r="AH25">
-        <v>281.45084745762716</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="AI25">
-        <v>430.84745762711867</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="AJ25">
-        <v>588.47457627118649</v>
+        <v>104.16</v>
       </c>
       <c r="AK25">
-        <v>746.10169491525426</v>
+        <v>132.06</v>
       </c>
       <c r="AL25">
-        <v>903.95480225988706</v>
+        <v>266.66000000000003</v>
       </c>
       <c r="AO25">
         <v>7.48</v>
@@ -8218,7 +8218,7 @@
         <v>330.15000000000003</v>
       </c>
       <c r="M26" s="40">
-        <v>400</v>
+        <v>666.65000000000009</v>
       </c>
       <c r="N26" s="32">
         <v>5</v>
@@ -8248,25 +8248,25 @@
         <v>400</v>
       </c>
       <c r="AF26">
-        <v>59.935897435897431</v>
+        <v>18.7</v>
       </c>
       <c r="AG26">
-        <v>199.58653846153848</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="AH26">
-        <v>399.17307692307696</v>
+        <v>124.54200000000002</v>
       </c>
       <c r="AI26">
-        <v>611.05769230769238</v>
+        <v>190.65</v>
       </c>
       <c r="AJ26">
-        <v>834.61538461538476</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="AK26">
-        <v>1058.1730769230771</v>
+        <v>330.15000000000003</v>
       </c>
       <c r="AL26">
-        <v>1282.051282051282</v>
+        <v>666.65000000000009</v>
       </c>
       <c r="AO26">
         <v>18.7</v>
@@ -8325,7 +8325,7 @@
         <v>66.03</v>
       </c>
       <c r="M27" s="40">
-        <v>80</v>
+        <v>133.33000000000001</v>
       </c>
       <c r="N27" s="32">
         <v>5</v>
@@ -8355,25 +8355,25 @@
         <v>80</v>
       </c>
       <c r="AF27">
-        <v>10.080862533692724</v>
+        <v>3.74</v>
       </c>
       <c r="AG27">
-        <v>33.569272237196763</v>
+        <v>12.4542</v>
       </c>
       <c r="AH27">
-        <v>67.138544474393527</v>
+        <v>24.9084</v>
       </c>
       <c r="AI27">
-        <v>102.77628032345014</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="AJ27">
-        <v>140.37735849056602</v>
+        <v>52.08</v>
       </c>
       <c r="AK27">
-        <v>177.97843665768195</v>
+        <v>66.03</v>
       </c>
       <c r="AL27">
-        <v>215.63342318059298</v>
+        <v>133.33000000000001</v>
       </c>
       <c r="AO27">
         <v>3.74</v>
@@ -8432,7 +8432,7 @@
         <v>170.35740000000001</v>
       </c>
       <c r="M28" s="40">
-        <v>206.4</v>
+        <v>343.9914</v>
       </c>
       <c r="N28" s="32">
         <v>5</v>
@@ -8462,25 +8462,25 @@
         <v>206.4</v>
       </c>
       <c r="AF28">
-        <v>14.844923076923077</v>
+        <v>9.6492000000000004</v>
       </c>
       <c r="AG28">
-        <v>49.433593846153848</v>
+        <v>32.131836</v>
       </c>
       <c r="AH28">
-        <v>98.867187692307695</v>
+        <v>64.263672</v>
       </c>
       <c r="AI28">
-        <v>151.34676923076921</v>
+        <v>98.375399999999999</v>
       </c>
       <c r="AJ28">
-        <v>206.71753846153845</v>
+        <v>134.3664</v>
       </c>
       <c r="AK28">
-        <v>262.08830769230769</v>
+        <v>170.35740000000001</v>
       </c>
       <c r="AL28">
-        <v>317.53846153846155</v>
+        <v>343.9914</v>
       </c>
       <c r="AO28">
         <v>9.6492000000000004</v>
@@ -8521,25 +8521,25 @@
         <v>1</v>
       </c>
       <c r="G29" s="40">
-        <v>7.48</v>
+        <v>3.74</v>
       </c>
       <c r="H29" s="40">
+        <v>12.4542</v>
+      </c>
+      <c r="I29" s="40">
         <v>24.9084</v>
       </c>
-      <c r="I29" s="40">
-        <v>49.816800000000001</v>
-      </c>
       <c r="J29" s="40">
-        <v>76.260000000000005</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="K29" s="40">
-        <v>104.16</v>
+        <v>52.08</v>
       </c>
       <c r="L29" s="40">
-        <v>132.06</v>
+        <v>66.03</v>
       </c>
       <c r="M29" s="40">
-        <v>160</v>
+        <v>133.33000000000001</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -8569,25 +8569,25 @@
         <v>160</v>
       </c>
       <c r="AF29">
-        <v>11.507692307692308</v>
+        <v>3.74</v>
       </c>
       <c r="AG29">
-        <v>38.320615384615387</v>
+        <v>12.4542</v>
       </c>
       <c r="AH29">
-        <v>76.641230769230773</v>
+        <v>24.9084</v>
       </c>
       <c r="AI29">
-        <v>117.32307692307693</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="AJ29">
-        <v>160.24615384615385</v>
+        <v>52.08</v>
       </c>
       <c r="AK29">
-        <v>203.16923076923078</v>
+        <v>66.03</v>
       </c>
       <c r="AL29">
-        <v>246.15384615384613</v>
+        <v>133.33000000000001</v>
       </c>
       <c r="AO29">
         <v>7.48</v>
@@ -8646,7 +8646,7 @@
         <v>6.6029999999999998</v>
       </c>
       <c r="M30" s="40">
-        <v>8</v>
+        <v>13.333</v>
       </c>
       <c r="N30" s="32">
         <v>5</v>
@@ -8676,25 +8676,25 @@
         <v>8</v>
       </c>
       <c r="AF30">
-        <v>1.6190476190476191</v>
+        <v>0.374</v>
       </c>
       <c r="AG30">
-        <v>5.3914285714285723</v>
+        <v>1.2454200000000002</v>
       </c>
       <c r="AH30">
-        <v>10.782857142857145</v>
+        <v>2.4908400000000004</v>
       </c>
       <c r="AI30">
-        <v>16.506493506493506</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="AJ30">
-        <v>22.545454545454547</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="AK30">
-        <v>28.584415584415581</v>
+        <v>6.6029999999999998</v>
       </c>
       <c r="AL30">
-        <v>34.632034632034632</v>
+        <v>13.333</v>
       </c>
       <c r="AO30">
         <v>0.374</v>
@@ -8753,7 +8753,7 @@
         <v>132.06</v>
       </c>
       <c r="M31" s="40">
-        <v>160</v>
+        <v>266.66000000000003</v>
       </c>
       <c r="N31" s="32">
         <v>5</v>
@@ -8783,25 +8783,25 @@
         <v>160</v>
       </c>
       <c r="AF31">
-        <v>25.704467353951895</v>
+        <v>7.48</v>
       </c>
       <c r="AG31">
-        <v>85.595876288659795</v>
+        <v>24.9084</v>
       </c>
       <c r="AH31">
-        <v>171.19175257731959</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="AI31">
-        <v>262.06185567010311</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="AJ31">
-        <v>357.93814432989694</v>
+        <v>104.16</v>
       </c>
       <c r="AK31">
-        <v>453.81443298969077</v>
+        <v>132.06</v>
       </c>
       <c r="AL31">
-        <v>549.82817869415805</v>
+        <v>266.66000000000003</v>
       </c>
       <c r="AO31">
         <v>7.48</v>
@@ -8860,7 +8860,7 @@
         <v>132.06</v>
       </c>
       <c r="M32" s="40">
-        <v>160</v>
+        <v>266.66000000000003</v>
       </c>
       <c r="N32" s="32">
         <v>5</v>
@@ -8890,25 +8890,25 @@
         <v>160</v>
       </c>
       <c r="AF32">
-        <v>42.259887005649723</v>
+        <v>7.48</v>
       </c>
       <c r="AG32">
-        <v>140.72542372881358</v>
+        <v>24.9084</v>
       </c>
       <c r="AH32">
-        <v>281.45084745762716</v>
+        <v>49.816800000000001</v>
       </c>
       <c r="AI32">
-        <v>430.84745762711867</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="AJ32">
-        <v>588.47457627118649</v>
+        <v>104.16</v>
       </c>
       <c r="AK32">
-        <v>746.10169491525426</v>
+        <v>132.06</v>
       </c>
       <c r="AL32">
-        <v>903.95480225988706</v>
+        <v>266.66000000000003</v>
       </c>
       <c r="AO32">
         <v>7.48</v>
@@ -8967,7 +8967,7 @@
         <v>198.09</v>
       </c>
       <c r="M33" s="40">
-        <v>240</v>
+        <v>399.99</v>
       </c>
       <c r="N33" s="32">
         <v>5</v>
@@ -8997,25 +8997,25 @@
         <v>240</v>
       </c>
       <c r="AF33">
-        <v>49.86666666666666</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="AG33">
-        <v>166.05600000000001</v>
+        <v>37.3626</v>
       </c>
       <c r="AH33">
-        <v>332.11200000000002</v>
+        <v>74.725200000000001</v>
       </c>
       <c r="AI33">
-        <v>508.4</v>
+        <v>114.39</v>
       </c>
       <c r="AJ33">
-        <v>694.39999999999986</v>
+        <v>156.23999999999998</v>
       </c>
       <c r="AK33">
-        <v>880.4</v>
+        <v>198.09</v>
       </c>
       <c r="AL33">
-        <v>1066.6666666666667</v>
+        <v>399.99</v>
       </c>
       <c r="AO33">
         <v>11.219999999999999</v>
@@ -9074,7 +9074,7 @@
         <v>198.09</v>
       </c>
       <c r="M34" s="40">
-        <v>240</v>
+        <v>399.99</v>
       </c>
       <c r="N34" s="32">
         <v>5</v>
@@ -9104,25 +9104,25 @@
         <v>240</v>
       </c>
       <c r="AF34">
-        <v>36.907894736842103</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="AG34">
-        <v>122.90328947368421</v>
+        <v>37.3626</v>
       </c>
       <c r="AH34">
-        <v>245.80657894736842</v>
+        <v>74.725200000000001</v>
       </c>
       <c r="AI34">
-        <v>376.28289473684214</v>
+        <v>114.39</v>
       </c>
       <c r="AJ34">
-        <v>513.9473684210526</v>
+        <v>156.23999999999998</v>
       </c>
       <c r="AK34">
-        <v>651.61184210526324</v>
+        <v>198.09</v>
       </c>
       <c r="AL34">
-        <v>789.47368421052636</v>
+        <v>399.99</v>
       </c>
       <c r="AO34">
         <v>11.219999999999999</v>
@@ -9181,7 +9181,7 @@
         <v>382.97399999999999</v>
       </c>
       <c r="M35" s="40">
-        <v>463.99999999999994</v>
+        <v>773.31399999999996</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -9211,25 +9211,25 @@
         <v>463.99999999999994</v>
       </c>
       <c r="AF35">
-        <v>72.306666666666672</v>
+        <v>21.692</v>
       </c>
       <c r="AG35">
-        <v>240.78119999999998</v>
+        <v>72.234359999999995</v>
       </c>
       <c r="AH35">
-        <v>481.56239999999997</v>
+        <v>144.46871999999999</v>
       </c>
       <c r="AI35">
-        <v>737.18000000000006</v>
+        <v>221.154</v>
       </c>
       <c r="AJ35">
-        <v>1006.8799999999999</v>
+        <v>302.06399999999996</v>
       </c>
       <c r="AK35">
-        <v>1276.58</v>
+        <v>382.97399999999999</v>
       </c>
       <c r="AL35">
-        <v>1546.6666666666665</v>
+        <v>773.31399999999996</v>
       </c>
       <c r="AO35">
         <v>21.692</v>
@@ -9288,7 +9288,7 @@
         <v>165.07500000000002</v>
       </c>
       <c r="M36" s="40">
-        <v>200</v>
+        <v>333.32500000000005</v>
       </c>
       <c r="N36" s="32">
         <v>5</v>
@@ -9318,25 +9318,25 @@
         <v>200</v>
       </c>
       <c r="AF36">
-        <v>44.523809523809526</v>
+        <v>9.35</v>
       </c>
       <c r="AG36">
-        <v>148.26428571428573</v>
+        <v>31.135500000000004</v>
       </c>
       <c r="AH36">
-        <v>296.52857142857147</v>
+        <v>62.271000000000008</v>
       </c>
       <c r="AI36">
-        <v>453.92857142857144</v>
+        <v>95.325000000000003</v>
       </c>
       <c r="AJ36">
-        <v>620.00000000000011</v>
+        <v>130.20000000000002</v>
       </c>
       <c r="AK36">
-        <v>786.07142857142867</v>
+        <v>165.07500000000002</v>
       </c>
       <c r="AL36">
-        <v>952.38095238095241</v>
+        <v>333.32500000000005</v>
       </c>
       <c r="AO36">
         <v>9.35</v>
@@ -9395,7 +9395,7 @@
         <v>1.3206</v>
       </c>
       <c r="M37" s="40">
-        <v>1.6</v>
+        <v>2.6666000000000003</v>
       </c>
       <c r="N37" s="32">
         <v>5</v>
@@ -9425,25 +9425,25 @@
         <v>1.6</v>
       </c>
       <c r="AF37">
-        <v>0.26714285714285713</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="AG37">
-        <v>0.88958571428571431</v>
+        <v>0.24908400000000003</v>
       </c>
       <c r="AH37">
-        <v>1.7791714285714286</v>
+        <v>0.49816800000000006</v>
       </c>
       <c r="AI37">
-        <v>2.7235714285714283</v>
+        <v>0.76260000000000006</v>
       </c>
       <c r="AJ37">
-        <v>3.7199999999999998</v>
+        <v>1.0416000000000001</v>
       </c>
       <c r="AK37">
-        <v>4.7164285714285707</v>
+        <v>1.3206</v>
       </c>
       <c r="AL37">
-        <v>5.7142857142857144</v>
+        <v>2.6666000000000003</v>
       </c>
       <c r="AO37">
         <v>7.4800000000000005E-2</v>
@@ -9502,7 +9502,7 @@
         <v>336.75299999999999</v>
       </c>
       <c r="M38" s="40">
-        <v>408</v>
+        <v>679.98299999999995</v>
       </c>
       <c r="N38" s="32">
         <v>5</v>
@@ -9532,25 +9532,25 @@
         <v>408</v>
       </c>
       <c r="AF38">
-        <v>44.358139534883719</v>
+        <v>19.073999999999998</v>
       </c>
       <c r="AG38">
-        <v>147.71260465116279</v>
+        <v>63.516419999999997</v>
       </c>
       <c r="AH38">
-        <v>295.42520930232558</v>
+        <v>127.03283999999999</v>
       </c>
       <c r="AI38">
-        <v>452.23953488372092</v>
+        <v>194.46299999999999</v>
       </c>
       <c r="AJ38">
-        <v>617.69302325581396</v>
+        <v>265.608</v>
       </c>
       <c r="AK38">
-        <v>783.14651162790699</v>
+        <v>336.75299999999999</v>
       </c>
       <c r="AL38">
-        <v>948.83720930232562</v>
+        <v>679.98299999999995</v>
       </c>
       <c r="AO38">
         <v>19.073999999999998</v>
@@ -9609,7 +9609,7 @@
         <v>26.411999999999999</v>
       </c>
       <c r="M39" s="42">
-        <v>32</v>
+        <v>53.332000000000001</v>
       </c>
       <c r="N39" s="32">
         <v>5</v>
@@ -9639,25 +9639,25 @@
         <v>32</v>
       </c>
       <c r="AF39">
-        <v>5.158620689655173</v>
+        <v>1.496</v>
       </c>
       <c r="AG39">
-        <v>17.178206896551728</v>
+        <v>4.9816800000000008</v>
       </c>
       <c r="AH39">
-        <v>34.356413793103457</v>
+        <v>9.9633600000000015</v>
       </c>
       <c r="AI39">
-        <v>52.593103448275869</v>
+        <v>15.252000000000001</v>
       </c>
       <c r="AJ39">
-        <v>71.834482758620695</v>
+        <v>20.832000000000001</v>
       </c>
       <c r="AK39">
-        <v>91.07586206896552</v>
+        <v>26.411999999999999</v>
       </c>
       <c r="AL39">
-        <v>110.3448275862069</v>
+        <v>53.332000000000001</v>
       </c>
       <c r="AO39">
         <v>1.496</v>
@@ -9716,7 +9716,7 @@
         <v>39.618000000000002</v>
       </c>
       <c r="M40" s="40">
-        <v>48</v>
+        <v>79.998000000000005</v>
       </c>
       <c r="N40" s="32">
         <v>5</v>
@@ -9746,25 +9746,25 @@
         <v>48</v>
       </c>
       <c r="AF40">
-        <v>14.025</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="AG40">
-        <v>46.703250000000004</v>
+        <v>7.4725200000000003</v>
       </c>
       <c r="AH40">
-        <v>93.406500000000008</v>
+        <v>14.945040000000001</v>
       </c>
       <c r="AI40">
-        <v>142.98750000000001</v>
+        <v>22.878</v>
       </c>
       <c r="AJ40">
-        <v>195.3</v>
+        <v>31.248000000000001</v>
       </c>
       <c r="AK40">
-        <v>247.61250000000001</v>
+        <v>39.618000000000002</v>
       </c>
       <c r="AL40">
-        <v>300</v>
+        <v>79.998000000000005</v>
       </c>
       <c r="AO40">
         <v>2.2440000000000002</v>
@@ -9823,7 +9823,7 @@
         <v>1980.8999999999999</v>
       </c>
       <c r="M41" s="40">
-        <v>2400</v>
+        <v>3999.8999999999996</v>
       </c>
       <c r="N41" s="32">
         <v>5</v>
@@ -9853,25 +9853,25 @@
         <v>2400</v>
       </c>
       <c r="AF41">
-        <v>224.4</v>
+        <v>112.2</v>
       </c>
       <c r="AG41">
+        <v>373.62600000000003</v>
+      </c>
+      <c r="AH41">
         <v>747.25200000000007</v>
       </c>
-      <c r="AH41">
-        <v>1494.5040000000001</v>
-      </c>
       <c r="AI41">
-        <v>2287.7999999999997</v>
+        <v>1143.8999999999999</v>
       </c>
       <c r="AJ41">
-        <v>3124.7999999999997</v>
+        <v>1562.3999999999999</v>
       </c>
       <c r="AK41">
-        <v>3961.7999999999997</v>
+        <v>1980.8999999999999</v>
       </c>
       <c r="AL41">
-        <v>4800</v>
+        <v>3999.8999999999996</v>
       </c>
       <c r="AO41">
         <v>112.2</v>
@@ -9930,7 +9930,7 @@
         <v>13.206</v>
       </c>
       <c r="M42" s="40">
-        <v>16</v>
+        <v>26.666</v>
       </c>
       <c r="N42" s="32">
         <v>5</v>
@@ -9960,25 +9960,25 @@
         <v>16</v>
       </c>
       <c r="AF42">
-        <v>3.4790697674418607</v>
+        <v>0.748</v>
       </c>
       <c r="AG42">
-        <v>11.585302325581397</v>
+        <v>2.4908400000000004</v>
       </c>
       <c r="AH42">
-        <v>23.170604651162794</v>
+        <v>4.9816800000000008</v>
       </c>
       <c r="AI42">
-        <v>35.469767441860469</v>
+        <v>7.6260000000000003</v>
       </c>
       <c r="AJ42">
-        <v>48.446511627906979</v>
+        <v>10.416</v>
       </c>
       <c r="AK42">
-        <v>61.423255813953489</v>
+        <v>13.206</v>
       </c>
       <c r="AL42">
-        <v>74.418604651162795</v>
+        <v>26.666</v>
       </c>
       <c r="AO42">
         <v>0.748</v>
@@ -10037,7 +10037,7 @@
         <v>39.618000000000002</v>
       </c>
       <c r="M43" s="40">
-        <v>48</v>
+        <v>79.998000000000005</v>
       </c>
       <c r="N43" s="32">
         <v>5</v>
@@ -10067,25 +10067,25 @@
         <v>48</v>
       </c>
       <c r="AF43">
-        <v>3.6606851549755306</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="AG43">
-        <v>12.190081566068516</v>
+        <v>7.4725200000000003</v>
       </c>
       <c r="AH43">
-        <v>24.380163132137032</v>
+        <v>14.945040000000001</v>
       </c>
       <c r="AI43">
-        <v>37.321370309951064</v>
+        <v>22.878</v>
       </c>
       <c r="AJ43">
-        <v>50.97553017944535</v>
+        <v>31.248000000000001</v>
       </c>
       <c r="AK43">
-        <v>64.629690048939651</v>
+        <v>39.618000000000002</v>
       </c>
       <c r="AL43">
-        <v>78.303425774877653</v>
+        <v>79.998000000000005</v>
       </c>
       <c r="AO43">
         <v>2.2440000000000002</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF43042F-5297-4666-9ABA-BBFB806FDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D9103B-84B7-400D-A714-5C36934E09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7301,7 +7301,7 @@
   <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:M43"/>
+      <selection activeCell="G20" sqref="G20:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7558,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>22.439999999999998</v>
+        <v>18.282248778272553</v>
       </c>
       <c r="H20" s="40">
         <v>74.725200000000001</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>18.7</v>
+        <v>18.282248778272553</v>
       </c>
       <c r="H21" s="40">
         <v>62.271000000000008</v>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="41">
-        <v>74.8</v>
+        <v>76.236705805118319</v>
       </c>
       <c r="H22" s="41">
         <v>249.08400000000003</v>
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="40">
-        <v>0.374</v>
+        <v>1.5738546012619758</v>
       </c>
       <c r="H23" s="40">
         <v>1.2454200000000002</v>
@@ -7986,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="40">
-        <v>7.48</v>
+        <v>18.282248778272553</v>
       </c>
       <c r="H24" s="40">
         <v>24.9084</v>
@@ -8093,7 +8093,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>7.48</v>
+        <v>18.282248778272553</v>
       </c>
       <c r="H25" s="40">
         <v>24.9084</v>
@@ -8200,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>18.7</v>
+        <v>18.282248778272553</v>
       </c>
       <c r="H26" s="40">
         <v>62.271000000000008</v>
@@ -8307,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="40">
-        <v>3.74</v>
+        <v>13.699805493932933</v>
       </c>
       <c r="H27" s="40">
         <v>12.4542</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="40">
-        <v>9.6492000000000004</v>
+        <v>13.815671445106744</v>
       </c>
       <c r="H28" s="40">
         <v>32.131836</v>
@@ -8521,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="40">
-        <v>3.74</v>
+        <v>13.887320684963544</v>
       </c>
       <c r="H29" s="40">
         <v>12.4542</v>
@@ -8628,7 +8628,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="40">
-        <v>0.374</v>
+        <v>13.887320684963544</v>
       </c>
       <c r="H30" s="40">
         <v>1.2454200000000002</v>
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>7.48</v>
+        <v>3.3693336940395748</v>
       </c>
       <c r="H31" s="40">
         <v>24.9084</v>
@@ -8842,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>7.48</v>
+        <v>1.9969652602190335</v>
       </c>
       <c r="H32" s="40">
         <v>24.9084</v>
@@ -8949,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>11.219999999999999</v>
+        <v>13.887320684963544</v>
       </c>
       <c r="H33" s="40">
         <v>37.3626</v>
@@ -9056,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>11.219999999999999</v>
+        <v>13.887320684963544</v>
       </c>
       <c r="H34" s="40">
         <v>37.3626</v>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="40">
-        <v>21.692</v>
+        <v>13.402910169100082</v>
       </c>
       <c r="H35" s="40">
         <v>72.234359999999995</v>
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="40">
-        <v>9.35</v>
+        <v>12.312212634230093</v>
       </c>
       <c r="H36" s="40">
         <v>31.135500000000004</v>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="40">
-        <v>7.4800000000000005E-2</v>
+        <v>12.312212634230093</v>
       </c>
       <c r="H37" s="40">
         <v>0.24908400000000003</v>
@@ -9484,7 +9484,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="40">
-        <v>19.073999999999998</v>
+        <v>12.312212634230093</v>
       </c>
       <c r="H38" s="40">
         <v>63.516419999999997</v>
@@ -9591,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="40">
-        <v>1.496</v>
+        <v>12.312212634230093</v>
       </c>
       <c r="H39" s="40">
         <v>4.9816800000000008</v>
@@ -9698,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="40">
-        <v>2.2440000000000002</v>
+        <v>12.312212634230093</v>
       </c>
       <c r="H40" s="40">
         <v>7.4725200000000003</v>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="40">
-        <v>112.2</v>
+        <v>16.758738460393619</v>
       </c>
       <c r="H41" s="40">
         <v>373.62600000000003</v>
@@ -9912,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="40">
-        <v>0.748</v>
+        <v>12.312212634230093</v>
       </c>
       <c r="H42" s="40">
         <v>2.4908400000000004</v>
@@ -10019,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="40">
-        <v>2.2440000000000002</v>
+        <v>12.312212634230093</v>
       </c>
       <c r="H43" s="40">
         <v>7.4725200000000003</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D9103B-84B7-400D-A714-5C36934E09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7BD90-97A1-4FAF-84B4-4F09DF5D3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7301,7 +7301,7 @@
   <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G43"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="40">
-        <v>12.312212634230093</v>
+        <v>6.1561063171150545</v>
       </c>
       <c r="H37" s="40">
         <v>0.24908400000000003</v>
@@ -9591,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="40">
-        <v>12.312212634230093</v>
+        <v>12.312212634230109</v>
       </c>
       <c r="H39" s="40">
         <v>4.9816800000000008</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7BD90-97A1-4FAF-84B4-4F09DF5D3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF776F6-67D2-409B-87B0-168796B74550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7301,7 +7301,7 @@
   <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9799,7 +9799,7 @@
         <v>56</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F41" s="32">
         <v>1</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF776F6-67D2-409B-87B0-168796B74550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EF69A-494F-4C9E-88ED-C6021FEC5072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9440" yWindow="170" windowWidth="12280" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPD" sheetId="11" r:id="rId1"/>
@@ -7300,8 +7300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="41">
-        <v>76.236705805118319</v>
+        <v>612</v>
       </c>
       <c r="H22" s="41">
         <v>249.08400000000003</v>
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>3.3693336940395748</v>
+        <v>8</v>
       </c>
       <c r="H31" s="40">
         <v>24.9084</v>
@@ -8949,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>13.887320684963544</v>
+        <v>24</v>
       </c>
       <c r="H33" s="40">
         <v>37.3626</v>
@@ -9056,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>13.887320684963544</v>
+        <v>24</v>
       </c>
       <c r="H34" s="40">
         <v>37.3626</v>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="40">
-        <v>16.758738460393619</v>
+        <v>46</v>
       </c>
       <c r="H41" s="40">
         <v>373.62600000000003</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EF69A-494F-4C9E-88ED-C6021FEC5072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2EB966-CE79-4DBB-961B-1AE948E980D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="170" windowWidth="12280" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPD" sheetId="11" r:id="rId1"/>
@@ -7300,7 +7300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="G20" sqref="G20:G43"/>
     </sheetView>
   </sheetViews>
@@ -7558,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>18.282248778272553</v>
+        <v>0.64333259328333325</v>
       </c>
       <c r="H20" s="40">
         <v>74.725200000000001</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>18.282248778272553</v>
+        <v>1.4269664436124998</v>
       </c>
       <c r="H21" s="40">
         <v>62.271000000000008</v>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="41">
-        <v>612</v>
+        <v>200</v>
       </c>
       <c r="H22" s="41">
         <v>249.08400000000003</v>
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="40">
-        <v>1.5738546012619758</v>
+        <v>1.4814750100339</v>
       </c>
       <c r="H23" s="40">
         <v>1.2454200000000002</v>
@@ -7986,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="40">
-        <v>18.282248778272553</v>
+        <v>0.17109909395833334</v>
       </c>
       <c r="H24" s="40">
         <v>24.9084</v>
@@ -8093,7 +8093,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>18.282248778272553</v>
+        <v>0.60569079261249992</v>
       </c>
       <c r="H25" s="40">
         <v>24.9084</v>
@@ -8200,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>18.282248778272553</v>
+        <v>1.0676583462999998</v>
       </c>
       <c r="H26" s="40">
         <v>62.271000000000008</v>
@@ -8307,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="40">
-        <v>13.699805493932933</v>
+        <v>1.2695552771708332</v>
       </c>
       <c r="H27" s="40">
         <v>12.4542</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="40">
-        <v>13.815671445106744</v>
+        <v>2.5715255799999999</v>
       </c>
       <c r="H28" s="40">
         <v>32.131836</v>
@@ -8521,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="40">
-        <v>13.887320684963544</v>
+        <v>3.48281297065</v>
       </c>
       <c r="H29" s="40">
         <v>12.4542</v>
@@ -8628,7 +8628,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="40">
-        <v>13.887320684963544</v>
+        <v>1.2377381480309999</v>
       </c>
       <c r="H30" s="40">
         <v>1.2454200000000002</v>
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="40">
-        <v>8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H31" s="40">
         <v>24.9084</v>
@@ -8842,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>1.9969652602190335</v>
+        <v>0.47666488780499994</v>
       </c>
       <c r="H32" s="40">
         <v>24.9084</v>
@@ -8949,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>24</v>
+        <v>1.2055891052249998</v>
       </c>
       <c r="H33" s="40">
         <v>37.3626</v>
@@ -9056,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="40">
-        <v>24</v>
+        <v>1.6288848355039998</v>
       </c>
       <c r="H34" s="40">
         <v>37.3626</v>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="40">
-        <v>13.402910169100082</v>
+        <v>12</v>
       </c>
       <c r="H35" s="40">
         <v>72.234359999999995</v>
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="40">
-        <v>12.312212634230093</v>
+        <v>11.920999176088335</v>
       </c>
       <c r="H36" s="40">
         <v>31.135500000000004</v>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="40">
-        <v>6.1561063171150545</v>
+        <v>15.894665568117782</v>
       </c>
       <c r="H37" s="40">
         <v>0.24908400000000003</v>
@@ -9484,7 +9484,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="40">
-        <v>12.312212634230093</v>
+        <v>22</v>
       </c>
       <c r="H38" s="40">
         <v>63.516419999999997</v>
@@ -9591,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="40">
-        <v>12.312212634230109</v>
+        <v>16.462332195550555</v>
       </c>
       <c r="H39" s="40">
         <v>4.9816800000000008</v>
@@ -9698,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="40">
-        <v>12.312212634230093</v>
+        <v>9.0826660389244456</v>
       </c>
       <c r="H40" s="40">
         <v>7.4725200000000003</v>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="40">
-        <v>46</v>
+        <v>20.501143007500001</v>
       </c>
       <c r="H41" s="40">
         <v>373.62600000000003</v>
@@ -9912,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="40">
-        <v>12.312212634230093</v>
+        <v>9</v>
       </c>
       <c r="H42" s="40">
         <v>2.4908400000000004</v>
@@ -10019,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="40">
-        <v>12.312212634230093</v>
+        <v>31.034304417380778</v>
       </c>
       <c r="H43" s="40">
         <v>7.4725200000000003</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2EB966-CE79-4DBB-961B-1AE948E980D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D07C0D6-BC84-4C87-BAE4-B5011FF08AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7301,7 +7301,7 @@
   <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G43"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7561,7 +7561,7 @@
         <v>0.64333259328333325</v>
       </c>
       <c r="H20" s="40">
-        <v>74.725200000000001</v>
+        <v>1.2866651865666665</v>
       </c>
       <c r="I20" s="40">
         <v>149.4504</v>
@@ -7668,7 +7668,7 @@
         <v>1.4269664436124998</v>
       </c>
       <c r="H21" s="40">
-        <v>62.271000000000008</v>
+        <v>2.8539328872249996</v>
       </c>
       <c r="I21" s="40">
         <v>124.54200000000002</v>
@@ -7775,7 +7775,7 @@
         <v>200</v>
       </c>
       <c r="H22" s="41">
-        <v>249.08400000000003</v>
+        <v>400</v>
       </c>
       <c r="I22" s="41">
         <v>498.16800000000006</v>
@@ -7882,7 +7882,7 @@
         <v>1.4814750100339</v>
       </c>
       <c r="H23" s="40">
-        <v>1.2454200000000002</v>
+        <v>2.9629500200678001</v>
       </c>
       <c r="I23" s="40">
         <v>2.4908400000000004</v>
@@ -7989,7 +7989,7 @@
         <v>0.17109909395833334</v>
       </c>
       <c r="H24" s="40">
-        <v>24.9084</v>
+        <v>0.34219818791666667</v>
       </c>
       <c r="I24" s="40">
         <v>49.816800000000001</v>
@@ -8096,7 +8096,7 @@
         <v>0.60569079261249992</v>
       </c>
       <c r="H25" s="40">
-        <v>24.9084</v>
+        <v>1.2113815852249998</v>
       </c>
       <c r="I25" s="40">
         <v>49.816800000000001</v>
@@ -8203,7 +8203,7 @@
         <v>1.0676583462999998</v>
       </c>
       <c r="H26" s="40">
-        <v>62.271000000000008</v>
+        <v>2.1353166925999996</v>
       </c>
       <c r="I26" s="40">
         <v>124.54200000000002</v>
@@ -8310,7 +8310,7 @@
         <v>1.2695552771708332</v>
       </c>
       <c r="H27" s="40">
-        <v>12.4542</v>
+        <v>2.5391105543416663</v>
       </c>
       <c r="I27" s="40">
         <v>24.9084</v>
@@ -8417,7 +8417,7 @@
         <v>2.5715255799999999</v>
       </c>
       <c r="H28" s="40">
-        <v>32.131836</v>
+        <v>5.1430511599999997</v>
       </c>
       <c r="I28" s="40">
         <v>64.263672</v>
@@ -8524,7 +8524,7 @@
         <v>3.48281297065</v>
       </c>
       <c r="H29" s="40">
-        <v>12.4542</v>
+        <v>6.9656259412999999</v>
       </c>
       <c r="I29" s="40">
         <v>24.9084</v>
@@ -8631,7 +8631,7 @@
         <v>1.2377381480309999</v>
       </c>
       <c r="H30" s="40">
-        <v>1.2454200000000002</v>
+        <v>2.4754762960619998</v>
       </c>
       <c r="I30" s="40">
         <v>2.4908400000000004</v>
@@ -8738,7 +8738,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H31" s="40">
-        <v>24.9084</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I31" s="40">
         <v>49.816800000000001</v>
@@ -8845,7 +8845,7 @@
         <v>0.47666488780499994</v>
       </c>
       <c r="H32" s="40">
-        <v>24.9084</v>
+        <v>0.95332977560999987</v>
       </c>
       <c r="I32" s="40">
         <v>49.816800000000001</v>
@@ -8952,7 +8952,7 @@
         <v>1.2055891052249998</v>
       </c>
       <c r="H33" s="40">
-        <v>37.3626</v>
+        <v>2.4111782104499997</v>
       </c>
       <c r="I33" s="40">
         <v>74.725200000000001</v>
@@ -9059,7 +9059,7 @@
         <v>1.6288848355039998</v>
       </c>
       <c r="H34" s="40">
-        <v>37.3626</v>
+        <v>3.2577696710079995</v>
       </c>
       <c r="I34" s="40">
         <v>74.725200000000001</v>
@@ -9166,7 +9166,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="40">
-        <v>72.234359999999995</v>
+        <v>24</v>
       </c>
       <c r="I35" s="40">
         <v>144.46871999999999</v>
@@ -9273,7 +9273,7 @@
         <v>11.920999176088335</v>
       </c>
       <c r="H36" s="40">
-        <v>31.135500000000004</v>
+        <v>23.84199835217667</v>
       </c>
       <c r="I36" s="40">
         <v>62.271000000000008</v>
@@ -9380,7 +9380,7 @@
         <v>15.894665568117782</v>
       </c>
       <c r="H37" s="40">
-        <v>0.24908400000000003</v>
+        <v>31.789331136235564</v>
       </c>
       <c r="I37" s="40">
         <v>0.49816800000000006</v>
@@ -9487,7 +9487,7 @@
         <v>22</v>
       </c>
       <c r="H38" s="40">
-        <v>63.516419999999997</v>
+        <v>44</v>
       </c>
       <c r="I38" s="40">
         <v>127.03283999999999</v>
@@ -9594,7 +9594,7 @@
         <v>16.462332195550555</v>
       </c>
       <c r="H39" s="40">
-        <v>4.9816800000000008</v>
+        <v>32.924664391101111</v>
       </c>
       <c r="I39" s="42">
         <v>9.9633600000000015</v>
@@ -9701,7 +9701,7 @@
         <v>9.0826660389244456</v>
       </c>
       <c r="H40" s="40">
-        <v>7.4725200000000003</v>
+        <v>18.165332077848891</v>
       </c>
       <c r="I40" s="40">
         <v>14.945040000000001</v>
@@ -9808,7 +9808,7 @@
         <v>20.501143007500001</v>
       </c>
       <c r="H41" s="40">
-        <v>373.62600000000003</v>
+        <v>41.002286015000003</v>
       </c>
       <c r="I41" s="40">
         <v>747.25200000000007</v>
@@ -9915,7 +9915,7 @@
         <v>9</v>
       </c>
       <c r="H42" s="40">
-        <v>2.4908400000000004</v>
+        <v>18</v>
       </c>
       <c r="I42" s="40">
         <v>4.9816800000000008</v>
@@ -10022,7 +10022,7 @@
         <v>31.034304417380778</v>
       </c>
       <c r="H43" s="40">
-        <v>7.4725200000000003</v>
+        <v>62.068608834761555</v>
       </c>
       <c r="I43" s="40">
         <v>14.945040000000001</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D07C0D6-BC84-4C87-BAE4-B5011FF08AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6FC274-CBA1-4FB9-8FB7-95AD8483ED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7301,7 +7301,7 @@
   <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="G20" sqref="G20:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7558,10 +7558,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>0.64333259328333325</v>
+        <v>3</v>
       </c>
       <c r="H20" s="40">
-        <v>1.2866651865666665</v>
+        <v>6</v>
       </c>
       <c r="I20" s="40">
         <v>149.4504</v>
@@ -7665,10 +7665,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>1.4269664436124998</v>
+        <v>4</v>
       </c>
       <c r="H21" s="40">
-        <v>2.8539328872249996</v>
+        <v>8</v>
       </c>
       <c r="I21" s="40">
         <v>124.54200000000002</v>
@@ -7772,10 +7772,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="41">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H22" s="41">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="I22" s="41">
         <v>498.16800000000006</v>
@@ -7879,10 +7879,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="40">
-        <v>1.4814750100339</v>
+        <v>3</v>
       </c>
       <c r="H23" s="40">
-        <v>2.9629500200678001</v>
+        <v>6</v>
       </c>
       <c r="I23" s="40">
         <v>2.4908400000000004</v>
@@ -7986,10 +7986,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="40">
-        <v>0.17109909395833334</v>
+        <v>4</v>
       </c>
       <c r="H24" s="40">
-        <v>0.34219818791666667</v>
+        <v>8</v>
       </c>
       <c r="I24" s="40">
         <v>49.816800000000001</v>
@@ -8093,10 +8093,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>0.60569079261249992</v>
+        <v>4</v>
       </c>
       <c r="H25" s="40">
-        <v>1.2113815852249998</v>
+        <v>8</v>
       </c>
       <c r="I25" s="40">
         <v>49.816800000000001</v>
@@ -8200,10 +8200,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>1.0676583462999998</v>
+        <v>3</v>
       </c>
       <c r="H26" s="40">
-        <v>2.1353166925999996</v>
+        <v>6</v>
       </c>
       <c r="I26" s="40">
         <v>124.54200000000002</v>
@@ -8307,10 +8307,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="40">
-        <v>1.2695552771708332</v>
+        <v>3</v>
       </c>
       <c r="H27" s="40">
-        <v>2.5391105543416663</v>
+        <v>6</v>
       </c>
       <c r="I27" s="40">
         <v>24.9084</v>
@@ -8842,10 +8842,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="40">
-        <v>0.47666488780499994</v>
+        <v>3</v>
       </c>
       <c r="H32" s="40">
-        <v>0.95332977560999987</v>
+        <v>6</v>
       </c>
       <c r="I32" s="40">
         <v>49.816800000000001</v>
@@ -9270,10 +9270,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="40">
-        <v>11.920999176088335</v>
+        <v>10</v>
       </c>
       <c r="H36" s="40">
-        <v>23.84199835217667</v>
+        <v>20</v>
       </c>
       <c r="I36" s="40">
         <v>62.271000000000008</v>
@@ -9377,10 +9377,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="40">
-        <v>15.894665568117782</v>
+        <v>12</v>
       </c>
       <c r="H37" s="40">
-        <v>31.789331136235564</v>
+        <v>24</v>
       </c>
       <c r="I37" s="40">
         <v>0.49816800000000006</v>
@@ -9484,10 +9484,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="40">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H38" s="40">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I38" s="40">
         <v>127.03283999999999</v>
@@ -9591,10 +9591,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="40">
-        <v>16.462332195550555</v>
+        <v>14</v>
       </c>
       <c r="H39" s="40">
-        <v>32.924664391101111</v>
+        <v>28</v>
       </c>
       <c r="I39" s="42">
         <v>9.9633600000000015</v>
@@ -10019,10 +10019,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="40">
-        <v>31.034304417380778</v>
+        <v>7</v>
       </c>
       <c r="H43" s="40">
-        <v>62.068608834761555</v>
+        <v>14</v>
       </c>
       <c r="I43" s="40">
         <v>14.945040000000001</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6FC274-CBA1-4FB9-8FB7-95AD8483ED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B91730-4C60-4AAF-BFBF-BB1951914108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7301,7 +7301,7 @@
   <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H43"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7561,7 +7561,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I20" s="40">
         <v>149.4504</v>
@@ -7665,10 +7665,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I21" s="40">
         <v>124.54200000000002</v>
@@ -7879,10 +7879,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23" s="40">
         <v>2.4908400000000004</v>
@@ -7989,7 +7989,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I24" s="40">
         <v>49.816800000000001</v>
@@ -8096,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I25" s="40">
         <v>49.816800000000001</v>
@@ -8203,7 +8203,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="40">
         <v>124.54200000000002</v>
@@ -8310,7 +8310,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27" s="40">
         <v>24.9084</v>
@@ -8631,7 +8631,7 @@
         <v>1.2377381480309999</v>
       </c>
       <c r="H30" s="40">
-        <v>2.4754762960619998</v>
+        <v>6.8</v>
       </c>
       <c r="I30" s="40">
         <v>2.4908400000000004</v>

--- a/SuppXLS/Scen_InputsBiogPlant.xlsx
+++ b/SuppXLS/Scen_InputsBiogPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B91730-4C60-4AAF-BFBF-BB1951914108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75027003-EBC8-4813-9906-0F8661DD551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4281,7 +4281,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4342,6 +4342,7 @@
     <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2182">
     <cellStyle name="20 % - Akzent1 2" xfId="36" xr:uid="{49DD0F8E-2B7E-4C02-B7DD-2A9C972B592C}"/>
@@ -7300,8 +7301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7558,10 +7559,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" s="40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I20" s="40">
         <v>149.4504</v>
@@ -7665,10 +7666,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I21" s="40">
         <v>124.54200000000002</v>
@@ -7772,10 +7773,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="41">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H22" s="41">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="I22" s="41">
         <v>498.16800000000006</v>
@@ -7986,10 +7987,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I24" s="40">
         <v>49.816800000000001</v>
@@ -8093,10 +8094,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I25" s="40">
         <v>49.816800000000001</v>
@@ -8200,10 +8201,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" s="40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I26" s="40">
         <v>124.54200000000002</v>
@@ -8307,10 +8308,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I27" s="40">
         <v>24.9084</v>
@@ -8417,7 +8418,7 @@
         <v>2.5715255799999999</v>
       </c>
       <c r="H28" s="40">
-        <v>5.1430511599999997</v>
+        <v>8</v>
       </c>
       <c r="I28" s="40">
         <v>64.263672</v>
@@ -8631,7 +8632,7 @@
         <v>1.2377381480309999</v>
       </c>
       <c r="H30" s="40">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="I30" s="40">
         <v>2.4908400000000004</v>
@@ -8845,7 +8846,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I32" s="40">
         <v>49.816800000000001</v>
@@ -8952,7 +8953,7 @@
         <v>1.2055891052249998</v>
       </c>
       <c r="H33" s="40">
-        <v>2.4111782104499997</v>
+        <v>8</v>
       </c>
       <c r="I33" s="40">
         <v>74.725200000000001</v>
@@ -9059,7 +9060,7 @@
         <v>1.6288848355039998</v>
       </c>
       <c r="H34" s="40">
-        <v>3.2577696710079995</v>
+        <v>8</v>
       </c>
       <c r="I34" s="40">
         <v>74.725200000000001</v>
@@ -9166,7 +9167,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="40">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I35" s="40">
         <v>144.46871999999999</v>
@@ -9273,7 +9274,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I36" s="40">
         <v>62.271000000000008</v>
@@ -9377,10 +9378,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="40">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="H37" s="40">
-        <v>24</v>
+        <v>0.5</v>
       </c>
       <c r="I37" s="40">
         <v>0.49816800000000006</v>
@@ -9591,10 +9592,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="40">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H39" s="40">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I39" s="42">
         <v>9.9633600000000015</v>
@@ -9701,7 +9702,7 @@
         <v>9.0826660389244456</v>
       </c>
       <c r="H40" s="40">
-        <v>18.165332077848891</v>
+        <v>14.95</v>
       </c>
       <c r="I40" s="40">
         <v>14.945040000000001</v>
@@ -9912,10 +9913,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="40">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H42" s="40">
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="I42" s="40">
         <v>4.9816800000000008</v>
@@ -10134,6 +10135,10 @@
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
+    </row>
+    <row r="46" spans="2:47">
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
     </row>
     <row r="48" spans="2:47">
       <c r="B48" s="31"/>
